--- a/applications.xlsx
+++ b/applications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57419\Documents\applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7242D9-3E9A-4F75-800E-D4CAAD745B17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAF81FC-B4DB-47D5-94DE-2C88DAA534F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32160" yWindow="870" windowWidth="21600" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45795" yWindow="165" windowWidth="11730" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="1044">
   <si>
     <t>Total</t>
   </si>
@@ -3037,6 +3037,135 @@
   </si>
   <si>
     <t>52. Indotronix Avani Group</t>
+  </si>
+  <si>
+    <t>2. Onward Select</t>
+  </si>
+  <si>
+    <t>4. The Mx Group</t>
+  </si>
+  <si>
+    <t>5. Jarvis Cole</t>
+  </si>
+  <si>
+    <t>6. Royalty Advocate</t>
+  </si>
+  <si>
+    <t>7. Nesco Resource</t>
+  </si>
+  <si>
+    <t>8. Aquent</t>
+  </si>
+  <si>
+    <t>9. Midas Consulting</t>
+  </si>
+  <si>
+    <t>10. Pamelas List</t>
+  </si>
+  <si>
+    <t>11. Amherst Holdings</t>
+  </si>
+  <si>
+    <t>12. Bigfoot Biomedical</t>
+  </si>
+  <si>
+    <t>14. Nityo Infotech</t>
+  </si>
+  <si>
+    <t>15. 4 Mile Analytics</t>
+  </si>
+  <si>
+    <t>16. Robert Half</t>
+  </si>
+  <si>
+    <t>17. Get Well</t>
+  </si>
+  <si>
+    <t>21. CyberCoders</t>
+  </si>
+  <si>
+    <t>22. American Recruiting &amp; Consulting Group</t>
+  </si>
+  <si>
+    <t>23. Oracle</t>
+  </si>
+  <si>
+    <t>24. Optello</t>
+  </si>
+  <si>
+    <t>25. Optello</t>
+  </si>
+  <si>
+    <t>26. Wells Fargo</t>
+  </si>
+  <si>
+    <t>27. Agile Squad Inc</t>
+  </si>
+  <si>
+    <t>28. CyberCoders</t>
+  </si>
+  <si>
+    <t>29. StevenDouglas</t>
+  </si>
+  <si>
+    <t>30. Nueva Solutions, Inc.</t>
+  </si>
+  <si>
+    <t>31. NextPath</t>
+  </si>
+  <si>
+    <t>32. Luxoft USA Inc.</t>
+  </si>
+  <si>
+    <t>33. InterSources Inc.</t>
+  </si>
+  <si>
+    <t>34. Siaraa Technologies</t>
+  </si>
+  <si>
+    <t>35. Rehoboth Partners, LLC</t>
+  </si>
+  <si>
+    <t>36. Physician Recommended Nutriceuticals</t>
+  </si>
+  <si>
+    <t>37. Intential</t>
+  </si>
+  <si>
+    <t>38. AuthentechIT</t>
+  </si>
+  <si>
+    <t>39. Mobile Programming LLC</t>
+  </si>
+  <si>
+    <t>40. Perficient</t>
+  </si>
+  <si>
+    <t>41. Optello</t>
+  </si>
+  <si>
+    <t>42. Marketing Designs</t>
+  </si>
+  <si>
+    <t>43. Expedition Co.</t>
+  </si>
+  <si>
+    <t>44. Taskade</t>
+  </si>
+  <si>
+    <t>45. HMBradley</t>
+  </si>
+  <si>
+    <t>46. Canvendor</t>
+  </si>
+  <si>
+    <t>47. Vaco</t>
+  </si>
+  <si>
+    <t>48. Bravens Inc.</t>
+  </si>
+  <si>
+    <t>49. DealerPolicy</t>
   </si>
 </sst>
 </file>
@@ -3394,305 +3523,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK124"/>
+  <dimension ref="A1:AL124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>44540</v>
+      </c>
+      <c r="C1" s="1">
         <v>44539</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>44538</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>44537</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>44536</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>44533</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>44532</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>44531</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>44530</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>44529</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>44524</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>44523</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>44522</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>44518</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>44517</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>44516</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>44515</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>44512</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>44511</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>44510</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>44509</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>44508</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="1">
         <v>44505</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="1">
         <v>44504</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="1">
         <v>44503</v>
       </c>
-      <c r="Z1" s="5">
+      <c r="AA1" s="5">
         <v>44502</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>44501</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="1">
         <v>44498</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="1">
         <v>44497</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>44496</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AF1" s="1">
         <v>44495</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AG1" s="1">
         <v>44494</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AH1" s="1">
         <v>44489</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AI1" s="1">
         <v>44487</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AJ1" s="1">
         <v>44486</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AK1" s="1">
         <v>44421</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AL1" s="1">
         <v>44419</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <f xml:space="preserve"> COUNTA($B2:AAA100)</f>
-        <v>1088</v>
+        <f xml:space="preserve"> COUNTA(B2:AAB100)</f>
+        <v>1138</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>13</v>
@@ -3704,2440 +3840,2523 @@
         <v>13</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>616</v>
       </c>
       <c r="S3" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AA3" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3" t="s">
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="4" t="s">
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3" t="s">
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Z5" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="Z5" s="6" t="s">
+      <c r="AA5" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AG5" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3" t="s">
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3" t="s">
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AL5" s="3" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Z6" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="AA6" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AD6" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AE6" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AF6" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
-      <c r="AJ6" s="3" t="s">
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="AK6" s="3" t="s">
+      <c r="AL6" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="3"/>
+      <c r="P7" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="Z7" s="6" t="s">
+      <c r="AA7" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AD7" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AF7" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AG7" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
-      <c r="AJ7" s="3" t="s">
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="AK7" s="3" t="s">
+      <c r="AL7" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="3"/>
+      <c r="P8" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="Z8" s="6" t="s">
+      <c r="AA8" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AF8" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AG8" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
-      <c r="AJ8" s="3" t="s">
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="AK8" s="3"/>
-    </row>
-    <row r="9" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL8" s="3"/>
+    </row>
+    <row r="9" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="3"/>
+      <c r="P9" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>73</v>
       </c>
       <c r="R9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3" t="s">
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="Z9" s="6" t="s">
+      <c r="AA9" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AD9" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="AE9" s="3" t="s">
+      <c r="AF9" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="AF9" s="3" t="s">
+      <c r="AG9" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
-      <c r="AJ9" s="3" t="s">
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="AK9" s="3"/>
-    </row>
-    <row r="10" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL9" s="3"/>
+    </row>
+    <row r="10" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>1007</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="3"/>
+      <c r="P10" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3" t="s">
+      <c r="S10" s="3"/>
+      <c r="T10" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3" t="s">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="Z10" s="6" t="s">
+      <c r="AA10" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AB10" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AC10" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AD10" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AE10" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AF10" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="AF10" s="3" t="s">
+      <c r="AG10" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
-      <c r="AJ10" s="3" t="s">
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="AK10" s="3"/>
-    </row>
-    <row r="11" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AL10" s="3"/>
+    </row>
+    <row r="11" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>95</v>
       </c>
       <c r="M11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3" t="s">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="3" t="s">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="Z11" s="6" t="s">
+      <c r="AA11" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="AA11" s="3" t="s">
+      <c r="AB11" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AC11" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AD11" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AE11" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="AE11" s="3" t="s">
+      <c r="AF11" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="AF11" s="3" t="s">
+      <c r="AG11" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
-      <c r="AJ11" s="3" t="s">
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="AK11" s="3"/>
-    </row>
-    <row r="12" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL11" s="3"/>
+    </row>
+    <row r="12" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3" t="s">
+      <c r="S12" s="3"/>
+      <c r="T12" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="3" t="s">
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="Z12" s="6" t="s">
+      <c r="AA12" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="AA12" s="3" t="s">
+      <c r="AB12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="AC12" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="AC12" s="3" t="s">
+      <c r="AD12" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="AD12" s="3" t="s">
+      <c r="AE12" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="AE12" s="3" t="s">
+      <c r="AF12" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="AF12" s="3" t="s">
+      <c r="AG12" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
-      <c r="AJ12" s="3" t="s">
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="AK12" s="3"/>
-    </row>
-    <row r="13" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL12" s="3"/>
+    </row>
+    <row r="13" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>109</v>
       </c>
       <c r="L13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3" t="s">
+      <c r="S13" s="3"/>
+      <c r="T13" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-      <c r="Y13" s="3" t="s">
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="Z13" s="6" t="s">
+      <c r="AA13" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="AA13" s="3" t="s">
+      <c r="AB13" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="AB13" s="3" t="s">
+      <c r="AC13" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="AC13" s="3" t="s">
+      <c r="AD13" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="AD13" s="3" t="s">
+      <c r="AE13" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="AE13" s="3" t="s">
+      <c r="AF13" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="AF13" s="3" t="s">
+      <c r="AG13" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
-      <c r="AJ13" s="3" t="s">
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="AK13" s="3"/>
-    </row>
-    <row r="14" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL13" s="3"/>
+    </row>
+    <row r="14" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3"/>
+      <c r="T14" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="Z14" s="6" t="s">
+      <c r="AA14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AF14" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="AF14" s="3" t="s">
+      <c r="AG14" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
-      <c r="AJ14" s="3" t="s">
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="AK14" s="3"/>
-    </row>
-    <row r="15" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL14" s="3"/>
+    </row>
+    <row r="15" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>129</v>
+        <v>1011</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>132</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="3"/>
+      <c r="P15" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3" t="s">
+      <c r="S15" s="3"/>
+      <c r="T15" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="3" t="s">
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3" t="s">
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="AB15" s="3" t="s">
+      <c r="AC15" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="AC15" s="3" t="s">
+      <c r="AD15" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="AD15" s="3" t="s">
+      <c r="AE15" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="AE15" s="3" t="s">
+      <c r="AF15" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="AF15" s="3" t="s">
+      <c r="AG15" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
-      <c r="AJ15" s="3" t="s">
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="AK15" s="3"/>
-    </row>
-    <row r="16" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL15" s="3"/>
+    </row>
+    <row r="16" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3" t="s">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AA16" s="3" t="s">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AB16" s="3" t="s">
+      <c r="AC16" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="AC16" s="3" t="s">
+      <c r="AD16" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="AD16" s="3" t="s">
+      <c r="AE16" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="AE16" s="3" t="s">
+      <c r="AF16" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="AF16" s="3" t="s">
+      <c r="AG16" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
-      <c r="AJ16" s="3" t="s">
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="AK16" s="3"/>
-    </row>
-    <row r="17" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL16" s="3"/>
+    </row>
+    <row r="17" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="3"/>
+      <c r="P17" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3" t="s">
+      <c r="S17" s="3"/>
+      <c r="T17" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="3" t="s">
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="AB17" s="3" t="s">
+      <c r="AC17" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="AC17" s="3" t="s">
+      <c r="AD17" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="AD17" s="3" t="s">
+      <c r="AE17" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="AE17" s="3" t="s">
+      <c r="AF17" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="AF17" s="3" t="s">
+      <c r="AG17" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
-      <c r="AJ17" s="3" t="s">
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="AK17" s="3"/>
-    </row>
-    <row r="18" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL17" s="3"/>
+    </row>
+    <row r="18" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="3"/>
+      <c r="P18" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3" t="s">
+      <c r="S18" s="3"/>
+      <c r="T18" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="W18" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
-      <c r="AA18" s="3" t="s">
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="AB18" s="3" t="s">
+      <c r="AC18" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="AC18" s="3" t="s">
+      <c r="AD18" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="AD18" s="3" t="s">
+      <c r="AE18" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="AE18" s="3" t="s">
+      <c r="AF18" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="AF18" s="3" t="s">
+      <c r="AG18" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
-      <c r="AJ18" s="3" t="s">
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="AK18" s="3"/>
-    </row>
-    <row r="19" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL18" s="3"/>
+    </row>
+    <row r="19" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3" t="s">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-      <c r="AA19" s="4" t="s">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3" t="s">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="AD19" s="3" t="s">
+      <c r="AE19" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="AE19" s="3" t="s">
+      <c r="AF19" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
-      <c r="AJ19" s="3" t="s">
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="AK19" s="3"/>
-    </row>
-    <row r="20" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL19" s="3"/>
+    </row>
+    <row r="20" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="3"/>
+      <c r="P20" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3" t="s">
+      <c r="S20" s="3"/>
+      <c r="T20" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="W20" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AA20" s="3" t="s">
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3" t="s">
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="AD20" s="3" t="s">
+      <c r="AE20" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="AE20" s="3" t="s">
+      <c r="AF20" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
-      <c r="AJ20" s="3" t="s">
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="AK20" s="3"/>
-    </row>
-    <row r="21" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL20" s="3"/>
+    </row>
+    <row r="21" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="3"/>
+      <c r="P21" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3" t="s">
+      <c r="S21" s="3"/>
+      <c r="T21" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
-      <c r="AA21" s="3" t="s">
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3" t="s">
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="AD21" s="3" t="s">
+      <c r="AE21" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="AE21" s="3" t="s">
+      <c r="AF21" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
-      <c r="AJ21" s="3" t="s">
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="AK21" s="3"/>
-    </row>
-    <row r="22" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL21" s="3"/>
+    </row>
+    <row r="22" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3" t="s">
+      <c r="N22" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3" t="s">
+      <c r="S22" s="3"/>
+      <c r="T22" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
-      <c r="AA22" s="3" t="s">
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3" t="s">
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="AD22" s="3" t="s">
+      <c r="AE22" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="AE22" s="3" t="s">
+      <c r="AF22" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
-    </row>
-    <row r="23" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL22" s="3"/>
+    </row>
+    <row r="23" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-      <c r="S23" s="3" t="s">
+      <c r="S23" s="3"/>
+      <c r="T23" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="U23" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="V23" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
-      <c r="AA23" s="3" t="s">
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3" t="s">
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="AD23" s="3" t="s">
+      <c r="AE23" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="AE23" s="3" t="s">
+      <c r="AF23" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
-    </row>
-    <row r="24" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL23" s="3"/>
+    </row>
+    <row r="24" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="3" t="s">
+      <c r="S24" s="3"/>
+      <c r="T24" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
-      <c r="AA24" s="3" t="s">
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3" t="s">
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="AD24" s="3" t="s">
+      <c r="AE24" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="AE24" s="3" t="s">
+      <c r="AF24" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
-    </row>
-    <row r="25" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL24" s="3"/>
+    </row>
+    <row r="25" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>246</v>
       </c>
       <c r="L25" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
-      <c r="S25" s="3" t="s">
+      <c r="S25" s="3"/>
+      <c r="T25" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="U25" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
-      <c r="AA25" s="3" t="s">
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3" t="s">
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="AD25" s="3" t="s">
+      <c r="AE25" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="AE25" s="3" t="s">
+      <c r="AF25" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
-    </row>
-    <row r="26" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL25" s="3"/>
+    </row>
+    <row r="26" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="L26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
-      <c r="S26" s="3" t="s">
+      <c r="S26" s="3"/>
+      <c r="T26" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="U26" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
-      <c r="AA26" s="3" t="s">
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3" t="s">
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="AD26" s="3" t="s">
+      <c r="AE26" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="AE26" s="3" t="s">
+      <c r="AF26" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
-    </row>
-    <row r="27" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL26" s="3"/>
+    </row>
+    <row r="27" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
-      <c r="S27" s="3" t="s">
+      <c r="S27" s="3"/>
+      <c r="T27" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="U27" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
-      <c r="AA27" s="3" t="s">
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3" t="s">
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="AD27" s="3" t="s">
+      <c r="AE27" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="AE27" s="3" t="s">
+      <c r="AF27" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
-    </row>
-    <row r="28" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL27" s="3"/>
+    </row>
+    <row r="28" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
-      <c r="S28" s="3" t="s">
+      <c r="S28" s="3"/>
+      <c r="T28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="U28" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
-      <c r="AA28" s="3" t="s">
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3" t="s">
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="AD28" s="3" t="s">
+      <c r="AE28" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="AE28" s="3" t="s">
+      <c r="AF28" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
-    </row>
-    <row r="29" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL28" s="3"/>
+    </row>
+    <row r="29" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="3"/>
+      <c r="T29" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
-      <c r="AA29" s="3" t="s">
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3" t="s">
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="AD29" s="3" t="s">
+      <c r="AE29" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
-    </row>
-    <row r="30" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL29" s="3"/>
+    </row>
+    <row r="30" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -6150,63 +6369,66 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
-      <c r="AA30" s="3" t="s">
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3" t="s">
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="AD30" s="3" t="s">
+      <c r="AE30" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
-    </row>
-    <row r="31" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL30" s="3"/>
+    </row>
+    <row r="31" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -6219,63 +6441,66 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
-      <c r="AA31" s="3" t="s">
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3" t="s">
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="AD31" s="3" t="s">
+      <c r="AE31" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
-    </row>
-    <row r="32" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL31" s="3"/>
+    </row>
+    <row r="32" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -6288,63 +6513,66 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
-      <c r="AA32" s="3" t="s">
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3" t="s">
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="AD32" s="3" t="s">
+      <c r="AE32" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
-    </row>
-    <row r="33" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL32" s="3"/>
+    </row>
+    <row r="33" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -6357,63 +6585,66 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
-      <c r="AA33" s="3" t="s">
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3" t="s">
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="AD33" s="3" t="s">
+      <c r="AE33" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
-    </row>
-    <row r="34" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL33" s="3"/>
+    </row>
+    <row r="34" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -6426,63 +6657,66 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
-      <c r="AA34" s="3" t="s">
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3" t="s">
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="AD34" s="3" t="s">
+      <c r="AE34" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
-    </row>
-    <row r="35" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL34" s="3"/>
+    </row>
+    <row r="35" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -6495,63 +6729,66 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
-      <c r="AA35" s="3" t="s">
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3" t="s">
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="AD35" s="3" t="s">
+      <c r="AE35" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
-    </row>
-    <row r="36" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL35" s="3"/>
+    </row>
+    <row r="36" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -6566,59 +6803,62 @@
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
-      <c r="AC36" s="3" t="s">
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="AD36" s="3" t="s">
+      <c r="AE36" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
-    </row>
-    <row r="37" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL36" s="3"/>
+    </row>
+    <row r="37" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
@@ -6633,59 +6873,62 @@
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
-      <c r="AC37" s="3" t="s">
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="AD37" s="3" t="s">
+      <c r="AE37" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
-    </row>
-    <row r="38" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL37" s="3"/>
+    </row>
+    <row r="38" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="K38" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>391</v>
       </c>
       <c r="M38" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
@@ -6700,59 +6943,62 @@
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
-      <c r="AC38" s="3" t="s">
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="AD38" s="3" t="s">
+      <c r="AE38" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
-    </row>
-    <row r="39" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL38" s="3"/>
+    </row>
+    <row r="39" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
@@ -6767,59 +7013,62 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-      <c r="AC39" s="3" t="s">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="AD39" s="3" t="s">
+      <c r="AE39" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
-    </row>
-    <row r="40" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL39" s="3"/>
+    </row>
+    <row r="40" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
@@ -6834,59 +7083,62 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-      <c r="AC40" s="3" t="s">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="AD40" s="3" t="s">
+      <c r="AE40" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
-    </row>
-    <row r="41" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL40" s="3"/>
+    </row>
+    <row r="41" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
@@ -6901,59 +7153,62 @@
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
-      <c r="AC41" s="3" t="s">
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="AD41" s="3" t="s">
+      <c r="AE41" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
-    </row>
-    <row r="42" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL41" s="3"/>
+    </row>
+    <row r="42" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -6968,59 +7223,62 @@
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
-      <c r="AC42" s="3" t="s">
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="AD42" s="3" t="s">
+      <c r="AE42" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
-    </row>
-    <row r="43" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL42" s="3"/>
+    </row>
+    <row r="43" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
@@ -7035,59 +7293,62 @@
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
-      <c r="AC43" s="3" t="s">
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="AD43" s="3" t="s">
+      <c r="AE43" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
-    </row>
-    <row r="44" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL43" s="3"/>
+    </row>
+    <row r="44" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="L44" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="M44" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
@@ -7102,59 +7363,62 @@
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
-      <c r="AC44" s="3" t="s">
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="AD44" s="3" t="s">
+      <c r="AE44" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
-    </row>
-    <row r="45" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL44" s="3"/>
+    </row>
+    <row r="45" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="N45" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
@@ -7169,57 +7433,60 @@
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
-      <c r="AC45" s="3" t="s">
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="AD45" s="3" t="s">
+      <c r="AE45" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
-    </row>
-    <row r="46" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL45" s="3"/>
+    </row>
+    <row r="46" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="L46" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="M46" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
@@ -7234,57 +7501,60 @@
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
-      <c r="AC46" s="3" t="s">
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="AD46" s="3" t="s">
+      <c r="AE46" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3"/>
-    </row>
-    <row r="47" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL46" s="3"/>
+    </row>
+    <row r="47" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="3"/>
+      <c r="F47" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
@@ -7299,57 +7569,60 @@
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
-      <c r="AC47" s="3" t="s">
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="AD47" s="3" t="s">
+      <c r="AE47" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="AE47" s="3"/>
       <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
       <c r="AH47" s="3"/>
       <c r="AI47" s="3"/>
       <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
-    </row>
-    <row r="48" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL47" s="3"/>
+    </row>
+    <row r="48" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
@@ -7364,57 +7637,60 @@
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
-      <c r="AC48" s="3" t="s">
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="AD48" s="3" t="s">
+      <c r="AE48" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
       <c r="AH48" s="3"/>
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
-    </row>
-    <row r="49" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL48" s="3"/>
+    </row>
+    <row r="49" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>510</v>
+        <v>1042</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3" t="s">
+      <c r="D49" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
@@ -7429,57 +7705,60 @@
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
-      <c r="AC49" s="3" t="s">
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="AD49" s="4" t="s">
+      <c r="AE49" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
-    </row>
-    <row r="50" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL49" s="3"/>
+    </row>
+    <row r="50" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="L50" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="M50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="N50" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -7494,57 +7773,60 @@
       <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
-      <c r="AC50" s="3" t="s">
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="AD50" s="3" t="s">
+      <c r="AE50" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
       <c r="AH50" s="3"/>
       <c r="AI50" s="3"/>
       <c r="AJ50" s="3"/>
       <c r="AK50" s="3"/>
-    </row>
-    <row r="51" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL50" s="3"/>
+    </row>
+    <row r="51" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="3"/>
+      <c r="F51" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="L51" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="M51" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="N51" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
@@ -7559,49 +7841,50 @@
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
-      <c r="AC51" s="3" t="s">
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="AD51" s="3" t="s">
+      <c r="AE51" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
       <c r="AJ51" s="3"/>
       <c r="AK51" s="3"/>
-    </row>
-    <row r="52" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL51" s="3"/>
+    </row>
+    <row r="52" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="3"/>
+      <c r="K52" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="L52" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="M52" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="N52" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
@@ -7616,49 +7899,50 @@
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
-      <c r="AC52" s="3" t="s">
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="AD52" s="3" t="s">
+      <c r="AE52" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="AE52" s="3"/>
       <c r="AF52" s="3"/>
       <c r="AG52" s="3"/>
       <c r="AH52" s="3"/>
       <c r="AI52" s="3"/>
       <c r="AJ52" s="3"/>
       <c r="AK52" s="3"/>
-    </row>
-    <row r="53" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL52" s="3"/>
+    </row>
+    <row r="53" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="3"/>
+      <c r="K53" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="L53" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="M53" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="N53" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
@@ -7673,10 +7957,10 @@
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
-      <c r="AC53" s="3" t="s">
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
       <c r="AG53" s="3"/>
@@ -7684,34 +7968,35 @@
       <c r="AI53" s="3"/>
       <c r="AJ53" s="3"/>
       <c r="AK53" s="3"/>
-    </row>
-    <row r="54" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL53" s="3"/>
+    </row>
+    <row r="54" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="3"/>
+      <c r="F54" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="3"/>
+      <c r="K54" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="L54" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="L54" s="3" t="s">
+      <c r="M54" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="M54" s="3" t="s">
+      <c r="N54" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
@@ -7735,34 +8020,35 @@
       <c r="AI54" s="3"/>
       <c r="AJ54" s="3"/>
       <c r="AK54" s="3"/>
-    </row>
-    <row r="55" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL54" s="3"/>
+    </row>
+    <row r="55" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="3" t="s">
+      <c r="J55" s="3"/>
+      <c r="K55" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="L55" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="M55" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="N55" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
@@ -7786,32 +8072,33 @@
       <c r="AI55" s="3"/>
       <c r="AJ55" s="3"/>
       <c r="AK55" s="3"/>
-    </row>
-    <row r="56" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL55" s="3"/>
+    </row>
+    <row r="56" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="3"/>
+      <c r="F56" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="3" t="s">
+      <c r="K56" s="3"/>
+      <c r="L56" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="L56" s="3" t="s">
+      <c r="M56" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="N56" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
@@ -7835,13 +8122,14 @@
       <c r="AI56" s="3"/>
       <c r="AJ56" s="3"/>
       <c r="AK56" s="3"/>
-    </row>
-    <row r="57" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL56" s="3"/>
+    </row>
+    <row r="57" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -7849,16 +8137,16 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="3" t="s">
+      <c r="K57" s="3"/>
+      <c r="L57" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="L57" s="3" t="s">
+      <c r="M57" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="N57" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
@@ -7882,13 +8170,14 @@
       <c r="AI57" s="3"/>
       <c r="AJ57" s="3"/>
       <c r="AK57" s="3"/>
-    </row>
-    <row r="58" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL57" s="3"/>
+    </row>
+    <row r="58" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -7896,14 +8185,14 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="3"/>
+      <c r="L58" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="3"/>
+      <c r="N58" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
@@ -7927,13 +8216,14 @@
       <c r="AI58" s="3"/>
       <c r="AJ58" s="3"/>
       <c r="AK58" s="3"/>
-    </row>
-    <row r="59" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL58" s="3"/>
+    </row>
+    <row r="59" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -7941,14 +8231,14 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="3" t="s">
+      <c r="K59" s="3"/>
+      <c r="L59" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3" t="s">
+      <c r="M59" s="3"/>
+      <c r="N59" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
@@ -7972,13 +8262,14 @@
       <c r="AI59" s="3"/>
       <c r="AJ59" s="3"/>
       <c r="AK59" s="3"/>
-    </row>
-    <row r="60" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL59" s="3"/>
+    </row>
+    <row r="60" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -7986,14 +8277,14 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="3" t="s">
+      <c r="K60" s="3"/>
+      <c r="L60" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3" t="s">
+      <c r="M60" s="3"/>
+      <c r="N60" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
@@ -8017,13 +8308,14 @@
       <c r="AI60" s="3"/>
       <c r="AJ60" s="3"/>
       <c r="AK60" s="3"/>
-    </row>
-    <row r="61" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL60" s="3"/>
+    </row>
+    <row r="61" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -8031,14 +8323,14 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="3" t="s">
+      <c r="K61" s="3"/>
+      <c r="L61" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3" t="s">
+      <c r="M61" s="3"/>
+      <c r="N61" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
@@ -8062,13 +8354,14 @@
       <c r="AI61" s="3"/>
       <c r="AJ61" s="3"/>
       <c r="AK61" s="3"/>
-    </row>
-    <row r="62" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL61" s="3"/>
+    </row>
+    <row r="62" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -8076,10 +8369,10 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="3" t="s">
+      <c r="K62" s="3"/>
+      <c r="L62" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
@@ -8105,13 +8398,14 @@
       <c r="AI62" s="3"/>
       <c r="AJ62" s="3"/>
       <c r="AK62" s="3"/>
-    </row>
-    <row r="63" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL62" s="3"/>
+    </row>
+    <row r="63" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -8119,10 +8413,10 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="3" t="s">
+      <c r="K63" s="3"/>
+      <c r="L63" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -8148,13 +8442,14 @@
       <c r="AI63" s="3"/>
       <c r="AJ63" s="3"/>
       <c r="AK63" s="3"/>
-    </row>
-    <row r="64" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL63" s="3"/>
+    </row>
+    <row r="64" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -8189,8 +8484,9 @@
       <c r="AI64" s="3"/>
       <c r="AJ64" s="3"/>
       <c r="AK64" s="3"/>
-    </row>
-    <row r="65" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL64" s="3"/>
+    </row>
+    <row r="65" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -8228,8 +8524,9 @@
       <c r="AI65" s="3"/>
       <c r="AJ65" s="3"/>
       <c r="AK65" s="3"/>
-    </row>
-    <row r="66" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL65" s="3"/>
+    </row>
+    <row r="66" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -8267,8 +8564,9 @@
       <c r="AI66" s="3"/>
       <c r="AJ66" s="3"/>
       <c r="AK66" s="3"/>
-    </row>
-    <row r="67" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL66" s="3"/>
+    </row>
+    <row r="67" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -8306,8 +8604,9 @@
       <c r="AI67" s="3"/>
       <c r="AJ67" s="3"/>
       <c r="AK67" s="3"/>
-    </row>
-    <row r="68" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL67" s="3"/>
+    </row>
+    <row r="68" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -8345,8 +8644,9 @@
       <c r="AI68" s="3"/>
       <c r="AJ68" s="3"/>
       <c r="AK68" s="3"/>
-    </row>
-    <row r="69" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL68" s="3"/>
+    </row>
+    <row r="69" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -8384,8 +8684,9 @@
       <c r="AI69" s="3"/>
       <c r="AJ69" s="3"/>
       <c r="AK69" s="3"/>
-    </row>
-    <row r="70" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL69" s="3"/>
+    </row>
+    <row r="70" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -8423,8 +8724,9 @@
       <c r="AI70" s="3"/>
       <c r="AJ70" s="3"/>
       <c r="AK70" s="3"/>
-    </row>
-    <row r="71" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL70" s="3"/>
+    </row>
+    <row r="71" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -8462,8 +8764,9 @@
       <c r="AI71" s="3"/>
       <c r="AJ71" s="3"/>
       <c r="AK71" s="3"/>
-    </row>
-    <row r="72" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL71" s="3"/>
+    </row>
+    <row r="72" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -8501,8 +8804,9 @@
       <c r="AI72" s="3"/>
       <c r="AJ72" s="3"/>
       <c r="AK72" s="3"/>
-    </row>
-    <row r="73" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL72" s="3"/>
+    </row>
+    <row r="73" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -8540,8 +8844,9 @@
       <c r="AI73" s="3"/>
       <c r="AJ73" s="3"/>
       <c r="AK73" s="3"/>
-    </row>
-    <row r="74" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL73" s="3"/>
+    </row>
+    <row r="74" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -8579,8 +8884,9 @@
       <c r="AI74" s="3"/>
       <c r="AJ74" s="3"/>
       <c r="AK74" s="3"/>
-    </row>
-    <row r="75" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL74" s="3"/>
+    </row>
+    <row r="75" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -8618,8 +8924,9 @@
       <c r="AI75" s="3"/>
       <c r="AJ75" s="3"/>
       <c r="AK75" s="3"/>
-    </row>
-    <row r="76" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL75" s="3"/>
+    </row>
+    <row r="76" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -8657,8 +8964,9 @@
       <c r="AI76" s="3"/>
       <c r="AJ76" s="3"/>
       <c r="AK76" s="3"/>
-    </row>
-    <row r="77" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL76" s="3"/>
+    </row>
+    <row r="77" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -8696,8 +9004,9 @@
       <c r="AI77" s="3"/>
       <c r="AJ77" s="3"/>
       <c r="AK77" s="3"/>
-    </row>
-    <row r="78" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL77" s="3"/>
+    </row>
+    <row r="78" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -8735,8 +9044,9 @@
       <c r="AI78" s="3"/>
       <c r="AJ78" s="3"/>
       <c r="AK78" s="3"/>
-    </row>
-    <row r="79" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL78" s="3"/>
+    </row>
+    <row r="79" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -8774,8 +9084,9 @@
       <c r="AI79" s="3"/>
       <c r="AJ79" s="3"/>
       <c r="AK79" s="3"/>
-    </row>
-    <row r="80" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL79" s="3"/>
+    </row>
+    <row r="80" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -8813,8 +9124,9 @@
       <c r="AI80" s="3"/>
       <c r="AJ80" s="3"/>
       <c r="AK80" s="3"/>
-    </row>
-    <row r="81" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL80" s="3"/>
+    </row>
+    <row r="81" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -8852,8 +9164,9 @@
       <c r="AI81" s="3"/>
       <c r="AJ81" s="3"/>
       <c r="AK81" s="3"/>
-    </row>
-    <row r="82" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL81" s="3"/>
+    </row>
+    <row r="82" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -8891,8 +9204,9 @@
       <c r="AI82" s="3"/>
       <c r="AJ82" s="3"/>
       <c r="AK82" s="3"/>
-    </row>
-    <row r="83" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL82" s="3"/>
+    </row>
+    <row r="83" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -8930,8 +9244,9 @@
       <c r="AI83" s="3"/>
       <c r="AJ83" s="3"/>
       <c r="AK83" s="3"/>
-    </row>
-    <row r="84" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL83" s="3"/>
+    </row>
+    <row r="84" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -8969,8 +9284,9 @@
       <c r="AI84" s="3"/>
       <c r="AJ84" s="3"/>
       <c r="AK84" s="3"/>
-    </row>
-    <row r="85" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL84" s="3"/>
+    </row>
+    <row r="85" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -9008,8 +9324,9 @@
       <c r="AI85" s="3"/>
       <c r="AJ85" s="3"/>
       <c r="AK85" s="3"/>
-    </row>
-    <row r="86" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL85" s="3"/>
+    </row>
+    <row r="86" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -9047,8 +9364,9 @@
       <c r="AI86" s="3"/>
       <c r="AJ86" s="3"/>
       <c r="AK86" s="3"/>
-    </row>
-    <row r="87" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL86" s="3"/>
+    </row>
+    <row r="87" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -9086,8 +9404,9 @@
       <c r="AI87" s="3"/>
       <c r="AJ87" s="3"/>
       <c r="AK87" s="3"/>
-    </row>
-    <row r="88" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL87" s="3"/>
+    </row>
+    <row r="88" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -9125,8 +9444,9 @@
       <c r="AI88" s="3"/>
       <c r="AJ88" s="3"/>
       <c r="AK88" s="3"/>
-    </row>
-    <row r="89" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL88" s="3"/>
+    </row>
+    <row r="89" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -9164,8 +9484,9 @@
       <c r="AI89" s="3"/>
       <c r="AJ89" s="3"/>
       <c r="AK89" s="3"/>
-    </row>
-    <row r="90" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL89" s="3"/>
+    </row>
+    <row r="90" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -9203,8 +9524,9 @@
       <c r="AI90" s="3"/>
       <c r="AJ90" s="3"/>
       <c r="AK90" s="3"/>
-    </row>
-    <row r="91" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL90" s="3"/>
+    </row>
+    <row r="91" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -9242,8 +9564,9 @@
       <c r="AI91" s="3"/>
       <c r="AJ91" s="3"/>
       <c r="AK91" s="3"/>
-    </row>
-    <row r="92" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL91" s="3"/>
+    </row>
+    <row r="92" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -9281,9 +9604,9 @@
       <c r="AI92" s="3"/>
       <c r="AJ92" s="3"/>
       <c r="AK92" s="3"/>
-    </row>
-    <row r="93" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O93" s="3"/>
+      <c r="AL92" s="3"/>
+    </row>
+    <row r="93" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
@@ -9306,9 +9629,9 @@
       <c r="AI93" s="3"/>
       <c r="AJ93" s="3"/>
       <c r="AK93" s="3"/>
-    </row>
-    <row r="94" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O94" s="3"/>
+      <c r="AL93" s="3"/>
+    </row>
+    <row r="94" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
@@ -9331,9 +9654,9 @@
       <c r="AI94" s="3"/>
       <c r="AJ94" s="3"/>
       <c r="AK94" s="3"/>
-    </row>
-    <row r="95" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O95" s="3"/>
+      <c r="AL94" s="3"/>
+    </row>
+    <row r="95" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
@@ -9356,9 +9679,9 @@
       <c r="AI95" s="3"/>
       <c r="AJ95" s="3"/>
       <c r="AK95" s="3"/>
-    </row>
-    <row r="96" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O96" s="3"/>
+      <c r="AL95" s="3"/>
+    </row>
+    <row r="96" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
@@ -9381,9 +9704,9 @@
       <c r="AI96" s="3"/>
       <c r="AJ96" s="3"/>
       <c r="AK96" s="3"/>
-    </row>
-    <row r="97" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O97" s="3"/>
+      <c r="AL96" s="3"/>
+    </row>
+    <row r="97" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
@@ -9406,9 +9729,9 @@
       <c r="AI97" s="3"/>
       <c r="AJ97" s="3"/>
       <c r="AK97" s="3"/>
-    </row>
-    <row r="98" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O98" s="3"/>
+      <c r="AL97" s="3"/>
+    </row>
+    <row r="98" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
@@ -9431,9 +9754,9 @@
       <c r="AI98" s="3"/>
       <c r="AJ98" s="3"/>
       <c r="AK98" s="3"/>
-    </row>
-    <row r="99" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O99" s="3"/>
+      <c r="AL98" s="3"/>
+    </row>
+    <row r="99" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
@@ -9456,9 +9779,9 @@
       <c r="AI99" s="3"/>
       <c r="AJ99" s="3"/>
       <c r="AK99" s="3"/>
-    </row>
-    <row r="100" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O100" s="3"/>
+      <c r="AL99" s="3"/>
+    </row>
+    <row r="100" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
       <c r="R100" s="3"/>
@@ -9481,9 +9804,9 @@
       <c r="AI100" s="3"/>
       <c r="AJ100" s="3"/>
       <c r="AK100" s="3"/>
-    </row>
-    <row r="101" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O101" s="3"/>
+      <c r="AL100" s="3"/>
+    </row>
+    <row r="101" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
       <c r="R101" s="3"/>
@@ -9506,9 +9829,9 @@
       <c r="AI101" s="3"/>
       <c r="AJ101" s="3"/>
       <c r="AK101" s="3"/>
-    </row>
-    <row r="102" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O102" s="3"/>
+      <c r="AL101" s="3"/>
+    </row>
+    <row r="102" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
       <c r="R102" s="3"/>
@@ -9531,9 +9854,9 @@
       <c r="AI102" s="3"/>
       <c r="AJ102" s="3"/>
       <c r="AK102" s="3"/>
-    </row>
-    <row r="103" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O103" s="3"/>
+      <c r="AL102" s="3"/>
+    </row>
+    <row r="103" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
       <c r="R103" s="3"/>
@@ -9556,9 +9879,9 @@
       <c r="AI103" s="3"/>
       <c r="AJ103" s="3"/>
       <c r="AK103" s="3"/>
-    </row>
-    <row r="104" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O104" s="3"/>
+      <c r="AL103" s="3"/>
+    </row>
+    <row r="104" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
       <c r="R104" s="3"/>
@@ -9581,9 +9904,9 @@
       <c r="AI104" s="3"/>
       <c r="AJ104" s="3"/>
       <c r="AK104" s="3"/>
-    </row>
-    <row r="105" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O105" s="3"/>
+      <c r="AL104" s="3"/>
+    </row>
+    <row r="105" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
       <c r="R105" s="3"/>
@@ -9606,9 +9929,9 @@
       <c r="AI105" s="3"/>
       <c r="AJ105" s="3"/>
       <c r="AK105" s="3"/>
-    </row>
-    <row r="106" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O106" s="3"/>
+      <c r="AL105" s="3"/>
+    </row>
+    <row r="106" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
       <c r="R106" s="3"/>
@@ -9631,9 +9954,9 @@
       <c r="AI106" s="3"/>
       <c r="AJ106" s="3"/>
       <c r="AK106" s="3"/>
-    </row>
-    <row r="107" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O107" s="3"/>
+      <c r="AL106" s="3"/>
+    </row>
+    <row r="107" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
       <c r="R107" s="3"/>
@@ -9656,9 +9979,9 @@
       <c r="AI107" s="3"/>
       <c r="AJ107" s="3"/>
       <c r="AK107" s="3"/>
-    </row>
-    <row r="108" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O108" s="3"/>
+      <c r="AL107" s="3"/>
+    </row>
+    <row r="108" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="3"/>
@@ -9681,9 +10004,9 @@
       <c r="AI108" s="3"/>
       <c r="AJ108" s="3"/>
       <c r="AK108" s="3"/>
-    </row>
-    <row r="109" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O109" s="3"/>
+      <c r="AL108" s="3"/>
+    </row>
+    <row r="109" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
       <c r="R109" s="3"/>
@@ -9706,9 +10029,9 @@
       <c r="AI109" s="3"/>
       <c r="AJ109" s="3"/>
       <c r="AK109" s="3"/>
-    </row>
-    <row r="110" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O110" s="3"/>
+      <c r="AL109" s="3"/>
+    </row>
+    <row r="110" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
       <c r="R110" s="3"/>
@@ -9731,9 +10054,9 @@
       <c r="AI110" s="3"/>
       <c r="AJ110" s="3"/>
       <c r="AK110" s="3"/>
-    </row>
-    <row r="111" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O111" s="3"/>
+      <c r="AL110" s="3"/>
+    </row>
+    <row r="111" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
       <c r="R111" s="3"/>
@@ -9756,9 +10079,9 @@
       <c r="AI111" s="3"/>
       <c r="AJ111" s="3"/>
       <c r="AK111" s="3"/>
-    </row>
-    <row r="112" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O112" s="3"/>
+      <c r="AL111" s="3"/>
+    </row>
+    <row r="112" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
       <c r="R112" s="3"/>
@@ -9781,9 +10104,9 @@
       <c r="AI112" s="3"/>
       <c r="AJ112" s="3"/>
       <c r="AK112" s="3"/>
-    </row>
-    <row r="113" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O113" s="3"/>
+      <c r="AL112" s="3"/>
+    </row>
+    <row r="113" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
       <c r="R113" s="3"/>
@@ -9806,9 +10129,9 @@
       <c r="AI113" s="3"/>
       <c r="AJ113" s="3"/>
       <c r="AK113" s="3"/>
-    </row>
-    <row r="114" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O114" s="3"/>
+      <c r="AL113" s="3"/>
+    </row>
+    <row r="114" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
       <c r="R114" s="3"/>
@@ -9831,9 +10154,9 @@
       <c r="AI114" s="3"/>
       <c r="AJ114" s="3"/>
       <c r="AK114" s="3"/>
-    </row>
-    <row r="115" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O115" s="3"/>
+      <c r="AL114" s="3"/>
+    </row>
+    <row r="115" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
       <c r="R115" s="3"/>
@@ -9856,9 +10179,9 @@
       <c r="AI115" s="3"/>
       <c r="AJ115" s="3"/>
       <c r="AK115" s="3"/>
-    </row>
-    <row r="116" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O116" s="3"/>
+      <c r="AL115" s="3"/>
+    </row>
+    <row r="116" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
       <c r="R116" s="3"/>
@@ -9881,9 +10204,9 @@
       <c r="AI116" s="3"/>
       <c r="AJ116" s="3"/>
       <c r="AK116" s="3"/>
-    </row>
-    <row r="117" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O117" s="3"/>
+      <c r="AL116" s="3"/>
+    </row>
+    <row r="117" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
       <c r="R117" s="3"/>
@@ -9906,9 +10229,9 @@
       <c r="AI117" s="3"/>
       <c r="AJ117" s="3"/>
       <c r="AK117" s="3"/>
-    </row>
-    <row r="118" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O118" s="3"/>
+      <c r="AL117" s="3"/>
+    </row>
+    <row r="118" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
       <c r="R118" s="3"/>
@@ -9931,9 +10254,9 @@
       <c r="AI118" s="3"/>
       <c r="AJ118" s="3"/>
       <c r="AK118" s="3"/>
-    </row>
-    <row r="119" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O119" s="3"/>
+      <c r="AL118" s="3"/>
+    </row>
+    <row r="119" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
       <c r="R119" s="3"/>
@@ -9956,9 +10279,9 @@
       <c r="AI119" s="3"/>
       <c r="AJ119" s="3"/>
       <c r="AK119" s="3"/>
-    </row>
-    <row r="120" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O120" s="3"/>
+      <c r="AL119" s="3"/>
+    </row>
+    <row r="120" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
       <c r="R120" s="3"/>
@@ -9981,9 +10304,9 @@
       <c r="AI120" s="3"/>
       <c r="AJ120" s="3"/>
       <c r="AK120" s="3"/>
-    </row>
-    <row r="121" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O121" s="3"/>
+      <c r="AL120" s="3"/>
+    </row>
+    <row r="121" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
       <c r="R121" s="3"/>
@@ -10006,9 +10329,9 @@
       <c r="AI121" s="3"/>
       <c r="AJ121" s="3"/>
       <c r="AK121" s="3"/>
-    </row>
-    <row r="122" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O122" s="3"/>
+      <c r="AL121" s="3"/>
+    </row>
+    <row r="122" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
       <c r="R122" s="3"/>
@@ -10031,9 +10354,9 @@
       <c r="AI122" s="3"/>
       <c r="AJ122" s="3"/>
       <c r="AK122" s="3"/>
-    </row>
-    <row r="123" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O123" s="3"/>
+      <c r="AL122" s="3"/>
+    </row>
+    <row r="123" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
       <c r="R123" s="3"/>
@@ -10056,9 +10379,9 @@
       <c r="AI123" s="3"/>
       <c r="AJ123" s="3"/>
       <c r="AK123" s="3"/>
-    </row>
-    <row r="124" spans="15:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O124" s="3"/>
+      <c r="AL123" s="3"/>
+    </row>
+    <row r="124" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
       <c r="R124" s="3"/>
@@ -10081,17 +10404,18 @@
       <c r="AI124" s="3"/>
       <c r="AJ124" s="3"/>
       <c r="AK124" s="3"/>
+      <c r="AL124" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M45" r:id="rId1" display="http://galaxe.solutions/" xr:uid="{FC3574BC-D6EF-4519-A7F6-F3806DB46557}"/>
-    <hyperlink ref="J38" r:id="rId2" display="http://critically.io/" xr:uid="{58C6B818-5DAB-4298-BE6A-8DFB8F2FA3E6}"/>
-    <hyperlink ref="AH4" r:id="rId3" display="http://pendo.io/" xr:uid="{D0FB6BCD-C593-4A26-8FE6-FE61791CE669}"/>
-    <hyperlink ref="AF2" r:id="rId4" display="http://underdog.io/" xr:uid="{543C7C11-8D77-4769-955F-05FB4DC5FBB2}"/>
-    <hyperlink ref="AD49" r:id="rId5" display="http://ampcontrol.io/" xr:uid="{D63E3F1B-0340-4575-B7D7-BEF67233F5CD}"/>
-    <hyperlink ref="AA2" r:id="rId6" display="http://soffos.al/" xr:uid="{33336681-5570-4B6F-B154-1FDC1CE41B62}"/>
-    <hyperlink ref="AA19" r:id="rId7" display="http://miningstore.com/" xr:uid="{8AC48435-3FDD-44BD-BC8F-5FF8929E3F09}"/>
-    <hyperlink ref="Y5" r:id="rId8" display="http://ftsi.tech/" xr:uid="{2C18A7FB-BA19-4A58-BB3E-04631CB18EF4}"/>
+    <hyperlink ref="N45" r:id="rId1" display="http://galaxe.solutions/" xr:uid="{FC3574BC-D6EF-4519-A7F6-F3806DB46557}"/>
+    <hyperlink ref="K38" r:id="rId2" display="http://critically.io/" xr:uid="{58C6B818-5DAB-4298-BE6A-8DFB8F2FA3E6}"/>
+    <hyperlink ref="AI4" r:id="rId3" display="http://pendo.io/" xr:uid="{D0FB6BCD-C593-4A26-8FE6-FE61791CE669}"/>
+    <hyperlink ref="AG2" r:id="rId4" display="http://underdog.io/" xr:uid="{543C7C11-8D77-4769-955F-05FB4DC5FBB2}"/>
+    <hyperlink ref="AE49" r:id="rId5" display="http://ampcontrol.io/" xr:uid="{D63E3F1B-0340-4575-B7D7-BEF67233F5CD}"/>
+    <hyperlink ref="AB2" r:id="rId6" display="http://soffos.al/" xr:uid="{33336681-5570-4B6F-B154-1FDC1CE41B62}"/>
+    <hyperlink ref="AB19" r:id="rId7" display="http://miningstore.com/" xr:uid="{8AC48435-3FDD-44BD-BC8F-5FF8929E3F09}"/>
+    <hyperlink ref="Z5" r:id="rId8" display="http://ftsi.tech/" xr:uid="{2C18A7FB-BA19-4A58-BB3E-04631CB18EF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/applications.xlsx
+++ b/applications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57419\Documents\applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAF81FC-B4DB-47D5-94DE-2C88DAA534F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872C1474-0505-4A00-8B89-59BCC02468E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45795" yWindow="165" windowWidth="11730" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49080" yWindow="285" windowWidth="8010" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="1087">
   <si>
     <t>Total</t>
   </si>
@@ -3166,6 +3166,135 @@
   </si>
   <si>
     <t>49. DealerPolicy</t>
+  </si>
+  <si>
+    <t>1. Diversant, LLC</t>
+  </si>
+  <si>
+    <t>2. Ztek Consulting</t>
+  </si>
+  <si>
+    <t>3. Launching Point</t>
+  </si>
+  <si>
+    <t>4. A-Line Staffing Solutions</t>
+  </si>
+  <si>
+    <t>5. IMCS Group</t>
+  </si>
+  <si>
+    <t>6. CloserIQ</t>
+  </si>
+  <si>
+    <t>7. Purple Drive Technologies LLC</t>
+  </si>
+  <si>
+    <t>8. Webmasters4SEO</t>
+  </si>
+  <si>
+    <t>9. Rytfit</t>
+  </si>
+  <si>
+    <t>10. Remotesome</t>
+  </si>
+  <si>
+    <t>11. CrowdStrike</t>
+  </si>
+  <si>
+    <t>12. Georgia IT, Inc.</t>
+  </si>
+  <si>
+    <t>13. Tegra Design</t>
+  </si>
+  <si>
+    <t>14. Degreed</t>
+  </si>
+  <si>
+    <t>15. BigID</t>
+  </si>
+  <si>
+    <t>16. Optello</t>
+  </si>
+  <si>
+    <t>17. Club Automation</t>
+  </si>
+  <si>
+    <t>18. Optello</t>
+  </si>
+  <si>
+    <t>20. SGS Consulting</t>
+  </si>
+  <si>
+    <t>21. 24G</t>
+  </si>
+  <si>
+    <t>22. Frontend Developer</t>
+  </si>
+  <si>
+    <t>23. Eminent Software Services</t>
+  </si>
+  <si>
+    <t>24. MatchPoint Solutions</t>
+  </si>
+  <si>
+    <t>25. Spruce InfoTech, Inc</t>
+  </si>
+  <si>
+    <t>27. VBeyond Corporation</t>
+  </si>
+  <si>
+    <t>28. Nostra</t>
+  </si>
+  <si>
+    <t>29. Redan, LLC</t>
+  </si>
+  <si>
+    <t>30. ConsultAdd Inc</t>
+  </si>
+  <si>
+    <t>31. iSERVICE Auto</t>
+  </si>
+  <si>
+    <t>32. Cypress HCM</t>
+  </si>
+  <si>
+    <t>35. Bravens Inc.</t>
+  </si>
+  <si>
+    <t>36. Innovyt</t>
+  </si>
+  <si>
+    <t>37. KlickTrack</t>
+  </si>
+  <si>
+    <t>38. ExpandTheRoom</t>
+  </si>
+  <si>
+    <t>39. Redan, LLC</t>
+  </si>
+  <si>
+    <t>41. Gemini</t>
+  </si>
+  <si>
+    <t>43. PKR - Panna Knows</t>
+  </si>
+  <si>
+    <t>44. Actalent</t>
+  </si>
+  <si>
+    <t>45. CyberCoders</t>
+  </si>
+  <si>
+    <t>46. CyberCoders</t>
+  </si>
+  <si>
+    <t>47. Process Street</t>
+  </si>
+  <si>
+    <t>48. Process Street</t>
+  </si>
+  <si>
+    <t>49. CHAMPtitles</t>
   </si>
 </sst>
 </file>
@@ -3523,315 +3652,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL124"/>
+  <dimension ref="A1:AM124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>44543</v>
+      </c>
+      <c r="C1" s="1">
         <v>44540</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>44539</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>44538</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>44537</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>44536</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>44533</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>44532</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>44531</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>44530</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>44529</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>44524</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>44523</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>44522</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>44518</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>44517</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>44516</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>44515</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>44512</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>44511</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>44510</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>44509</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="1">
         <v>44508</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="1">
         <v>44505</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="1">
         <v>44504</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="1">
         <v>44503</v>
       </c>
-      <c r="AA1" s="5">
+      <c r="AB1" s="5">
         <v>44502</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="1">
         <v>44501</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="1">
         <v>44498</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>44497</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AF1" s="1">
         <v>44496</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AG1" s="1">
         <v>44495</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AH1" s="1">
         <v>44494</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AI1" s="1">
         <v>44489</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AJ1" s="1">
         <v>44487</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AK1" s="1">
         <v>44486</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AL1" s="1">
         <v>44421</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AM1" s="1">
         <v>44419</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <f xml:space="preserve"> COUNTA(B2:AAB100)</f>
-        <v>1138</v>
+        <f xml:space="preserve"> COUNTA(B2:AAC100)</f>
+        <v>1188</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>13</v>
@@ -3843,2521 +3979,2604 @@
         <v>13</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>616</v>
       </c>
       <c r="T3" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AB3" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3" t="s">
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AB4" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="4" t="s">
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AA5" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="AA5" s="6" t="s">
+      <c r="AB5" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AG5" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AH5" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3" t="s">
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3" t="s">
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AM5" s="3" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="T6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Z6" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="AA6" s="6" t="s">
+      <c r="AB6" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AD6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AE6" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AF6" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="AG6" s="3" t="s">
+      <c r="AH6" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
-      <c r="AK6" s="3" t="s">
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="AL6" s="3" t="s">
+      <c r="AM6" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="AA7" s="6" t="s">
+      <c r="AB7" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AD7" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AF7" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AG7" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AH7" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
-      <c r="AK7" s="3" t="s">
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="AL7" s="3" t="s">
+      <c r="AM7" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="AA8" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="AA8" s="6" t="s">
+      <c r="AB8" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AF8" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AG8" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="AG8" s="3" t="s">
+      <c r="AH8" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
-      <c r="AK8" s="3" t="s">
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="AL8" s="3"/>
-    </row>
-    <row r="9" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM8" s="3"/>
+    </row>
+    <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>73</v>
       </c>
       <c r="S9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3" t="s">
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="AA9" s="6" t="s">
+      <c r="AB9" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AD9" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="AE9" s="3" t="s">
+      <c r="AF9" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="AF9" s="3" t="s">
+      <c r="AG9" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="AG9" s="3" t="s">
+      <c r="AH9" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
-      <c r="AK9" s="3" t="s">
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="AL9" s="3"/>
-    </row>
-    <row r="10" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM9" s="3"/>
+    </row>
+    <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>1007</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3" t="s">
+      <c r="T10" s="3"/>
+      <c r="U10" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3" t="s">
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="AA10" s="6" t="s">
+      <c r="AB10" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AC10" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AD10" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AE10" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AF10" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="AF10" s="3" t="s">
+      <c r="AG10" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="AG10" s="3" t="s">
+      <c r="AH10" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
-      <c r="AK10" s="3" t="s">
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="AL10" s="3"/>
-    </row>
-    <row r="11" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AM10" s="3"/>
+    </row>
+    <row r="11" spans="1:39" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3" t="s">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="3" t="s">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="AA11" s="6" t="s">
+      <c r="AB11" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AC11" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AD11" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AE11" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="AE11" s="3" t="s">
+      <c r="AF11" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="AF11" s="3" t="s">
+      <c r="AG11" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="AG11" s="3" t="s">
+      <c r="AH11" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
-      <c r="AK11" s="3" t="s">
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="AL11" s="3"/>
-    </row>
-    <row r="12" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM11" s="3"/>
+    </row>
+    <row r="12" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3" t="s">
+      <c r="T12" s="3"/>
+      <c r="U12" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="3" t="s">
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="AA12" s="6" t="s">
+      <c r="AB12" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="AC12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AC12" s="3" t="s">
+      <c r="AD12" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="AD12" s="3" t="s">
+      <c r="AE12" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="AE12" s="3" t="s">
+      <c r="AF12" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="AF12" s="3" t="s">
+      <c r="AG12" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="AG12" s="3" t="s">
+      <c r="AH12" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
-      <c r="AK12" s="3" t="s">
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="AL12" s="3"/>
-    </row>
-    <row r="13" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM12" s="3"/>
+    </row>
+    <row r="13" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>109</v>
       </c>
       <c r="M13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3" t="s">
+      <c r="T13" s="3"/>
+      <c r="U13" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="3" t="s">
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="AA13" s="6" t="s">
+      <c r="AB13" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="AB13" s="3" t="s">
+      <c r="AC13" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="AC13" s="3" t="s">
+      <c r="AD13" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="AD13" s="3" t="s">
+      <c r="AE13" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="AE13" s="3" t="s">
+      <c r="AF13" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="AF13" s="3" t="s">
+      <c r="AG13" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="AG13" s="3" t="s">
+      <c r="AH13" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
-      <c r="AK13" s="3" t="s">
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="AL13" s="3"/>
-    </row>
-    <row r="14" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM13" s="3"/>
+    </row>
+    <row r="14" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3"/>
+      <c r="U14" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="3" t="s">
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="AA14" s="6" t="s">
+      <c r="AB14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AF14" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="AF14" s="3" t="s">
+      <c r="AG14" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="AG14" s="3" t="s">
+      <c r="AH14" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
-      <c r="AK14" s="3" t="s">
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="AL14" s="3"/>
-    </row>
-    <row r="15" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM14" s="3"/>
+    </row>
+    <row r="15" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>1011</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>129</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>132</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3" t="s">
+      <c r="T15" s="3"/>
+      <c r="U15" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="3" t="s">
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3" t="s">
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="AC15" s="3" t="s">
+      <c r="AD15" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="AD15" s="3" t="s">
+      <c r="AE15" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="AE15" s="3" t="s">
+      <c r="AF15" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="AF15" s="3" t="s">
+      <c r="AG15" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="AG15" s="3" t="s">
+      <c r="AH15" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
-      <c r="AK15" s="3" t="s">
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="AL15" s="3"/>
-    </row>
-    <row r="16" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM15" s="3"/>
+    </row>
+    <row r="16" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3" t="s">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="X16" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-      <c r="AB16" s="3" t="s">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AC16" s="3" t="s">
+      <c r="AD16" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="AD16" s="3" t="s">
+      <c r="AE16" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="AE16" s="3" t="s">
+      <c r="AF16" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="AF16" s="3" t="s">
+      <c r="AG16" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="AG16" s="3" t="s">
+      <c r="AH16" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
-      <c r="AK16" s="3" t="s">
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="AL16" s="3"/>
-    </row>
-    <row r="17" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM16" s="3"/>
+    </row>
+    <row r="17" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3" t="s">
+      <c r="T17" s="3"/>
+      <c r="U17" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
-      <c r="AB17" s="3" t="s">
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="AC17" s="3" t="s">
+      <c r="AD17" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="AD17" s="3" t="s">
+      <c r="AE17" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="AE17" s="3" t="s">
+      <c r="AF17" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="AF17" s="3" t="s">
+      <c r="AG17" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="AG17" s="3" t="s">
+      <c r="AH17" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
-      <c r="AK17" s="3" t="s">
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="AL17" s="3"/>
-    </row>
-    <row r="18" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM17" s="3"/>
+    </row>
+    <row r="18" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3" t="s">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3" t="s">
+      <c r="T18" s="3"/>
+      <c r="U18" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="W18" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
-      <c r="AB18" s="3" t="s">
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="AC18" s="3" t="s">
+      <c r="AD18" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="AD18" s="3" t="s">
+      <c r="AE18" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="AE18" s="3" t="s">
+      <c r="AF18" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="AF18" s="3" t="s">
+      <c r="AG18" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="AG18" s="3" t="s">
+      <c r="AH18" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
-      <c r="AK18" s="3" t="s">
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="AL18" s="3"/>
-    </row>
-    <row r="19" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM18" s="3"/>
+    </row>
+    <row r="19" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3" t="s">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-      <c r="AB19" s="4" t="s">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3" t="s">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="AE19" s="3" t="s">
+      <c r="AF19" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="AF19" s="3" t="s">
+      <c r="AG19" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
-      <c r="AK19" s="3" t="s">
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="AL19" s="3"/>
-    </row>
-    <row r="20" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM19" s="3"/>
+    </row>
+    <row r="20" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3" t="s">
+      <c r="T20" s="3"/>
+      <c r="U20" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="W20" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
-      <c r="AB20" s="3" t="s">
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3" t="s">
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="AE20" s="3" t="s">
+      <c r="AF20" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="AF20" s="3" t="s">
+      <c r="AG20" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
-      <c r="AK20" s="3" t="s">
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="AL20" s="3"/>
-    </row>
-    <row r="21" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM20" s="3"/>
+    </row>
+    <row r="21" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3" t="s">
+      <c r="T21" s="3"/>
+      <c r="U21" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
-      <c r="AB21" s="3" t="s">
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3" t="s">
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="AE21" s="3" t="s">
+      <c r="AF21" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="AF21" s="3" t="s">
+      <c r="AG21" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
-      <c r="AK21" s="3" t="s">
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="AL21" s="3"/>
-    </row>
-    <row r="22" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM21" s="3"/>
+    </row>
+    <row r="22" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3" t="s">
+      <c r="O22" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="3"/>
+      <c r="S22" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3" t="s">
+      <c r="T22" s="3"/>
+      <c r="U22" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
-      <c r="AB22" s="3" t="s">
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3" t="s">
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="AE22" s="3" t="s">
+      <c r="AF22" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="AF22" s="3" t="s">
+      <c r="AG22" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
-    </row>
-    <row r="23" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM22" s="3"/>
+    </row>
+    <row r="23" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="3" t="s">
+      <c r="T23" s="3"/>
+      <c r="U23" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="V23" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="W23" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
-      <c r="AB23" s="3" t="s">
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3" t="s">
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="AE23" s="3" t="s">
+      <c r="AF23" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="AF23" s="3" t="s">
+      <c r="AG23" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
-    </row>
-    <row r="24" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM23" s="3"/>
+    </row>
+    <row r="24" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="3" t="s">
+      <c r="T24" s="3"/>
+      <c r="U24" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="W24" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
-      <c r="AB24" s="3" t="s">
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3" t="s">
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="AE24" s="3" t="s">
+      <c r="AF24" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="AF24" s="3" t="s">
+      <c r="AG24" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
-    </row>
-    <row r="25" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM24" s="3"/>
+    </row>
+    <row r="25" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>246</v>
       </c>
       <c r="M25" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="N25" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="3" t="s">
+      <c r="T25" s="3"/>
+      <c r="U25" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="V25" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
-      <c r="AB25" s="3" t="s">
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3" t="s">
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="AE25" s="3" t="s">
+      <c r="AF25" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="AF25" s="3" t="s">
+      <c r="AG25" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
-    </row>
-    <row r="26" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM25" s="3"/>
+    </row>
+    <row r="26" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="M26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="N26" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="3" t="s">
+      <c r="T26" s="3"/>
+      <c r="U26" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="V26" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
-      <c r="AB26" s="3" t="s">
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3" t="s">
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="AE26" s="3" t="s">
+      <c r="AF26" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="AF26" s="3" t="s">
+      <c r="AG26" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
-    </row>
-    <row r="27" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM26" s="3"/>
+    </row>
+    <row r="27" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="3" t="s">
+      <c r="T27" s="3"/>
+      <c r="U27" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="V27" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
-      <c r="AB27" s="3" t="s">
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3" t="s">
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="AE27" s="3" t="s">
+      <c r="AF27" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="AF27" s="3" t="s">
+      <c r="AG27" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
-    </row>
-    <row r="28" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM27" s="3"/>
+    </row>
+    <row r="28" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="3" t="s">
+      <c r="T28" s="3"/>
+      <c r="U28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="V28" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
-      <c r="AB28" s="3" t="s">
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3" t="s">
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="AE28" s="3" t="s">
+      <c r="AF28" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="AF28" s="3" t="s">
+      <c r="AG28" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
-    </row>
-    <row r="29" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM28" s="3"/>
+    </row>
+    <row r="29" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="3" t="s">
+      <c r="T29" s="3"/>
+      <c r="U29" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
-      <c r="AB29" s="3" t="s">
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3" t="s">
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="AE29" s="3" t="s">
+      <c r="AF29" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
-    </row>
-    <row r="30" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM29" s="3"/>
+    </row>
+    <row r="30" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -6370,66 +6589,69 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
-      <c r="AB30" s="3" t="s">
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3" t="s">
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="AE30" s="3" t="s">
+      <c r="AF30" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
-    </row>
-    <row r="31" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM30" s="3"/>
+    </row>
+    <row r="31" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -6442,66 +6664,69 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
-      <c r="AB31" s="3" t="s">
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3" t="s">
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="AE31" s="3" t="s">
+      <c r="AF31" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
-    </row>
-    <row r="32" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM31" s="3"/>
+    </row>
+    <row r="32" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
@@ -6514,66 +6739,69 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
-      <c r="AB32" s="3" t="s">
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3" t="s">
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="AE32" s="3" t="s">
+      <c r="AF32" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
-    </row>
-    <row r="33" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM32" s="3"/>
+    </row>
+    <row r="33" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -6586,66 +6814,69 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
-      <c r="AB33" s="3" t="s">
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3" t="s">
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="AE33" s="3" t="s">
+      <c r="AF33" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
-    </row>
-    <row r="34" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM33" s="3"/>
+    </row>
+    <row r="34" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -6658,66 +6889,69 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
-      <c r="AB34" s="3" t="s">
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3" t="s">
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="AE34" s="3" t="s">
+      <c r="AF34" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
-    </row>
-    <row r="35" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM34" s="3"/>
+    </row>
+    <row r="35" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
@@ -6730,66 +6964,69 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
-      <c r="AB35" s="3" t="s">
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3" t="s">
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="AE35" s="3" t="s">
+      <c r="AF35" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
-    </row>
-    <row r="36" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM35" s="3"/>
+    </row>
+    <row r="36" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -6804,62 +7041,65 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
-      <c r="AD36" s="3" t="s">
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="AE36" s="3" t="s">
+      <c r="AF36" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
-    </row>
-    <row r="37" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM36" s="3"/>
+    </row>
+    <row r="37" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
@@ -6874,62 +7114,65 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
-      <c r="AD37" s="3" t="s">
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="AE37" s="3" t="s">
+      <c r="AF37" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
-    </row>
-    <row r="38" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM37" s="3"/>
+    </row>
+    <row r="38" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="L38" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>391</v>
       </c>
       <c r="N38" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="O38" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
@@ -6944,62 +7187,65 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
-      <c r="AD38" s="3" t="s">
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="AE38" s="3" t="s">
+      <c r="AF38" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
-    </row>
-    <row r="39" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM38" s="3"/>
+    </row>
+    <row r="39" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
@@ -7014,62 +7260,65 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-      <c r="AD39" s="3" t="s">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="AE39" s="3" t="s">
+      <c r="AF39" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
-    </row>
-    <row r="40" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM39" s="3"/>
+    </row>
+    <row r="40" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="O40" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
@@ -7084,62 +7333,65 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-      <c r="AD40" s="3" t="s">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="AE40" s="3" t="s">
+      <c r="AF40" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
-    </row>
-    <row r="41" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM40" s="3"/>
+    </row>
+    <row r="41" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="O41" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
@@ -7154,62 +7406,65 @@
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
-      <c r="AD41" s="3" t="s">
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="AE41" s="3" t="s">
+      <c r="AF41" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
-    </row>
-    <row r="42" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM41" s="3"/>
+    </row>
+    <row r="42" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
@@ -7224,62 +7479,65 @@
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
-      <c r="AD42" s="3" t="s">
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="AE42" s="3" t="s">
+      <c r="AF42" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
-    </row>
-    <row r="43" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM42" s="3"/>
+    </row>
+    <row r="43" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="O43" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
@@ -7294,62 +7552,65 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
-      <c r="AD43" s="3" t="s">
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="AE43" s="3" t="s">
+      <c r="AF43" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
-    </row>
-    <row r="44" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM43" s="3"/>
+    </row>
+    <row r="44" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="L44" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="M44" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="O44" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
@@ -7364,62 +7625,65 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
-      <c r="AD44" s="3" t="s">
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="AE44" s="3" t="s">
+      <c r="AF44" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
-    </row>
-    <row r="45" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM44" s="3"/>
+    </row>
+    <row r="45" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="O45" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
@@ -7434,60 +7698,63 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
-      <c r="AD45" s="3" t="s">
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="AE45" s="3" t="s">
+      <c r="AF45" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
-    </row>
-    <row r="46" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM45" s="3"/>
+    </row>
+    <row r="46" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="3"/>
+      <c r="G46" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="L46" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="M46" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="O46" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
@@ -7502,60 +7769,63 @@
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
-      <c r="AD46" s="3" t="s">
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="AE46" s="3" t="s">
+      <c r="AF46" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3"/>
       <c r="AL46" s="3"/>
-    </row>
-    <row r="47" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM46" s="3"/>
+    </row>
+    <row r="47" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="3"/>
+      <c r="G47" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
@@ -7570,60 +7840,63 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
-      <c r="AD47" s="3" t="s">
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="AE47" s="3" t="s">
+      <c r="AF47" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
       <c r="AH47" s="3"/>
       <c r="AI47" s="3"/>
       <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
-    </row>
-    <row r="48" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM47" s="3"/>
+    </row>
+    <row r="48" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="3"/>
+      <c r="G48" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="O48" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
@@ -7638,60 +7911,63 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
-      <c r="AD48" s="3" t="s">
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="AE48" s="3" t="s">
+      <c r="AF48" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
       <c r="AH48" s="3"/>
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
-    </row>
-    <row r="49" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM48" s="3"/>
+    </row>
+    <row r="49" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>1042</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>510</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
+      <c r="E49" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="O49" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
@@ -7706,60 +7982,63 @@
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
-      <c r="AD49" s="3" t="s">
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="AE49" s="4" t="s">
+      <c r="AF49" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
-    </row>
-    <row r="50" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM49" s="3"/>
+    </row>
+    <row r="50" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="L50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="M50" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="N50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="O50" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -7774,60 +8053,63 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
-      <c r="AD50" s="3" t="s">
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="AE50" s="3" t="s">
+      <c r="AF50" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
       <c r="AH50" s="3"/>
       <c r="AI50" s="3"/>
       <c r="AJ50" s="3"/>
       <c r="AK50" s="3"/>
       <c r="AL50" s="3"/>
-    </row>
-    <row r="51" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM50" s="3"/>
+    </row>
+    <row r="51" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="3"/>
+      <c r="G51" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="L51" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="M51" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="N51" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="N51" s="3" t="s">
+      <c r="O51" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
@@ -7842,50 +8124,51 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
-      <c r="AD51" s="3" t="s">
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="AE51" s="3" t="s">
+      <c r="AF51" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
       <c r="AJ51" s="3"/>
       <c r="AK51" s="3"/>
       <c r="AL51" s="3"/>
-    </row>
-    <row r="52" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM51" s="3"/>
+    </row>
+    <row r="52" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="3"/>
+      <c r="G52" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="3"/>
+      <c r="L52" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="M52" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="N52" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="N52" s="3" t="s">
+      <c r="O52" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
@@ -7900,50 +8183,51 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
-      <c r="AD52" s="3" t="s">
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="AE52" s="3" t="s">
+      <c r="AF52" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="AF52" s="3"/>
       <c r="AG52" s="3"/>
       <c r="AH52" s="3"/>
       <c r="AI52" s="3"/>
       <c r="AJ52" s="3"/>
       <c r="AK52" s="3"/>
       <c r="AL52" s="3"/>
-    </row>
-    <row r="53" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM52" s="3"/>
+    </row>
+    <row r="53" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="3"/>
+      <c r="G53" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="3"/>
+      <c r="L53" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="M53" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="N53" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="N53" s="3" t="s">
+      <c r="O53" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
@@ -7958,10 +8242,10 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
-      <c r="AD53" s="3" t="s">
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
       <c r="AG53" s="3"/>
       <c r="AH53" s="3"/>
@@ -7969,35 +8253,36 @@
       <c r="AJ53" s="3"/>
       <c r="AK53" s="3"/>
       <c r="AL53" s="3"/>
-    </row>
-    <row r="54" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM53" s="3"/>
+    </row>
+    <row r="54" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="3"/>
+      <c r="G54" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="3" t="s">
+      <c r="K54" s="3"/>
+      <c r="L54" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="L54" s="3" t="s">
+      <c r="M54" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="M54" s="3" t="s">
+      <c r="N54" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="O54" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
@@ -8021,35 +8306,36 @@
       <c r="AJ54" s="3"/>
       <c r="AK54" s="3"/>
       <c r="AL54" s="3"/>
-    </row>
-    <row r="55" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM54" s="3"/>
+    </row>
+    <row r="55" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="3"/>
+      <c r="G55" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="3" t="s">
+      <c r="K55" s="3"/>
+      <c r="L55" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="M55" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="N55" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="N55" s="3" t="s">
+      <c r="O55" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
@@ -8073,33 +8359,34 @@
       <c r="AJ55" s="3"/>
       <c r="AK55" s="3"/>
       <c r="AL55" s="3"/>
-    </row>
-    <row r="56" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM55" s="3"/>
+    </row>
+    <row r="56" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="3"/>
+      <c r="G56" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="3" t="s">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="N56" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="N56" s="3" t="s">
+      <c r="O56" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
@@ -8123,14 +8410,15 @@
       <c r="AJ56" s="3"/>
       <c r="AK56" s="3"/>
       <c r="AL56" s="3"/>
-    </row>
-    <row r="57" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM56" s="3"/>
+    </row>
+    <row r="57" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -8138,16 +8426,16 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="3" t="s">
+      <c r="L57" s="3"/>
+      <c r="M57" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="N57" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="N57" s="3" t="s">
+      <c r="O57" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
@@ -8171,14 +8459,15 @@
       <c r="AJ57" s="3"/>
       <c r="AK57" s="3"/>
       <c r="AL57" s="3"/>
-    </row>
-    <row r="58" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM57" s="3"/>
+    </row>
+    <row r="58" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -8186,14 +8475,14 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="3"/>
+      <c r="M58" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="3"/>
+      <c r="O58" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
@@ -8217,14 +8506,15 @@
       <c r="AJ58" s="3"/>
       <c r="AK58" s="3"/>
       <c r="AL58" s="3"/>
-    </row>
-    <row r="59" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM58" s="3"/>
+    </row>
+    <row r="59" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -8232,14 +8522,14 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="3" t="s">
+      <c r="L59" s="3"/>
+      <c r="M59" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3" t="s">
+      <c r="N59" s="3"/>
+      <c r="O59" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
@@ -8263,14 +8553,15 @@
       <c r="AJ59" s="3"/>
       <c r="AK59" s="3"/>
       <c r="AL59" s="3"/>
-    </row>
-    <row r="60" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM59" s="3"/>
+    </row>
+    <row r="60" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -8278,14 +8569,14 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="3" t="s">
+      <c r="L60" s="3"/>
+      <c r="M60" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3" t="s">
+      <c r="N60" s="3"/>
+      <c r="O60" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
@@ -8309,14 +8600,15 @@
       <c r="AJ60" s="3"/>
       <c r="AK60" s="3"/>
       <c r="AL60" s="3"/>
-    </row>
-    <row r="61" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM60" s="3"/>
+    </row>
+    <row r="61" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -8324,14 +8616,14 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="3" t="s">
+      <c r="L61" s="3"/>
+      <c r="M61" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3" t="s">
+      <c r="N61" s="3"/>
+      <c r="O61" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
@@ -8355,14 +8647,15 @@
       <c r="AJ61" s="3"/>
       <c r="AK61" s="3"/>
       <c r="AL61" s="3"/>
-    </row>
-    <row r="62" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM61" s="3"/>
+    </row>
+    <row r="62" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -8370,10 +8663,10 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="3" t="s">
+      <c r="L62" s="3"/>
+      <c r="M62" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
@@ -8399,14 +8692,15 @@
       <c r="AJ62" s="3"/>
       <c r="AK62" s="3"/>
       <c r="AL62" s="3"/>
-    </row>
-    <row r="63" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM62" s="3"/>
+    </row>
+    <row r="63" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="3"/>
+      <c r="D63" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -8414,10 +8708,10 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="3" t="s">
+      <c r="L63" s="3"/>
+      <c r="M63" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
@@ -8443,14 +8737,15 @@
       <c r="AJ63" s="3"/>
       <c r="AK63" s="3"/>
       <c r="AL63" s="3"/>
-    </row>
-    <row r="64" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM63" s="3"/>
+    </row>
+    <row r="64" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -8485,8 +8780,9 @@
       <c r="AJ64" s="3"/>
       <c r="AK64" s="3"/>
       <c r="AL64" s="3"/>
-    </row>
-    <row r="65" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM64" s="3"/>
+    </row>
+    <row r="65" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -8525,8 +8821,9 @@
       <c r="AJ65" s="3"/>
       <c r="AK65" s="3"/>
       <c r="AL65" s="3"/>
-    </row>
-    <row r="66" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM65" s="3"/>
+    </row>
+    <row r="66" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -8565,8 +8862,9 @@
       <c r="AJ66" s="3"/>
       <c r="AK66" s="3"/>
       <c r="AL66" s="3"/>
-    </row>
-    <row r="67" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM66" s="3"/>
+    </row>
+    <row r="67" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -8605,8 +8903,9 @@
       <c r="AJ67" s="3"/>
       <c r="AK67" s="3"/>
       <c r="AL67" s="3"/>
-    </row>
-    <row r="68" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM67" s="3"/>
+    </row>
+    <row r="68" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -8645,8 +8944,9 @@
       <c r="AJ68" s="3"/>
       <c r="AK68" s="3"/>
       <c r="AL68" s="3"/>
-    </row>
-    <row r="69" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM68" s="3"/>
+    </row>
+    <row r="69" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -8685,8 +8985,9 @@
       <c r="AJ69" s="3"/>
       <c r="AK69" s="3"/>
       <c r="AL69" s="3"/>
-    </row>
-    <row r="70" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM69" s="3"/>
+    </row>
+    <row r="70" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -8725,8 +9026,9 @@
       <c r="AJ70" s="3"/>
       <c r="AK70" s="3"/>
       <c r="AL70" s="3"/>
-    </row>
-    <row r="71" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM70" s="3"/>
+    </row>
+    <row r="71" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -8765,8 +9067,9 @@
       <c r="AJ71" s="3"/>
       <c r="AK71" s="3"/>
       <c r="AL71" s="3"/>
-    </row>
-    <row r="72" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM71" s="3"/>
+    </row>
+    <row r="72" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -8805,8 +9108,9 @@
       <c r="AJ72" s="3"/>
       <c r="AK72" s="3"/>
       <c r="AL72" s="3"/>
-    </row>
-    <row r="73" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM72" s="3"/>
+    </row>
+    <row r="73" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -8845,8 +9149,9 @@
       <c r="AJ73" s="3"/>
       <c r="AK73" s="3"/>
       <c r="AL73" s="3"/>
-    </row>
-    <row r="74" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM73" s="3"/>
+    </row>
+    <row r="74" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -8885,8 +9190,9 @@
       <c r="AJ74" s="3"/>
       <c r="AK74" s="3"/>
       <c r="AL74" s="3"/>
-    </row>
-    <row r="75" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM74" s="3"/>
+    </row>
+    <row r="75" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -8925,8 +9231,9 @@
       <c r="AJ75" s="3"/>
       <c r="AK75" s="3"/>
       <c r="AL75" s="3"/>
-    </row>
-    <row r="76" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM75" s="3"/>
+    </row>
+    <row r="76" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -8965,8 +9272,9 @@
       <c r="AJ76" s="3"/>
       <c r="AK76" s="3"/>
       <c r="AL76" s="3"/>
-    </row>
-    <row r="77" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM76" s="3"/>
+    </row>
+    <row r="77" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -9005,8 +9313,9 @@
       <c r="AJ77" s="3"/>
       <c r="AK77" s="3"/>
       <c r="AL77" s="3"/>
-    </row>
-    <row r="78" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM77" s="3"/>
+    </row>
+    <row r="78" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -9045,8 +9354,9 @@
       <c r="AJ78" s="3"/>
       <c r="AK78" s="3"/>
       <c r="AL78" s="3"/>
-    </row>
-    <row r="79" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM78" s="3"/>
+    </row>
+    <row r="79" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -9085,8 +9395,9 @@
       <c r="AJ79" s="3"/>
       <c r="AK79" s="3"/>
       <c r="AL79" s="3"/>
-    </row>
-    <row r="80" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM79" s="3"/>
+    </row>
+    <row r="80" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -9125,8 +9436,9 @@
       <c r="AJ80" s="3"/>
       <c r="AK80" s="3"/>
       <c r="AL80" s="3"/>
-    </row>
-    <row r="81" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM80" s="3"/>
+    </row>
+    <row r="81" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -9165,8 +9477,9 @@
       <c r="AJ81" s="3"/>
       <c r="AK81" s="3"/>
       <c r="AL81" s="3"/>
-    </row>
-    <row r="82" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM81" s="3"/>
+    </row>
+    <row r="82" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -9205,8 +9518,9 @@
       <c r="AJ82" s="3"/>
       <c r="AK82" s="3"/>
       <c r="AL82" s="3"/>
-    </row>
-    <row r="83" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM82" s="3"/>
+    </row>
+    <row r="83" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -9245,8 +9559,9 @@
       <c r="AJ83" s="3"/>
       <c r="AK83" s="3"/>
       <c r="AL83" s="3"/>
-    </row>
-    <row r="84" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM83" s="3"/>
+    </row>
+    <row r="84" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -9285,8 +9600,9 @@
       <c r="AJ84" s="3"/>
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
-    </row>
-    <row r="85" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM84" s="3"/>
+    </row>
+    <row r="85" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -9325,8 +9641,9 @@
       <c r="AJ85" s="3"/>
       <c r="AK85" s="3"/>
       <c r="AL85" s="3"/>
-    </row>
-    <row r="86" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM85" s="3"/>
+    </row>
+    <row r="86" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -9365,8 +9682,9 @@
       <c r="AJ86" s="3"/>
       <c r="AK86" s="3"/>
       <c r="AL86" s="3"/>
-    </row>
-    <row r="87" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM86" s="3"/>
+    </row>
+    <row r="87" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -9405,8 +9723,9 @@
       <c r="AJ87" s="3"/>
       <c r="AK87" s="3"/>
       <c r="AL87" s="3"/>
-    </row>
-    <row r="88" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM87" s="3"/>
+    </row>
+    <row r="88" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -9445,8 +9764,9 @@
       <c r="AJ88" s="3"/>
       <c r="AK88" s="3"/>
       <c r="AL88" s="3"/>
-    </row>
-    <row r="89" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM88" s="3"/>
+    </row>
+    <row r="89" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -9485,8 +9805,9 @@
       <c r="AJ89" s="3"/>
       <c r="AK89" s="3"/>
       <c r="AL89" s="3"/>
-    </row>
-    <row r="90" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM89" s="3"/>
+    </row>
+    <row r="90" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -9525,8 +9846,9 @@
       <c r="AJ90" s="3"/>
       <c r="AK90" s="3"/>
       <c r="AL90" s="3"/>
-    </row>
-    <row r="91" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM90" s="3"/>
+    </row>
+    <row r="91" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -9565,8 +9887,9 @@
       <c r="AJ91" s="3"/>
       <c r="AK91" s="3"/>
       <c r="AL91" s="3"/>
-    </row>
-    <row r="92" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM91" s="3"/>
+    </row>
+    <row r="92" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -9605,9 +9928,9 @@
       <c r="AJ92" s="3"/>
       <c r="AK92" s="3"/>
       <c r="AL92" s="3"/>
-    </row>
-    <row r="93" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P93" s="3"/>
+      <c r="AM92" s="3"/>
+    </row>
+    <row r="93" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
@@ -9630,9 +9953,9 @@
       <c r="AJ93" s="3"/>
       <c r="AK93" s="3"/>
       <c r="AL93" s="3"/>
-    </row>
-    <row r="94" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P94" s="3"/>
+      <c r="AM93" s="3"/>
+    </row>
+    <row r="94" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
       <c r="S94" s="3"/>
@@ -9655,9 +9978,9 @@
       <c r="AJ94" s="3"/>
       <c r="AK94" s="3"/>
       <c r="AL94" s="3"/>
-    </row>
-    <row r="95" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P95" s="3"/>
+      <c r="AM94" s="3"/>
+    </row>
+    <row r="95" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
@@ -9680,9 +10003,9 @@
       <c r="AJ95" s="3"/>
       <c r="AK95" s="3"/>
       <c r="AL95" s="3"/>
-    </row>
-    <row r="96" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P96" s="3"/>
+      <c r="AM95" s="3"/>
+    </row>
+    <row r="96" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
       <c r="S96" s="3"/>
@@ -9705,9 +10028,9 @@
       <c r="AJ96" s="3"/>
       <c r="AK96" s="3"/>
       <c r="AL96" s="3"/>
-    </row>
-    <row r="97" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P97" s="3"/>
+      <c r="AM96" s="3"/>
+    </row>
+    <row r="97" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
@@ -9730,9 +10053,9 @@
       <c r="AJ97" s="3"/>
       <c r="AK97" s="3"/>
       <c r="AL97" s="3"/>
-    </row>
-    <row r="98" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P98" s="3"/>
+      <c r="AM97" s="3"/>
+    </row>
+    <row r="98" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
       <c r="S98" s="3"/>
@@ -9755,9 +10078,9 @@
       <c r="AJ98" s="3"/>
       <c r="AK98" s="3"/>
       <c r="AL98" s="3"/>
-    </row>
-    <row r="99" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P99" s="3"/>
+      <c r="AM98" s="3"/>
+    </row>
+    <row r="99" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
       <c r="S99" s="3"/>
@@ -9780,9 +10103,9 @@
       <c r="AJ99" s="3"/>
       <c r="AK99" s="3"/>
       <c r="AL99" s="3"/>
-    </row>
-    <row r="100" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P100" s="3"/>
+      <c r="AM99" s="3"/>
+    </row>
+    <row r="100" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q100" s="3"/>
       <c r="R100" s="3"/>
       <c r="S100" s="3"/>
@@ -9805,9 +10128,9 @@
       <c r="AJ100" s="3"/>
       <c r="AK100" s="3"/>
       <c r="AL100" s="3"/>
-    </row>
-    <row r="101" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P101" s="3"/>
+      <c r="AM100" s="3"/>
+    </row>
+    <row r="101" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q101" s="3"/>
       <c r="R101" s="3"/>
       <c r="S101" s="3"/>
@@ -9830,9 +10153,9 @@
       <c r="AJ101" s="3"/>
       <c r="AK101" s="3"/>
       <c r="AL101" s="3"/>
-    </row>
-    <row r="102" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P102" s="3"/>
+      <c r="AM101" s="3"/>
+    </row>
+    <row r="102" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q102" s="3"/>
       <c r="R102" s="3"/>
       <c r="S102" s="3"/>
@@ -9855,9 +10178,9 @@
       <c r="AJ102" s="3"/>
       <c r="AK102" s="3"/>
       <c r="AL102" s="3"/>
-    </row>
-    <row r="103" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P103" s="3"/>
+      <c r="AM102" s="3"/>
+    </row>
+    <row r="103" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q103" s="3"/>
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
@@ -9880,9 +10203,9 @@
       <c r="AJ103" s="3"/>
       <c r="AK103" s="3"/>
       <c r="AL103" s="3"/>
-    </row>
-    <row r="104" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P104" s="3"/>
+      <c r="AM103" s="3"/>
+    </row>
+    <row r="104" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q104" s="3"/>
       <c r="R104" s="3"/>
       <c r="S104" s="3"/>
@@ -9905,9 +10228,9 @@
       <c r="AJ104" s="3"/>
       <c r="AK104" s="3"/>
       <c r="AL104" s="3"/>
-    </row>
-    <row r="105" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P105" s="3"/>
+      <c r="AM104" s="3"/>
+    </row>
+    <row r="105" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q105" s="3"/>
       <c r="R105" s="3"/>
       <c r="S105" s="3"/>
@@ -9930,9 +10253,9 @@
       <c r="AJ105" s="3"/>
       <c r="AK105" s="3"/>
       <c r="AL105" s="3"/>
-    </row>
-    <row r="106" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P106" s="3"/>
+      <c r="AM105" s="3"/>
+    </row>
+    <row r="106" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q106" s="3"/>
       <c r="R106" s="3"/>
       <c r="S106" s="3"/>
@@ -9955,9 +10278,9 @@
       <c r="AJ106" s="3"/>
       <c r="AK106" s="3"/>
       <c r="AL106" s="3"/>
-    </row>
-    <row r="107" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P107" s="3"/>
+      <c r="AM106" s="3"/>
+    </row>
+    <row r="107" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q107" s="3"/>
       <c r="R107" s="3"/>
       <c r="S107" s="3"/>
@@ -9980,9 +10303,9 @@
       <c r="AJ107" s="3"/>
       <c r="AK107" s="3"/>
       <c r="AL107" s="3"/>
-    </row>
-    <row r="108" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P108" s="3"/>
+      <c r="AM107" s="3"/>
+    </row>
+    <row r="108" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q108" s="3"/>
       <c r="R108" s="3"/>
       <c r="S108" s="3"/>
@@ -10005,9 +10328,9 @@
       <c r="AJ108" s="3"/>
       <c r="AK108" s="3"/>
       <c r="AL108" s="3"/>
-    </row>
-    <row r="109" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P109" s="3"/>
+      <c r="AM108" s="3"/>
+    </row>
+    <row r="109" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q109" s="3"/>
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
@@ -10030,9 +10353,9 @@
       <c r="AJ109" s="3"/>
       <c r="AK109" s="3"/>
       <c r="AL109" s="3"/>
-    </row>
-    <row r="110" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P110" s="3"/>
+      <c r="AM109" s="3"/>
+    </row>
+    <row r="110" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q110" s="3"/>
       <c r="R110" s="3"/>
       <c r="S110" s="3"/>
@@ -10055,9 +10378,9 @@
       <c r="AJ110" s="3"/>
       <c r="AK110" s="3"/>
       <c r="AL110" s="3"/>
-    </row>
-    <row r="111" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P111" s="3"/>
+      <c r="AM110" s="3"/>
+    </row>
+    <row r="111" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q111" s="3"/>
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
@@ -10080,9 +10403,9 @@
       <c r="AJ111" s="3"/>
       <c r="AK111" s="3"/>
       <c r="AL111" s="3"/>
-    </row>
-    <row r="112" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P112" s="3"/>
+      <c r="AM111" s="3"/>
+    </row>
+    <row r="112" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q112" s="3"/>
       <c r="R112" s="3"/>
       <c r="S112" s="3"/>
@@ -10105,9 +10428,9 @@
       <c r="AJ112" s="3"/>
       <c r="AK112" s="3"/>
       <c r="AL112" s="3"/>
-    </row>
-    <row r="113" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P113" s="3"/>
+      <c r="AM112" s="3"/>
+    </row>
+    <row r="113" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q113" s="3"/>
       <c r="R113" s="3"/>
       <c r="S113" s="3"/>
@@ -10130,9 +10453,9 @@
       <c r="AJ113" s="3"/>
       <c r="AK113" s="3"/>
       <c r="AL113" s="3"/>
-    </row>
-    <row r="114" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P114" s="3"/>
+      <c r="AM113" s="3"/>
+    </row>
+    <row r="114" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q114" s="3"/>
       <c r="R114" s="3"/>
       <c r="S114" s="3"/>
@@ -10155,9 +10478,9 @@
       <c r="AJ114" s="3"/>
       <c r="AK114" s="3"/>
       <c r="AL114" s="3"/>
-    </row>
-    <row r="115" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P115" s="3"/>
+      <c r="AM114" s="3"/>
+    </row>
+    <row r="115" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q115" s="3"/>
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
@@ -10180,9 +10503,9 @@
       <c r="AJ115" s="3"/>
       <c r="AK115" s="3"/>
       <c r="AL115" s="3"/>
-    </row>
-    <row r="116" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P116" s="3"/>
+      <c r="AM115" s="3"/>
+    </row>
+    <row r="116" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q116" s="3"/>
       <c r="R116" s="3"/>
       <c r="S116" s="3"/>
@@ -10205,9 +10528,9 @@
       <c r="AJ116" s="3"/>
       <c r="AK116" s="3"/>
       <c r="AL116" s="3"/>
-    </row>
-    <row r="117" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P117" s="3"/>
+      <c r="AM116" s="3"/>
+    </row>
+    <row r="117" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q117" s="3"/>
       <c r="R117" s="3"/>
       <c r="S117" s="3"/>
@@ -10230,9 +10553,9 @@
       <c r="AJ117" s="3"/>
       <c r="AK117" s="3"/>
       <c r="AL117" s="3"/>
-    </row>
-    <row r="118" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P118" s="3"/>
+      <c r="AM117" s="3"/>
+    </row>
+    <row r="118" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q118" s="3"/>
       <c r="R118" s="3"/>
       <c r="S118" s="3"/>
@@ -10255,9 +10578,9 @@
       <c r="AJ118" s="3"/>
       <c r="AK118" s="3"/>
       <c r="AL118" s="3"/>
-    </row>
-    <row r="119" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P119" s="3"/>
+      <c r="AM118" s="3"/>
+    </row>
+    <row r="119" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q119" s="3"/>
       <c r="R119" s="3"/>
       <c r="S119" s="3"/>
@@ -10280,9 +10603,9 @@
       <c r="AJ119" s="3"/>
       <c r="AK119" s="3"/>
       <c r="AL119" s="3"/>
-    </row>
-    <row r="120" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P120" s="3"/>
+      <c r="AM119" s="3"/>
+    </row>
+    <row r="120" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q120" s="3"/>
       <c r="R120" s="3"/>
       <c r="S120" s="3"/>
@@ -10305,9 +10628,9 @@
       <c r="AJ120" s="3"/>
       <c r="AK120" s="3"/>
       <c r="AL120" s="3"/>
-    </row>
-    <row r="121" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P121" s="3"/>
+      <c r="AM120" s="3"/>
+    </row>
+    <row r="121" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q121" s="3"/>
       <c r="R121" s="3"/>
       <c r="S121" s="3"/>
@@ -10330,9 +10653,9 @@
       <c r="AJ121" s="3"/>
       <c r="AK121" s="3"/>
       <c r="AL121" s="3"/>
-    </row>
-    <row r="122" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P122" s="3"/>
+      <c r="AM121" s="3"/>
+    </row>
+    <row r="122" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q122" s="3"/>
       <c r="R122" s="3"/>
       <c r="S122" s="3"/>
@@ -10355,9 +10678,9 @@
       <c r="AJ122" s="3"/>
       <c r="AK122" s="3"/>
       <c r="AL122" s="3"/>
-    </row>
-    <row r="123" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P123" s="3"/>
+      <c r="AM122" s="3"/>
+    </row>
+    <row r="123" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q123" s="3"/>
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
@@ -10380,9 +10703,9 @@
       <c r="AJ123" s="3"/>
       <c r="AK123" s="3"/>
       <c r="AL123" s="3"/>
-    </row>
-    <row r="124" spans="16:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P124" s="3"/>
+      <c r="AM123" s="3"/>
+    </row>
+    <row r="124" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Q124" s="3"/>
       <c r="R124" s="3"/>
       <c r="S124" s="3"/>
@@ -10405,17 +10728,18 @@
       <c r="AJ124" s="3"/>
       <c r="AK124" s="3"/>
       <c r="AL124" s="3"/>
+      <c r="AM124" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N45" r:id="rId1" display="http://galaxe.solutions/" xr:uid="{FC3574BC-D6EF-4519-A7F6-F3806DB46557}"/>
-    <hyperlink ref="K38" r:id="rId2" display="http://critically.io/" xr:uid="{58C6B818-5DAB-4298-BE6A-8DFB8F2FA3E6}"/>
-    <hyperlink ref="AI4" r:id="rId3" display="http://pendo.io/" xr:uid="{D0FB6BCD-C593-4A26-8FE6-FE61791CE669}"/>
-    <hyperlink ref="AG2" r:id="rId4" display="http://underdog.io/" xr:uid="{543C7C11-8D77-4769-955F-05FB4DC5FBB2}"/>
-    <hyperlink ref="AE49" r:id="rId5" display="http://ampcontrol.io/" xr:uid="{D63E3F1B-0340-4575-B7D7-BEF67233F5CD}"/>
-    <hyperlink ref="AB2" r:id="rId6" display="http://soffos.al/" xr:uid="{33336681-5570-4B6F-B154-1FDC1CE41B62}"/>
-    <hyperlink ref="AB19" r:id="rId7" display="http://miningstore.com/" xr:uid="{8AC48435-3FDD-44BD-BC8F-5FF8929E3F09}"/>
-    <hyperlink ref="Z5" r:id="rId8" display="http://ftsi.tech/" xr:uid="{2C18A7FB-BA19-4A58-BB3E-04631CB18EF4}"/>
+    <hyperlink ref="O45" r:id="rId1" display="http://galaxe.solutions/" xr:uid="{FC3574BC-D6EF-4519-A7F6-F3806DB46557}"/>
+    <hyperlink ref="L38" r:id="rId2" display="http://critically.io/" xr:uid="{58C6B818-5DAB-4298-BE6A-8DFB8F2FA3E6}"/>
+    <hyperlink ref="AJ4" r:id="rId3" display="http://pendo.io/" xr:uid="{D0FB6BCD-C593-4A26-8FE6-FE61791CE669}"/>
+    <hyperlink ref="AH2" r:id="rId4" display="http://underdog.io/" xr:uid="{543C7C11-8D77-4769-955F-05FB4DC5FBB2}"/>
+    <hyperlink ref="AF49" r:id="rId5" display="http://ampcontrol.io/" xr:uid="{D63E3F1B-0340-4575-B7D7-BEF67233F5CD}"/>
+    <hyperlink ref="AC2" r:id="rId6" display="http://soffos.al/" xr:uid="{33336681-5570-4B6F-B154-1FDC1CE41B62}"/>
+    <hyperlink ref="AC19" r:id="rId7" display="http://miningstore.com/" xr:uid="{8AC48435-3FDD-44BD-BC8F-5FF8929E3F09}"/>
+    <hyperlink ref="AA5" r:id="rId8" display="http://ftsi.tech/" xr:uid="{2C18A7FB-BA19-4A58-BB3E-04631CB18EF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/applications.xlsx
+++ b/applications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57419\Documents\applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872C1474-0505-4A00-8B89-59BCC02468E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AD9D75-97F5-4725-8DC7-4B82FB053123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49080" yWindow="285" windowWidth="8010" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48525" yWindow="1455" windowWidth="8100" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1131">
   <si>
     <t>Total</t>
   </si>
@@ -3295,6 +3295,138 @@
   </si>
   <si>
     <t>49. CHAMPtitles</t>
+  </si>
+  <si>
+    <t>1. Bharathvio Technologies</t>
+  </si>
+  <si>
+    <t>2. Modis</t>
+  </si>
+  <si>
+    <t>6. Spruce InfoTech, Inc</t>
+  </si>
+  <si>
+    <t>7. Softcom Systems</t>
+  </si>
+  <si>
+    <t>10. SGS Consulting</t>
+  </si>
+  <si>
+    <t>11. QRN Software Solutions Inc</t>
+  </si>
+  <si>
+    <t>12. KlickTrack</t>
+  </si>
+  <si>
+    <t>13. SGS Consulting</t>
+  </si>
+  <si>
+    <t>14. SGS Consulting</t>
+  </si>
+  <si>
+    <t>15. Galaxy I technologies</t>
+  </si>
+  <si>
+    <t>16. Prometheus Group</t>
+  </si>
+  <si>
+    <t>17. Spectraforce Technologies</t>
+  </si>
+  <si>
+    <t>18. Synechron</t>
+  </si>
+  <si>
+    <t>19. Cloud Space LLC</t>
+  </si>
+  <si>
+    <t>20. NextPath Career Partners</t>
+  </si>
+  <si>
+    <t>21. Jobot</t>
+  </si>
+  <si>
+    <t>22. Nityo Infotech</t>
+  </si>
+  <si>
+    <t>23. Geopaq Logic Inc</t>
+  </si>
+  <si>
+    <t>24. Twik</t>
+  </si>
+  <si>
+    <t>25. Twik</t>
+  </si>
+  <si>
+    <t>27. Get Well</t>
+  </si>
+  <si>
+    <t>28. PartnerCubed</t>
+  </si>
+  <si>
+    <t>29. Perchwell</t>
+  </si>
+  <si>
+    <t>30. Kibo</t>
+  </si>
+  <si>
+    <t>31. HOMER</t>
+  </si>
+  <si>
+    <t>32. SNI Technology</t>
+  </si>
+  <si>
+    <t>33. Modis</t>
+  </si>
+  <si>
+    <t>34. TEKtalent Inc</t>
+  </si>
+  <si>
+    <t>35. Vidlexinfo</t>
+  </si>
+  <si>
+    <t>36. TEKWISSEN</t>
+  </si>
+  <si>
+    <t>37. Crowdstarter Inc</t>
+  </si>
+  <si>
+    <t>38. Confiance Tech Solutions Inc</t>
+  </si>
+  <si>
+    <t>39. WeCare Connect</t>
+  </si>
+  <si>
+    <t>40. Matlen Silver</t>
+  </si>
+  <si>
+    <t>41. A-Line Staffing Solutions</t>
+  </si>
+  <si>
+    <t>42. Insight Global</t>
+  </si>
+  <si>
+    <t>43. NLB Services</t>
+  </si>
+  <si>
+    <t>44. Oracle</t>
+  </si>
+  <si>
+    <t>45. Rapido Technologies LLC</t>
+  </si>
+  <si>
+    <t>46. Telligen Tech, Inc</t>
+  </si>
+  <si>
+    <t>47. ApTask</t>
+  </si>
+  <si>
+    <t>48. Tech Providers, Inc</t>
+  </si>
+  <si>
+    <t>49. Insight Global</t>
+  </si>
+  <si>
+    <t>50. NR Consulting</t>
   </si>
 </sst>
 </file>
@@ -3652,325 +3784,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM124"/>
+  <dimension ref="A1:AN124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>44544</v>
+      </c>
+      <c r="C1" s="1">
         <v>44543</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>44540</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>44539</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>44538</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>44537</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>44536</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>44533</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>44532</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>44531</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>44530</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>44529</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>44524</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>44523</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>44522</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>44518</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>44517</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>44516</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>44515</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>44512</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>44511</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>44510</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="1">
         <v>44509</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="1">
         <v>44508</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="1">
         <v>44505</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="1">
         <v>44504</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>44503</v>
       </c>
-      <c r="AB1" s="5">
+      <c r="AC1" s="5">
         <v>44502</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="1">
         <v>44501</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>44498</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AF1" s="1">
         <v>44497</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AG1" s="1">
         <v>44496</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AH1" s="1">
         <v>44495</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AI1" s="1">
         <v>44494</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AJ1" s="1">
         <v>44489</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AK1" s="1">
         <v>44487</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AL1" s="1">
         <v>44486</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AM1" s="1">
         <v>44421</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AN1" s="1">
         <v>44419</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <f xml:space="preserve"> COUNTA(B2:AAC100)</f>
+        <f xml:space="preserve"> COUNTA(C2:AAD100)</f>
         <v>1188</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>13</v>
@@ -3982,2602 +4121,2685 @@
         <v>13</v>
       </c>
       <c r="O3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>616</v>
       </c>
       <c r="U3" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AC3" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3" t="s">
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AC4" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="4" t="s">
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AB5" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="AB5" s="6" t="s">
+      <c r="AC5" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AG5" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AH5" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AI5" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3" t="s">
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3" t="s">
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AN5" s="3" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="U6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V6" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Z6" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="AB6" s="6" t="s">
+      <c r="AC6" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AD6" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AE6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AF6" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="AG6" s="3" t="s">
+      <c r="AH6" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="AH6" s="3" t="s">
+      <c r="AI6" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
-      <c r="AL6" s="3" t="s">
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="AM6" s="3" t="s">
+      <c r="AN6" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="AB7" s="6" t="s">
+      <c r="AC7" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AD7" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AF7" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AG7" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AH7" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AI7" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
-      <c r="AL7" s="3" t="s">
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="AM7" s="3" t="s">
+      <c r="AN7" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="AA8" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="AB8" s="6" t="s">
+      <c r="AC8" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AF8" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AG8" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="AG8" s="3" t="s">
+      <c r="AH8" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="AH8" s="3" t="s">
+      <c r="AI8" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
-      <c r="AL8" s="3" t="s">
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="AM8" s="3"/>
-    </row>
-    <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN8" s="3"/>
+    </row>
+    <row r="9" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>73</v>
       </c>
       <c r="T9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U9" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Z9" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3" t="s">
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="AB9" s="6" t="s">
+      <c r="AC9" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AD9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="AE9" s="3" t="s">
+      <c r="AF9" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="AF9" s="3" t="s">
+      <c r="AG9" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="AG9" s="3" t="s">
+      <c r="AH9" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="AH9" s="3" t="s">
+      <c r="AI9" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
-      <c r="AL9" s="3" t="s">
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="AM9" s="3"/>
-    </row>
-    <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN9" s="3"/>
+    </row>
+    <row r="10" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>1007</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3" t="s">
+      <c r="U10" s="3"/>
+      <c r="V10" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="Z10" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3" t="s">
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="AB10" s="6" t="s">
+      <c r="AC10" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AD10" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AE10" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AF10" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="AF10" s="3" t="s">
+      <c r="AG10" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="AG10" s="3" t="s">
+      <c r="AH10" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="AH10" s="3" t="s">
+      <c r="AI10" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
-      <c r="AL10" s="3" t="s">
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="AM10" s="3"/>
-    </row>
-    <row r="11" spans="1:39" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AN10" s="3"/>
+    </row>
+    <row r="11" spans="1:40" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>95</v>
       </c>
       <c r="O11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3" t="s">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3" t="s">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="3" t="s">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="AB11" s="6" t="s">
+      <c r="AC11" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AD11" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AE11" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="AE11" s="3" t="s">
+      <c r="AF11" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="AF11" s="3" t="s">
+      <c r="AG11" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="AG11" s="3" t="s">
+      <c r="AH11" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="AH11" s="3" t="s">
+      <c r="AI11" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
-      <c r="AL11" s="3" t="s">
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="AM11" s="3"/>
-    </row>
-    <row r="12" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN11" s="3"/>
+    </row>
+    <row r="12" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3" t="s">
+      <c r="U12" s="3"/>
+      <c r="V12" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="3" t="s">
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="AB12" s="6" t="s">
+      <c r="AC12" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="AC12" s="3" t="s">
+      <c r="AD12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AD12" s="3" t="s">
+      <c r="AE12" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="AE12" s="3" t="s">
+      <c r="AF12" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="AF12" s="3" t="s">
+      <c r="AG12" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="AG12" s="3" t="s">
+      <c r="AH12" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="AH12" s="3" t="s">
+      <c r="AI12" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
-      <c r="AL12" s="3" t="s">
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="AM12" s="3"/>
-    </row>
-    <row r="13" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN12" s="3"/>
+    </row>
+    <row r="13" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3" t="s">
+      <c r="U13" s="3"/>
+      <c r="V13" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="Y13" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="3" t="s">
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="AB13" s="6" t="s">
+      <c r="AC13" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="AC13" s="3" t="s">
+      <c r="AD13" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="AD13" s="3" t="s">
+      <c r="AE13" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="AE13" s="3" t="s">
+      <c r="AF13" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="AF13" s="3" t="s">
+      <c r="AG13" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="AG13" s="3" t="s">
+      <c r="AH13" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="AH13" s="3" t="s">
+      <c r="AI13" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
-      <c r="AL13" s="3" t="s">
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="AM13" s="3"/>
-    </row>
-    <row r="14" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN13" s="3"/>
+    </row>
+    <row r="14" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3"/>
+      <c r="V14" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="3" t="s">
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="AB14" s="6" t="s">
+      <c r="AC14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AF14" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="AF14" s="3" t="s">
+      <c r="AG14" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="AG14" s="3" t="s">
+      <c r="AH14" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="AH14" s="3" t="s">
+      <c r="AI14" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
-      <c r="AL14" s="3" t="s">
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="AM14" s="3"/>
-    </row>
-    <row r="15" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN14" s="3"/>
+    </row>
+    <row r="15" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>1011</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>129</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>132</v>
       </c>
       <c r="K15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3" t="s">
+      <c r="U15" s="3"/>
+      <c r="V15" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="3" t="s">
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3" t="s">
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="AD15" s="3" t="s">
+      <c r="AE15" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="AE15" s="3" t="s">
+      <c r="AF15" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="AF15" s="3" t="s">
+      <c r="AG15" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="AG15" s="3" t="s">
+      <c r="AH15" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="AH15" s="3" t="s">
+      <c r="AI15" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
-      <c r="AL15" s="3" t="s">
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="AM15" s="3"/>
-    </row>
-    <row r="16" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN15" s="3"/>
+    </row>
+    <row r="16" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3" t="s">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="X16" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="X16" s="3" t="s">
+      <c r="Y16" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-      <c r="AC16" s="3" t="s">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AD16" s="3" t="s">
+      <c r="AE16" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="AE16" s="3" t="s">
+      <c r="AF16" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="AF16" s="3" t="s">
+      <c r="AG16" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="AG16" s="3" t="s">
+      <c r="AH16" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="AH16" s="3" t="s">
+      <c r="AI16" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
-      <c r="AL16" s="3" t="s">
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="AM16" s="3"/>
-    </row>
-    <row r="17" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN16" s="3"/>
+    </row>
+    <row r="17" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3" t="s">
+      <c r="U17" s="3"/>
+      <c r="V17" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="Y17" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
-      <c r="AC17" s="3" t="s">
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="AD17" s="3" t="s">
+      <c r="AE17" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="AE17" s="3" t="s">
+      <c r="AF17" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="AF17" s="3" t="s">
+      <c r="AG17" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="AG17" s="3" t="s">
+      <c r="AH17" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="AH17" s="3" t="s">
+      <c r="AI17" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
-      <c r="AL17" s="3" t="s">
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="AM17" s="3"/>
-    </row>
-    <row r="18" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN17" s="3"/>
+    </row>
+    <row r="18" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3" t="s">
+      <c r="U18" s="3"/>
+      <c r="V18" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="W18" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="X18" s="3" t="s">
+      <c r="Y18" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
-      <c r="AC18" s="3" t="s">
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="AD18" s="3" t="s">
+      <c r="AE18" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="AE18" s="3" t="s">
+      <c r="AF18" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="AF18" s="3" t="s">
+      <c r="AG18" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="AG18" s="3" t="s">
+      <c r="AH18" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="AH18" s="3" t="s">
+      <c r="AI18" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
-      <c r="AL18" s="3" t="s">
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="AM18" s="3"/>
-    </row>
-    <row r="19" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN18" s="3"/>
+    </row>
+    <row r="19" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3" t="s">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="Y19" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-      <c r="AC19" s="4" t="s">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3" t="s">
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="AF19" s="3" t="s">
+      <c r="AG19" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="AG19" s="3" t="s">
+      <c r="AH19" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
-      <c r="AL19" s="3" t="s">
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="AM19" s="3"/>
-    </row>
-    <row r="20" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN19" s="3"/>
+    </row>
+    <row r="20" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>183</v>
+        <v>1100</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>183</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3" t="s">
+      <c r="U20" s="3"/>
+      <c r="V20" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="W20" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="Y20" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
-      <c r="AC20" s="3" t="s">
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3" t="s">
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="AF20" s="3" t="s">
+      <c r="AG20" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="AG20" s="3" t="s">
+      <c r="AH20" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
-      <c r="AL20" s="3" t="s">
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="AM20" s="3"/>
-    </row>
-    <row r="21" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN20" s="3"/>
+    </row>
+    <row r="21" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3" t="s">
+      <c r="U21" s="3"/>
+      <c r="V21" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
-      <c r="AC21" s="3" t="s">
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3" t="s">
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="AF21" s="3" t="s">
+      <c r="AG21" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="AG21" s="3" t="s">
+      <c r="AH21" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
-      <c r="AL21" s="3" t="s">
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="AM21" s="3"/>
-    </row>
-    <row r="22" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN21" s="3"/>
+    </row>
+    <row r="22" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3" t="s">
+      <c r="P22" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3" t="s">
+      <c r="S22" s="3"/>
+      <c r="T22" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3" t="s">
+      <c r="U22" s="3"/>
+      <c r="V22" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="X22" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
-      <c r="AC22" s="3" t="s">
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3" t="s">
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="AF22" s="3" t="s">
+      <c r="AG22" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="AG22" s="3" t="s">
+      <c r="AH22" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
-    </row>
-    <row r="23" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN22" s="3"/>
+    </row>
+    <row r="23" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="3" t="s">
+      <c r="U23" s="3"/>
+      <c r="V23" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="W23" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="X23" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
-      <c r="AC23" s="3" t="s">
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3" t="s">
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="AF23" s="3" t="s">
+      <c r="AG23" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="AG23" s="3" t="s">
+      <c r="AH23" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
-    </row>
-    <row r="24" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN23" s="3"/>
+    </row>
+    <row r="24" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="3" t="s">
+      <c r="U24" s="3"/>
+      <c r="V24" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="W24" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="X24" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
-      <c r="AC24" s="3" t="s">
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3" t="s">
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="AF24" s="3" t="s">
+      <c r="AG24" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="AG24" s="3" t="s">
+      <c r="AH24" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
-    </row>
-    <row r="25" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN24" s="3"/>
+    </row>
+    <row r="25" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>246</v>
       </c>
       <c r="N25" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="3" t="s">
+      <c r="U25" s="3"/>
+      <c r="V25" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="V25" s="3" t="s">
+      <c r="W25" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
-      <c r="AC25" s="3" t="s">
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3" t="s">
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="AF25" s="3" t="s">
+      <c r="AG25" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="AG25" s="3" t="s">
+      <c r="AH25" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
-    </row>
-    <row r="26" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN25" s="3"/>
+    </row>
+    <row r="26" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="N26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="3" t="s">
+      <c r="U26" s="3"/>
+      <c r="V26" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="W26" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
-      <c r="AC26" s="3" t="s">
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3" t="s">
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="AF26" s="3" t="s">
+      <c r="AG26" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="AG26" s="3" t="s">
+      <c r="AH26" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
-    </row>
-    <row r="27" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN26" s="3"/>
+    </row>
+    <row r="27" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="3" t="s">
+      <c r="U27" s="3"/>
+      <c r="V27" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="V27" s="3" t="s">
+      <c r="W27" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
-      <c r="AC27" s="3" t="s">
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3" t="s">
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="AF27" s="3" t="s">
+      <c r="AG27" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="AG27" s="3" t="s">
+      <c r="AH27" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
-    </row>
-    <row r="28" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN27" s="3"/>
+    </row>
+    <row r="28" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="3" t="s">
+      <c r="U28" s="3"/>
+      <c r="V28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="W28" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
-      <c r="AC28" s="3" t="s">
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3" t="s">
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="AF28" s="3" t="s">
+      <c r="AG28" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="AG28" s="3" t="s">
+      <c r="AH28" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
-    </row>
-    <row r="29" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN28" s="3"/>
+    </row>
+    <row r="29" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="3" t="s">
+      <c r="U29" s="3"/>
+      <c r="V29" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
-      <c r="AC29" s="3" t="s">
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3" t="s">
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="AF29" s="3" t="s">
+      <c r="AG29" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
       <c r="AM29" s="3"/>
-    </row>
-    <row r="30" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN29" s="3"/>
+    </row>
+    <row r="30" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -6590,69 +6812,72 @@
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
-      <c r="AC30" s="3" t="s">
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3" t="s">
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="AF30" s="3" t="s">
+      <c r="AG30" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
       <c r="AM30" s="3"/>
-    </row>
-    <row r="31" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN30" s="3"/>
+    </row>
+    <row r="31" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -6665,69 +6890,72 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
-      <c r="AC31" s="3" t="s">
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3" t="s">
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="AF31" s="3" t="s">
+      <c r="AG31" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
       <c r="AM31" s="3"/>
-    </row>
-    <row r="32" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN31" s="3"/>
+    </row>
+    <row r="32" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -6740,69 +6968,72 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
-      <c r="AC32" s="3" t="s">
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3" t="s">
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="AF32" s="3" t="s">
+      <c r="AG32" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
       <c r="AM32" s="3"/>
-    </row>
-    <row r="33" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN32" s="3"/>
+    </row>
+    <row r="33" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -6815,69 +7046,72 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
-      <c r="AC33" s="3" t="s">
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3" t="s">
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="AF33" s="3" t="s">
+      <c r="AG33" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
-    </row>
-    <row r="34" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN33" s="3"/>
+    </row>
+    <row r="34" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="P34" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -6890,69 +7124,72 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
-      <c r="AC34" s="3" t="s">
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3" t="s">
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="AF34" s="3" t="s">
+      <c r="AG34" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
-    </row>
-    <row r="35" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN34" s="3"/>
+    </row>
+    <row r="35" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
@@ -6965,69 +7202,72 @@
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
-      <c r="AC35" s="3" t="s">
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3" t="s">
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="AF35" s="3" t="s">
+      <c r="AG35" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
       <c r="AM35" s="3"/>
-    </row>
-    <row r="36" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN35" s="3"/>
+    </row>
+    <row r="36" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -7042,65 +7282,68 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
-      <c r="AE36" s="3" t="s">
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="AF36" s="3" t="s">
+      <c r="AG36" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
       <c r="AM36" s="3"/>
-    </row>
-    <row r="37" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN36" s="3"/>
+    </row>
+    <row r="37" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="P37" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -7115,65 +7358,68 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
-      <c r="AE37" s="3" t="s">
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="AF37" s="3" t="s">
+      <c r="AG37" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
       <c r="AM37" s="3"/>
-    </row>
-    <row r="38" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN37" s="3"/>
+    </row>
+    <row r="38" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="M38" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>391</v>
       </c>
       <c r="O38" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="P38" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -7188,65 +7434,68 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
-      <c r="AE38" s="3" t="s">
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="AF38" s="3" t="s">
+      <c r="AG38" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
       <c r="AM38" s="3"/>
-    </row>
-    <row r="39" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN38" s="3"/>
+    </row>
+    <row r="39" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
@@ -7261,65 +7510,68 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-      <c r="AE39" s="3" t="s">
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="AF39" s="3" t="s">
+      <c r="AG39" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
       <c r="AM39" s="3"/>
-    </row>
-    <row r="40" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN39" s="3"/>
+    </row>
+    <row r="40" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="O40" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="P40" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -7334,65 +7586,68 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-      <c r="AE40" s="3" t="s">
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="AF40" s="3" t="s">
+      <c r="AG40" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
       <c r="AM40" s="3"/>
-    </row>
-    <row r="41" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN40" s="3"/>
+    </row>
+    <row r="41" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="O41" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="P41" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
@@ -7407,65 +7662,68 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
-      <c r="AE41" s="3" t="s">
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="AF41" s="3" t="s">
+      <c r="AG41" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
       <c r="AM41" s="3"/>
-    </row>
-    <row r="42" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN41" s="3"/>
+    </row>
+    <row r="42" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="P42" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
@@ -7480,65 +7738,68 @@
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
-      <c r="AE42" s="3" t="s">
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="AF42" s="3" t="s">
+      <c r="AG42" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
       <c r="AM42" s="3"/>
-    </row>
-    <row r="43" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN42" s="3"/>
+    </row>
+    <row r="43" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="O43" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="P43" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
@@ -7553,65 +7814,68 @@
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
-      <c r="AE43" s="3" t="s">
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="AF43" s="3" t="s">
+      <c r="AG43" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
       <c r="AM43" s="3"/>
-    </row>
-    <row r="44" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN43" s="3"/>
+    </row>
+    <row r="44" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="L44" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="M44" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="O44" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="P44" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
@@ -7626,65 +7890,68 @@
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
-      <c r="AE44" s="3" t="s">
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="AF44" s="3" t="s">
+      <c r="AG44" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="AG44" s="3"/>
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
       <c r="AM44" s="3"/>
-    </row>
-    <row r="45" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN44" s="3"/>
+    </row>
+    <row r="45" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="O45" s="4" t="s">
+      <c r="P45" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
@@ -7699,63 +7966,66 @@
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
-      <c r="AE45" s="3" t="s">
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="AF45" s="3" t="s">
+      <c r="AG45" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
       <c r="AM45" s="3"/>
-    </row>
-    <row r="46" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN45" s="3"/>
+    </row>
+    <row r="46" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="3"/>
+      <c r="H46" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="L46" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="M46" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="O46" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="P46" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
@@ -7770,63 +8040,66 @@
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
-      <c r="AE46" s="3" t="s">
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="AF46" s="3" t="s">
+      <c r="AG46" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3"/>
       <c r="AL46" s="3"/>
       <c r="AM46" s="3"/>
-    </row>
-    <row r="47" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN46" s="3"/>
+    </row>
+    <row r="47" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="P47" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
@@ -7841,63 +8114,66 @@
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
-      <c r="AE47" s="3" t="s">
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="AF47" s="3" t="s">
+      <c r="AG47" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="AG47" s="3"/>
       <c r="AH47" s="3"/>
       <c r="AI47" s="3"/>
       <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
       <c r="AM47" s="3"/>
-    </row>
-    <row r="48" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN47" s="3"/>
+    </row>
+    <row r="48" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="O48" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="P48" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
@@ -7912,63 +8188,66 @@
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
-      <c r="AE48" s="3" t="s">
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="AF48" s="3" t="s">
+      <c r="AG48" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="AG48" s="3"/>
       <c r="AH48" s="3"/>
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
       <c r="AM48" s="3"/>
-    </row>
-    <row r="49" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN48" s="3"/>
+    </row>
+    <row r="49" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>1042</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>510</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3" t="s">
+      <c r="F49" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="O49" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="P49" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
@@ -7983,63 +8262,66 @@
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
-      <c r="AE49" s="3" t="s">
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="AF49" s="4" t="s">
+      <c r="AG49" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="AG49" s="3"/>
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
       <c r="AM49" s="3"/>
-    </row>
-    <row r="50" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN49" s="3"/>
+    </row>
+    <row r="50" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="3"/>
+      <c r="H50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="L50" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="M50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="N50" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="O50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="O50" s="3" t="s">
+      <c r="P50" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
@@ -8054,63 +8336,66 @@
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
-      <c r="AE50" s="3" t="s">
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="AF50" s="3" t="s">
+      <c r="AG50" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="AG50" s="3"/>
       <c r="AH50" s="3"/>
       <c r="AI50" s="3"/>
       <c r="AJ50" s="3"/>
       <c r="AK50" s="3"/>
       <c r="AL50" s="3"/>
       <c r="AM50" s="3"/>
-    </row>
-    <row r="51" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN50" s="3"/>
+    </row>
+    <row r="51" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="3"/>
+      <c r="H51" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="L51" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="M51" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="N51" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="N51" s="3" t="s">
+      <c r="O51" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="P51" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
@@ -8125,51 +8410,52 @@
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
-      <c r="AE51" s="3" t="s">
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="AF51" s="3" t="s">
+      <c r="AG51" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="AG51" s="3"/>
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
       <c r="AJ51" s="3"/>
       <c r="AK51" s="3"/>
       <c r="AL51" s="3"/>
       <c r="AM51" s="3"/>
-    </row>
-    <row r="52" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN51" s="3"/>
+    </row>
+    <row r="52" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="3"/>
+      <c r="H52" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="3" t="s">
+      <c r="L52" s="3"/>
+      <c r="M52" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="N52" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="N52" s="3" t="s">
+      <c r="O52" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="P52" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
@@ -8184,51 +8470,52 @@
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
-      <c r="AE52" s="3" t="s">
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="AF52" s="3" t="s">
+      <c r="AG52" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="AG52" s="3"/>
       <c r="AH52" s="3"/>
       <c r="AI52" s="3"/>
       <c r="AJ52" s="3"/>
       <c r="AK52" s="3"/>
       <c r="AL52" s="3"/>
       <c r="AM52" s="3"/>
-    </row>
-    <row r="53" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN52" s="3"/>
+    </row>
+    <row r="53" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="3" t="s">
+      <c r="L53" s="3"/>
+      <c r="M53" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="N53" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="N53" s="3" t="s">
+      <c r="O53" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="O53" s="3" t="s">
+      <c r="P53" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
@@ -8243,10 +8530,10 @@
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
-      <c r="AE53" s="3" t="s">
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="AF53" s="3"/>
       <c r="AG53" s="3"/>
       <c r="AH53" s="3"/>
       <c r="AI53" s="3"/>
@@ -8254,36 +8541,37 @@
       <c r="AK53" s="3"/>
       <c r="AL53" s="3"/>
       <c r="AM53" s="3"/>
-    </row>
-    <row r="54" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN53" s="3"/>
+    </row>
+    <row r="54" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="3"/>
+      <c r="H54" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="3" t="s">
+      <c r="L54" s="3"/>
+      <c r="M54" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="M54" s="3" t="s">
+      <c r="N54" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="O54" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="O54" s="3" t="s">
+      <c r="P54" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
@@ -8307,36 +8595,37 @@
       <c r="AK54" s="3"/>
       <c r="AL54" s="3"/>
       <c r="AM54" s="3"/>
-    </row>
-    <row r="55" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN54" s="3"/>
+    </row>
+    <row r="55" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="3"/>
+      <c r="H55" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="L55" s="3" t="s">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="N55" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="N55" s="3" t="s">
+      <c r="O55" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="O55" s="3" t="s">
+      <c r="P55" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
@@ -8360,34 +8649,35 @@
       <c r="AK55" s="3"/>
       <c r="AL55" s="3"/>
       <c r="AM55" s="3"/>
-    </row>
-    <row r="56" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN55" s="3"/>
+    </row>
+    <row r="56" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-      <c r="M56" s="3" t="s">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="N56" s="3" t="s">
+      <c r="O56" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="O56" s="3" t="s">
+      <c r="P56" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
@@ -8411,15 +8701,16 @@
       <c r="AK56" s="3"/>
       <c r="AL56" s="3"/>
       <c r="AM56" s="3"/>
-    </row>
-    <row r="57" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN56" s="3"/>
+    </row>
+    <row r="57" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -8427,16 +8718,16 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
-      <c r="M57" s="3" t="s">
+      <c r="M57" s="3"/>
+      <c r="N57" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="N57" s="3" t="s">
+      <c r="O57" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="O57" s="3" t="s">
+      <c r="P57" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
@@ -8460,15 +8751,16 @@
       <c r="AK57" s="3"/>
       <c r="AL57" s="3"/>
       <c r="AM57" s="3"/>
-    </row>
-    <row r="58" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN57" s="3"/>
+    </row>
+    <row r="58" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -8476,14 +8768,14 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="3"/>
+      <c r="N58" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3" t="s">
+      <c r="O58" s="3"/>
+      <c r="P58" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
@@ -8507,15 +8799,16 @@
       <c r="AK58" s="3"/>
       <c r="AL58" s="3"/>
       <c r="AM58" s="3"/>
-    </row>
-    <row r="59" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN58" s="3"/>
+    </row>
+    <row r="59" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -8523,14 +8816,14 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
-      <c r="M59" s="3" t="s">
+      <c r="M59" s="3"/>
+      <c r="N59" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3" t="s">
+      <c r="O59" s="3"/>
+      <c r="P59" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
@@ -8554,15 +8847,16 @@
       <c r="AK59" s="3"/>
       <c r="AL59" s="3"/>
       <c r="AM59" s="3"/>
-    </row>
-    <row r="60" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN59" s="3"/>
+    </row>
+    <row r="60" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -8570,14 +8864,14 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="3" t="s">
+      <c r="M60" s="3"/>
+      <c r="N60" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3" t="s">
+      <c r="O60" s="3"/>
+      <c r="P60" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
@@ -8601,15 +8895,16 @@
       <c r="AK60" s="3"/>
       <c r="AL60" s="3"/>
       <c r="AM60" s="3"/>
-    </row>
-    <row r="61" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN60" s="3"/>
+    </row>
+    <row r="61" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -8617,14 +8912,14 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
-      <c r="M61" s="3" t="s">
+      <c r="M61" s="3"/>
+      <c r="N61" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3" t="s">
+      <c r="O61" s="3"/>
+      <c r="P61" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
@@ -8648,15 +8943,16 @@
       <c r="AK61" s="3"/>
       <c r="AL61" s="3"/>
       <c r="AM61" s="3"/>
-    </row>
-    <row r="62" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN61" s="3"/>
+    </row>
+    <row r="62" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -8664,10 +8960,10 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-      <c r="M62" s="3" t="s">
+      <c r="M62" s="3"/>
+      <c r="N62" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
@@ -8693,15 +8989,16 @@
       <c r="AK62" s="3"/>
       <c r="AL62" s="3"/>
       <c r="AM62" s="3"/>
-    </row>
-    <row r="63" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN62" s="3"/>
+    </row>
+    <row r="63" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -8709,10 +9006,10 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="3" t="s">
+      <c r="M63" s="3"/>
+      <c r="N63" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
@@ -8738,15 +9035,16 @@
       <c r="AK63" s="3"/>
       <c r="AL63" s="3"/>
       <c r="AM63" s="3"/>
-    </row>
-    <row r="64" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN63" s="3"/>
+    </row>
+    <row r="64" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="3"/>
+      <c r="E64" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -8781,8 +9079,9 @@
       <c r="AK64" s="3"/>
       <c r="AL64" s="3"/>
       <c r="AM64" s="3"/>
-    </row>
-    <row r="65" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN64" s="3"/>
+    </row>
+    <row r="65" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -8822,8 +9121,9 @@
       <c r="AK65" s="3"/>
       <c r="AL65" s="3"/>
       <c r="AM65" s="3"/>
-    </row>
-    <row r="66" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN65" s="3"/>
+    </row>
+    <row r="66" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -8863,8 +9163,9 @@
       <c r="AK66" s="3"/>
       <c r="AL66" s="3"/>
       <c r="AM66" s="3"/>
-    </row>
-    <row r="67" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN66" s="3"/>
+    </row>
+    <row r="67" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -8904,8 +9205,9 @@
       <c r="AK67" s="3"/>
       <c r="AL67" s="3"/>
       <c r="AM67" s="3"/>
-    </row>
-    <row r="68" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN67" s="3"/>
+    </row>
+    <row r="68" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -8945,8 +9247,9 @@
       <c r="AK68" s="3"/>
       <c r="AL68" s="3"/>
       <c r="AM68" s="3"/>
-    </row>
-    <row r="69" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN68" s="3"/>
+    </row>
+    <row r="69" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -8986,8 +9289,9 @@
       <c r="AK69" s="3"/>
       <c r="AL69" s="3"/>
       <c r="AM69" s="3"/>
-    </row>
-    <row r="70" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN69" s="3"/>
+    </row>
+    <row r="70" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -9027,8 +9331,9 @@
       <c r="AK70" s="3"/>
       <c r="AL70" s="3"/>
       <c r="AM70" s="3"/>
-    </row>
-    <row r="71" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN70" s="3"/>
+    </row>
+    <row r="71" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -9068,8 +9373,9 @@
       <c r="AK71" s="3"/>
       <c r="AL71" s="3"/>
       <c r="AM71" s="3"/>
-    </row>
-    <row r="72" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN71" s="3"/>
+    </row>
+    <row r="72" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -9109,8 +9415,9 @@
       <c r="AK72" s="3"/>
       <c r="AL72" s="3"/>
       <c r="AM72" s="3"/>
-    </row>
-    <row r="73" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN72" s="3"/>
+    </row>
+    <row r="73" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -9150,8 +9457,9 @@
       <c r="AK73" s="3"/>
       <c r="AL73" s="3"/>
       <c r="AM73" s="3"/>
-    </row>
-    <row r="74" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN73" s="3"/>
+    </row>
+    <row r="74" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -9191,8 +9499,9 @@
       <c r="AK74" s="3"/>
       <c r="AL74" s="3"/>
       <c r="AM74" s="3"/>
-    </row>
-    <row r="75" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN74" s="3"/>
+    </row>
+    <row r="75" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -9232,8 +9541,9 @@
       <c r="AK75" s="3"/>
       <c r="AL75" s="3"/>
       <c r="AM75" s="3"/>
-    </row>
-    <row r="76" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN75" s="3"/>
+    </row>
+    <row r="76" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -9273,8 +9583,9 @@
       <c r="AK76" s="3"/>
       <c r="AL76" s="3"/>
       <c r="AM76" s="3"/>
-    </row>
-    <row r="77" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN76" s="3"/>
+    </row>
+    <row r="77" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -9314,8 +9625,9 @@
       <c r="AK77" s="3"/>
       <c r="AL77" s="3"/>
       <c r="AM77" s="3"/>
-    </row>
-    <row r="78" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN77" s="3"/>
+    </row>
+    <row r="78" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -9355,8 +9667,9 @@
       <c r="AK78" s="3"/>
       <c r="AL78" s="3"/>
       <c r="AM78" s="3"/>
-    </row>
-    <row r="79" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN78" s="3"/>
+    </row>
+    <row r="79" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -9396,8 +9709,9 @@
       <c r="AK79" s="3"/>
       <c r="AL79" s="3"/>
       <c r="AM79" s="3"/>
-    </row>
-    <row r="80" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN79" s="3"/>
+    </row>
+    <row r="80" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -9437,8 +9751,9 @@
       <c r="AK80" s="3"/>
       <c r="AL80" s="3"/>
       <c r="AM80" s="3"/>
-    </row>
-    <row r="81" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN80" s="3"/>
+    </row>
+    <row r="81" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -9478,8 +9793,9 @@
       <c r="AK81" s="3"/>
       <c r="AL81" s="3"/>
       <c r="AM81" s="3"/>
-    </row>
-    <row r="82" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN81" s="3"/>
+    </row>
+    <row r="82" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -9519,8 +9835,9 @@
       <c r="AK82" s="3"/>
       <c r="AL82" s="3"/>
       <c r="AM82" s="3"/>
-    </row>
-    <row r="83" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN82" s="3"/>
+    </row>
+    <row r="83" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -9560,8 +9877,9 @@
       <c r="AK83" s="3"/>
       <c r="AL83" s="3"/>
       <c r="AM83" s="3"/>
-    </row>
-    <row r="84" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN83" s="3"/>
+    </row>
+    <row r="84" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -9601,8 +9919,9 @@
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
       <c r="AM84" s="3"/>
-    </row>
-    <row r="85" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN84" s="3"/>
+    </row>
+    <row r="85" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -9642,8 +9961,9 @@
       <c r="AK85" s="3"/>
       <c r="AL85" s="3"/>
       <c r="AM85" s="3"/>
-    </row>
-    <row r="86" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN85" s="3"/>
+    </row>
+    <row r="86" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -9683,8 +10003,9 @@
       <c r="AK86" s="3"/>
       <c r="AL86" s="3"/>
       <c r="AM86" s="3"/>
-    </row>
-    <row r="87" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN86" s="3"/>
+    </row>
+    <row r="87" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -9724,8 +10045,9 @@
       <c r="AK87" s="3"/>
       <c r="AL87" s="3"/>
       <c r="AM87" s="3"/>
-    </row>
-    <row r="88" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN87" s="3"/>
+    </row>
+    <row r="88" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -9765,8 +10087,9 @@
       <c r="AK88" s="3"/>
       <c r="AL88" s="3"/>
       <c r="AM88" s="3"/>
-    </row>
-    <row r="89" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN88" s="3"/>
+    </row>
+    <row r="89" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -9806,8 +10129,9 @@
       <c r="AK89" s="3"/>
       <c r="AL89" s="3"/>
       <c r="AM89" s="3"/>
-    </row>
-    <row r="90" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN89" s="3"/>
+    </row>
+    <row r="90" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -9847,8 +10171,9 @@
       <c r="AK90" s="3"/>
       <c r="AL90" s="3"/>
       <c r="AM90" s="3"/>
-    </row>
-    <row r="91" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN90" s="3"/>
+    </row>
+    <row r="91" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -9888,8 +10213,9 @@
       <c r="AK91" s="3"/>
       <c r="AL91" s="3"/>
       <c r="AM91" s="3"/>
-    </row>
-    <row r="92" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN91" s="3"/>
+    </row>
+    <row r="92" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -9929,9 +10255,9 @@
       <c r="AK92" s="3"/>
       <c r="AL92" s="3"/>
       <c r="AM92" s="3"/>
-    </row>
-    <row r="93" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q93" s="3"/>
+      <c r="AN92" s="3"/>
+    </row>
+    <row r="93" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
       <c r="T93" s="3"/>
@@ -9954,9 +10280,9 @@
       <c r="AK93" s="3"/>
       <c r="AL93" s="3"/>
       <c r="AM93" s="3"/>
-    </row>
-    <row r="94" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q94" s="3"/>
+      <c r="AN93" s="3"/>
+    </row>
+    <row r="94" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R94" s="3"/>
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
@@ -9979,9 +10305,9 @@
       <c r="AK94" s="3"/>
       <c r="AL94" s="3"/>
       <c r="AM94" s="3"/>
-    </row>
-    <row r="95" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q95" s="3"/>
+      <c r="AN94" s="3"/>
+    </row>
+    <row r="95" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
@@ -10004,9 +10330,9 @@
       <c r="AK95" s="3"/>
       <c r="AL95" s="3"/>
       <c r="AM95" s="3"/>
-    </row>
-    <row r="96" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q96" s="3"/>
+      <c r="AN95" s="3"/>
+    </row>
+    <row r="96" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R96" s="3"/>
       <c r="S96" s="3"/>
       <c r="T96" s="3"/>
@@ -10029,9 +10355,9 @@
       <c r="AK96" s="3"/>
       <c r="AL96" s="3"/>
       <c r="AM96" s="3"/>
-    </row>
-    <row r="97" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q97" s="3"/>
+      <c r="AN96" s="3"/>
+    </row>
+    <row r="97" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
       <c r="T97" s="3"/>
@@ -10054,9 +10380,9 @@
       <c r="AK97" s="3"/>
       <c r="AL97" s="3"/>
       <c r="AM97" s="3"/>
-    </row>
-    <row r="98" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q98" s="3"/>
+      <c r="AN97" s="3"/>
+    </row>
+    <row r="98" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R98" s="3"/>
       <c r="S98" s="3"/>
       <c r="T98" s="3"/>
@@ -10079,9 +10405,9 @@
       <c r="AK98" s="3"/>
       <c r="AL98" s="3"/>
       <c r="AM98" s="3"/>
-    </row>
-    <row r="99" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q99" s="3"/>
+      <c r="AN98" s="3"/>
+    </row>
+    <row r="99" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R99" s="3"/>
       <c r="S99" s="3"/>
       <c r="T99" s="3"/>
@@ -10104,9 +10430,9 @@
       <c r="AK99" s="3"/>
       <c r="AL99" s="3"/>
       <c r="AM99" s="3"/>
-    </row>
-    <row r="100" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q100" s="3"/>
+      <c r="AN99" s="3"/>
+    </row>
+    <row r="100" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R100" s="3"/>
       <c r="S100" s="3"/>
       <c r="T100" s="3"/>
@@ -10129,9 +10455,9 @@
       <c r="AK100" s="3"/>
       <c r="AL100" s="3"/>
       <c r="AM100" s="3"/>
-    </row>
-    <row r="101" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q101" s="3"/>
+      <c r="AN100" s="3"/>
+    </row>
+    <row r="101" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R101" s="3"/>
       <c r="S101" s="3"/>
       <c r="T101" s="3"/>
@@ -10154,9 +10480,9 @@
       <c r="AK101" s="3"/>
       <c r="AL101" s="3"/>
       <c r="AM101" s="3"/>
-    </row>
-    <row r="102" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q102" s="3"/>
+      <c r="AN101" s="3"/>
+    </row>
+    <row r="102" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R102" s="3"/>
       <c r="S102" s="3"/>
       <c r="T102" s="3"/>
@@ -10179,9 +10505,9 @@
       <c r="AK102" s="3"/>
       <c r="AL102" s="3"/>
       <c r="AM102" s="3"/>
-    </row>
-    <row r="103" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q103" s="3"/>
+      <c r="AN102" s="3"/>
+    </row>
+    <row r="103" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
       <c r="T103" s="3"/>
@@ -10204,9 +10530,9 @@
       <c r="AK103" s="3"/>
       <c r="AL103" s="3"/>
       <c r="AM103" s="3"/>
-    </row>
-    <row r="104" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q104" s="3"/>
+      <c r="AN103" s="3"/>
+    </row>
+    <row r="104" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R104" s="3"/>
       <c r="S104" s="3"/>
       <c r="T104" s="3"/>
@@ -10229,9 +10555,9 @@
       <c r="AK104" s="3"/>
       <c r="AL104" s="3"/>
       <c r="AM104" s="3"/>
-    </row>
-    <row r="105" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q105" s="3"/>
+      <c r="AN104" s="3"/>
+    </row>
+    <row r="105" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R105" s="3"/>
       <c r="S105" s="3"/>
       <c r="T105" s="3"/>
@@ -10254,9 +10580,9 @@
       <c r="AK105" s="3"/>
       <c r="AL105" s="3"/>
       <c r="AM105" s="3"/>
-    </row>
-    <row r="106" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q106" s="3"/>
+      <c r="AN105" s="3"/>
+    </row>
+    <row r="106" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R106" s="3"/>
       <c r="S106" s="3"/>
       <c r="T106" s="3"/>
@@ -10279,9 +10605,9 @@
       <c r="AK106" s="3"/>
       <c r="AL106" s="3"/>
       <c r="AM106" s="3"/>
-    </row>
-    <row r="107" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q107" s="3"/>
+      <c r="AN106" s="3"/>
+    </row>
+    <row r="107" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R107" s="3"/>
       <c r="S107" s="3"/>
       <c r="T107" s="3"/>
@@ -10304,9 +10630,9 @@
       <c r="AK107" s="3"/>
       <c r="AL107" s="3"/>
       <c r="AM107" s="3"/>
-    </row>
-    <row r="108" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q108" s="3"/>
+      <c r="AN107" s="3"/>
+    </row>
+    <row r="108" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R108" s="3"/>
       <c r="S108" s="3"/>
       <c r="T108" s="3"/>
@@ -10329,9 +10655,9 @@
       <c r="AK108" s="3"/>
       <c r="AL108" s="3"/>
       <c r="AM108" s="3"/>
-    </row>
-    <row r="109" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q109" s="3"/>
+      <c r="AN108" s="3"/>
+    </row>
+    <row r="109" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
       <c r="T109" s="3"/>
@@ -10354,9 +10680,9 @@
       <c r="AK109" s="3"/>
       <c r="AL109" s="3"/>
       <c r="AM109" s="3"/>
-    </row>
-    <row r="110" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q110" s="3"/>
+      <c r="AN109" s="3"/>
+    </row>
+    <row r="110" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R110" s="3"/>
       <c r="S110" s="3"/>
       <c r="T110" s="3"/>
@@ -10379,9 +10705,9 @@
       <c r="AK110" s="3"/>
       <c r="AL110" s="3"/>
       <c r="AM110" s="3"/>
-    </row>
-    <row r="111" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q111" s="3"/>
+      <c r="AN110" s="3"/>
+    </row>
+    <row r="111" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
       <c r="T111" s="3"/>
@@ -10404,9 +10730,9 @@
       <c r="AK111" s="3"/>
       <c r="AL111" s="3"/>
       <c r="AM111" s="3"/>
-    </row>
-    <row r="112" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q112" s="3"/>
+      <c r="AN111" s="3"/>
+    </row>
+    <row r="112" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R112" s="3"/>
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
@@ -10429,9 +10755,9 @@
       <c r="AK112" s="3"/>
       <c r="AL112" s="3"/>
       <c r="AM112" s="3"/>
-    </row>
-    <row r="113" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q113" s="3"/>
+      <c r="AN112" s="3"/>
+    </row>
+    <row r="113" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R113" s="3"/>
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
@@ -10454,9 +10780,9 @@
       <c r="AK113" s="3"/>
       <c r="AL113" s="3"/>
       <c r="AM113" s="3"/>
-    </row>
-    <row r="114" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q114" s="3"/>
+      <c r="AN113" s="3"/>
+    </row>
+    <row r="114" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R114" s="3"/>
       <c r="S114" s="3"/>
       <c r="T114" s="3"/>
@@ -10479,9 +10805,9 @@
       <c r="AK114" s="3"/>
       <c r="AL114" s="3"/>
       <c r="AM114" s="3"/>
-    </row>
-    <row r="115" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q115" s="3"/>
+      <c r="AN114" s="3"/>
+    </row>
+    <row r="115" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
       <c r="T115" s="3"/>
@@ -10504,9 +10830,9 @@
       <c r="AK115" s="3"/>
       <c r="AL115" s="3"/>
       <c r="AM115" s="3"/>
-    </row>
-    <row r="116" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q116" s="3"/>
+      <c r="AN115" s="3"/>
+    </row>
+    <row r="116" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R116" s="3"/>
       <c r="S116" s="3"/>
       <c r="T116" s="3"/>
@@ -10529,9 +10855,9 @@
       <c r="AK116" s="3"/>
       <c r="AL116" s="3"/>
       <c r="AM116" s="3"/>
-    </row>
-    <row r="117" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q117" s="3"/>
+      <c r="AN116" s="3"/>
+    </row>
+    <row r="117" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R117" s="3"/>
       <c r="S117" s="3"/>
       <c r="T117" s="3"/>
@@ -10554,9 +10880,9 @@
       <c r="AK117" s="3"/>
       <c r="AL117" s="3"/>
       <c r="AM117" s="3"/>
-    </row>
-    <row r="118" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q118" s="3"/>
+      <c r="AN117" s="3"/>
+    </row>
+    <row r="118" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R118" s="3"/>
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
@@ -10579,9 +10905,9 @@
       <c r="AK118" s="3"/>
       <c r="AL118" s="3"/>
       <c r="AM118" s="3"/>
-    </row>
-    <row r="119" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q119" s="3"/>
+      <c r="AN118" s="3"/>
+    </row>
+    <row r="119" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R119" s="3"/>
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
@@ -10604,9 +10930,9 @@
       <c r="AK119" s="3"/>
       <c r="AL119" s="3"/>
       <c r="AM119" s="3"/>
-    </row>
-    <row r="120" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q120" s="3"/>
+      <c r="AN119" s="3"/>
+    </row>
+    <row r="120" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R120" s="3"/>
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
@@ -10629,9 +10955,9 @@
       <c r="AK120" s="3"/>
       <c r="AL120" s="3"/>
       <c r="AM120" s="3"/>
-    </row>
-    <row r="121" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q121" s="3"/>
+      <c r="AN120" s="3"/>
+    </row>
+    <row r="121" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R121" s="3"/>
       <c r="S121" s="3"/>
       <c r="T121" s="3"/>
@@ -10654,9 +10980,9 @@
       <c r="AK121" s="3"/>
       <c r="AL121" s="3"/>
       <c r="AM121" s="3"/>
-    </row>
-    <row r="122" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q122" s="3"/>
+      <c r="AN121" s="3"/>
+    </row>
+    <row r="122" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R122" s="3"/>
       <c r="S122" s="3"/>
       <c r="T122" s="3"/>
@@ -10679,9 +11005,9 @@
       <c r="AK122" s="3"/>
       <c r="AL122" s="3"/>
       <c r="AM122" s="3"/>
-    </row>
-    <row r="123" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q123" s="3"/>
+      <c r="AN122" s="3"/>
+    </row>
+    <row r="123" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
       <c r="T123" s="3"/>
@@ -10704,9 +11030,9 @@
       <c r="AK123" s="3"/>
       <c r="AL123" s="3"/>
       <c r="AM123" s="3"/>
-    </row>
-    <row r="124" spans="17:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q124" s="3"/>
+      <c r="AN123" s="3"/>
+    </row>
+    <row r="124" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R124" s="3"/>
       <c r="S124" s="3"/>
       <c r="T124" s="3"/>
@@ -10729,17 +11055,18 @@
       <c r="AK124" s="3"/>
       <c r="AL124" s="3"/>
       <c r="AM124" s="3"/>
+      <c r="AN124" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O45" r:id="rId1" display="http://galaxe.solutions/" xr:uid="{FC3574BC-D6EF-4519-A7F6-F3806DB46557}"/>
-    <hyperlink ref="L38" r:id="rId2" display="http://critically.io/" xr:uid="{58C6B818-5DAB-4298-BE6A-8DFB8F2FA3E6}"/>
-    <hyperlink ref="AJ4" r:id="rId3" display="http://pendo.io/" xr:uid="{D0FB6BCD-C593-4A26-8FE6-FE61791CE669}"/>
-    <hyperlink ref="AH2" r:id="rId4" display="http://underdog.io/" xr:uid="{543C7C11-8D77-4769-955F-05FB4DC5FBB2}"/>
-    <hyperlink ref="AF49" r:id="rId5" display="http://ampcontrol.io/" xr:uid="{D63E3F1B-0340-4575-B7D7-BEF67233F5CD}"/>
-    <hyperlink ref="AC2" r:id="rId6" display="http://soffos.al/" xr:uid="{33336681-5570-4B6F-B154-1FDC1CE41B62}"/>
-    <hyperlink ref="AC19" r:id="rId7" display="http://miningstore.com/" xr:uid="{8AC48435-3FDD-44BD-BC8F-5FF8929E3F09}"/>
-    <hyperlink ref="AA5" r:id="rId8" display="http://ftsi.tech/" xr:uid="{2C18A7FB-BA19-4A58-BB3E-04631CB18EF4}"/>
+    <hyperlink ref="P45" r:id="rId1" display="http://galaxe.solutions/" xr:uid="{FC3574BC-D6EF-4519-A7F6-F3806DB46557}"/>
+    <hyperlink ref="M38" r:id="rId2" display="http://critically.io/" xr:uid="{58C6B818-5DAB-4298-BE6A-8DFB8F2FA3E6}"/>
+    <hyperlink ref="AK4" r:id="rId3" display="http://pendo.io/" xr:uid="{D0FB6BCD-C593-4A26-8FE6-FE61791CE669}"/>
+    <hyperlink ref="AI2" r:id="rId4" display="http://underdog.io/" xr:uid="{543C7C11-8D77-4769-955F-05FB4DC5FBB2}"/>
+    <hyperlink ref="AG49" r:id="rId5" display="http://ampcontrol.io/" xr:uid="{D63E3F1B-0340-4575-B7D7-BEF67233F5CD}"/>
+    <hyperlink ref="AD2" r:id="rId6" display="http://soffos.al/" xr:uid="{33336681-5570-4B6F-B154-1FDC1CE41B62}"/>
+    <hyperlink ref="AD19" r:id="rId7" display="http://miningstore.com/" xr:uid="{8AC48435-3FDD-44BD-BC8F-5FF8929E3F09}"/>
+    <hyperlink ref="AB5" r:id="rId8" display="http://ftsi.tech/" xr:uid="{2C18A7FB-BA19-4A58-BB3E-04631CB18EF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/applications.xlsx
+++ b/applications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57419\Documents\applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AD9D75-97F5-4725-8DC7-4B82FB053123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BF06DE-B90D-40CE-9C64-CC4CEE80625C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48525" yWindow="1455" windowWidth="8100" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="1131">
   <si>
     <t>Total</t>
   </si>
@@ -3786,8 +3786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3958,8 +3958,8 @@
     </row>
     <row r="2" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <f xml:space="preserve"> COUNTA(C2:AAD100)</f>
-        <v>1188</v>
+        <f xml:space="preserve"> COUNTA(B2:AAD100)</f>
+        <v>1238</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1087</v>

--- a/applications.xlsx
+++ b/applications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57419\Documents\applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BF06DE-B90D-40CE-9C64-CC4CEE80625C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF07C802-6264-47A7-B9A0-A7CAE7949367}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47655" yWindow="765" windowWidth="7530" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="1215">
   <si>
     <t>Total</t>
   </si>
@@ -3427,6 +3427,258 @@
   </si>
   <si>
     <t>50. NR Consulting</t>
+  </si>
+  <si>
+    <t>1. Telivy</t>
+  </si>
+  <si>
+    <t>2. Walnut</t>
+  </si>
+  <si>
+    <t>4. Mailgun by Sinch</t>
+  </si>
+  <si>
+    <t>6. NaviSync LLC</t>
+  </si>
+  <si>
+    <t>8. Redan, LLC</t>
+  </si>
+  <si>
+    <t>9. Fundamental Interactions</t>
+  </si>
+  <si>
+    <t>10. ATS Users</t>
+  </si>
+  <si>
+    <t>11. Prometheus Group</t>
+  </si>
+  <si>
+    <t>12. Nityo Infotech</t>
+  </si>
+  <si>
+    <t>13. IMCS Group</t>
+  </si>
+  <si>
+    <t>15. Mahauga LLC</t>
+  </si>
+  <si>
+    <t>16. Zync</t>
+  </si>
+  <si>
+    <t>17. Mobinity Global</t>
+  </si>
+  <si>
+    <t>18. Kairos Technologies</t>
+  </si>
+  <si>
+    <t>19. FLEXTON BUSINESS SOLUTIONS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>20. Life Line Screening</t>
+  </si>
+  <si>
+    <t>21. Aquent Studios</t>
+  </si>
+  <si>
+    <t>22. Bharathvio Technologies</t>
+  </si>
+  <si>
+    <t>23. Brooksource</t>
+  </si>
+  <si>
+    <t>24. Vaco</t>
+  </si>
+  <si>
+    <t>25. Smart IT Frame LLC</t>
+  </si>
+  <si>
+    <t>26. Actalent</t>
+  </si>
+  <si>
+    <t>27. Amdocs</t>
+  </si>
+  <si>
+    <t>28. Sunergi Inc</t>
+  </si>
+  <si>
+    <t>29. Sriven Sy</t>
+  </si>
+  <si>
+    <t>30. Sriven Systems Inc.</t>
+  </si>
+  <si>
+    <t>31. Motion Recruitment</t>
+  </si>
+  <si>
+    <t>32. Motion Recruitment</t>
+  </si>
+  <si>
+    <t>33. CyberCoders</t>
+  </si>
+  <si>
+    <t>34. CyberCoders</t>
+  </si>
+  <si>
+    <t>35. Noteable</t>
+  </si>
+  <si>
+    <t>36. Shaker</t>
+  </si>
+  <si>
+    <t>37. NEXTGEN Innovation Labs</t>
+  </si>
+  <si>
+    <t>38. WP Engine</t>
+  </si>
+  <si>
+    <t>39. Flock Safety</t>
+  </si>
+  <si>
+    <t>41. Homeland LLC</t>
+  </si>
+  <si>
+    <t>42. Genzeon</t>
+  </si>
+  <si>
+    <t>43. SVT Robotics</t>
+  </si>
+  <si>
+    <t>44. Jobot</t>
+  </si>
+  <si>
+    <t>45. DigitalOcean</t>
+  </si>
+  <si>
+    <t>46. SoftStandard Solutions</t>
+  </si>
+  <si>
+    <t>47. Studies Weekly</t>
+  </si>
+  <si>
+    <t>48. ThreeBridge Solutions</t>
+  </si>
+  <si>
+    <t>49. Vaco</t>
+  </si>
+  <si>
+    <t>50. Mozilla</t>
+  </si>
+  <si>
+    <t>2. SparkAI</t>
+  </si>
+  <si>
+    <t>3. Wilder Fields</t>
+  </si>
+  <si>
+    <t>4. EROS Technologies Inc</t>
+  </si>
+  <si>
+    <t>5. Jobot</t>
+  </si>
+  <si>
+    <t>6. RenderDraw</t>
+  </si>
+  <si>
+    <t>7. Optomi</t>
+  </si>
+  <si>
+    <t>9. Data Capital Inc</t>
+  </si>
+  <si>
+    <t>10. VSV WINS, INC</t>
+  </si>
+  <si>
+    <t>11. DynPro, Inc.</t>
+  </si>
+  <si>
+    <t>12. US Department of Health and Human Services</t>
+  </si>
+  <si>
+    <t>13. Raas Infotek</t>
+  </si>
+  <si>
+    <t>14. GovernmentCIO</t>
+  </si>
+  <si>
+    <t>15. Tech-Nique Partners</t>
+  </si>
+  <si>
+    <t>17. eTeam</t>
+  </si>
+  <si>
+    <t>18. Trinity IT Services</t>
+  </si>
+  <si>
+    <t>19. ThreeBridge Solutions</t>
+  </si>
+  <si>
+    <t>22. Jobot</t>
+  </si>
+  <si>
+    <t>24. Solve Finance</t>
+  </si>
+  <si>
+    <t>25. Insight Global</t>
+  </si>
+  <si>
+    <t>26. Morgan 6 LLC</t>
+  </si>
+  <si>
+    <t>28. RightWorks Inc</t>
+  </si>
+  <si>
+    <t>29. Jobot</t>
+  </si>
+  <si>
+    <t>30. Optello</t>
+  </si>
+  <si>
+    <t>31. Jobot</t>
+  </si>
+  <si>
+    <t>32. Luxoft</t>
+  </si>
+  <si>
+    <t>33. eNGINE</t>
+  </si>
+  <si>
+    <t>35. Jobot</t>
+  </si>
+  <si>
+    <t>36. Jobot</t>
+  </si>
+  <si>
+    <t>37. Jobot</t>
+  </si>
+  <si>
+    <t>38. Jobot</t>
+  </si>
+  <si>
+    <t>40. CyberCoders</t>
+  </si>
+  <si>
+    <t>42. ThreeBridge Solutions</t>
+  </si>
+  <si>
+    <t>43. Amwell</t>
+  </si>
+  <si>
+    <t>44. Pinnacle 21</t>
+  </si>
+  <si>
+    <t>45. Method360, Inc.</t>
+  </si>
+  <si>
+    <t>46. Compunnel Inc.</t>
+  </si>
+  <si>
+    <t>47. PlacingIT</t>
+  </si>
+  <si>
+    <t>48. Modis</t>
+  </si>
+  <si>
+    <t>50. Ovia Health</t>
   </si>
 </sst>
 </file>
@@ -3784,338 +4036,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN124"/>
+  <dimension ref="A1:AP124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="41" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>44546</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44545</v>
+      </c>
+      <c r="D1" s="1">
         <v>44544</v>
       </c>
-      <c r="C1" s="1">
+      <c r="E1" s="1">
         <v>44543</v>
       </c>
-      <c r="D1" s="1">
+      <c r="F1" s="1">
         <v>44540</v>
       </c>
-      <c r="E1" s="1">
+      <c r="G1" s="1">
         <v>44539</v>
       </c>
-      <c r="F1" s="1">
+      <c r="H1" s="1">
         <v>44538</v>
       </c>
-      <c r="G1" s="1">
+      <c r="I1" s="1">
         <v>44537</v>
       </c>
-      <c r="H1" s="1">
+      <c r="J1" s="1">
         <v>44536</v>
       </c>
-      <c r="I1" s="1">
+      <c r="K1" s="1">
         <v>44533</v>
       </c>
-      <c r="J1" s="1">
+      <c r="L1" s="1">
         <v>44532</v>
       </c>
-      <c r="K1" s="1">
+      <c r="M1" s="1">
         <v>44531</v>
       </c>
-      <c r="L1" s="1">
+      <c r="N1" s="1">
         <v>44530</v>
       </c>
-      <c r="M1" s="1">
+      <c r="O1" s="1">
         <v>44529</v>
       </c>
-      <c r="N1" s="1">
+      <c r="P1" s="1">
         <v>44524</v>
       </c>
-      <c r="O1" s="1">
+      <c r="Q1" s="1">
         <v>44523</v>
       </c>
-      <c r="P1" s="1">
+      <c r="R1" s="1">
         <v>44522</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="S1" s="1">
         <v>44518</v>
       </c>
-      <c r="R1" s="1">
+      <c r="T1" s="1">
         <v>44517</v>
       </c>
-      <c r="S1" s="1">
+      <c r="U1" s="1">
         <v>44516</v>
       </c>
-      <c r="T1" s="1">
+      <c r="V1" s="1">
         <v>44515</v>
       </c>
-      <c r="U1" s="1">
+      <c r="W1" s="1">
         <v>44512</v>
       </c>
-      <c r="V1" s="1">
+      <c r="X1" s="1">
         <v>44511</v>
       </c>
-      <c r="W1" s="1">
+      <c r="Y1" s="1">
         <v>44510</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Z1" s="1">
         <v>44509</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="AA1" s="1">
         <v>44508</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AB1" s="1">
         <v>44505</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AC1" s="1">
         <v>44504</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AD1" s="1">
         <v>44503</v>
       </c>
-      <c r="AC1" s="5">
+      <c r="AE1" s="5">
         <v>44502</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AF1" s="1">
         <v>44501</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AG1" s="1">
         <v>44498</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AH1" s="1">
         <v>44497</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AI1" s="1">
         <v>44496</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AJ1" s="1">
         <v>44495</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AK1" s="1">
         <v>44494</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AL1" s="1">
         <v>44489</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AM1" s="1">
         <v>44487</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AN1" s="1">
         <v>44486</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AO1" s="1">
         <v>44421</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AP1" s="1">
         <v>44419</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <f xml:space="preserve"> COUNTA(B2:AAD100)</f>
-        <v>1238</v>
+        <f xml:space="preserve"> COUNTA(B2:AAF100)</f>
+        <v>1338</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>13</v>
@@ -4124,2684 +4390,2850 @@
         <v>13</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AE3" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1046</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3"/>
+      <c r="T4" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AE4" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="4" t="s">
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3"/>
+      <c r="T5" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AD5" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="AC5" s="6" t="s">
+      <c r="AE5" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AG5" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AH5" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AI5" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AK5" s="3" t="s">
         <v>663</v>
-      </c>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3" t="s">
-        <v>664</v>
       </c>
       <c r="AL5" s="3"/>
       <c r="AM5" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="AN5" s="3" t="s">
+      <c r="AP5" s="3" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3"/>
+      <c r="T6" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Z6" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AD6" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="AC6" s="6" t="s">
+      <c r="AE6" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AF6" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AH6" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="AG6" s="3" t="s">
+      <c r="AI6" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="AH6" s="3" t="s">
+      <c r="AJ6" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="AI6" s="3" t="s">
+      <c r="AK6" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
-      <c r="AM6" s="3" t="s">
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="AN6" s="3" t="s">
+      <c r="AP6" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3"/>
+      <c r="T7" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AD7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="AC7" s="6" t="s">
+      <c r="AE7" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AF7" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AG7" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AH7" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AI7" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="AI7" s="3" t="s">
+      <c r="AK7" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
-      <c r="AM7" s="3" t="s">
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="AN7" s="3" t="s">
+      <c r="AP7" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>64</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3"/>
+      <c r="T8" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Z8" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="AA8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="AC8" s="6" t="s">
+      <c r="AE8" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AF8" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AG8" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AH8" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="AG8" s="3" t="s">
+      <c r="AI8" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="AH8" s="3" t="s">
+      <c r="AJ8" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="AI8" s="3" t="s">
+      <c r="AK8" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
-      <c r="AM8" s="3" t="s">
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="AN8" s="3"/>
-    </row>
-    <row r="9" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP8" s="3"/>
+    </row>
+    <row r="9" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3"/>
+      <c r="T9" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Z9" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3" t="s">
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="AC9" s="6" t="s">
+      <c r="AE9" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AF9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AE9" s="3" t="s">
+      <c r="AG9" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="AF9" s="3" t="s">
+      <c r="AH9" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="AG9" s="3" t="s">
+      <c r="AI9" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="AH9" s="3" t="s">
+      <c r="AJ9" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="AI9" s="3" t="s">
+      <c r="AK9" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
-      <c r="AM9" s="3" t="s">
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="AN9" s="3"/>
-    </row>
-    <row r="10" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP9" s="3"/>
+    </row>
+    <row r="10" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3"/>
+      <c r="T10" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3" t="s">
+      <c r="W10" s="3"/>
+      <c r="X10" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="Z10" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="AA10" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="AB10" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3" t="s">
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="AC10" s="6" t="s">
+      <c r="AE10" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AF10" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AG10" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="AF10" s="3" t="s">
+      <c r="AH10" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="AG10" s="3" t="s">
+      <c r="AI10" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="AH10" s="3" t="s">
+      <c r="AJ10" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="AI10" s="3" t="s">
+      <c r="AK10" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
-      <c r="AM10" s="3" t="s">
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="AN10" s="3"/>
-    </row>
-    <row r="11" spans="1:40" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AP10" s="3"/>
+    </row>
+    <row r="11" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>88</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="Z11" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="Y11" s="3" t="s">
+      <c r="AA11" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3" t="s">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="AC11" s="6" t="s">
+      <c r="AE11" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AF11" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="AE11" s="3" t="s">
+      <c r="AG11" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="AF11" s="3" t="s">
+      <c r="AH11" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="AG11" s="3" t="s">
+      <c r="AI11" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="AH11" s="3" t="s">
+      <c r="AJ11" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="AI11" s="3" t="s">
+      <c r="AK11" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
-      <c r="AM11" s="3" t="s">
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="AN11" s="3"/>
-    </row>
-    <row r="12" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP11" s="3"/>
+    </row>
+    <row r="12" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3"/>
+      <c r="T12" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3"/>
+      <c r="X12" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="Z12" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="Y12" s="3" t="s">
+      <c r="AA12" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3" t="s">
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="AC12" s="6" t="s">
+      <c r="AE12" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="AD12" s="3" t="s">
+      <c r="AF12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AE12" s="3" t="s">
+      <c r="AG12" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="AF12" s="3" t="s">
+      <c r="AH12" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="AG12" s="3" t="s">
+      <c r="AI12" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="AH12" s="3" t="s">
+      <c r="AJ12" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="AI12" s="3" t="s">
+      <c r="AK12" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
-      <c r="AM12" s="3" t="s">
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="AN12" s="3"/>
-    </row>
-    <row r="13" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP12" s="3"/>
+    </row>
+    <row r="13" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="3"/>
+      <c r="T13" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3"/>
+      <c r="X13" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="Y13" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="Z13" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="Y13" s="3" t="s">
+      <c r="AA13" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3" t="s">
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="AC13" s="6" t="s">
+      <c r="AE13" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="AD13" s="3" t="s">
+      <c r="AF13" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="AE13" s="3" t="s">
+      <c r="AG13" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="AF13" s="3" t="s">
+      <c r="AH13" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="AG13" s="3" t="s">
+      <c r="AI13" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="AH13" s="3" t="s">
+      <c r="AJ13" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="AI13" s="3" t="s">
+      <c r="AK13" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
-      <c r="AM13" s="3" t="s">
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="AN13" s="3"/>
-    </row>
-    <row r="14" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP13" s="3"/>
+    </row>
+    <row r="14" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3"/>
+      <c r="T14" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3"/>
+      <c r="X14" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3" t="s">
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="AC14" s="6" t="s">
+      <c r="AE14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AF14" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AG14" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="AF14" s="3" t="s">
+      <c r="AH14" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="AG14" s="3" t="s">
+      <c r="AI14" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="AH14" s="3" t="s">
+      <c r="AJ14" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="AI14" s="3" t="s">
+      <c r="AK14" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
-      <c r="AM14" s="3" t="s">
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="AN14" s="3"/>
-    </row>
-    <row r="15" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP14" s="3"/>
+    </row>
+    <row r="15" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>129</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>134</v>
       </c>
       <c r="P15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3"/>
+      <c r="T15" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3" t="s">
+      <c r="W15" s="3"/>
+      <c r="X15" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="AA15" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3" t="s">
-        <v>815</v>
-      </c>
+      <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="AE15" s="3" t="s">
+      <c r="AG15" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="AF15" s="3" t="s">
+      <c r="AH15" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="AG15" s="3" t="s">
+      <c r="AI15" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="AH15" s="3" t="s">
+      <c r="AJ15" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="AI15" s="3" t="s">
+      <c r="AK15" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
-      <c r="AM15" s="3" t="s">
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="AN15" s="3"/>
-    </row>
-    <row r="16" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP15" s="3"/>
+    </row>
+    <row r="16" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="Y16" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="X16" s="3" t="s">
+      <c r="Z16" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="Y16" s="3" t="s">
+      <c r="AA16" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-      <c r="AD16" s="3" t="s">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AE16" s="3" t="s">
+      <c r="AG16" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="AF16" s="3" t="s">
+      <c r="AH16" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="AG16" s="3" t="s">
+      <c r="AI16" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="AH16" s="3" t="s">
+      <c r="AJ16" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="AI16" s="3" t="s">
+      <c r="AK16" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
-      <c r="AM16" s="3" t="s">
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="AN16" s="3"/>
-    </row>
-    <row r="17" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP16" s="3"/>
+    </row>
+    <row r="17" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>149</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="3"/>
+      <c r="T17" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3"/>
+      <c r="X17" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="Y17" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="Z17" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="Y17" s="3" t="s">
+      <c r="AA17" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
-      <c r="AD17" s="3" t="s">
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="AE17" s="3" t="s">
+      <c r="AG17" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="AF17" s="3" t="s">
+      <c r="AH17" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="AG17" s="3" t="s">
+      <c r="AI17" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="AH17" s="3" t="s">
+      <c r="AJ17" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="AI17" s="3" t="s">
+      <c r="AK17" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
-      <c r="AM17" s="3" t="s">
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="AN17" s="3"/>
-    </row>
-    <row r="18" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP17" s="3"/>
+    </row>
+    <row r="18" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3"/>
+      <c r="T18" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3" t="s">
+      <c r="W18" s="3"/>
+      <c r="X18" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="Y18" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="X18" s="3" t="s">
+      <c r="Z18" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="Y18" s="3" t="s">
+      <c r="AA18" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
-      <c r="AD18" s="3" t="s">
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="AE18" s="3" t="s">
+      <c r="AG18" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="AF18" s="3" t="s">
+      <c r="AH18" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="AG18" s="3" t="s">
+      <c r="AI18" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="AH18" s="3" t="s">
+      <c r="AJ18" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="AI18" s="3" t="s">
+      <c r="AK18" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
-      <c r="AM18" s="3" t="s">
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="AN18" s="3"/>
-    </row>
-    <row r="19" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP18" s="3"/>
+    </row>
+    <row r="19" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>1061</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>172</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="Y19" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="Z19" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="Y19" s="3" t="s">
+      <c r="AA19" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-      <c r="AD19" s="4" t="s">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3" t="s">
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="AG19" s="3" t="s">
+      <c r="AI19" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="AH19" s="3" t="s">
+      <c r="AJ19" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
-      <c r="AM19" s="3" t="s">
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="AN19" s="3"/>
-    </row>
-    <row r="20" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP19" s="3"/>
+    </row>
+    <row r="20" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3"/>
+      <c r="T20" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3" t="s">
+      <c r="W20" s="3"/>
+      <c r="X20" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="Y20" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="Z20" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="AA20" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
-      <c r="AD20" s="3" t="s">
-        <v>883</v>
-      </c>
+      <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="AG20" s="3" t="s">
+      <c r="AI20" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="AH20" s="3" t="s">
+      <c r="AJ20" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
-      <c r="AM20" s="3" t="s">
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="AN20" s="3"/>
-    </row>
-    <row r="21" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP20" s="3"/>
+    </row>
+    <row r="21" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3"/>
+      <c r="T21" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3" t="s">
+      <c r="W21" s="3"/>
+      <c r="X21" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="Y21" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="Z21" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
-      <c r="AD21" s="3" t="s">
-        <v>894</v>
-      </c>
+      <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="AG21" s="3" t="s">
+      <c r="AI21" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="AH21" s="3" t="s">
+      <c r="AJ21" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
-      <c r="AM21" s="3" t="s">
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="AN21" s="3"/>
-    </row>
-    <row r="22" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP21" s="3"/>
+    </row>
+    <row r="22" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3" t="s">
-        <v>899</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="Y22" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="Z22" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
-      <c r="AD22" s="3" t="s">
-        <v>904</v>
-      </c>
+      <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="AG22" s="3" t="s">
+      <c r="AI22" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="AH22" s="3" t="s">
+      <c r="AJ22" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
-    </row>
-    <row r="23" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+    </row>
+    <row r="23" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>217</v>
       </c>
       <c r="I23" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="R23" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="3" t="s">
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="Y23" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="X23" s="3" t="s">
+      <c r="Z23" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
-      <c r="AD23" s="3" t="s">
-        <v>911</v>
-      </c>
+      <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="AG23" s="3" t="s">
+      <c r="AI23" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="AH23" s="3" t="s">
+      <c r="AJ23" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
-    </row>
-    <row r="24" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+    </row>
+    <row r="24" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="Q24" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>236</v>
+      </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="3" t="s">
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="Y24" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="X24" s="3" t="s">
+      <c r="Z24" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
-      <c r="AD24" s="3" t="s">
-        <v>918</v>
-      </c>
+      <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="AG24" s="3" t="s">
+      <c r="AI24" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="AH24" s="3" t="s">
+      <c r="AJ24" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
-    </row>
-    <row r="25" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+    </row>
+    <row r="25" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="R25" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="3" t="s">
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="W25" s="3" t="s">
+      <c r="Y25" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
-      <c r="AD25" s="3" t="s">
-        <v>924</v>
-      </c>
+      <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="AG25" s="3" t="s">
+      <c r="AI25" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="AH25" s="3" t="s">
+      <c r="AJ25" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
-    </row>
-    <row r="26" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+    </row>
+    <row r="26" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="R26" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="3" t="s">
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="W26" s="3" t="s">
+      <c r="Y26" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
-      <c r="AD26" s="3" t="s">
-        <v>930</v>
-      </c>
+      <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="AG26" s="3" t="s">
+      <c r="AI26" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="AH26" s="3" t="s">
+      <c r="AJ26" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
-    </row>
-    <row r="27" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+    </row>
+    <row r="27" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="R27" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
-      <c r="V27" s="3" t="s">
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="W27" s="3" t="s">
+      <c r="Y27" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
-      <c r="AD27" s="3" t="s">
-        <v>936</v>
-      </c>
+      <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="AG27" s="3" t="s">
+      <c r="AI27" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="AH27" s="3" t="s">
+      <c r="AJ27" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
-    </row>
-    <row r="28" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+    </row>
+    <row r="28" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="R28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
-      <c r="V28" s="3" t="s">
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="W28" s="3" t="s">
+      <c r="Y28" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
-      <c r="AD28" s="3" t="s">
-        <v>941</v>
-      </c>
+      <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="AG28" s="3" t="s">
+      <c r="AI28" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="AH28" s="3" t="s">
+      <c r="AJ28" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
-    </row>
-    <row r="29" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+    </row>
+    <row r="29" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
-      <c r="V29" s="3" t="s">
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
-      <c r="AD29" s="3" t="s">
-        <v>946</v>
-      </c>
+      <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="AG29" s="3" t="s">
+      <c r="AI29" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
-    </row>
-    <row r="30" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+    </row>
+    <row r="30" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="R30" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
@@ -6813,73 +7245,79 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
-      <c r="AD30" s="3" t="s">
-        <v>949</v>
-      </c>
+      <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="AG30" s="3" t="s">
+      <c r="AI30" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
-    </row>
-    <row r="31" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+    </row>
+    <row r="31" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="R31" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
@@ -6891,73 +7329,79 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
-      <c r="AD31" s="3" t="s">
-        <v>952</v>
-      </c>
+      <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="AG31" s="3" t="s">
+      <c r="AI31" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
-    </row>
-    <row r="32" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+    </row>
+    <row r="32" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="R32" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
@@ -6969,73 +7413,79 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
-      <c r="AD32" s="3" t="s">
-        <v>955</v>
-      </c>
+      <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="AG32" s="3" t="s">
+      <c r="AI32" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="AH32" s="3"/>
-      <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
-    </row>
-    <row r="33" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+    </row>
+    <row r="33" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>331</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>331</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>331</v>
       </c>
       <c r="O33" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q33" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
@@ -7047,73 +7497,79 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
-      <c r="AD33" s="3" t="s">
-        <v>958</v>
-      </c>
+      <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="AG33" s="3" t="s">
+      <c r="AI33" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
-    </row>
-    <row r="34" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+    </row>
+    <row r="34" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="P34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="Q34" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="R34" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
@@ -7125,73 +7581,79 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
-      <c r="AD34" s="3" t="s">
-        <v>961</v>
-      </c>
+      <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="AG34" s="3" t="s">
+      <c r="AI34" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
-    </row>
-    <row r="35" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+    </row>
+    <row r="35" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>355</v>
       </c>
       <c r="O35" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q35" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="R35" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
@@ -7203,73 +7665,79 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
-      <c r="AD35" s="3" t="s">
-        <v>964</v>
-      </c>
+      <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="AG35" s="3" t="s">
+      <c r="AI35" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
-    </row>
-    <row r="36" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+    </row>
+    <row r="36" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="R36" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
@@ -7283,69 +7751,75 @@
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
-      <c r="AF36" s="3" t="s">
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="AG36" s="3" t="s">
+      <c r="AI36" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="AH36" s="3"/>
-      <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
       <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
-    </row>
-    <row r="37" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+    </row>
+    <row r="37" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="P37" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="R37" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
@@ -7359,69 +7833,75 @@
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
-      <c r="AF37" s="3" t="s">
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="AG37" s="3" t="s">
+      <c r="AI37" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="AH37" s="3"/>
-      <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
-    </row>
-    <row r="38" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+    </row>
+    <row r="38" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="O38" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="P38" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="Q38" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="R38" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
@@ -7435,69 +7915,75 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
-      <c r="AF38" s="3" t="s">
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="AG38" s="3" t="s">
+      <c r="AI38" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="AH38" s="3"/>
-      <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
       <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
-    </row>
-    <row r="39" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+    </row>
+    <row r="39" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="R39" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
@@ -7511,69 +7997,75 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-      <c r="AF39" s="3" t="s">
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="AG39" s="3" t="s">
+      <c r="AI39" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="AH39" s="3"/>
-      <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
-    </row>
-    <row r="40" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+    </row>
+    <row r="40" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="O40" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="P40" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="R40" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
@@ -7587,69 +8079,75 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-      <c r="AF40" s="3" t="s">
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="AG40" s="3" t="s">
+      <c r="AI40" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="AH40" s="3"/>
-      <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
-    </row>
-    <row r="41" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+    </row>
+    <row r="41" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="O41" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="P41" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="Q41" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="R41" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
@@ -7663,69 +8161,75 @@
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
-      <c r="AF41" s="3" t="s">
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="AG41" s="3" t="s">
+      <c r="AI41" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="AH41" s="3"/>
-      <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
       <c r="AM41" s="3"/>
       <c r="AN41" s="3"/>
-    </row>
-    <row r="42" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+    </row>
+    <row r="42" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="P42" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="Q42" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="R42" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
@@ -7739,69 +8243,75 @@
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
-      <c r="AF42" s="3" t="s">
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="AG42" s="3" t="s">
+      <c r="AI42" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="AH42" s="3"/>
-      <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
       <c r="AM42" s="3"/>
       <c r="AN42" s="3"/>
-    </row>
-    <row r="43" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="3"/>
+    </row>
+    <row r="43" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="O43" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="P43" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="Q43" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="R43" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
@@ -7815,69 +8325,75 @@
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
-      <c r="AF43" s="3" t="s">
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="AG43" s="3" t="s">
+      <c r="AI43" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="AH43" s="3"/>
-      <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
       <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
-    </row>
-    <row r="44" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
+    </row>
+    <row r="44" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="L44" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="M44" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="O44" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="P44" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="Q44" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="R44" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -7891,69 +8407,75 @@
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
-      <c r="AF44" s="3" t="s">
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="AG44" s="3" t="s">
+      <c r="AI44" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="AH44" s="3"/>
-      <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
       <c r="AM44" s="3"/>
       <c r="AN44" s="3"/>
-    </row>
-    <row r="45" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO44" s="3"/>
+      <c r="AP44" s="3"/>
+    </row>
+    <row r="45" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="P45" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="P45" s="4" t="s">
+      <c r="R45" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -7967,67 +8489,73 @@
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
-      <c r="AF45" s="3" t="s">
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="AG45" s="3" t="s">
+      <c r="AI45" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="AH45" s="3"/>
-      <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
       <c r="AM45" s="3"/>
       <c r="AN45" s="3"/>
-    </row>
-    <row r="46" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO45" s="3"/>
+      <c r="AP45" s="3"/>
+    </row>
+    <row r="46" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3"/>
+      <c r="J46" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="L46" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="M46" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="O46" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="P46" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="Q46" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="P46" s="3" t="s">
+      <c r="R46" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -8041,67 +8569,73 @@
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
-      <c r="AF46" s="3" t="s">
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="AG46" s="3" t="s">
+      <c r="AI46" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="AH46" s="3"/>
-      <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3"/>
       <c r="AL46" s="3"/>
       <c r="AM46" s="3"/>
       <c r="AN46" s="3"/>
-    </row>
-    <row r="47" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO46" s="3"/>
+      <c r="AP46" s="3"/>
+    </row>
+    <row r="47" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3"/>
+      <c r="J47" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="P47" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
@@ -8115,67 +8649,73 @@
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
-      <c r="AF47" s="3" t="s">
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="AG47" s="3" t="s">
+      <c r="AI47" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="AH47" s="3"/>
-      <c r="AI47" s="3"/>
       <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
       <c r="AM47" s="3"/>
       <c r="AN47" s="3"/>
-    </row>
-    <row r="48" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO47" s="3"/>
+      <c r="AP47" s="3"/>
+    </row>
+    <row r="48" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3"/>
+      <c r="J48" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="O48" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="P48" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="Q48" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="R48" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
@@ -8189,67 +8729,73 @@
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
-      <c r="AF48" s="3" t="s">
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="AG48" s="3" t="s">
+      <c r="AI48" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="AH48" s="3"/>
-      <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
       <c r="AM48" s="3"/>
       <c r="AN48" s="3"/>
-    </row>
-    <row r="49" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO48" s="3"/>
+      <c r="AP48" s="3"/>
+    </row>
+    <row r="49" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>1042</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3"/>
+      <c r="J49" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="O49" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="P49" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="Q49" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="R49" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
@@ -8263,67 +8809,73 @@
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
-      <c r="AF49" s="3" t="s">
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="AG49" s="4" t="s">
+      <c r="AI49" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="AH49" s="3"/>
-      <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
       <c r="AM49" s="3"/>
       <c r="AN49" s="3"/>
-    </row>
-    <row r="50" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO49" s="3"/>
+      <c r="AP49" s="3"/>
+    </row>
+    <row r="50" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3"/>
+      <c r="J50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="L50" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="M50" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="N50" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>527</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>522</v>
       </c>
       <c r="P50" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="R50" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -8337,67 +8889,73 @@
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
-      <c r="AF50" s="3" t="s">
+      <c r="AF50" s="3"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="AG50" s="3" t="s">
+      <c r="AI50" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="AH50" s="3"/>
-      <c r="AI50" s="3"/>
       <c r="AJ50" s="3"/>
       <c r="AK50" s="3"/>
       <c r="AL50" s="3"/>
       <c r="AM50" s="3"/>
       <c r="AN50" s="3"/>
-    </row>
-    <row r="51" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO50" s="3"/>
+      <c r="AP50" s="3"/>
+    </row>
+    <row r="51" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3"/>
+      <c r="J51" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="L51" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="M51" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="N51" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="O51" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="N51" s="3" t="s">
+      <c r="P51" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="Q51" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="P51" s="3" t="s">
+      <c r="R51" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -8411,53 +8969,55 @@
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
-      <c r="AF51" s="3" t="s">
+      <c r="AF51" s="3"/>
+      <c r="AG51" s="3"/>
+      <c r="AH51" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="AG51" s="3" t="s">
+      <c r="AI51" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="AH51" s="3"/>
-      <c r="AI51" s="3"/>
       <c r="AJ51" s="3"/>
       <c r="AK51" s="3"/>
       <c r="AL51" s="3"/>
       <c r="AM51" s="3"/>
       <c r="AN51" s="3"/>
-    </row>
-    <row r="52" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO51" s="3"/>
+      <c r="AP51" s="3"/>
+    </row>
+    <row r="52" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3"/>
+      <c r="J52" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="3" t="s">
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="N52" s="3" t="s">
+      <c r="P52" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="Q52" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="P52" s="3" t="s">
+      <c r="R52" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
@@ -8471,53 +9031,55 @@
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
-      <c r="AF52" s="3" t="s">
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="3"/>
+      <c r="AH52" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="AG52" s="3" t="s">
+      <c r="AI52" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="AH52" s="3"/>
-      <c r="AI52" s="3"/>
       <c r="AJ52" s="3"/>
       <c r="AK52" s="3"/>
       <c r="AL52" s="3"/>
       <c r="AM52" s="3"/>
       <c r="AN52" s="3"/>
-    </row>
-    <row r="53" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO52" s="3"/>
+      <c r="AP52" s="3"/>
+    </row>
+    <row r="53" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="3"/>
+      <c r="J53" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
-      <c r="M53" s="3" t="s">
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="N53" s="3" t="s">
+      <c r="P53" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="O53" s="3" t="s">
+      <c r="Q53" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="P53" s="3" t="s">
+      <c r="R53" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -8531,49 +9093,51 @@
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
-      <c r="AF53" s="3" t="s">
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3"/>
+      <c r="AH53" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="AG53" s="3"/>
-      <c r="AH53" s="3"/>
       <c r="AI53" s="3"/>
       <c r="AJ53" s="3"/>
       <c r="AK53" s="3"/>
       <c r="AL53" s="3"/>
       <c r="AM53" s="3"/>
       <c r="AN53" s="3"/>
-    </row>
-    <row r="54" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO53" s="3"/>
+      <c r="AP53" s="3"/>
+    </row>
+    <row r="54" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-      <c r="M54" s="3" t="s">
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="P54" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="O54" s="3" t="s">
+      <c r="Q54" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="P54" s="3" t="s">
+      <c r="R54" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
@@ -8596,38 +9160,40 @@
       <c r="AL54" s="3"/>
       <c r="AM54" s="3"/>
       <c r="AN54" s="3"/>
-    </row>
-    <row r="55" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO54" s="3"/>
+      <c r="AP54" s="3"/>
+    </row>
+    <row r="55" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-      <c r="M55" s="3" t="s">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="N55" s="3" t="s">
+      <c r="P55" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="O55" s="3" t="s">
+      <c r="Q55" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="P55" s="3" t="s">
+      <c r="R55" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
@@ -8650,36 +9216,38 @@
       <c r="AL55" s="3"/>
       <c r="AM55" s="3"/>
       <c r="AN55" s="3"/>
-    </row>
-    <row r="56" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO55" s="3"/>
+      <c r="AP55" s="3"/>
+    </row>
+    <row r="56" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-      <c r="N56" s="3" t="s">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="O56" s="3" t="s">
+      <c r="Q56" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="P56" s="3" t="s">
+      <c r="R56" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
@@ -8702,34 +9270,36 @@
       <c r="AL56" s="3"/>
       <c r="AM56" s="3"/>
       <c r="AN56" s="3"/>
-    </row>
-    <row r="57" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO56" s="3"/>
+      <c r="AP56" s="3"/>
+    </row>
+    <row r="57" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
-      <c r="N57" s="3" t="s">
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="O57" s="3" t="s">
+      <c r="Q57" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="P57" s="3" t="s">
+      <c r="R57" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
@@ -8752,32 +9322,34 @@
       <c r="AL57" s="3"/>
       <c r="AM57" s="3"/>
       <c r="AN57" s="3"/>
-    </row>
-    <row r="58" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO57" s="3"/>
+      <c r="AP57" s="3"/>
+    </row>
+    <row r="58" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
-      <c r="N58" s="3" t="s">
-        <v>576</v>
-      </c>
+      <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
@@ -8800,32 +9372,34 @@
       <c r="AL58" s="3"/>
       <c r="AM58" s="3"/>
       <c r="AN58" s="3"/>
-    </row>
-    <row r="59" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO58" s="3"/>
+      <c r="AP58" s="3"/>
+    </row>
+    <row r="59" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
-      <c r="N59" s="3" t="s">
-        <v>579</v>
-      </c>
+      <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
@@ -8848,32 +9422,34 @@
       <c r="AL59" s="3"/>
       <c r="AM59" s="3"/>
       <c r="AN59" s="3"/>
-    </row>
-    <row r="60" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO59" s="3"/>
+      <c r="AP59" s="3"/>
+    </row>
+    <row r="60" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
-      <c r="N60" s="3" t="s">
-        <v>582</v>
-      </c>
+      <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
@@ -8896,32 +9472,34 @@
       <c r="AL60" s="3"/>
       <c r="AM60" s="3"/>
       <c r="AN60" s="3"/>
-    </row>
-    <row r="61" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO60" s="3"/>
+      <c r="AP60" s="3"/>
+    </row>
+    <row r="61" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
-      <c r="N61" s="3" t="s">
-        <v>585</v>
-      </c>
+      <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
@@ -8944,28 +9522,30 @@
       <c r="AL61" s="3"/>
       <c r="AM61" s="3"/>
       <c r="AN61" s="3"/>
-    </row>
-    <row r="62" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO61" s="3"/>
+      <c r="AP61" s="3"/>
+    </row>
+    <row r="62" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
-      <c r="N62" s="3" t="s">
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
@@ -8990,28 +9570,30 @@
       <c r="AL62" s="3"/>
       <c r="AM62" s="3"/>
       <c r="AN62" s="3"/>
-    </row>
-    <row r="63" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO62" s="3"/>
+      <c r="AP62" s="3"/>
+    </row>
+    <row r="63" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
-      <c r="N63" s="3" t="s">
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
@@ -9036,17 +9618,19 @@
       <c r="AL63" s="3"/>
       <c r="AM63" s="3"/>
       <c r="AN63" s="3"/>
-    </row>
-    <row r="64" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO63" s="3"/>
+      <c r="AP63" s="3"/>
+    </row>
+    <row r="64" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
@@ -9080,8 +9664,10 @@
       <c r="AL64" s="3"/>
       <c r="AM64" s="3"/>
       <c r="AN64" s="3"/>
-    </row>
-    <row r="65" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO64" s="3"/>
+      <c r="AP64" s="3"/>
+    </row>
+    <row r="65" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -9122,8 +9708,10 @@
       <c r="AL65" s="3"/>
       <c r="AM65" s="3"/>
       <c r="AN65" s="3"/>
-    </row>
-    <row r="66" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO65" s="3"/>
+      <c r="AP65" s="3"/>
+    </row>
+    <row r="66" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -9164,8 +9752,10 @@
       <c r="AL66" s="3"/>
       <c r="AM66" s="3"/>
       <c r="AN66" s="3"/>
-    </row>
-    <row r="67" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO66" s="3"/>
+      <c r="AP66" s="3"/>
+    </row>
+    <row r="67" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -9206,8 +9796,10 @@
       <c r="AL67" s="3"/>
       <c r="AM67" s="3"/>
       <c r="AN67" s="3"/>
-    </row>
-    <row r="68" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO67" s="3"/>
+      <c r="AP67" s="3"/>
+    </row>
+    <row r="68" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -9248,8 +9840,10 @@
       <c r="AL68" s="3"/>
       <c r="AM68" s="3"/>
       <c r="AN68" s="3"/>
-    </row>
-    <row r="69" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO68" s="3"/>
+      <c r="AP68" s="3"/>
+    </row>
+    <row r="69" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -9290,8 +9884,10 @@
       <c r="AL69" s="3"/>
       <c r="AM69" s="3"/>
       <c r="AN69" s="3"/>
-    </row>
-    <row r="70" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO69" s="3"/>
+      <c r="AP69" s="3"/>
+    </row>
+    <row r="70" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -9332,8 +9928,10 @@
       <c r="AL70" s="3"/>
       <c r="AM70" s="3"/>
       <c r="AN70" s="3"/>
-    </row>
-    <row r="71" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO70" s="3"/>
+      <c r="AP70" s="3"/>
+    </row>
+    <row r="71" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -9374,8 +9972,10 @@
       <c r="AL71" s="3"/>
       <c r="AM71" s="3"/>
       <c r="AN71" s="3"/>
-    </row>
-    <row r="72" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO71" s="3"/>
+      <c r="AP71" s="3"/>
+    </row>
+    <row r="72" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -9416,8 +10016,10 @@
       <c r="AL72" s="3"/>
       <c r="AM72" s="3"/>
       <c r="AN72" s="3"/>
-    </row>
-    <row r="73" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO72" s="3"/>
+      <c r="AP72" s="3"/>
+    </row>
+    <row r="73" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -9458,8 +10060,10 @@
       <c r="AL73" s="3"/>
       <c r="AM73" s="3"/>
       <c r="AN73" s="3"/>
-    </row>
-    <row r="74" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO73" s="3"/>
+      <c r="AP73" s="3"/>
+    </row>
+    <row r="74" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -9500,8 +10104,10 @@
       <c r="AL74" s="3"/>
       <c r="AM74" s="3"/>
       <c r="AN74" s="3"/>
-    </row>
-    <row r="75" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO74" s="3"/>
+      <c r="AP74" s="3"/>
+    </row>
+    <row r="75" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -9542,8 +10148,10 @@
       <c r="AL75" s="3"/>
       <c r="AM75" s="3"/>
       <c r="AN75" s="3"/>
-    </row>
-    <row r="76" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO75" s="3"/>
+      <c r="AP75" s="3"/>
+    </row>
+    <row r="76" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -9584,8 +10192,10 @@
       <c r="AL76" s="3"/>
       <c r="AM76" s="3"/>
       <c r="AN76" s="3"/>
-    </row>
-    <row r="77" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO76" s="3"/>
+      <c r="AP76" s="3"/>
+    </row>
+    <row r="77" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -9626,8 +10236,10 @@
       <c r="AL77" s="3"/>
       <c r="AM77" s="3"/>
       <c r="AN77" s="3"/>
-    </row>
-    <row r="78" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO77" s="3"/>
+      <c r="AP77" s="3"/>
+    </row>
+    <row r="78" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -9668,8 +10280,10 @@
       <c r="AL78" s="3"/>
       <c r="AM78" s="3"/>
       <c r="AN78" s="3"/>
-    </row>
-    <row r="79" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO78" s="3"/>
+      <c r="AP78" s="3"/>
+    </row>
+    <row r="79" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -9710,8 +10324,10 @@
       <c r="AL79" s="3"/>
       <c r="AM79" s="3"/>
       <c r="AN79" s="3"/>
-    </row>
-    <row r="80" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO79" s="3"/>
+      <c r="AP79" s="3"/>
+    </row>
+    <row r="80" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -9752,8 +10368,10 @@
       <c r="AL80" s="3"/>
       <c r="AM80" s="3"/>
       <c r="AN80" s="3"/>
-    </row>
-    <row r="81" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO80" s="3"/>
+      <c r="AP80" s="3"/>
+    </row>
+    <row r="81" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -9794,8 +10412,10 @@
       <c r="AL81" s="3"/>
       <c r="AM81" s="3"/>
       <c r="AN81" s="3"/>
-    </row>
-    <row r="82" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO81" s="3"/>
+      <c r="AP81" s="3"/>
+    </row>
+    <row r="82" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -9836,8 +10456,10 @@
       <c r="AL82" s="3"/>
       <c r="AM82" s="3"/>
       <c r="AN82" s="3"/>
-    </row>
-    <row r="83" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO82" s="3"/>
+      <c r="AP82" s="3"/>
+    </row>
+    <row r="83" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -9878,8 +10500,10 @@
       <c r="AL83" s="3"/>
       <c r="AM83" s="3"/>
       <c r="AN83" s="3"/>
-    </row>
-    <row r="84" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO83" s="3"/>
+      <c r="AP83" s="3"/>
+    </row>
+    <row r="84" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -9920,8 +10544,10 @@
       <c r="AL84" s="3"/>
       <c r="AM84" s="3"/>
       <c r="AN84" s="3"/>
-    </row>
-    <row r="85" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO84" s="3"/>
+      <c r="AP84" s="3"/>
+    </row>
+    <row r="85" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -9962,8 +10588,10 @@
       <c r="AL85" s="3"/>
       <c r="AM85" s="3"/>
       <c r="AN85" s="3"/>
-    </row>
-    <row r="86" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO85" s="3"/>
+      <c r="AP85" s="3"/>
+    </row>
+    <row r="86" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -10004,8 +10632,10 @@
       <c r="AL86" s="3"/>
       <c r="AM86" s="3"/>
       <c r="AN86" s="3"/>
-    </row>
-    <row r="87" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO86" s="3"/>
+      <c r="AP86" s="3"/>
+    </row>
+    <row r="87" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -10046,8 +10676,10 @@
       <c r="AL87" s="3"/>
       <c r="AM87" s="3"/>
       <c r="AN87" s="3"/>
-    </row>
-    <row r="88" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO87" s="3"/>
+      <c r="AP87" s="3"/>
+    </row>
+    <row r="88" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -10088,8 +10720,10 @@
       <c r="AL88" s="3"/>
       <c r="AM88" s="3"/>
       <c r="AN88" s="3"/>
-    </row>
-    <row r="89" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO88" s="3"/>
+      <c r="AP88" s="3"/>
+    </row>
+    <row r="89" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -10130,8 +10764,10 @@
       <c r="AL89" s="3"/>
       <c r="AM89" s="3"/>
       <c r="AN89" s="3"/>
-    </row>
-    <row r="90" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO89" s="3"/>
+      <c r="AP89" s="3"/>
+    </row>
+    <row r="90" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -10172,8 +10808,10 @@
       <c r="AL90" s="3"/>
       <c r="AM90" s="3"/>
       <c r="AN90" s="3"/>
-    </row>
-    <row r="91" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO90" s="3"/>
+      <c r="AP90" s="3"/>
+    </row>
+    <row r="91" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -10214,8 +10852,10 @@
       <c r="AL91" s="3"/>
       <c r="AM91" s="3"/>
       <c r="AN91" s="3"/>
-    </row>
-    <row r="92" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO91" s="3"/>
+      <c r="AP91" s="3"/>
+    </row>
+    <row r="92" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -10256,10 +10896,10 @@
       <c r="AL92" s="3"/>
       <c r="AM92" s="3"/>
       <c r="AN92" s="3"/>
-    </row>
-    <row r="93" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R93" s="3"/>
-      <c r="S93" s="3"/>
+      <c r="AO92" s="3"/>
+      <c r="AP92" s="3"/>
+    </row>
+    <row r="93" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T93" s="3"/>
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
@@ -10281,10 +10921,10 @@
       <c r="AL93" s="3"/>
       <c r="AM93" s="3"/>
       <c r="AN93" s="3"/>
-    </row>
-    <row r="94" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R94" s="3"/>
-      <c r="S94" s="3"/>
+      <c r="AO93" s="3"/>
+      <c r="AP93" s="3"/>
+    </row>
+    <row r="94" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T94" s="3"/>
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
@@ -10306,10 +10946,10 @@
       <c r="AL94" s="3"/>
       <c r="AM94" s="3"/>
       <c r="AN94" s="3"/>
-    </row>
-    <row r="95" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R95" s="3"/>
-      <c r="S95" s="3"/>
+      <c r="AO94" s="3"/>
+      <c r="AP94" s="3"/>
+    </row>
+    <row r="95" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
@@ -10331,10 +10971,10 @@
       <c r="AL95" s="3"/>
       <c r="AM95" s="3"/>
       <c r="AN95" s="3"/>
-    </row>
-    <row r="96" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R96" s="3"/>
-      <c r="S96" s="3"/>
+      <c r="AO95" s="3"/>
+      <c r="AP95" s="3"/>
+    </row>
+    <row r="96" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
@@ -10356,10 +10996,10 @@
       <c r="AL96" s="3"/>
       <c r="AM96" s="3"/>
       <c r="AN96" s="3"/>
-    </row>
-    <row r="97" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R97" s="3"/>
-      <c r="S97" s="3"/>
+      <c r="AO96" s="3"/>
+      <c r="AP96" s="3"/>
+    </row>
+    <row r="97" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T97" s="3"/>
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
@@ -10381,10 +11021,10 @@
       <c r="AL97" s="3"/>
       <c r="AM97" s="3"/>
       <c r="AN97" s="3"/>
-    </row>
-    <row r="98" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
+      <c r="AO97" s="3"/>
+      <c r="AP97" s="3"/>
+    </row>
+    <row r="98" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
@@ -10406,10 +11046,10 @@
       <c r="AL98" s="3"/>
       <c r="AM98" s="3"/>
       <c r="AN98" s="3"/>
-    </row>
-    <row r="99" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
+      <c r="AO98" s="3"/>
+      <c r="AP98" s="3"/>
+    </row>
+    <row r="99" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T99" s="3"/>
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
@@ -10431,10 +11071,10 @@
       <c r="AL99" s="3"/>
       <c r="AM99" s="3"/>
       <c r="AN99" s="3"/>
-    </row>
-    <row r="100" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R100" s="3"/>
-      <c r="S100" s="3"/>
+      <c r="AO99" s="3"/>
+      <c r="AP99" s="3"/>
+    </row>
+    <row r="100" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
@@ -10456,10 +11096,10 @@
       <c r="AL100" s="3"/>
       <c r="AM100" s="3"/>
       <c r="AN100" s="3"/>
-    </row>
-    <row r="101" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R101" s="3"/>
-      <c r="S101" s="3"/>
+      <c r="AO100" s="3"/>
+      <c r="AP100" s="3"/>
+    </row>
+    <row r="101" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T101" s="3"/>
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
@@ -10481,10 +11121,10 @@
       <c r="AL101" s="3"/>
       <c r="AM101" s="3"/>
       <c r="AN101" s="3"/>
-    </row>
-    <row r="102" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R102" s="3"/>
-      <c r="S102" s="3"/>
+      <c r="AO101" s="3"/>
+      <c r="AP101" s="3"/>
+    </row>
+    <row r="102" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T102" s="3"/>
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
@@ -10506,10 +11146,10 @@
       <c r="AL102" s="3"/>
       <c r="AM102" s="3"/>
       <c r="AN102" s="3"/>
-    </row>
-    <row r="103" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R103" s="3"/>
-      <c r="S103" s="3"/>
+      <c r="AO102" s="3"/>
+      <c r="AP102" s="3"/>
+    </row>
+    <row r="103" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T103" s="3"/>
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
@@ -10531,10 +11171,10 @@
       <c r="AL103" s="3"/>
       <c r="AM103" s="3"/>
       <c r="AN103" s="3"/>
-    </row>
-    <row r="104" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R104" s="3"/>
-      <c r="S104" s="3"/>
+      <c r="AO103" s="3"/>
+      <c r="AP103" s="3"/>
+    </row>
+    <row r="104" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T104" s="3"/>
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
@@ -10556,10 +11196,10 @@
       <c r="AL104" s="3"/>
       <c r="AM104" s="3"/>
       <c r="AN104" s="3"/>
-    </row>
-    <row r="105" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R105" s="3"/>
-      <c r="S105" s="3"/>
+      <c r="AO104" s="3"/>
+      <c r="AP104" s="3"/>
+    </row>
+    <row r="105" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T105" s="3"/>
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
@@ -10581,10 +11221,10 @@
       <c r="AL105" s="3"/>
       <c r="AM105" s="3"/>
       <c r="AN105" s="3"/>
-    </row>
-    <row r="106" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R106" s="3"/>
-      <c r="S106" s="3"/>
+      <c r="AO105" s="3"/>
+      <c r="AP105" s="3"/>
+    </row>
+    <row r="106" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T106" s="3"/>
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
@@ -10606,10 +11246,10 @@
       <c r="AL106" s="3"/>
       <c r="AM106" s="3"/>
       <c r="AN106" s="3"/>
-    </row>
-    <row r="107" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R107" s="3"/>
-      <c r="S107" s="3"/>
+      <c r="AO106" s="3"/>
+      <c r="AP106" s="3"/>
+    </row>
+    <row r="107" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T107" s="3"/>
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
@@ -10631,10 +11271,10 @@
       <c r="AL107" s="3"/>
       <c r="AM107" s="3"/>
       <c r="AN107" s="3"/>
-    </row>
-    <row r="108" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R108" s="3"/>
-      <c r="S108" s="3"/>
+      <c r="AO107" s="3"/>
+      <c r="AP107" s="3"/>
+    </row>
+    <row r="108" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T108" s="3"/>
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
@@ -10656,10 +11296,10 @@
       <c r="AL108" s="3"/>
       <c r="AM108" s="3"/>
       <c r="AN108" s="3"/>
-    </row>
-    <row r="109" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R109" s="3"/>
-      <c r="S109" s="3"/>
+      <c r="AO108" s="3"/>
+      <c r="AP108" s="3"/>
+    </row>
+    <row r="109" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T109" s="3"/>
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
@@ -10681,10 +11321,10 @@
       <c r="AL109" s="3"/>
       <c r="AM109" s="3"/>
       <c r="AN109" s="3"/>
-    </row>
-    <row r="110" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R110" s="3"/>
-      <c r="S110" s="3"/>
+      <c r="AO109" s="3"/>
+      <c r="AP109" s="3"/>
+    </row>
+    <row r="110" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T110" s="3"/>
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
@@ -10706,10 +11346,10 @@
       <c r="AL110" s="3"/>
       <c r="AM110" s="3"/>
       <c r="AN110" s="3"/>
-    </row>
-    <row r="111" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R111" s="3"/>
-      <c r="S111" s="3"/>
+      <c r="AO110" s="3"/>
+      <c r="AP110" s="3"/>
+    </row>
+    <row r="111" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T111" s="3"/>
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
@@ -10731,10 +11371,10 @@
       <c r="AL111" s="3"/>
       <c r="AM111" s="3"/>
       <c r="AN111" s="3"/>
-    </row>
-    <row r="112" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R112" s="3"/>
-      <c r="S112" s="3"/>
+      <c r="AO111" s="3"/>
+      <c r="AP111" s="3"/>
+    </row>
+    <row r="112" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T112" s="3"/>
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
@@ -10756,10 +11396,10 @@
       <c r="AL112" s="3"/>
       <c r="AM112" s="3"/>
       <c r="AN112" s="3"/>
-    </row>
-    <row r="113" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R113" s="3"/>
-      <c r="S113" s="3"/>
+      <c r="AO112" s="3"/>
+      <c r="AP112" s="3"/>
+    </row>
+    <row r="113" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T113" s="3"/>
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
@@ -10781,10 +11421,10 @@
       <c r="AL113" s="3"/>
       <c r="AM113" s="3"/>
       <c r="AN113" s="3"/>
-    </row>
-    <row r="114" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R114" s="3"/>
-      <c r="S114" s="3"/>
+      <c r="AO113" s="3"/>
+      <c r="AP113" s="3"/>
+    </row>
+    <row r="114" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T114" s="3"/>
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
@@ -10806,10 +11446,10 @@
       <c r="AL114" s="3"/>
       <c r="AM114" s="3"/>
       <c r="AN114" s="3"/>
-    </row>
-    <row r="115" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R115" s="3"/>
-      <c r="S115" s="3"/>
+      <c r="AO114" s="3"/>
+      <c r="AP114" s="3"/>
+    </row>
+    <row r="115" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T115" s="3"/>
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
@@ -10831,10 +11471,10 @@
       <c r="AL115" s="3"/>
       <c r="AM115" s="3"/>
       <c r="AN115" s="3"/>
-    </row>
-    <row r="116" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R116" s="3"/>
-      <c r="S116" s="3"/>
+      <c r="AO115" s="3"/>
+      <c r="AP115" s="3"/>
+    </row>
+    <row r="116" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T116" s="3"/>
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
@@ -10856,10 +11496,10 @@
       <c r="AL116" s="3"/>
       <c r="AM116" s="3"/>
       <c r="AN116" s="3"/>
-    </row>
-    <row r="117" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R117" s="3"/>
-      <c r="S117" s="3"/>
+      <c r="AO116" s="3"/>
+      <c r="AP116" s="3"/>
+    </row>
+    <row r="117" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T117" s="3"/>
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
@@ -10881,10 +11521,10 @@
       <c r="AL117" s="3"/>
       <c r="AM117" s="3"/>
       <c r="AN117" s="3"/>
-    </row>
-    <row r="118" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R118" s="3"/>
-      <c r="S118" s="3"/>
+      <c r="AO117" s="3"/>
+      <c r="AP117" s="3"/>
+    </row>
+    <row r="118" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T118" s="3"/>
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
@@ -10906,10 +11546,10 @@
       <c r="AL118" s="3"/>
       <c r="AM118" s="3"/>
       <c r="AN118" s="3"/>
-    </row>
-    <row r="119" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R119" s="3"/>
-      <c r="S119" s="3"/>
+      <c r="AO118" s="3"/>
+      <c r="AP118" s="3"/>
+    </row>
+    <row r="119" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T119" s="3"/>
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
@@ -10931,10 +11571,10 @@
       <c r="AL119" s="3"/>
       <c r="AM119" s="3"/>
       <c r="AN119" s="3"/>
-    </row>
-    <row r="120" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R120" s="3"/>
-      <c r="S120" s="3"/>
+      <c r="AO119" s="3"/>
+      <c r="AP119" s="3"/>
+    </row>
+    <row r="120" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T120" s="3"/>
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
@@ -10956,10 +11596,10 @@
       <c r="AL120" s="3"/>
       <c r="AM120" s="3"/>
       <c r="AN120" s="3"/>
-    </row>
-    <row r="121" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R121" s="3"/>
-      <c r="S121" s="3"/>
+      <c r="AO120" s="3"/>
+      <c r="AP120" s="3"/>
+    </row>
+    <row r="121" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T121" s="3"/>
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
@@ -10981,10 +11621,10 @@
       <c r="AL121" s="3"/>
       <c r="AM121" s="3"/>
       <c r="AN121" s="3"/>
-    </row>
-    <row r="122" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R122" s="3"/>
-      <c r="S122" s="3"/>
+      <c r="AO121" s="3"/>
+      <c r="AP121" s="3"/>
+    </row>
+    <row r="122" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T122" s="3"/>
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
@@ -11006,10 +11646,10 @@
       <c r="AL122" s="3"/>
       <c r="AM122" s="3"/>
       <c r="AN122" s="3"/>
-    </row>
-    <row r="123" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R123" s="3"/>
-      <c r="S123" s="3"/>
+      <c r="AO122" s="3"/>
+      <c r="AP122" s="3"/>
+    </row>
+    <row r="123" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T123" s="3"/>
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
@@ -11031,10 +11671,10 @@
       <c r="AL123" s="3"/>
       <c r="AM123" s="3"/>
       <c r="AN123" s="3"/>
-    </row>
-    <row r="124" spans="18:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R124" s="3"/>
-      <c r="S124" s="3"/>
+      <c r="AO123" s="3"/>
+      <c r="AP123" s="3"/>
+    </row>
+    <row r="124" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T124" s="3"/>
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
@@ -11056,17 +11696,19 @@
       <c r="AL124" s="3"/>
       <c r="AM124" s="3"/>
       <c r="AN124" s="3"/>
+      <c r="AO124" s="3"/>
+      <c r="AP124" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P45" r:id="rId1" display="http://galaxe.solutions/" xr:uid="{FC3574BC-D6EF-4519-A7F6-F3806DB46557}"/>
-    <hyperlink ref="M38" r:id="rId2" display="http://critically.io/" xr:uid="{58C6B818-5DAB-4298-BE6A-8DFB8F2FA3E6}"/>
-    <hyperlink ref="AK4" r:id="rId3" display="http://pendo.io/" xr:uid="{D0FB6BCD-C593-4A26-8FE6-FE61791CE669}"/>
-    <hyperlink ref="AI2" r:id="rId4" display="http://underdog.io/" xr:uid="{543C7C11-8D77-4769-955F-05FB4DC5FBB2}"/>
-    <hyperlink ref="AG49" r:id="rId5" display="http://ampcontrol.io/" xr:uid="{D63E3F1B-0340-4575-B7D7-BEF67233F5CD}"/>
-    <hyperlink ref="AD2" r:id="rId6" display="http://soffos.al/" xr:uid="{33336681-5570-4B6F-B154-1FDC1CE41B62}"/>
-    <hyperlink ref="AD19" r:id="rId7" display="http://miningstore.com/" xr:uid="{8AC48435-3FDD-44BD-BC8F-5FF8929E3F09}"/>
-    <hyperlink ref="AB5" r:id="rId8" display="http://ftsi.tech/" xr:uid="{2C18A7FB-BA19-4A58-BB3E-04631CB18EF4}"/>
+    <hyperlink ref="R45" r:id="rId1" display="http://galaxe.solutions/" xr:uid="{FC3574BC-D6EF-4519-A7F6-F3806DB46557}"/>
+    <hyperlink ref="O38" r:id="rId2" display="http://critically.io/" xr:uid="{58C6B818-5DAB-4298-BE6A-8DFB8F2FA3E6}"/>
+    <hyperlink ref="AM4" r:id="rId3" display="http://pendo.io/" xr:uid="{D0FB6BCD-C593-4A26-8FE6-FE61791CE669}"/>
+    <hyperlink ref="AK2" r:id="rId4" display="http://underdog.io/" xr:uid="{543C7C11-8D77-4769-955F-05FB4DC5FBB2}"/>
+    <hyperlink ref="AI49" r:id="rId5" display="http://ampcontrol.io/" xr:uid="{D63E3F1B-0340-4575-B7D7-BEF67233F5CD}"/>
+    <hyperlink ref="AF2" r:id="rId6" display="http://soffos.al/" xr:uid="{33336681-5570-4B6F-B154-1FDC1CE41B62}"/>
+    <hyperlink ref="AF19" r:id="rId7" display="http://miningstore.com/" xr:uid="{8AC48435-3FDD-44BD-BC8F-5FF8929E3F09}"/>
+    <hyperlink ref="AD5" r:id="rId8" display="http://ftsi.tech/" xr:uid="{2C18A7FB-BA19-4A58-BB3E-04631CB18EF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/applications.xlsx
+++ b/applications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57419\Documents\applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF07C802-6264-47A7-B9A0-A7CAE7949367}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7909BA18-09B1-419D-BE7A-334A7906735A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47655" yWindow="765" windowWidth="7530" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49215" yWindow="165" windowWidth="8175" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="1215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="1253">
   <si>
     <t>Total</t>
   </si>
@@ -3679,6 +3679,120 @@
   </si>
   <si>
     <t>50. Ovia Health</t>
+  </si>
+  <si>
+    <t>3. Victor Kilo</t>
+  </si>
+  <si>
+    <t>4. TravelZap</t>
+  </si>
+  <si>
+    <t>5. VARITE INC</t>
+  </si>
+  <si>
+    <t>6. Plant Talent Inc.</t>
+  </si>
+  <si>
+    <t>7. Limbik</t>
+  </si>
+  <si>
+    <t>8. Chambers Web Development</t>
+  </si>
+  <si>
+    <t>9. Mendez Media Marketing, Inc.</t>
+  </si>
+  <si>
+    <t>10. Seattle Coffee Gear</t>
+  </si>
+  <si>
+    <t>11. Optello</t>
+  </si>
+  <si>
+    <t>13. Ssi People</t>
+  </si>
+  <si>
+    <t>14. Radiant Digital</t>
+  </si>
+  <si>
+    <t>17. Brooksource</t>
+  </si>
+  <si>
+    <t>21. Nayya</t>
+  </si>
+  <si>
+    <t>23. Optello</t>
+  </si>
+  <si>
+    <t>24. CampusPoint</t>
+  </si>
+  <si>
+    <t>26. Apphienz</t>
+  </si>
+  <si>
+    <t>27. Nextiva</t>
+  </si>
+  <si>
+    <t>28. Prowess Consulting, LLC</t>
+  </si>
+  <si>
+    <t>31. Onosys</t>
+  </si>
+  <si>
+    <t>32. IV Interactive</t>
+  </si>
+  <si>
+    <t>33. Cloud Consulting Services, Inc.</t>
+  </si>
+  <si>
+    <t>34. Tek Tron IT</t>
+  </si>
+  <si>
+    <t>35. Quativa</t>
+  </si>
+  <si>
+    <t>36. Cloud Space LLC</t>
+  </si>
+  <si>
+    <t>37. HNM Systems</t>
+  </si>
+  <si>
+    <t>38. VidMob</t>
+  </si>
+  <si>
+    <t>39. CustEx</t>
+  </si>
+  <si>
+    <t>40. MDMS Recruiting, LLC</t>
+  </si>
+  <si>
+    <t>41. Vertical Merger</t>
+  </si>
+  <si>
+    <t>42. QsrSoft</t>
+  </si>
+  <si>
+    <t>43. Square 6</t>
+  </si>
+  <si>
+    <t>44. OptimHire</t>
+  </si>
+  <si>
+    <t>45. MARS Returnship</t>
+  </si>
+  <si>
+    <t>46. SmartStep Funding</t>
+  </si>
+  <si>
+    <t>47. Chuwa America Corporation</t>
+  </si>
+  <si>
+    <t>48. Incendia</t>
+  </si>
+  <si>
+    <t>49. The Mom Project</t>
+  </si>
+  <si>
+    <t>50. Jefferson Frank</t>
   </si>
 </sst>
 </file>
@@ -4036,355 +4150,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP124"/>
+  <dimension ref="A1:AQ124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="41" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>44547</v>
+      </c>
+      <c r="C1" s="1">
         <v>44546</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>44545</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>44544</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>44543</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>44540</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>44539</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>44538</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>44537</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>44536</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>44533</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>44532</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>44531</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>44530</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>44529</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>44524</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>44523</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>44522</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>44518</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>44517</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>44516</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>44515</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="1">
         <v>44512</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="1">
         <v>44511</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="1">
         <v>44510</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="1">
         <v>44509</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>44508</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="1">
         <v>44505</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="1">
         <v>44504</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>44503</v>
       </c>
-      <c r="AE1" s="5">
+      <c r="AF1" s="5">
         <v>44502</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AG1" s="1">
         <v>44501</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AH1" s="1">
         <v>44498</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AI1" s="1">
         <v>44497</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AJ1" s="1">
         <v>44496</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AK1" s="1">
         <v>44495</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AL1" s="1">
         <v>44494</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AM1" s="1">
         <v>44489</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AN1" s="1">
         <v>44487</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AO1" s="1">
         <v>44486</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AP1" s="1">
         <v>44421</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AQ1" s="1">
         <v>44419</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <f xml:space="preserve"> COUNTA(B2:AAF100)</f>
-        <v>1338</v>
+        <f xml:space="preserve"> COUNTA(B2:AAG100)</f>
+        <v>1388</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>13</v>
@@ -4396,2845 +4517,2928 @@
         <v>13</v>
       </c>
       <c r="R3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="3"/>
+      <c r="U3" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>616</v>
       </c>
       <c r="X3" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AF3" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3" t="s">
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>1177</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="3"/>
+      <c r="U4" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AF4" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="4" t="s">
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3" t="s">
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="3"/>
+      <c r="U5" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AE5" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="AE5" s="6" t="s">
+      <c r="AF5" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AG5" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AH5" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AI5" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AK5" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AL5" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3" t="s">
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3" t="s">
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="AP5" s="3" t="s">
+      <c r="AQ5" s="3" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>1179</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="3"/>
+      <c r="U6" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="X6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Z6" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AD6" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AE6" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="AE6" s="6" t="s">
+      <c r="AF6" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="AG6" s="3" t="s">
+      <c r="AH6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AH6" s="3" t="s">
+      <c r="AI6" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="AI6" s="3" t="s">
+      <c r="AJ6" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="AJ6" s="3" t="s">
+      <c r="AK6" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="AK6" s="3" t="s">
+      <c r="AL6" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="3" t="s">
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="AP6" s="3" t="s">
+      <c r="AQ6" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3" t="s">
+      <c r="T7" s="3"/>
+      <c r="U7" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AD7" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="AE7" s="6" t="s">
+      <c r="AF7" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AG7" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AH7" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AI7" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="AI7" s="3" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="AJ7" s="3" t="s">
+      <c r="AK7" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="AK7" s="3" t="s">
+      <c r="AL7" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="3" t="s">
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="AP7" s="3" t="s">
+      <c r="AQ7" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3" t="s">
+      <c r="T8" s="3"/>
+      <c r="U8" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="AA8" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="AE8" s="6" t="s">
+      <c r="AF8" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AG8" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="AG8" s="3" t="s">
+      <c r="AH8" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="AH8" s="3" t="s">
+      <c r="AI8" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="AI8" s="3" t="s">
+      <c r="AJ8" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="AJ8" s="3" t="s">
+      <c r="AK8" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="AK8" s="3" t="s">
+      <c r="AL8" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="3" t="s">
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="AP8" s="3"/>
-    </row>
-    <row r="9" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ8" s="3"/>
+    </row>
+    <row r="9" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="M9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3" t="s">
+      <c r="T9" s="3"/>
+      <c r="U9" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>73</v>
       </c>
       <c r="W9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="X9" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Z9" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3" t="s">
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="AE9" s="6" t="s">
+      <c r="AF9" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="AF9" s="3" t="s">
+      <c r="AG9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AG9" s="3" t="s">
+      <c r="AH9" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="AH9" s="3" t="s">
+      <c r="AI9" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="AI9" s="3" t="s">
+      <c r="AJ9" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="AJ9" s="3" t="s">
+      <c r="AK9" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="AK9" s="3" t="s">
+      <c r="AL9" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="3" t="s">
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="AP9" s="3"/>
-    </row>
-    <row r="10" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ9" s="3"/>
+    </row>
+    <row r="10" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>1007</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3" t="s">
+      <c r="T10" s="3"/>
+      <c r="U10" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3" t="s">
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="Z10" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="AA10" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AB10" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AC10" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3" t="s">
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="AE10" s="6" t="s">
+      <c r="AF10" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="AF10" s="3" t="s">
+      <c r="AG10" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="AG10" s="3" t="s">
+      <c r="AH10" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="AH10" s="3" t="s">
+      <c r="AI10" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="AI10" s="3" t="s">
+      <c r="AJ10" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="AJ10" s="3" t="s">
+      <c r="AK10" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="AK10" s="3" t="s">
+      <c r="AL10" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="3" t="s">
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="AP10" s="3"/>
-    </row>
-    <row r="11" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="AQ10" s="3"/>
+    </row>
+    <row r="11" spans="1:43" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>95</v>
       </c>
       <c r="R11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="S11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3" t="s">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3" t="s">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="Y11" s="3" t="s">
+      <c r="Z11" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="Z11" s="3" t="s">
+      <c r="AA11" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="AA11" s="3" t="s">
+      <c r="AB11" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-      <c r="AD11" s="3" t="s">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="AE11" s="6" t="s">
+      <c r="AF11" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="AF11" s="3" t="s">
+      <c r="AG11" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="AG11" s="3" t="s">
+      <c r="AH11" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="AH11" s="3" t="s">
+      <c r="AI11" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="AI11" s="3" t="s">
+      <c r="AJ11" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="AJ11" s="3" t="s">
+      <c r="AK11" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="AK11" s="3" t="s">
+      <c r="AL11" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="3" t="s">
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="AP11" s="3"/>
-    </row>
-    <row r="12" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ11" s="3"/>
+    </row>
+    <row r="12" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3" t="s">
+      <c r="T12" s="3"/>
+      <c r="U12" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3" t="s">
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="Y12" s="3" t="s">
+      <c r="Z12" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="Z12" s="3" t="s">
+      <c r="AA12" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="AA12" s="3" t="s">
+      <c r="AB12" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
-      <c r="AD12" s="3" t="s">
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="AE12" s="6" t="s">
+      <c r="AF12" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="AF12" s="3" t="s">
+      <c r="AG12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AG12" s="3" t="s">
+      <c r="AH12" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="AH12" s="3" t="s">
+      <c r="AI12" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="AI12" s="3" t="s">
+      <c r="AJ12" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="AJ12" s="3" t="s">
+      <c r="AK12" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="AK12" s="3" t="s">
+      <c r="AL12" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="3" t="s">
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="AP12" s="3"/>
-    </row>
-    <row r="13" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ12" s="3"/>
+    </row>
+    <row r="13" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>109</v>
       </c>
       <c r="Q13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3" t="s">
+      <c r="T13" s="3"/>
+      <c r="U13" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3" t="s">
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="Y13" s="3" t="s">
+      <c r="Z13" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="Z13" s="3" t="s">
+      <c r="AA13" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="AA13" s="3" t="s">
+      <c r="AB13" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
-      <c r="AD13" s="3" t="s">
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="AE13" s="6" t="s">
+      <c r="AF13" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="AF13" s="3" t="s">
+      <c r="AG13" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="AG13" s="3" t="s">
+      <c r="AH13" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="AH13" s="3" t="s">
+      <c r="AI13" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="AI13" s="3" t="s">
+      <c r="AJ13" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="AJ13" s="3" t="s">
+      <c r="AK13" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="AK13" s="3" t="s">
+      <c r="AL13" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
-      <c r="AO13" s="3" t="s">
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="AP13" s="3"/>
-    </row>
-    <row r="14" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ13" s="3"/>
+    </row>
+    <row r="14" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3"/>
+      <c r="U14" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
-      <c r="AD14" s="3" t="s">
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="AE14" s="6" t="s">
+      <c r="AF14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AF14" s="3" t="s">
+      <c r="AG14" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="AG14" s="3" t="s">
+      <c r="AH14" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="AH14" s="3" t="s">
+      <c r="AI14" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="AI14" s="3" t="s">
+      <c r="AJ14" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="AJ14" s="3" t="s">
+      <c r="AK14" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="AK14" s="3" t="s">
+      <c r="AL14" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
-      <c r="AO14" s="3" t="s">
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="AP14" s="3"/>
-    </row>
-    <row r="15" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ14" s="3"/>
+    </row>
+    <row r="15" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>1011</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>129</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3" t="s">
+      <c r="T15" s="3"/>
+      <c r="U15" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3" t="s">
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="AA15" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="AA15" s="3" t="s">
+      <c r="AB15" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
-      <c r="AD15" s="3" t="s">
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3" t="s">
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="AG15" s="3" t="s">
+      <c r="AH15" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="AH15" s="3" t="s">
+      <c r="AI15" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="AI15" s="3" t="s">
+      <c r="AJ15" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="AJ15" s="3" t="s">
+      <c r="AK15" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="AK15" s="3" t="s">
+      <c r="AL15" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
-      <c r="AO15" s="3" t="s">
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="AP15" s="3"/>
-    </row>
-    <row r="16" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ15" s="3"/>
+    </row>
+    <row r="16" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>1188</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3" t="s">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3" t="s">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="Y16" s="3" t="s">
+      <c r="Z16" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="Z16" s="3" t="s">
+      <c r="AA16" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="AA16" s="3" t="s">
+      <c r="AB16" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-      <c r="AF16" s="3" t="s">
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AG16" s="3" t="s">
+      <c r="AH16" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="AH16" s="3" t="s">
+      <c r="AI16" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="AI16" s="3" t="s">
+      <c r="AJ16" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="AJ16" s="3" t="s">
+      <c r="AK16" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="AK16" s="3" t="s">
+      <c r="AL16" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
-      <c r="AO16" s="3" t="s">
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="AP16" s="3"/>
-    </row>
-    <row r="17" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ16" s="3"/>
+    </row>
+    <row r="17" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3" t="s">
+      <c r="T17" s="3"/>
+      <c r="U17" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3" t="s">
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="Y17" s="3" t="s">
+      <c r="Z17" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="Z17" s="3" t="s">
+      <c r="AA17" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="AA17" s="3" t="s">
+      <c r="AB17" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
-      <c r="AF17" s="3" t="s">
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="AG17" s="3" t="s">
+      <c r="AH17" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="AH17" s="3" t="s">
+      <c r="AI17" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="AI17" s="3" t="s">
+      <c r="AJ17" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="AJ17" s="3" t="s">
+      <c r="AK17" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="AK17" s="3" t="s">
+      <c r="AL17" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
-      <c r="AO17" s="3" t="s">
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="AP17" s="3"/>
-    </row>
-    <row r="18" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ17" s="3"/>
+    </row>
+    <row r="18" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3" t="s">
+      <c r="T18" s="3"/>
+      <c r="U18" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="W18" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3" t="s">
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="Y18" s="3" t="s">
+      <c r="Z18" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="Z18" s="3" t="s">
+      <c r="AA18" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="AA18" s="3" t="s">
+      <c r="AB18" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
-      <c r="AF18" s="3" t="s">
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="AG18" s="3" t="s">
+      <c r="AH18" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="AH18" s="3" t="s">
+      <c r="AI18" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="AI18" s="3" t="s">
+      <c r="AJ18" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="AJ18" s="3" t="s">
+      <c r="AK18" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="AK18" s="3" t="s">
+      <c r="AL18" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="3" t="s">
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="AP18" s="3"/>
-    </row>
-    <row r="19" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ18" s="3"/>
+    </row>
+    <row r="19" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3" t="s">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3" t="s">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="Y19" s="3" t="s">
+      <c r="Z19" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="Z19" s="3" t="s">
+      <c r="AA19" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="AA19" s="3" t="s">
+      <c r="AB19" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-      <c r="AF19" s="4" t="s">
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3" t="s">
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="AI19" s="3" t="s">
+      <c r="AJ19" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="AJ19" s="3" t="s">
+      <c r="AK19" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="3" t="s">
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="AP19" s="3"/>
-    </row>
-    <row r="20" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ19" s="3"/>
+    </row>
+    <row r="20" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>1100</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3" t="s">
+      <c r="T20" s="3"/>
+      <c r="U20" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="W20" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3" t="s">
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="Z20" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="Z20" s="3" t="s">
+      <c r="AA20" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="AA20" s="3" t="s">
+      <c r="AB20" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
-      <c r="AF20" s="3" t="s">
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3" t="s">
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="AI20" s="3" t="s">
+      <c r="AJ20" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="AJ20" s="3" t="s">
+      <c r="AK20" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
-      <c r="AO20" s="3" t="s">
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="AP20" s="3"/>
-    </row>
-    <row r="21" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ20" s="3"/>
+    </row>
+    <row r="21" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>1146</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3" t="s">
+      <c r="T21" s="3"/>
+      <c r="U21" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3" t="s">
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="Y21" s="3" t="s">
+      <c r="Z21" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="AA21" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
-      <c r="AF21" s="3" t="s">
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3" t="s">
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="AI21" s="3" t="s">
+      <c r="AJ21" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="AJ21" s="3" t="s">
+      <c r="AK21" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="3" t="s">
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="AP21" s="3"/>
-    </row>
-    <row r="22" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ21" s="3"/>
+    </row>
+    <row r="22" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3" t="s">
+      <c r="S22" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3" t="s">
+      <c r="V22" s="3"/>
+      <c r="W22" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3" t="s">
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="Y22" s="3" t="s">
+      <c r="Z22" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="Z22" s="3" t="s">
+      <c r="AA22" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
-      <c r="AF22" s="3" t="s">
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3" t="s">
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="AI22" s="3" t="s">
+      <c r="AJ22" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="AJ22" s="3" t="s">
+      <c r="AK22" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
       <c r="AP22" s="3"/>
-    </row>
-    <row r="23" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ22" s="3"/>
+    </row>
+    <row r="23" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="R23" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-      <c r="X23" s="3" t="s">
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="Y23" s="3" t="s">
+      <c r="Z23" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="Z23" s="3" t="s">
+      <c r="AA23" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
-      <c r="AF23" s="3" t="s">
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3" t="s">
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="AI23" s="3" t="s">
+      <c r="AJ23" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="AJ23" s="3" t="s">
+      <c r="AK23" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
-    </row>
-    <row r="24" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ23" s="3"/>
+    </row>
+    <row r="24" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-      <c r="X24" s="3" t="s">
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="Y24" s="3" t="s">
+      <c r="Z24" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="Z24" s="3" t="s">
+      <c r="AA24" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
-      <c r="AF24" s="3" t="s">
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3" t="s">
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="AI24" s="3" t="s">
+      <c r="AJ24" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="AJ24" s="3" t="s">
+      <c r="AK24" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
-    </row>
-    <row r="25" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ24" s="3"/>
+    </row>
+    <row r="25" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>246</v>
       </c>
       <c r="Q25" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-      <c r="X25" s="3" t="s">
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="Y25" s="3" t="s">
+      <c r="Z25" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
-      <c r="AF25" s="3" t="s">
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3" t="s">
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="AI25" s="3" t="s">
+      <c r="AJ25" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="AJ25" s="3" t="s">
+      <c r="AK25" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
       <c r="AP25" s="3"/>
-    </row>
-    <row r="26" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ25" s="3"/>
+    </row>
+    <row r="26" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="K26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="Q26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="R26" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-      <c r="X26" s="3" t="s">
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="Y26" s="3" t="s">
+      <c r="Z26" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
-      <c r="AF26" s="3" t="s">
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3" t="s">
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="AI26" s="3" t="s">
+      <c r="AJ26" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="AJ26" s="3" t="s">
+      <c r="AK26" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
       <c r="AP26" s="3"/>
-    </row>
-    <row r="27" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ26" s="3"/>
+    </row>
+    <row r="27" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>1195</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>1152</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>259</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="R27" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-      <c r="X27" s="3" t="s">
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="Y27" s="3" t="s">
+      <c r="Z27" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
-      <c r="AF27" s="3" t="s">
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3" t="s">
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="AI27" s="3" t="s">
+      <c r="AJ27" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="AJ27" s="3" t="s">
+      <c r="AK27" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
       <c r="AP27" s="3"/>
-    </row>
-    <row r="28" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ27" s="3"/>
+    </row>
+    <row r="28" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="R28" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-      <c r="X28" s="3" t="s">
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="Y28" s="3" t="s">
+      <c r="Z28" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
-      <c r="AF28" s="3" t="s">
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3" t="s">
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="AI28" s="3" t="s">
+      <c r="AJ28" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="AJ28" s="3" t="s">
+      <c r="AK28" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
-    </row>
-    <row r="29" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ28" s="3"/>
+    </row>
+    <row r="29" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-      <c r="X29" s="3" t="s">
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
-      <c r="AF29" s="3" t="s">
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3" t="s">
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="AI29" s="3" t="s">
+      <c r="AJ29" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
-    </row>
-    <row r="30" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ29" s="3"/>
+    </row>
+    <row r="30" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="R30" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="S30" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -7247,78 +7451,81 @@
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
-      <c r="AF30" s="3" t="s">
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3" t="s">
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="AI30" s="3" t="s">
+      <c r="AJ30" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
-    </row>
-    <row r="31" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ30" s="3"/>
+    </row>
+    <row r="31" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>1198</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="R31" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
@@ -7331,78 +7538,81 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
-      <c r="AF31" s="3" t="s">
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3" t="s">
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="AI31" s="3" t="s">
+      <c r="AJ31" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
-    </row>
-    <row r="32" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ31" s="3"/>
+    </row>
+    <row r="32" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="R32" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="S32" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
@@ -7415,78 +7625,81 @@
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
-      <c r="AF32" s="3" t="s">
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="3" t="s">
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="AI32" s="3" t="s">
+      <c r="AJ32" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
-    </row>
-    <row r="33" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ32" s="3"/>
+    </row>
+    <row r="33" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
@@ -7499,78 +7712,81 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
-      <c r="AF33" s="3" t="s">
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3" t="s">
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="AI33" s="3" t="s">
+      <c r="AJ33" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
-    </row>
-    <row r="34" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ33" s="3"/>
+    </row>
+    <row r="34" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="P34" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="Q34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="R34" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="S34" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -7583,78 +7799,81 @@
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
-      <c r="AF34" s="3" t="s">
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3" t="s">
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="AI34" s="3" t="s">
+      <c r="AJ34" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
       <c r="AP34" s="3"/>
-    </row>
-    <row r="35" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ34" s="3"/>
+    </row>
+    <row r="35" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="R35" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
@@ -7667,78 +7886,81 @@
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
-      <c r="AF35" s="3" t="s">
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3" t="s">
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="AI35" s="3" t="s">
+      <c r="AJ35" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
       <c r="AP35" s="3"/>
-    </row>
-    <row r="36" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ35" s="3"/>
+    </row>
+    <row r="36" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="R36" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="S36" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -7753,74 +7975,77 @@
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
-      <c r="AH36" s="3" t="s">
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="AI36" s="3" t="s">
+      <c r="AJ36" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
       <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
       <c r="AP36" s="3"/>
-    </row>
-    <row r="37" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ36" s="3"/>
+    </row>
+    <row r="37" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="P37" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="R37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="S37" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
@@ -7835,74 +8060,77 @@
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
-      <c r="AH37" s="3" t="s">
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="AI37" s="3" t="s">
+      <c r="AJ37" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
       <c r="AP37" s="3"/>
-    </row>
-    <row r="38" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ37" s="3"/>
+    </row>
+    <row r="38" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="O38" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="O38" s="4" t="s">
+      <c r="P38" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="Q38" s="3" t="s">
         <v>391</v>
       </c>
       <c r="R38" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="S38" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -7917,74 +8145,77 @@
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
-      <c r="AH38" s="3" t="s">
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="AI38" s="3" t="s">
+      <c r="AJ38" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
       <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
-    </row>
-    <row r="39" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ38" s="3"/>
+    </row>
+    <row r="39" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="R39" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="S39" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
@@ -7999,74 +8230,77 @@
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
-      <c r="AH39" s="3" t="s">
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="AI39" s="3" t="s">
+      <c r="AJ39" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
       <c r="AP39" s="3"/>
-    </row>
-    <row r="40" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ39" s="3"/>
+    </row>
+    <row r="40" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>1165</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="O40" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="P40" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="R40" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="S40" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -8081,74 +8315,77 @@
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
-      <c r="AH40" s="3" t="s">
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="AI40" s="3" t="s">
+      <c r="AJ40" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
       <c r="AP40" s="3"/>
-    </row>
-    <row r="41" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ40" s="3"/>
+    </row>
+    <row r="41" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="O41" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="P41" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="Q41" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="R41" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="R41" s="3" t="s">
+      <c r="S41" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
@@ -8163,74 +8400,77 @@
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
-      <c r="AH41" s="3" t="s">
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="AI41" s="3" t="s">
+      <c r="AJ41" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
       <c r="AM41" s="3"/>
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
       <c r="AP41" s="3"/>
-    </row>
-    <row r="42" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ41" s="3"/>
+    </row>
+    <row r="42" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="P42" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="Q42" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="R42" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
@@ -8245,74 +8485,77 @@
       <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
-      <c r="AH42" s="3" t="s">
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="AI42" s="3" t="s">
+      <c r="AJ42" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
       <c r="AM42" s="3"/>
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
       <c r="AP42" s="3"/>
-    </row>
-    <row r="43" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ42" s="3"/>
+    </row>
+    <row r="43" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>1207</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="O43" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="P43" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="Q43" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="R43" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
@@ -8327,74 +8570,77 @@
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
-      <c r="AH43" s="3" t="s">
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="AI43" s="3" t="s">
+      <c r="AJ43" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
       <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
       <c r="AP43" s="3"/>
-    </row>
-    <row r="44" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ43" s="3"/>
+    </row>
+    <row r="44" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="L44" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="M44" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="O44" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="P44" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="Q44" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="R44" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="S44" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
@@ -8409,74 +8655,77 @@
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
-      <c r="AH44" s="3" t="s">
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="AI44" s="3" t="s">
+      <c r="AJ44" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
       <c r="AM44" s="3"/>
       <c r="AN44" s="3"/>
       <c r="AO44" s="3"/>
       <c r="AP44" s="3"/>
-    </row>
-    <row r="45" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ44" s="3"/>
+    </row>
+    <row r="45" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="P45" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="R45" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="R45" s="4" t="s">
+      <c r="S45" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="S45" s="3"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
@@ -8491,72 +8740,75 @@
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
-      <c r="AH45" s="3" t="s">
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="AI45" s="3" t="s">
+      <c r="AJ45" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
       <c r="AM45" s="3"/>
       <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
       <c r="AP45" s="3"/>
-    </row>
-    <row r="46" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ45" s="3"/>
+    </row>
+    <row r="46" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="3"/>
+      <c r="K46" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="L46" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="M46" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="O46" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="P46" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="P46" s="3" t="s">
+      <c r="Q46" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="R46" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="S46" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -8571,72 +8823,75 @@
       <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
-      <c r="AH46" s="3" t="s">
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="AI46" s="3" t="s">
+      <c r="AJ46" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="AJ46" s="3"/>
       <c r="AK46" s="3"/>
       <c r="AL46" s="3"/>
       <c r="AM46" s="3"/>
       <c r="AN46" s="3"/>
       <c r="AO46" s="3"/>
       <c r="AP46" s="3"/>
-    </row>
-    <row r="47" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ46" s="3"/>
+    </row>
+    <row r="47" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>1171</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="3"/>
+      <c r="K47" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="P47" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
@@ -8651,72 +8906,75 @@
       <c r="AE47" s="3"/>
       <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
-      <c r="AH47" s="3" t="s">
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="AI47" s="3" t="s">
+      <c r="AJ47" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
       <c r="AM47" s="3"/>
       <c r="AN47" s="3"/>
       <c r="AO47" s="3"/>
       <c r="AP47" s="3"/>
-    </row>
-    <row r="48" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ47" s="3"/>
+    </row>
+    <row r="48" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="3"/>
+      <c r="K48" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="O48" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="P48" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="Q48" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="R48" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="S48" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
@@ -8731,72 +8989,75 @@
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
-      <c r="AH48" s="3" t="s">
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="AI48" s="3" t="s">
+      <c r="AJ48" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
       <c r="AM48" s="3"/>
       <c r="AN48" s="3"/>
       <c r="AO48" s="3"/>
       <c r="AP48" s="3"/>
-    </row>
-    <row r="49" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ48" s="3"/>
+    </row>
+    <row r="49" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>1042</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>510</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3" t="s">
+      <c r="I49" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="O49" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="P49" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="Q49" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="R49" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="S49" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
@@ -8811,72 +9072,75 @@
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
-      <c r="AH49" s="3" t="s">
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="AI49" s="4" t="s">
+      <c r="AJ49" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
       <c r="AM49" s="3"/>
       <c r="AN49" s="3"/>
       <c r="AO49" s="3"/>
       <c r="AP49" s="3"/>
-    </row>
-    <row r="50" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ49" s="3"/>
+    </row>
+    <row r="50" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="3"/>
+      <c r="K50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="L50" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="M50" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="N50" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="O50" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="O50" s="3" t="s">
+      <c r="P50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="P50" s="3" t="s">
+      <c r="Q50" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="R50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="R50" s="3" t="s">
+      <c r="S50" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -8891,72 +9155,75 @@
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
-      <c r="AH50" s="3" t="s">
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="AI50" s="3" t="s">
+      <c r="AJ50" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="AJ50" s="3"/>
       <c r="AK50" s="3"/>
       <c r="AL50" s="3"/>
       <c r="AM50" s="3"/>
       <c r="AN50" s="3"/>
       <c r="AO50" s="3"/>
       <c r="AP50" s="3"/>
-    </row>
-    <row r="51" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ50" s="3"/>
+    </row>
+    <row r="51" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="3"/>
+      <c r="K51" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="L51" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="M51" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="N51" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="N51" s="3" t="s">
+      <c r="O51" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="P51" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="P51" s="3" t="s">
+      <c r="Q51" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="Q51" s="3" t="s">
+      <c r="R51" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="R51" s="3" t="s">
+      <c r="S51" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
@@ -8971,54 +9238,55 @@
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
-      <c r="AH51" s="3" t="s">
+      <c r="AH51" s="3"/>
+      <c r="AI51" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="AI51" s="3" t="s">
+      <c r="AJ51" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="AJ51" s="3"/>
       <c r="AK51" s="3"/>
       <c r="AL51" s="3"/>
       <c r="AM51" s="3"/>
       <c r="AN51" s="3"/>
       <c r="AO51" s="3"/>
       <c r="AP51" s="3"/>
-    </row>
-    <row r="52" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ51" s="3"/>
+    </row>
+    <row r="52" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="3"/>
+      <c r="H52" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="3"/>
+      <c r="K52" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="3" t="s">
+      <c r="O52" s="3"/>
+      <c r="P52" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="P52" s="3" t="s">
+      <c r="Q52" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="Q52" s="3" t="s">
+      <c r="R52" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="R52" s="3" t="s">
+      <c r="S52" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
@@ -9033,54 +9301,55 @@
       <c r="AE52" s="3"/>
       <c r="AF52" s="3"/>
       <c r="AG52" s="3"/>
-      <c r="AH52" s="3" t="s">
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="AI52" s="3" t="s">
+      <c r="AJ52" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="AJ52" s="3"/>
       <c r="AK52" s="3"/>
       <c r="AL52" s="3"/>
       <c r="AM52" s="3"/>
       <c r="AN52" s="3"/>
       <c r="AO52" s="3"/>
       <c r="AP52" s="3"/>
-    </row>
-    <row r="53" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ52" s="3"/>
+    </row>
+    <row r="53" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="3"/>
+      <c r="K53" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="3" t="s">
+      <c r="O53" s="3"/>
+      <c r="P53" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="P53" s="3" t="s">
+      <c r="Q53" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="Q53" s="3" t="s">
+      <c r="R53" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="R53" s="3" t="s">
+      <c r="S53" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="S53" s="3"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
@@ -9095,10 +9364,10 @@
       <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
       <c r="AG53" s="3"/>
-      <c r="AH53" s="3" t="s">
+      <c r="AH53" s="3"/>
+      <c r="AI53" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="AI53" s="3"/>
       <c r="AJ53" s="3"/>
       <c r="AK53" s="3"/>
       <c r="AL53" s="3"/>
@@ -9106,39 +9375,40 @@
       <c r="AN53" s="3"/>
       <c r="AO53" s="3"/>
       <c r="AP53" s="3"/>
-    </row>
-    <row r="54" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ53" s="3"/>
+    </row>
+    <row r="54" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="3"/>
+      <c r="H54" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="3"/>
+      <c r="K54" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
-      <c r="O54" s="3" t="s">
+      <c r="O54" s="3"/>
+      <c r="P54" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="P54" s="3" t="s">
+      <c r="Q54" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="Q54" s="3" t="s">
+      <c r="R54" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="R54" s="3" t="s">
+      <c r="S54" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -9162,39 +9432,40 @@
       <c r="AN54" s="3"/>
       <c r="AO54" s="3"/>
       <c r="AP54" s="3"/>
-    </row>
-    <row r="55" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ54" s="3"/>
+    </row>
+    <row r="55" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="3"/>
+      <c r="H55" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="3" t="s">
+      <c r="J55" s="3"/>
+      <c r="K55" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-      <c r="O55" s="3" t="s">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="P55" s="3" t="s">
+      <c r="Q55" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="Q55" s="3" t="s">
+      <c r="R55" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="R55" s="3" t="s">
+      <c r="S55" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
@@ -9218,37 +9489,38 @@
       <c r="AN55" s="3"/>
       <c r="AO55" s="3"/>
       <c r="AP55" s="3"/>
-    </row>
-    <row r="56" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ55" s="3"/>
+    </row>
+    <row r="56" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="3"/>
+      <c r="K56" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-      <c r="P56" s="3" t="s">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="Q56" s="3" t="s">
+      <c r="R56" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="R56" s="3" t="s">
+      <c r="S56" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
@@ -9272,18 +9544,19 @@
       <c r="AN56" s="3"/>
       <c r="AO56" s="3"/>
       <c r="AP56" s="3"/>
-    </row>
-    <row r="57" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ56" s="3"/>
+    </row>
+    <row r="57" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="3"/>
+      <c r="H57" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -9291,16 +9564,16 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
-      <c r="P57" s="3" t="s">
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="Q57" s="3" t="s">
+      <c r="R57" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="R57" s="3" t="s">
+      <c r="S57" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="S57" s="3"/>
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
@@ -9324,18 +9597,19 @@
       <c r="AN57" s="3"/>
       <c r="AO57" s="3"/>
       <c r="AP57" s="3"/>
-    </row>
-    <row r="58" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ57" s="3"/>
+    </row>
+    <row r="58" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="3"/>
+      <c r="H58" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -9343,14 +9617,14 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3" t="s">
+      <c r="R58" s="3"/>
+      <c r="S58" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
@@ -9374,18 +9648,19 @@
       <c r="AN58" s="3"/>
       <c r="AO58" s="3"/>
       <c r="AP58" s="3"/>
-    </row>
-    <row r="59" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ58" s="3"/>
+    </row>
+    <row r="59" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="3" t="s">
+      <c r="G59" s="3"/>
+      <c r="H59" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -9393,14 +9668,14 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
-      <c r="P59" s="3" t="s">
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3" t="s">
+      <c r="R59" s="3"/>
+      <c r="S59" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
@@ -9424,18 +9699,19 @@
       <c r="AN59" s="3"/>
       <c r="AO59" s="3"/>
       <c r="AP59" s="3"/>
-    </row>
-    <row r="60" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ59" s="3"/>
+    </row>
+    <row r="60" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="3"/>
+      <c r="H60" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -9443,14 +9719,14 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
-      <c r="P60" s="3" t="s">
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3" t="s">
+      <c r="R60" s="3"/>
+      <c r="S60" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
@@ -9474,18 +9750,19 @@
       <c r="AN60" s="3"/>
       <c r="AO60" s="3"/>
       <c r="AP60" s="3"/>
-    </row>
-    <row r="61" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ60" s="3"/>
+    </row>
+    <row r="61" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="3"/>
+      <c r="H61" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -9493,14 +9770,14 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
-      <c r="P61" s="3" t="s">
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3" t="s">
+      <c r="R61" s="3"/>
+      <c r="S61" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="S61" s="3"/>
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
@@ -9524,18 +9801,19 @@
       <c r="AN61" s="3"/>
       <c r="AO61" s="3"/>
       <c r="AP61" s="3"/>
-    </row>
-    <row r="62" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ61" s="3"/>
+    </row>
+    <row r="62" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="3"/>
+      <c r="H62" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -9543,10 +9821,10 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="3" t="s">
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
@@ -9572,18 +9850,19 @@
       <c r="AN62" s="3"/>
       <c r="AO62" s="3"/>
       <c r="AP62" s="3"/>
-    </row>
-    <row r="63" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ62" s="3"/>
+    </row>
+    <row r="63" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="3"/>
+      <c r="H63" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -9591,10 +9870,10 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="3" t="s">
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
@@ -9620,18 +9899,19 @@
       <c r="AN63" s="3"/>
       <c r="AO63" s="3"/>
       <c r="AP63" s="3"/>
-    </row>
-    <row r="64" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ63" s="3"/>
+    </row>
+    <row r="64" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="3" t="s">
+      <c r="G64" s="3"/>
+      <c r="H64" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -9666,8 +9946,9 @@
       <c r="AN64" s="3"/>
       <c r="AO64" s="3"/>
       <c r="AP64" s="3"/>
-    </row>
-    <row r="65" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ64" s="3"/>
+    </row>
+    <row r="65" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -9710,8 +9991,9 @@
       <c r="AN65" s="3"/>
       <c r="AO65" s="3"/>
       <c r="AP65" s="3"/>
-    </row>
-    <row r="66" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ65" s="3"/>
+    </row>
+    <row r="66" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -9754,8 +10036,9 @@
       <c r="AN66" s="3"/>
       <c r="AO66" s="3"/>
       <c r="AP66" s="3"/>
-    </row>
-    <row r="67" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ66" s="3"/>
+    </row>
+    <row r="67" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -9798,8 +10081,9 @@
       <c r="AN67" s="3"/>
       <c r="AO67" s="3"/>
       <c r="AP67" s="3"/>
-    </row>
-    <row r="68" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ67" s="3"/>
+    </row>
+    <row r="68" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -9842,8 +10126,9 @@
       <c r="AN68" s="3"/>
       <c r="AO68" s="3"/>
       <c r="AP68" s="3"/>
-    </row>
-    <row r="69" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ68" s="3"/>
+    </row>
+    <row r="69" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -9886,8 +10171,9 @@
       <c r="AN69" s="3"/>
       <c r="AO69" s="3"/>
       <c r="AP69" s="3"/>
-    </row>
-    <row r="70" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ69" s="3"/>
+    </row>
+    <row r="70" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -9930,8 +10216,9 @@
       <c r="AN70" s="3"/>
       <c r="AO70" s="3"/>
       <c r="AP70" s="3"/>
-    </row>
-    <row r="71" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ70" s="3"/>
+    </row>
+    <row r="71" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -9974,8 +10261,9 @@
       <c r="AN71" s="3"/>
       <c r="AO71" s="3"/>
       <c r="AP71" s="3"/>
-    </row>
-    <row r="72" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ71" s="3"/>
+    </row>
+    <row r="72" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -10018,8 +10306,9 @@
       <c r="AN72" s="3"/>
       <c r="AO72" s="3"/>
       <c r="AP72" s="3"/>
-    </row>
-    <row r="73" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ72" s="3"/>
+    </row>
+    <row r="73" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -10062,8 +10351,9 @@
       <c r="AN73" s="3"/>
       <c r="AO73" s="3"/>
       <c r="AP73" s="3"/>
-    </row>
-    <row r="74" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ73" s="3"/>
+    </row>
+    <row r="74" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -10106,8 +10396,9 @@
       <c r="AN74" s="3"/>
       <c r="AO74" s="3"/>
       <c r="AP74" s="3"/>
-    </row>
-    <row r="75" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ74" s="3"/>
+    </row>
+    <row r="75" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -10150,8 +10441,9 @@
       <c r="AN75" s="3"/>
       <c r="AO75" s="3"/>
       <c r="AP75" s="3"/>
-    </row>
-    <row r="76" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ75" s="3"/>
+    </row>
+    <row r="76" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -10194,8 +10486,9 @@
       <c r="AN76" s="3"/>
       <c r="AO76" s="3"/>
       <c r="AP76" s="3"/>
-    </row>
-    <row r="77" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ76" s="3"/>
+    </row>
+    <row r="77" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -10238,8 +10531,9 @@
       <c r="AN77" s="3"/>
       <c r="AO77" s="3"/>
       <c r="AP77" s="3"/>
-    </row>
-    <row r="78" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ77" s="3"/>
+    </row>
+    <row r="78" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -10282,8 +10576,9 @@
       <c r="AN78" s="3"/>
       <c r="AO78" s="3"/>
       <c r="AP78" s="3"/>
-    </row>
-    <row r="79" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ78" s="3"/>
+    </row>
+    <row r="79" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -10326,8 +10621,9 @@
       <c r="AN79" s="3"/>
       <c r="AO79" s="3"/>
       <c r="AP79" s="3"/>
-    </row>
-    <row r="80" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ79" s="3"/>
+    </row>
+    <row r="80" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -10370,8 +10666,9 @@
       <c r="AN80" s="3"/>
       <c r="AO80" s="3"/>
       <c r="AP80" s="3"/>
-    </row>
-    <row r="81" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ80" s="3"/>
+    </row>
+    <row r="81" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -10414,8 +10711,9 @@
       <c r="AN81" s="3"/>
       <c r="AO81" s="3"/>
       <c r="AP81" s="3"/>
-    </row>
-    <row r="82" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ81" s="3"/>
+    </row>
+    <row r="82" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -10458,8 +10756,9 @@
       <c r="AN82" s="3"/>
       <c r="AO82" s="3"/>
       <c r="AP82" s="3"/>
-    </row>
-    <row r="83" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ82" s="3"/>
+    </row>
+    <row r="83" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -10502,8 +10801,9 @@
       <c r="AN83" s="3"/>
       <c r="AO83" s="3"/>
       <c r="AP83" s="3"/>
-    </row>
-    <row r="84" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ83" s="3"/>
+    </row>
+    <row r="84" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -10546,8 +10846,9 @@
       <c r="AN84" s="3"/>
       <c r="AO84" s="3"/>
       <c r="AP84" s="3"/>
-    </row>
-    <row r="85" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ84" s="3"/>
+    </row>
+    <row r="85" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -10590,8 +10891,9 @@
       <c r="AN85" s="3"/>
       <c r="AO85" s="3"/>
       <c r="AP85" s="3"/>
-    </row>
-    <row r="86" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ85" s="3"/>
+    </row>
+    <row r="86" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -10634,8 +10936,9 @@
       <c r="AN86" s="3"/>
       <c r="AO86" s="3"/>
       <c r="AP86" s="3"/>
-    </row>
-    <row r="87" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ86" s="3"/>
+    </row>
+    <row r="87" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -10678,8 +10981,9 @@
       <c r="AN87" s="3"/>
       <c r="AO87" s="3"/>
       <c r="AP87" s="3"/>
-    </row>
-    <row r="88" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ87" s="3"/>
+    </row>
+    <row r="88" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -10722,8 +11026,9 @@
       <c r="AN88" s="3"/>
       <c r="AO88" s="3"/>
       <c r="AP88" s="3"/>
-    </row>
-    <row r="89" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ88" s="3"/>
+    </row>
+    <row r="89" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -10766,8 +11071,9 @@
       <c r="AN89" s="3"/>
       <c r="AO89" s="3"/>
       <c r="AP89" s="3"/>
-    </row>
-    <row r="90" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ89" s="3"/>
+    </row>
+    <row r="90" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -10810,8 +11116,9 @@
       <c r="AN90" s="3"/>
       <c r="AO90" s="3"/>
       <c r="AP90" s="3"/>
-    </row>
-    <row r="91" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ90" s="3"/>
+    </row>
+    <row r="91" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -10854,8 +11161,9 @@
       <c r="AN91" s="3"/>
       <c r="AO91" s="3"/>
       <c r="AP91" s="3"/>
-    </row>
-    <row r="92" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ91" s="3"/>
+    </row>
+    <row r="92" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -10898,9 +11206,9 @@
       <c r="AN92" s="3"/>
       <c r="AO92" s="3"/>
       <c r="AP92" s="3"/>
-    </row>
-    <row r="93" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T93" s="3"/>
+      <c r="AQ92" s="3"/>
+    </row>
+    <row r="93" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
@@ -10923,9 +11231,9 @@
       <c r="AN93" s="3"/>
       <c r="AO93" s="3"/>
       <c r="AP93" s="3"/>
-    </row>
-    <row r="94" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T94" s="3"/>
+      <c r="AQ93" s="3"/>
+    </row>
+    <row r="94" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
@@ -10948,9 +11256,9 @@
       <c r="AN94" s="3"/>
       <c r="AO94" s="3"/>
       <c r="AP94" s="3"/>
-    </row>
-    <row r="95" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T95" s="3"/>
+      <c r="AQ94" s="3"/>
+    </row>
+    <row r="95" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
@@ -10973,9 +11281,9 @@
       <c r="AN95" s="3"/>
       <c r="AO95" s="3"/>
       <c r="AP95" s="3"/>
-    </row>
-    <row r="96" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T96" s="3"/>
+      <c r="AQ95" s="3"/>
+    </row>
+    <row r="96" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
@@ -10998,9 +11306,9 @@
       <c r="AN96" s="3"/>
       <c r="AO96" s="3"/>
       <c r="AP96" s="3"/>
-    </row>
-    <row r="97" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T97" s="3"/>
+      <c r="AQ96" s="3"/>
+    </row>
+    <row r="97" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
@@ -11023,9 +11331,9 @@
       <c r="AN97" s="3"/>
       <c r="AO97" s="3"/>
       <c r="AP97" s="3"/>
-    </row>
-    <row r="98" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T98" s="3"/>
+      <c r="AQ97" s="3"/>
+    </row>
+    <row r="98" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
@@ -11048,9 +11356,9 @@
       <c r="AN98" s="3"/>
       <c r="AO98" s="3"/>
       <c r="AP98" s="3"/>
-    </row>
-    <row r="99" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T99" s="3"/>
+      <c r="AQ98" s="3"/>
+    </row>
+    <row r="99" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
@@ -11073,9 +11381,9 @@
       <c r="AN99" s="3"/>
       <c r="AO99" s="3"/>
       <c r="AP99" s="3"/>
-    </row>
-    <row r="100" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T100" s="3"/>
+      <c r="AQ99" s="3"/>
+    </row>
+    <row r="100" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
@@ -11098,9 +11406,9 @@
       <c r="AN100" s="3"/>
       <c r="AO100" s="3"/>
       <c r="AP100" s="3"/>
-    </row>
-    <row r="101" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T101" s="3"/>
+      <c r="AQ100" s="3"/>
+    </row>
+    <row r="101" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
@@ -11123,9 +11431,9 @@
       <c r="AN101" s="3"/>
       <c r="AO101" s="3"/>
       <c r="AP101" s="3"/>
-    </row>
-    <row r="102" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T102" s="3"/>
+      <c r="AQ101" s="3"/>
+    </row>
+    <row r="102" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
@@ -11148,9 +11456,9 @@
       <c r="AN102" s="3"/>
       <c r="AO102" s="3"/>
       <c r="AP102" s="3"/>
-    </row>
-    <row r="103" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T103" s="3"/>
+      <c r="AQ102" s="3"/>
+    </row>
+    <row r="103" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
@@ -11173,9 +11481,9 @@
       <c r="AN103" s="3"/>
       <c r="AO103" s="3"/>
       <c r="AP103" s="3"/>
-    </row>
-    <row r="104" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T104" s="3"/>
+      <c r="AQ103" s="3"/>
+    </row>
+    <row r="104" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
       <c r="W104" s="3"/>
@@ -11198,9 +11506,9 @@
       <c r="AN104" s="3"/>
       <c r="AO104" s="3"/>
       <c r="AP104" s="3"/>
-    </row>
-    <row r="105" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T105" s="3"/>
+      <c r="AQ104" s="3"/>
+    </row>
+    <row r="105" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
       <c r="W105" s="3"/>
@@ -11223,9 +11531,9 @@
       <c r="AN105" s="3"/>
       <c r="AO105" s="3"/>
       <c r="AP105" s="3"/>
-    </row>
-    <row r="106" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T106" s="3"/>
+      <c r="AQ105" s="3"/>
+    </row>
+    <row r="106" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
@@ -11248,9 +11556,9 @@
       <c r="AN106" s="3"/>
       <c r="AO106" s="3"/>
       <c r="AP106" s="3"/>
-    </row>
-    <row r="107" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T107" s="3"/>
+      <c r="AQ106" s="3"/>
+    </row>
+    <row r="107" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
@@ -11273,9 +11581,9 @@
       <c r="AN107" s="3"/>
       <c r="AO107" s="3"/>
       <c r="AP107" s="3"/>
-    </row>
-    <row r="108" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T108" s="3"/>
+      <c r="AQ107" s="3"/>
+    </row>
+    <row r="108" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
       <c r="W108" s="3"/>
@@ -11298,9 +11606,9 @@
       <c r="AN108" s="3"/>
       <c r="AO108" s="3"/>
       <c r="AP108" s="3"/>
-    </row>
-    <row r="109" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T109" s="3"/>
+      <c r="AQ108" s="3"/>
+    </row>
+    <row r="109" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
       <c r="W109" s="3"/>
@@ -11323,9 +11631,9 @@
       <c r="AN109" s="3"/>
       <c r="AO109" s="3"/>
       <c r="AP109" s="3"/>
-    </row>
-    <row r="110" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T110" s="3"/>
+      <c r="AQ109" s="3"/>
+    </row>
+    <row r="110" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
       <c r="W110" s="3"/>
@@ -11348,9 +11656,9 @@
       <c r="AN110" s="3"/>
       <c r="AO110" s="3"/>
       <c r="AP110" s="3"/>
-    </row>
-    <row r="111" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T111" s="3"/>
+      <c r="AQ110" s="3"/>
+    </row>
+    <row r="111" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
       <c r="W111" s="3"/>
@@ -11373,9 +11681,9 @@
       <c r="AN111" s="3"/>
       <c r="AO111" s="3"/>
       <c r="AP111" s="3"/>
-    </row>
-    <row r="112" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T112" s="3"/>
+      <c r="AQ111" s="3"/>
+    </row>
+    <row r="112" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
       <c r="W112" s="3"/>
@@ -11398,9 +11706,9 @@
       <c r="AN112" s="3"/>
       <c r="AO112" s="3"/>
       <c r="AP112" s="3"/>
-    </row>
-    <row r="113" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T113" s="3"/>
+      <c r="AQ112" s="3"/>
+    </row>
+    <row r="113" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
       <c r="W113" s="3"/>
@@ -11423,9 +11731,9 @@
       <c r="AN113" s="3"/>
       <c r="AO113" s="3"/>
       <c r="AP113" s="3"/>
-    </row>
-    <row r="114" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T114" s="3"/>
+      <c r="AQ113" s="3"/>
+    </row>
+    <row r="114" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
       <c r="W114" s="3"/>
@@ -11448,9 +11756,9 @@
       <c r="AN114" s="3"/>
       <c r="AO114" s="3"/>
       <c r="AP114" s="3"/>
-    </row>
-    <row r="115" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T115" s="3"/>
+      <c r="AQ114" s="3"/>
+    </row>
+    <row r="115" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
       <c r="W115" s="3"/>
@@ -11473,9 +11781,9 @@
       <c r="AN115" s="3"/>
       <c r="AO115" s="3"/>
       <c r="AP115" s="3"/>
-    </row>
-    <row r="116" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T116" s="3"/>
+      <c r="AQ115" s="3"/>
+    </row>
+    <row r="116" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
       <c r="W116" s="3"/>
@@ -11498,9 +11806,9 @@
       <c r="AN116" s="3"/>
       <c r="AO116" s="3"/>
       <c r="AP116" s="3"/>
-    </row>
-    <row r="117" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T117" s="3"/>
+      <c r="AQ116" s="3"/>
+    </row>
+    <row r="117" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
       <c r="W117" s="3"/>
@@ -11523,9 +11831,9 @@
       <c r="AN117" s="3"/>
       <c r="AO117" s="3"/>
       <c r="AP117" s="3"/>
-    </row>
-    <row r="118" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T118" s="3"/>
+      <c r="AQ117" s="3"/>
+    </row>
+    <row r="118" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
       <c r="W118" s="3"/>
@@ -11548,9 +11856,9 @@
       <c r="AN118" s="3"/>
       <c r="AO118" s="3"/>
       <c r="AP118" s="3"/>
-    </row>
-    <row r="119" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T119" s="3"/>
+      <c r="AQ118" s="3"/>
+    </row>
+    <row r="119" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
       <c r="W119" s="3"/>
@@ -11573,9 +11881,9 @@
       <c r="AN119" s="3"/>
       <c r="AO119" s="3"/>
       <c r="AP119" s="3"/>
-    </row>
-    <row r="120" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T120" s="3"/>
+      <c r="AQ119" s="3"/>
+    </row>
+    <row r="120" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
       <c r="W120" s="3"/>
@@ -11598,9 +11906,9 @@
       <c r="AN120" s="3"/>
       <c r="AO120" s="3"/>
       <c r="AP120" s="3"/>
-    </row>
-    <row r="121" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T121" s="3"/>
+      <c r="AQ120" s="3"/>
+    </row>
+    <row r="121" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
       <c r="W121" s="3"/>
@@ -11623,9 +11931,9 @@
       <c r="AN121" s="3"/>
       <c r="AO121" s="3"/>
       <c r="AP121" s="3"/>
-    </row>
-    <row r="122" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T122" s="3"/>
+      <c r="AQ121" s="3"/>
+    </row>
+    <row r="122" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
       <c r="W122" s="3"/>
@@ -11648,9 +11956,9 @@
       <c r="AN122" s="3"/>
       <c r="AO122" s="3"/>
       <c r="AP122" s="3"/>
-    </row>
-    <row r="123" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T123" s="3"/>
+      <c r="AQ122" s="3"/>
+    </row>
+    <row r="123" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
       <c r="W123" s="3"/>
@@ -11673,9 +11981,9 @@
       <c r="AN123" s="3"/>
       <c r="AO123" s="3"/>
       <c r="AP123" s="3"/>
-    </row>
-    <row r="124" spans="20:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T124" s="3"/>
+      <c r="AQ123" s="3"/>
+    </row>
+    <row r="124" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
       <c r="W124" s="3"/>
@@ -11698,17 +12006,18 @@
       <c r="AN124" s="3"/>
       <c r="AO124" s="3"/>
       <c r="AP124" s="3"/>
+      <c r="AQ124" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R45" r:id="rId1" display="http://galaxe.solutions/" xr:uid="{FC3574BC-D6EF-4519-A7F6-F3806DB46557}"/>
-    <hyperlink ref="O38" r:id="rId2" display="http://critically.io/" xr:uid="{58C6B818-5DAB-4298-BE6A-8DFB8F2FA3E6}"/>
-    <hyperlink ref="AM4" r:id="rId3" display="http://pendo.io/" xr:uid="{D0FB6BCD-C593-4A26-8FE6-FE61791CE669}"/>
-    <hyperlink ref="AK2" r:id="rId4" display="http://underdog.io/" xr:uid="{543C7C11-8D77-4769-955F-05FB4DC5FBB2}"/>
-    <hyperlink ref="AI49" r:id="rId5" display="http://ampcontrol.io/" xr:uid="{D63E3F1B-0340-4575-B7D7-BEF67233F5CD}"/>
-    <hyperlink ref="AF2" r:id="rId6" display="http://soffos.al/" xr:uid="{33336681-5570-4B6F-B154-1FDC1CE41B62}"/>
-    <hyperlink ref="AF19" r:id="rId7" display="http://miningstore.com/" xr:uid="{8AC48435-3FDD-44BD-BC8F-5FF8929E3F09}"/>
-    <hyperlink ref="AD5" r:id="rId8" display="http://ftsi.tech/" xr:uid="{2C18A7FB-BA19-4A58-BB3E-04631CB18EF4}"/>
+    <hyperlink ref="S45" r:id="rId1" display="http://galaxe.solutions/" xr:uid="{FC3574BC-D6EF-4519-A7F6-F3806DB46557}"/>
+    <hyperlink ref="P38" r:id="rId2" display="http://critically.io/" xr:uid="{58C6B818-5DAB-4298-BE6A-8DFB8F2FA3E6}"/>
+    <hyperlink ref="AN4" r:id="rId3" display="http://pendo.io/" xr:uid="{D0FB6BCD-C593-4A26-8FE6-FE61791CE669}"/>
+    <hyperlink ref="AL2" r:id="rId4" display="http://underdog.io/" xr:uid="{543C7C11-8D77-4769-955F-05FB4DC5FBB2}"/>
+    <hyperlink ref="AJ49" r:id="rId5" display="http://ampcontrol.io/" xr:uid="{D63E3F1B-0340-4575-B7D7-BEF67233F5CD}"/>
+    <hyperlink ref="AG2" r:id="rId6" display="http://soffos.al/" xr:uid="{33336681-5570-4B6F-B154-1FDC1CE41B62}"/>
+    <hyperlink ref="AG19" r:id="rId7" display="http://miningstore.com/" xr:uid="{8AC48435-3FDD-44BD-BC8F-5FF8929E3F09}"/>
+    <hyperlink ref="AE5" r:id="rId8" display="http://ftsi.tech/" xr:uid="{2C18A7FB-BA19-4A58-BB3E-04631CB18EF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/applications.xlsx
+++ b/applications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57419\Documents\applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7909BA18-09B1-419D-BE7A-334A7906735A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8602B9-6D2F-4EC1-B4E8-D0C65DC6FED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49215" yWindow="165" windowWidth="8175" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45270" yWindow="1005" windowWidth="8655" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2878" uniqueCount="1298">
   <si>
     <t>Total</t>
   </si>
@@ -3793,6 +3793,141 @@
   </si>
   <si>
     <t>50. Jefferson Frank</t>
+  </si>
+  <si>
+    <t>1. Twik</t>
+  </si>
+  <si>
+    <t>2. Swim Protocol</t>
+  </si>
+  <si>
+    <t>4. Taldel</t>
+  </si>
+  <si>
+    <t>5. Status Forward</t>
+  </si>
+  <si>
+    <t>7. Data Concepts</t>
+  </si>
+  <si>
+    <t>8. Spruce InfoTech, Inc</t>
+  </si>
+  <si>
+    <t>9. Spruce InfoTech</t>
+  </si>
+  <si>
+    <t>10. Blackapple Solutions LLC</t>
+  </si>
+  <si>
+    <t>11. IT America Inc.</t>
+  </si>
+  <si>
+    <t>12.  iSmileTechnologies</t>
+  </si>
+  <si>
+    <t>13. Saransh Inc</t>
+  </si>
+  <si>
+    <t>14. Gatix E Solutions</t>
+  </si>
+  <si>
+    <t>15. OpenArc, LLC.</t>
+  </si>
+  <si>
+    <t>16. Apex Systems</t>
+  </si>
+  <si>
+    <t>17. HRUCKUS</t>
+  </si>
+  <si>
+    <t>18. Jarvis Cole</t>
+  </si>
+  <si>
+    <t>19. dv01</t>
+  </si>
+  <si>
+    <t>20. Tek Leaders Inc</t>
+  </si>
+  <si>
+    <t>21. Speak_</t>
+  </si>
+  <si>
+    <t>22. Akraya, Inc.</t>
+  </si>
+  <si>
+    <t>23. Invest-Ed</t>
+  </si>
+  <si>
+    <t>24. IMCS Group</t>
+  </si>
+  <si>
+    <t>25. Wit Sports</t>
+  </si>
+  <si>
+    <t>26. Confidential</t>
+  </si>
+  <si>
+    <t>27. IDC Technologies, Inc.</t>
+  </si>
+  <si>
+    <t>30. TOPSYS IT</t>
+  </si>
+  <si>
+    <t>29. Ingrav</t>
+  </si>
+  <si>
+    <t>31. Praesidium, Inc.</t>
+  </si>
+  <si>
+    <t>32. CasePacer</t>
+  </si>
+  <si>
+    <t>34. Rayyan Systems Inc.</t>
+  </si>
+  <si>
+    <t>35. Common Sense Solutions</t>
+  </si>
+  <si>
+    <t>36. GrantAide</t>
+  </si>
+  <si>
+    <t>37. Belcan</t>
+  </si>
+  <si>
+    <t>38. Global Headhunter</t>
+  </si>
+  <si>
+    <t>39. Confidential</t>
+  </si>
+  <si>
+    <t>40. Twik</t>
+  </si>
+  <si>
+    <t>42. Intec Solutions, Inc</t>
+  </si>
+  <si>
+    <t>43. TEKsystems</t>
+  </si>
+  <si>
+    <t>44. Optello</t>
+  </si>
+  <si>
+    <t>45. Infor</t>
+  </si>
+  <si>
+    <t>46. Optello</t>
+  </si>
+  <si>
+    <t>47. Optello</t>
+  </si>
+  <si>
+    <t>48. Optello</t>
+  </si>
+  <si>
+    <t>49. OFC</t>
+  </si>
+  <si>
+    <t>50. Talus Partners, LLC</t>
   </si>
 </sst>
 </file>
@@ -4150,365 +4285,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ124"/>
+  <dimension ref="A1:AR124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="41" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="41" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>44550</v>
+      </c>
+      <c r="C1" s="1">
         <v>44547</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>44546</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>44545</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>44544</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>44543</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>44540</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>44539</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>44538</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>44537</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>44536</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>44533</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>44532</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>44531</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>44530</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>44529</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>44524</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>44523</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>44522</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>44518</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>44517</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>44516</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="1">
         <v>44515</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="1">
         <v>44512</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="1">
         <v>44511</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="1">
         <v>44510</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>44509</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="1">
         <v>44508</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="1">
         <v>44505</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>44504</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AF1" s="1">
         <v>44503</v>
       </c>
-      <c r="AF1" s="5">
+      <c r="AG1" s="5">
         <v>44502</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AH1" s="1">
         <v>44501</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AI1" s="1">
         <v>44498</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AJ1" s="1">
         <v>44497</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AK1" s="1">
         <v>44496</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AL1" s="1">
         <v>44495</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AM1" s="1">
         <v>44494</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AN1" s="1">
         <v>44489</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AO1" s="1">
         <v>44487</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AP1" s="1">
         <v>44486</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AQ1" s="1">
         <v>44421</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AR1" s="1">
         <v>44419</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <f xml:space="preserve"> COUNTA(B2:AAG100)</f>
+        <f xml:space="preserve"> COUNTA(C2:AAH100)</f>
         <v>1388</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>13</v>
@@ -4520,2926 +4662,3009 @@
         <v>13</v>
       </c>
       <c r="S3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="3"/>
+      <c r="V3" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>616</v>
       </c>
       <c r="Y3" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AG3" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3" t="s">
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>1177</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="3"/>
+      <c r="V4" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AG4" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="4" t="s">
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3" t="s">
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AF5" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AG5" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AH5" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AI5" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AK5" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AL5" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AM5" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3" t="s">
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3" t="s">
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="AQ5" s="3" t="s">
+      <c r="AR5" s="3" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>1179</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3" t="s">
+      <c r="U6" s="3"/>
+      <c r="V6" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="X6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="Y6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AD6" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AE6" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AF6" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="AF6" s="6" t="s">
+      <c r="AG6" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="AG6" s="3" t="s">
+      <c r="AH6" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="AH6" s="3" t="s">
+      <c r="AI6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AI6" s="3" t="s">
+      <c r="AJ6" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="AJ6" s="3" t="s">
+      <c r="AK6" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="AK6" s="3" t="s">
+      <c r="AL6" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="AL6" s="3" t="s">
+      <c r="AM6" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
-      <c r="AP6" s="3" t="s">
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="AQ6" s="3" t="s">
+      <c r="AR6" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="K7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3" t="s">
+      <c r="U7" s="3"/>
+      <c r="V7" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AD7" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AF7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="AF7" s="6" t="s">
+      <c r="AG7" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AH7" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AI7" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="AI7" s="3" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="AJ7" s="3" t="s">
+      <c r="AK7" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="AK7" s="3" t="s">
+      <c r="AL7" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="AL7" s="3" t="s">
+      <c r="AM7" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
-      <c r="AP7" s="3" t="s">
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="AQ7" s="3" t="s">
+      <c r="AR7" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3" t="s">
+      <c r="U8" s="3"/>
+      <c r="V8" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="AA8" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AF8" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="AF8" s="6" t="s">
+      <c r="AG8" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="AG8" s="3" t="s">
+      <c r="AH8" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="AH8" s="3" t="s">
+      <c r="AI8" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="AI8" s="3" t="s">
+      <c r="AJ8" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="AJ8" s="3" t="s">
+      <c r="AK8" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="AK8" s="3" t="s">
+      <c r="AL8" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="AL8" s="3" t="s">
+      <c r="AM8" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
-      <c r="AP8" s="3" t="s">
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
     </row>
-    <row r="9" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3" t="s">
+      <c r="U9" s="3"/>
+      <c r="V9" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>73</v>
       </c>
       <c r="X9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y9" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Z9" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AD9" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3" t="s">
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="AF9" s="6" t="s">
+      <c r="AG9" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="AG9" s="3" t="s">
+      <c r="AH9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AH9" s="3" t="s">
+      <c r="AI9" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="AI9" s="3" t="s">
+      <c r="AJ9" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="AJ9" s="3" t="s">
+      <c r="AK9" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="AK9" s="3" t="s">
+      <c r="AL9" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="AL9" s="3" t="s">
+      <c r="AM9" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
-      <c r="AP9" s="3" t="s">
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
     </row>
-    <row r="10" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>1007</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>78</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3" t="s">
+      <c r="U10" s="3"/>
+      <c r="V10" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3" t="s">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="AA10" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AB10" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AC10" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AD10" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3" t="s">
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="AF10" s="6" t="s">
+      <c r="AG10" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="AG10" s="3" t="s">
+      <c r="AH10" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="AH10" s="3" t="s">
+      <c r="AI10" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="AI10" s="3" t="s">
+      <c r="AJ10" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="AJ10" s="3" t="s">
+      <c r="AK10" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="AK10" s="3" t="s">
+      <c r="AL10" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="AL10" s="3" t="s">
+      <c r="AM10" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
-      <c r="AP10" s="3" t="s">
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
     </row>
-    <row r="11" spans="1:43" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>95</v>
       </c>
       <c r="S11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="T11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3" t="s">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3" t="s">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="Z11" s="3" t="s">
+      <c r="AA11" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="AA11" s="3" t="s">
+      <c r="AB11" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AC11" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-      <c r="AE11" s="3" t="s">
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="AF11" s="6" t="s">
+      <c r="AG11" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="AG11" s="3" t="s">
+      <c r="AH11" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="AH11" s="3" t="s">
+      <c r="AI11" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="AI11" s="3" t="s">
+      <c r="AJ11" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="AJ11" s="3" t="s">
+      <c r="AK11" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="AK11" s="3" t="s">
+      <c r="AL11" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="AL11" s="3" t="s">
+      <c r="AM11" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
-      <c r="AP11" s="3" t="s">
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
     </row>
-    <row r="12" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3" t="s">
+      <c r="U12" s="3"/>
+      <c r="V12" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3" t="s">
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="Z12" s="3" t="s">
+      <c r="AA12" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="AA12" s="3" t="s">
+      <c r="AB12" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="AC12" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="3" t="s">
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="AF12" s="6" t="s">
+      <c r="AG12" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="AG12" s="3" t="s">
+      <c r="AH12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AH12" s="3" t="s">
+      <c r="AI12" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="AI12" s="3" t="s">
+      <c r="AJ12" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="AJ12" s="3" t="s">
+      <c r="AK12" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="AK12" s="3" t="s">
+      <c r="AL12" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="AL12" s="3" t="s">
+      <c r="AM12" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
-      <c r="AP12" s="3" t="s">
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
     </row>
-    <row r="13" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>109</v>
       </c>
       <c r="R13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3" t="s">
+      <c r="U13" s="3"/>
+      <c r="V13" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3" t="s">
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="Z13" s="3" t="s">
+      <c r="AA13" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="AA13" s="3" t="s">
+      <c r="AB13" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="AB13" s="3" t="s">
+      <c r="AC13" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
-      <c r="AE13" s="3" t="s">
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="AF13" s="6" t="s">
+      <c r="AG13" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="AG13" s="3" t="s">
+      <c r="AH13" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="AH13" s="3" t="s">
+      <c r="AI13" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="AI13" s="3" t="s">
+      <c r="AJ13" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="AJ13" s="3" t="s">
+      <c r="AK13" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="AK13" s="3" t="s">
+      <c r="AL13" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="AL13" s="3" t="s">
+      <c r="AM13" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
-      <c r="AP13" s="3" t="s">
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
     </row>
-    <row r="14" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3"/>
+      <c r="V14" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
-      <c r="AE14" s="3" t="s">
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="AF14" s="6" t="s">
+      <c r="AG14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AG14" s="3" t="s">
+      <c r="AH14" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="AH14" s="3" t="s">
+      <c r="AI14" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="AI14" s="3" t="s">
+      <c r="AJ14" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="AJ14" s="3" t="s">
+      <c r="AK14" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="AK14" s="3" t="s">
+      <c r="AL14" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="AL14" s="3" t="s">
+      <c r="AM14" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
-      <c r="AP14" s="3" t="s">
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
     </row>
-    <row r="15" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>1011</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>129</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>132</v>
       </c>
       <c r="O15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3" t="s">
+      <c r="U15" s="3"/>
+      <c r="V15" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3" t="s">
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="AA15" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="AA15" s="3" t="s">
+      <c r="AB15" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="AB15" s="3" t="s">
+      <c r="AC15" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
-      <c r="AE15" s="3" t="s">
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3" t="s">
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="AH15" s="3" t="s">
+      <c r="AI15" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="AI15" s="3" t="s">
+      <c r="AJ15" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="AJ15" s="3" t="s">
+      <c r="AK15" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="AK15" s="3" t="s">
+      <c r="AL15" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="AL15" s="3" t="s">
+      <c r="AM15" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
-      <c r="AP15" s="3" t="s">
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
     </row>
-    <row r="16" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>1188</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3" t="s">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="X16" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3" t="s">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="Z16" s="3" t="s">
+      <c r="AA16" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="AA16" s="3" t="s">
+      <c r="AB16" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="AB16" s="3" t="s">
+      <c r="AC16" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="3" t="s">
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AH16" s="3" t="s">
+      <c r="AI16" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="AI16" s="3" t="s">
+      <c r="AJ16" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="AJ16" s="3" t="s">
+      <c r="AK16" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="AK16" s="3" t="s">
+      <c r="AL16" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="AL16" s="3" t="s">
+      <c r="AM16" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
-      <c r="AP16" s="3" t="s">
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
     </row>
-    <row r="17" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3" t="s">
+      <c r="U17" s="3"/>
+      <c r="V17" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3" t="s">
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="Z17" s="3" t="s">
+      <c r="AA17" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="AA17" s="3" t="s">
+      <c r="AB17" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="AB17" s="3" t="s">
+      <c r="AC17" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
-      <c r="AG17" s="3" t="s">
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="AH17" s="3" t="s">
+      <c r="AI17" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="AI17" s="3" t="s">
+      <c r="AJ17" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="AJ17" s="3" t="s">
+      <c r="AK17" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="AK17" s="3" t="s">
+      <c r="AL17" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="AL17" s="3" t="s">
+      <c r="AM17" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
-      <c r="AP17" s="3" t="s">
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
     </row>
-    <row r="18" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3" t="s">
+      <c r="U18" s="3"/>
+      <c r="V18" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="W18" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3" t="s">
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="Z18" s="3" t="s">
+      <c r="AA18" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="AA18" s="3" t="s">
+      <c r="AB18" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="AB18" s="3" t="s">
+      <c r="AC18" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
-      <c r="AG18" s="3" t="s">
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="AH18" s="3" t="s">
+      <c r="AI18" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="AI18" s="3" t="s">
+      <c r="AJ18" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="AJ18" s="3" t="s">
+      <c r="AK18" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="AK18" s="3" t="s">
+      <c r="AL18" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="AL18" s="3" t="s">
+      <c r="AM18" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
-      <c r="AP18" s="3" t="s">
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
     </row>
-    <row r="19" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3" t="s">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3" t="s">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="Z19" s="3" t="s">
+      <c r="AA19" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="AA19" s="3" t="s">
+      <c r="AB19" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="AB19" s="3" t="s">
+      <c r="AC19" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-      <c r="AG19" s="4" t="s">
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3" t="s">
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="AJ19" s="3" t="s">
+      <c r="AK19" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="AK19" s="3" t="s">
+      <c r="AL19" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
-      <c r="AP19" s="3" t="s">
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
     </row>
-    <row r="20" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>1100</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>183</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3" t="s">
+      <c r="U20" s="3"/>
+      <c r="V20" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="W20" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3" t="s">
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="Z20" s="3" t="s">
+      <c r="AA20" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="AA20" s="3" t="s">
+      <c r="AB20" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="AB20" s="3" t="s">
+      <c r="AC20" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
-      <c r="AG20" s="3" t="s">
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3" t="s">
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="AJ20" s="3" t="s">
+      <c r="AK20" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="AK20" s="3" t="s">
+      <c r="AL20" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
-      <c r="AP20" s="3" t="s">
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
     </row>
-    <row r="21" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>1146</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3" t="s">
+      <c r="U21" s="3"/>
+      <c r="V21" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3" t="s">
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="AA21" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="AA21" s="3" t="s">
+      <c r="AB21" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
-      <c r="AG21" s="3" t="s">
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3" t="s">
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="AJ21" s="3" t="s">
+      <c r="AK21" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="AK21" s="3" t="s">
+      <c r="AL21" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
-      <c r="AP21" s="3" t="s">
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
     </row>
-    <row r="22" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3" t="s">
+      <c r="T22" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3" t="s">
+      <c r="W22" s="3"/>
+      <c r="X22" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3" t="s">
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="Z22" s="3" t="s">
+      <c r="AA22" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="AA22" s="3" t="s">
+      <c r="AB22" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
-      <c r="AG22" s="3" t="s">
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3" t="s">
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="AJ22" s="3" t="s">
+      <c r="AK22" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="AK22" s="3" t="s">
+      <c r="AL22" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
       <c r="AP22" s="3"/>
       <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
     </row>
-    <row r="23" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="R23" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-      <c r="Y23" s="3" t="s">
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="Z23" s="3" t="s">
+      <c r="AA23" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="AA23" s="3" t="s">
+      <c r="AB23" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AG23" s="3" t="s">
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3" t="s">
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="AJ23" s="3" t="s">
+      <c r="AK23" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="AK23" s="3" t="s">
+      <c r="AL23" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
     </row>
-    <row r="24" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-      <c r="Y24" s="3" t="s">
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="Z24" s="3" t="s">
+      <c r="AA24" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="AA24" s="3" t="s">
+      <c r="AB24" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
-      <c r="AG24" s="3" t="s">
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3" t="s">
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="AJ24" s="3" t="s">
+      <c r="AK24" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="AK24" s="3" t="s">
+      <c r="AL24" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
       <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
     </row>
-    <row r="25" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>246</v>
       </c>
       <c r="R25" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="S25" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="S25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
-      <c r="Y25" s="3" t="s">
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="Z25" s="3" t="s">
+      <c r="AA25" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
-      <c r="AG25" s="3" t="s">
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3" t="s">
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="AJ25" s="3" t="s">
+      <c r="AK25" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="AK25" s="3" t="s">
+      <c r="AL25" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
       <c r="AP25" s="3"/>
       <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
     </row>
-    <row r="26" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="L26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="R26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="S26" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="S26" s="3" t="s">
+      <c r="T26" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
-      <c r="Y26" s="3" t="s">
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="Z26" s="3" t="s">
+      <c r="AA26" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
-      <c r="AG26" s="3" t="s">
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3" t="s">
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="AJ26" s="3" t="s">
+      <c r="AK26" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="AK26" s="3" t="s">
+      <c r="AL26" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
       <c r="AP26" s="3"/>
       <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
     </row>
-    <row r="27" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>1195</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>1152</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>259</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="R27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
-      <c r="Y27" s="3" t="s">
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="Z27" s="3" t="s">
+      <c r="AA27" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
-      <c r="AG27" s="3" t="s">
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3" t="s">
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="AJ27" s="3" t="s">
+      <c r="AK27" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="AK27" s="3" t="s">
+      <c r="AL27" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
     </row>
-    <row r="28" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="R28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
-      <c r="Y28" s="3" t="s">
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="Z28" s="3" t="s">
+      <c r="AA28" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
-      <c r="AG28" s="3" t="s">
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3" t="s">
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="AJ28" s="3" t="s">
+      <c r="AK28" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="AK28" s="3" t="s">
+      <c r="AL28" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
       <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
     </row>
-    <row r="29" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
-      <c r="Y29" s="3" t="s">
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
-      <c r="AG29" s="3" t="s">
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3" t="s">
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="AJ29" s="3" t="s">
+      <c r="AK29" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
     </row>
-    <row r="30" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="R30" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="S30" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
@@ -7452,81 +7677,84 @@
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
-      <c r="AG30" s="3" t="s">
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3" t="s">
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="AJ30" s="3" t="s">
+      <c r="AK30" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
       <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
     </row>
-    <row r="31" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>1198</v>
+        <v>1278</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>1198</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="R31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="T31" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
@@ -7539,81 +7767,84 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
-      <c r="AG31" s="3" t="s">
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3" t="s">
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="AJ31" s="3" t="s">
+      <c r="AK31" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
       <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
     </row>
-    <row r="32" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="R32" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="S32" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="T32" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
@@ -7626,81 +7857,84 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
-      <c r="AG32" s="3" t="s">
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="AH32" s="3"/>
-      <c r="AI32" s="3" t="s">
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="AJ32" s="3" t="s">
+      <c r="AK32" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
       <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
     </row>
-    <row r="33" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
@@ -7713,81 +7947,84 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
-      <c r="AG33" s="3" t="s">
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3" t="s">
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="AJ33" s="3" t="s">
+      <c r="AK33" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
     </row>
-    <row r="34" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="P34" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="Q34" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="R34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="S34" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="T34" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
@@ -7800,81 +8037,84 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
-      <c r="AG34" s="3" t="s">
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3" t="s">
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="AJ34" s="3" t="s">
+      <c r="AK34" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
       <c r="AP34" s="3"/>
       <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
     </row>
-    <row r="35" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>1236</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="R35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="S35" s="3" t="s">
+      <c r="T35" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
@@ -7887,81 +8127,84 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
-      <c r="AG35" s="3" t="s">
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3" t="s">
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="AJ35" s="3" t="s">
+      <c r="AK35" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
       <c r="AP35" s="3"/>
       <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
     </row>
-    <row r="36" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="R36" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="S36" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="S36" s="3" t="s">
+      <c r="T36" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
@@ -7976,77 +8219,80 @@
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
-      <c r="AI36" s="3" t="s">
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="AJ36" s="3" t="s">
+      <c r="AK36" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
       <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
       <c r="AP36" s="3"/>
       <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
     </row>
-    <row r="37" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="P37" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="R37" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="S37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="S37" s="3" t="s">
+      <c r="T37" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
@@ -8061,77 +8307,80 @@
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
-      <c r="AI37" s="3" t="s">
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="AJ37" s="3" t="s">
+      <c r="AK37" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
       <c r="AP37" s="3"/>
       <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
     </row>
-    <row r="38" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="O38" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="P38" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="P38" s="4" t="s">
+      <c r="Q38" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="R38" s="3" t="s">
         <v>391</v>
       </c>
       <c r="S38" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="T38" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
@@ -8146,77 +8395,80 @@
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
-      <c r="AI38" s="3" t="s">
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="AJ38" s="3" t="s">
+      <c r="AK38" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
       <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
       <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
     </row>
-    <row r="39" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="R39" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="S39" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="S39" s="3" t="s">
+      <c r="T39" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
@@ -8231,77 +8483,80 @@
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
-      <c r="AI39" s="3" t="s">
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="AJ39" s="3" t="s">
+      <c r="AK39" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
       <c r="AP39" s="3"/>
       <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
     </row>
-    <row r="40" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>1165</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="O40" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="P40" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="R40" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="S40" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="S40" s="3" t="s">
+      <c r="T40" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
@@ -8316,77 +8571,80 @@
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
-      <c r="AI40" s="3" t="s">
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="AJ40" s="3" t="s">
+      <c r="AK40" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
       <c r="AP40" s="3"/>
       <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
     </row>
-    <row r="41" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="O41" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="P41" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="Q41" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="R41" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="R41" s="3" t="s">
+      <c r="S41" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="S41" s="3" t="s">
+      <c r="T41" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
@@ -8401,77 +8659,80 @@
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
-      <c r="AI41" s="3" t="s">
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="AJ41" s="3" t="s">
+      <c r="AK41" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
       <c r="AM41" s="3"/>
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
       <c r="AP41" s="3"/>
       <c r="AQ41" s="3"/>
+      <c r="AR41" s="3"/>
     </row>
-    <row r="42" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="P42" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="Q42" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="R42" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
@@ -8486,77 +8747,80 @@
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
-      <c r="AI42" s="3" t="s">
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="AJ42" s="3" t="s">
+      <c r="AK42" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
       <c r="AM42" s="3"/>
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
       <c r="AP42" s="3"/>
       <c r="AQ42" s="3"/>
+      <c r="AR42" s="3"/>
     </row>
-    <row r="43" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>1244</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>1207</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="O43" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="P43" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="Q43" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="R43" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="S43" s="3" t="s">
+      <c r="T43" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
@@ -8571,77 +8835,80 @@
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
-      <c r="AI43" s="3" t="s">
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="AJ43" s="3" t="s">
+      <c r="AK43" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
       <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
       <c r="AP43" s="3"/>
       <c r="AQ43" s="3"/>
+      <c r="AR43" s="3"/>
     </row>
-    <row r="44" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="L44" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="M44" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="O44" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="P44" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="Q44" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="R44" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="S44" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="T44" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
@@ -8656,77 +8923,80 @@
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
       <c r="AH44" s="3"/>
-      <c r="AI44" s="3" t="s">
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="AJ44" s="3" t="s">
+      <c r="AK44" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
       <c r="AM44" s="3"/>
       <c r="AN44" s="3"/>
       <c r="AO44" s="3"/>
       <c r="AP44" s="3"/>
       <c r="AQ44" s="3"/>
+      <c r="AR44" s="3"/>
     </row>
-    <row r="45" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="P45" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="R45" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="S45" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="S45" s="4" t="s">
+      <c r="T45" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
@@ -8741,75 +9011,78 @@
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
-      <c r="AI45" s="3" t="s">
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="AJ45" s="3" t="s">
+      <c r="AK45" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
       <c r="AM45" s="3"/>
       <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
       <c r="AP45" s="3"/>
       <c r="AQ45" s="3"/>
+      <c r="AR45" s="3"/>
     </row>
-    <row r="46" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3" t="s">
+      <c r="K46" s="3"/>
+      <c r="L46" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="M46" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="O46" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="P46" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="P46" s="3" t="s">
+      <c r="Q46" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="R46" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="S46" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="S46" s="3" t="s">
+      <c r="T46" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
@@ -8824,75 +9097,78 @@
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
-      <c r="AI46" s="3" t="s">
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="AJ46" s="3" t="s">
+      <c r="AK46" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="AK46" s="3"/>
       <c r="AL46" s="3"/>
       <c r="AM46" s="3"/>
       <c r="AN46" s="3"/>
       <c r="AO46" s="3"/>
       <c r="AP46" s="3"/>
       <c r="AQ46" s="3"/>
+      <c r="AR46" s="3"/>
     </row>
-    <row r="47" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>1248</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>1171</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="3"/>
+      <c r="L47" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="P47" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="T47" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
@@ -8907,75 +9183,78 @@
       <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
       <c r="AH47" s="3"/>
-      <c r="AI47" s="3" t="s">
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="AJ47" s="3" t="s">
+      <c r="AK47" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
       <c r="AM47" s="3"/>
       <c r="AN47" s="3"/>
       <c r="AO47" s="3"/>
       <c r="AP47" s="3"/>
       <c r="AQ47" s="3"/>
+      <c r="AR47" s="3"/>
     </row>
-    <row r="48" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3" t="s">
+      <c r="K48" s="3"/>
+      <c r="L48" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="O48" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="P48" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="Q48" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="R48" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="S48" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="S48" s="3" t="s">
+      <c r="T48" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
@@ -8990,75 +9269,78 @@
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
       <c r="AH48" s="3"/>
-      <c r="AI48" s="3" t="s">
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="AJ48" s="3" t="s">
+      <c r="AK48" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
       <c r="AM48" s="3"/>
       <c r="AN48" s="3"/>
       <c r="AO48" s="3"/>
       <c r="AP48" s="3"/>
       <c r="AQ48" s="3"/>
+      <c r="AR48" s="3"/>
     </row>
-    <row r="49" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>1042</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>510</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3" t="s">
+      <c r="J49" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="O49" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="P49" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="Q49" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="R49" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="S49" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="S49" s="3" t="s">
+      <c r="T49" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
@@ -9073,75 +9355,78 @@
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
       <c r="AH49" s="3"/>
-      <c r="AI49" s="3" t="s">
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="AJ49" s="4" t="s">
+      <c r="AK49" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
       <c r="AM49" s="3"/>
       <c r="AN49" s="3"/>
       <c r="AO49" s="3"/>
       <c r="AP49" s="3"/>
       <c r="AQ49" s="3"/>
+      <c r="AR49" s="3"/>
     </row>
-    <row r="50" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3" t="s">
+      <c r="K50" s="3"/>
+      <c r="L50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="M50" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="N50" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="O50" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="O50" s="3" t="s">
+      <c r="P50" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="P50" s="3" t="s">
+      <c r="Q50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="R50" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="R50" s="3" t="s">
+      <c r="S50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="S50" s="3" t="s">
+      <c r="T50" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
@@ -9156,75 +9441,78 @@
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
       <c r="AH50" s="3"/>
-      <c r="AI50" s="3" t="s">
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="AJ50" s="3" t="s">
+      <c r="AK50" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="AK50" s="3"/>
       <c r="AL50" s="3"/>
       <c r="AM50" s="3"/>
       <c r="AN50" s="3"/>
       <c r="AO50" s="3"/>
       <c r="AP50" s="3"/>
       <c r="AQ50" s="3"/>
+      <c r="AR50" s="3"/>
     </row>
-    <row r="51" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3" t="s">
+      <c r="K51" s="3"/>
+      <c r="L51" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="M51" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="N51" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="N51" s="3" t="s">
+      <c r="O51" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="P51" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="P51" s="3" t="s">
+      <c r="Q51" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="Q51" s="3" t="s">
+      <c r="R51" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="R51" s="3" t="s">
+      <c r="S51" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="S51" s="3" t="s">
+      <c r="T51" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
@@ -9239,21 +9527,22 @@
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
       <c r="AH51" s="3"/>
-      <c r="AI51" s="3" t="s">
+      <c r="AI51" s="3"/>
+      <c r="AJ51" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="AJ51" s="3" t="s">
+      <c r="AK51" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="AK51" s="3"/>
       <c r="AL51" s="3"/>
       <c r="AM51" s="3"/>
       <c r="AN51" s="3"/>
       <c r="AO51" s="3"/>
       <c r="AP51" s="3"/>
       <c r="AQ51" s="3"/>
+      <c r="AR51" s="3"/>
     </row>
-    <row r="52" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -9261,33 +9550,33 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="3"/>
+      <c r="I52" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="3"/>
+      <c r="L52" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
-      <c r="P52" s="3" t="s">
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="Q52" s="3" t="s">
+      <c r="R52" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="R52" s="3" t="s">
+      <c r="S52" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="S52" s="3" t="s">
+      <c r="T52" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
@@ -9302,21 +9591,22 @@
       <c r="AF52" s="3"/>
       <c r="AG52" s="3"/>
       <c r="AH52" s="3"/>
-      <c r="AI52" s="3" t="s">
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="AJ52" s="3" t="s">
+      <c r="AK52" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="AK52" s="3"/>
       <c r="AL52" s="3"/>
       <c r="AM52" s="3"/>
       <c r="AN52" s="3"/>
       <c r="AO52" s="3"/>
       <c r="AP52" s="3"/>
       <c r="AQ52" s="3"/>
+      <c r="AR52" s="3"/>
     </row>
-    <row r="53" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -9324,33 +9614,33 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="3"/>
+      <c r="I53" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="J53" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="3"/>
+      <c r="L53" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
-      <c r="P53" s="3" t="s">
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="Q53" s="3" t="s">
+      <c r="R53" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="R53" s="3" t="s">
+      <c r="S53" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="S53" s="3" t="s">
+      <c r="T53" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="T53" s="3"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
@@ -9365,10 +9655,10 @@
       <c r="AF53" s="3"/>
       <c r="AG53" s="3"/>
       <c r="AH53" s="3"/>
-      <c r="AI53" s="3" t="s">
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="AJ53" s="3"/>
       <c r="AK53" s="3"/>
       <c r="AL53" s="3"/>
       <c r="AM53" s="3"/>
@@ -9376,8 +9666,9 @@
       <c r="AO53" s="3"/>
       <c r="AP53" s="3"/>
       <c r="AQ53" s="3"/>
+      <c r="AR53" s="3"/>
     </row>
-    <row r="54" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -9385,31 +9676,31 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="3"/>
+      <c r="I54" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="3" t="s">
+      <c r="K54" s="3"/>
+      <c r="L54" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
-      <c r="P54" s="3" t="s">
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="Q54" s="3" t="s">
+      <c r="R54" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="R54" s="3" t="s">
+      <c r="S54" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="S54" s="3" t="s">
+      <c r="T54" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
@@ -9433,8 +9724,9 @@
       <c r="AO54" s="3"/>
       <c r="AP54" s="3"/>
       <c r="AQ54" s="3"/>
+      <c r="AR54" s="3"/>
     </row>
-    <row r="55" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -9442,31 +9734,31 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="3"/>
+      <c r="I55" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="3" t="s">
+      <c r="K55" s="3"/>
+      <c r="L55" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-      <c r="P55" s="3" t="s">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="Q55" s="3" t="s">
+      <c r="R55" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="R55" s="3" t="s">
+      <c r="S55" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="S55" s="3" t="s">
+      <c r="T55" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
@@ -9490,8 +9782,9 @@
       <c r="AO55" s="3"/>
       <c r="AP55" s="3"/>
       <c r="AQ55" s="3"/>
+      <c r="AR55" s="3"/>
     </row>
-    <row r="56" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -9499,29 +9792,29 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="3"/>
+      <c r="I56" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="3" t="s">
+      <c r="K56" s="3"/>
+      <c r="L56" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-      <c r="Q56" s="3" t="s">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="R56" s="3" t="s">
+      <c r="S56" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="S56" s="3" t="s">
+      <c r="T56" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
@@ -9545,8 +9838,9 @@
       <c r="AO56" s="3"/>
       <c r="AP56" s="3"/>
       <c r="AQ56" s="3"/>
+      <c r="AR56" s="3"/>
     </row>
-    <row r="57" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -9554,10 +9848,10 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="3"/>
+      <c r="I57" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -9565,16 +9859,16 @@
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
-      <c r="Q57" s="3" t="s">
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="R57" s="3" t="s">
+      <c r="S57" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="S57" s="3" t="s">
+      <c r="T57" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="T57" s="3"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
@@ -9598,8 +9892,9 @@
       <c r="AO57" s="3"/>
       <c r="AP57" s="3"/>
       <c r="AQ57" s="3"/>
+      <c r="AR57" s="3"/>
     </row>
-    <row r="58" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -9607,10 +9902,10 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="3"/>
+      <c r="I58" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -9618,14 +9913,14 @@
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
-      <c r="Q58" s="3" t="s">
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3" t="s">
+      <c r="S58" s="3"/>
+      <c r="T58" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
@@ -9649,8 +9944,9 @@
       <c r="AO58" s="3"/>
       <c r="AP58" s="3"/>
       <c r="AQ58" s="3"/>
+      <c r="AR58" s="3"/>
     </row>
-    <row r="59" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -9658,10 +9954,10 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="3" t="s">
+      <c r="H59" s="3"/>
+      <c r="I59" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -9669,14 +9965,14 @@
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
-      <c r="Q59" s="3" t="s">
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3" t="s">
+      <c r="S59" s="3"/>
+      <c r="T59" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="T59" s="3"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
@@ -9700,8 +9996,9 @@
       <c r="AO59" s="3"/>
       <c r="AP59" s="3"/>
       <c r="AQ59" s="3"/>
+      <c r="AR59" s="3"/>
     </row>
-    <row r="60" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -9709,10 +10006,10 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="3"/>
+      <c r="I60" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -9720,14 +10017,14 @@
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
-      <c r="Q60" s="3" t="s">
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3" t="s">
+      <c r="S60" s="3"/>
+      <c r="T60" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
@@ -9751,8 +10048,9 @@
       <c r="AO60" s="3"/>
       <c r="AP60" s="3"/>
       <c r="AQ60" s="3"/>
+      <c r="AR60" s="3"/>
     </row>
-    <row r="61" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -9760,10 +10058,10 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="3"/>
+      <c r="I61" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -9771,14 +10069,14 @@
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
-      <c r="Q61" s="3" t="s">
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3" t="s">
+      <c r="S61" s="3"/>
+      <c r="T61" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="T61" s="3"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
@@ -9802,8 +10100,9 @@
       <c r="AO61" s="3"/>
       <c r="AP61" s="3"/>
       <c r="AQ61" s="3"/>
+      <c r="AR61" s="3"/>
     </row>
-    <row r="62" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -9811,10 +10110,10 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="3"/>
+      <c r="I62" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -9822,10 +10121,10 @@
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
-      <c r="Q62" s="3" t="s">
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="R62" s="3"/>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
@@ -9851,8 +10150,9 @@
       <c r="AO62" s="3"/>
       <c r="AP62" s="3"/>
       <c r="AQ62" s="3"/>
+      <c r="AR62" s="3"/>
     </row>
-    <row r="63" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -9860,10 +10160,10 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -9871,10 +10171,10 @@
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
-      <c r="Q63" s="3" t="s">
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="R63" s="3"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
@@ -9900,8 +10200,9 @@
       <c r="AO63" s="3"/>
       <c r="AP63" s="3"/>
       <c r="AQ63" s="3"/>
+      <c r="AR63" s="3"/>
     </row>
-    <row r="64" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -9909,10 +10210,10 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="3" t="s">
+      <c r="H64" s="3"/>
+      <c r="I64" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -9947,8 +10248,9 @@
       <c r="AO64" s="3"/>
       <c r="AP64" s="3"/>
       <c r="AQ64" s="3"/>
+      <c r="AR64" s="3"/>
     </row>
-    <row r="65" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -9992,8 +10294,9 @@
       <c r="AO65" s="3"/>
       <c r="AP65" s="3"/>
       <c r="AQ65" s="3"/>
+      <c r="AR65" s="3"/>
     </row>
-    <row r="66" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -10037,8 +10340,9 @@
       <c r="AO66" s="3"/>
       <c r="AP66" s="3"/>
       <c r="AQ66" s="3"/>
+      <c r="AR66" s="3"/>
     </row>
-    <row r="67" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -10082,8 +10386,9 @@
       <c r="AO67" s="3"/>
       <c r="AP67" s="3"/>
       <c r="AQ67" s="3"/>
+      <c r="AR67" s="3"/>
     </row>
-    <row r="68" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -10127,8 +10432,9 @@
       <c r="AO68" s="3"/>
       <c r="AP68" s="3"/>
       <c r="AQ68" s="3"/>
+      <c r="AR68" s="3"/>
     </row>
-    <row r="69" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -10172,8 +10478,9 @@
       <c r="AO69" s="3"/>
       <c r="AP69" s="3"/>
       <c r="AQ69" s="3"/>
+      <c r="AR69" s="3"/>
     </row>
-    <row r="70" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -10217,8 +10524,9 @@
       <c r="AO70" s="3"/>
       <c r="AP70" s="3"/>
       <c r="AQ70" s="3"/>
+      <c r="AR70" s="3"/>
     </row>
-    <row r="71" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -10262,8 +10570,9 @@
       <c r="AO71" s="3"/>
       <c r="AP71" s="3"/>
       <c r="AQ71" s="3"/>
+      <c r="AR71" s="3"/>
     </row>
-    <row r="72" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -10307,8 +10616,9 @@
       <c r="AO72" s="3"/>
       <c r="AP72" s="3"/>
       <c r="AQ72" s="3"/>
+      <c r="AR72" s="3"/>
     </row>
-    <row r="73" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -10352,8 +10662,9 @@
       <c r="AO73" s="3"/>
       <c r="AP73" s="3"/>
       <c r="AQ73" s="3"/>
+      <c r="AR73" s="3"/>
     </row>
-    <row r="74" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -10397,8 +10708,9 @@
       <c r="AO74" s="3"/>
       <c r="AP74" s="3"/>
       <c r="AQ74" s="3"/>
+      <c r="AR74" s="3"/>
     </row>
-    <row r="75" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -10442,8 +10754,9 @@
       <c r="AO75" s="3"/>
       <c r="AP75" s="3"/>
       <c r="AQ75" s="3"/>
+      <c r="AR75" s="3"/>
     </row>
-    <row r="76" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -10487,8 +10800,9 @@
       <c r="AO76" s="3"/>
       <c r="AP76" s="3"/>
       <c r="AQ76" s="3"/>
+      <c r="AR76" s="3"/>
     </row>
-    <row r="77" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -10532,8 +10846,9 @@
       <c r="AO77" s="3"/>
       <c r="AP77" s="3"/>
       <c r="AQ77" s="3"/>
+      <c r="AR77" s="3"/>
     </row>
-    <row r="78" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -10577,8 +10892,9 @@
       <c r="AO78" s="3"/>
       <c r="AP78" s="3"/>
       <c r="AQ78" s="3"/>
+      <c r="AR78" s="3"/>
     </row>
-    <row r="79" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -10622,8 +10938,9 @@
       <c r="AO79" s="3"/>
       <c r="AP79" s="3"/>
       <c r="AQ79" s="3"/>
+      <c r="AR79" s="3"/>
     </row>
-    <row r="80" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -10667,8 +10984,9 @@
       <c r="AO80" s="3"/>
       <c r="AP80" s="3"/>
       <c r="AQ80" s="3"/>
+      <c r="AR80" s="3"/>
     </row>
-    <row r="81" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -10712,8 +11030,9 @@
       <c r="AO81" s="3"/>
       <c r="AP81" s="3"/>
       <c r="AQ81" s="3"/>
+      <c r="AR81" s="3"/>
     </row>
-    <row r="82" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -10757,8 +11076,9 @@
       <c r="AO82" s="3"/>
       <c r="AP82" s="3"/>
       <c r="AQ82" s="3"/>
+      <c r="AR82" s="3"/>
     </row>
-    <row r="83" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -10802,8 +11122,9 @@
       <c r="AO83" s="3"/>
       <c r="AP83" s="3"/>
       <c r="AQ83" s="3"/>
+      <c r="AR83" s="3"/>
     </row>
-    <row r="84" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -10847,8 +11168,9 @@
       <c r="AO84" s="3"/>
       <c r="AP84" s="3"/>
       <c r="AQ84" s="3"/>
+      <c r="AR84" s="3"/>
     </row>
-    <row r="85" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -10892,8 +11214,9 @@
       <c r="AO85" s="3"/>
       <c r="AP85" s="3"/>
       <c r="AQ85" s="3"/>
+      <c r="AR85" s="3"/>
     </row>
-    <row r="86" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -10937,8 +11260,9 @@
       <c r="AO86" s="3"/>
       <c r="AP86" s="3"/>
       <c r="AQ86" s="3"/>
+      <c r="AR86" s="3"/>
     </row>
-    <row r="87" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -10982,8 +11306,9 @@
       <c r="AO87" s="3"/>
       <c r="AP87" s="3"/>
       <c r="AQ87" s="3"/>
+      <c r="AR87" s="3"/>
     </row>
-    <row r="88" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -11027,8 +11352,9 @@
       <c r="AO88" s="3"/>
       <c r="AP88" s="3"/>
       <c r="AQ88" s="3"/>
+      <c r="AR88" s="3"/>
     </row>
-    <row r="89" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -11072,8 +11398,9 @@
       <c r="AO89" s="3"/>
       <c r="AP89" s="3"/>
       <c r="AQ89" s="3"/>
+      <c r="AR89" s="3"/>
     </row>
-    <row r="90" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -11117,8 +11444,9 @@
       <c r="AO90" s="3"/>
       <c r="AP90" s="3"/>
       <c r="AQ90" s="3"/>
+      <c r="AR90" s="3"/>
     </row>
-    <row r="91" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -11162,8 +11490,9 @@
       <c r="AO91" s="3"/>
       <c r="AP91" s="3"/>
       <c r="AQ91" s="3"/>
+      <c r="AR91" s="3"/>
     </row>
-    <row r="92" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -11207,9 +11536,9 @@
       <c r="AO92" s="3"/>
       <c r="AP92" s="3"/>
       <c r="AQ92" s="3"/>
+      <c r="AR92" s="3"/>
     </row>
-    <row r="93" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U93" s="3"/>
+    <row r="93" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
@@ -11232,9 +11561,9 @@
       <c r="AO93" s="3"/>
       <c r="AP93" s="3"/>
       <c r="AQ93" s="3"/>
+      <c r="AR93" s="3"/>
     </row>
-    <row r="94" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U94" s="3"/>
+    <row r="94" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
@@ -11257,9 +11586,9 @@
       <c r="AO94" s="3"/>
       <c r="AP94" s="3"/>
       <c r="AQ94" s="3"/>
+      <c r="AR94" s="3"/>
     </row>
-    <row r="95" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U95" s="3"/>
+    <row r="95" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
@@ -11282,9 +11611,9 @@
       <c r="AO95" s="3"/>
       <c r="AP95" s="3"/>
       <c r="AQ95" s="3"/>
+      <c r="AR95" s="3"/>
     </row>
-    <row r="96" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U96" s="3"/>
+    <row r="96" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
@@ -11307,9 +11636,9 @@
       <c r="AO96" s="3"/>
       <c r="AP96" s="3"/>
       <c r="AQ96" s="3"/>
+      <c r="AR96" s="3"/>
     </row>
-    <row r="97" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U97" s="3"/>
+    <row r="97" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
@@ -11332,9 +11661,9 @@
       <c r="AO97" s="3"/>
       <c r="AP97" s="3"/>
       <c r="AQ97" s="3"/>
+      <c r="AR97" s="3"/>
     </row>
-    <row r="98" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U98" s="3"/>
+    <row r="98" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
@@ -11357,9 +11686,9 @@
       <c r="AO98" s="3"/>
       <c r="AP98" s="3"/>
       <c r="AQ98" s="3"/>
+      <c r="AR98" s="3"/>
     </row>
-    <row r="99" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U99" s="3"/>
+    <row r="99" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
@@ -11382,9 +11711,9 @@
       <c r="AO99" s="3"/>
       <c r="AP99" s="3"/>
       <c r="AQ99" s="3"/>
+      <c r="AR99" s="3"/>
     </row>
-    <row r="100" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U100" s="3"/>
+    <row r="100" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
@@ -11407,9 +11736,9 @@
       <c r="AO100" s="3"/>
       <c r="AP100" s="3"/>
       <c r="AQ100" s="3"/>
+      <c r="AR100" s="3"/>
     </row>
-    <row r="101" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U101" s="3"/>
+    <row r="101" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
@@ -11432,9 +11761,9 @@
       <c r="AO101" s="3"/>
       <c r="AP101" s="3"/>
       <c r="AQ101" s="3"/>
+      <c r="AR101" s="3"/>
     </row>
-    <row r="102" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U102" s="3"/>
+    <row r="102" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
@@ -11457,9 +11786,9 @@
       <c r="AO102" s="3"/>
       <c r="AP102" s="3"/>
       <c r="AQ102" s="3"/>
+      <c r="AR102" s="3"/>
     </row>
-    <row r="103" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U103" s="3"/>
+    <row r="103" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
@@ -11482,9 +11811,9 @@
       <c r="AO103" s="3"/>
       <c r="AP103" s="3"/>
       <c r="AQ103" s="3"/>
+      <c r="AR103" s="3"/>
     </row>
-    <row r="104" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U104" s="3"/>
+    <row r="104" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V104" s="3"/>
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
@@ -11507,9 +11836,9 @@
       <c r="AO104" s="3"/>
       <c r="AP104" s="3"/>
       <c r="AQ104" s="3"/>
+      <c r="AR104" s="3"/>
     </row>
-    <row r="105" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U105" s="3"/>
+    <row r="105" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V105" s="3"/>
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
@@ -11532,9 +11861,9 @@
       <c r="AO105" s="3"/>
       <c r="AP105" s="3"/>
       <c r="AQ105" s="3"/>
+      <c r="AR105" s="3"/>
     </row>
-    <row r="106" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U106" s="3"/>
+    <row r="106" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
@@ -11557,9 +11886,9 @@
       <c r="AO106" s="3"/>
       <c r="AP106" s="3"/>
       <c r="AQ106" s="3"/>
+      <c r="AR106" s="3"/>
     </row>
-    <row r="107" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U107" s="3"/>
+    <row r="107" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
@@ -11582,9 +11911,9 @@
       <c r="AO107" s="3"/>
       <c r="AP107" s="3"/>
       <c r="AQ107" s="3"/>
+      <c r="AR107" s="3"/>
     </row>
-    <row r="108" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U108" s="3"/>
+    <row r="108" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V108" s="3"/>
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
@@ -11607,9 +11936,9 @@
       <c r="AO108" s="3"/>
       <c r="AP108" s="3"/>
       <c r="AQ108" s="3"/>
+      <c r="AR108" s="3"/>
     </row>
-    <row r="109" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U109" s="3"/>
+    <row r="109" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V109" s="3"/>
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
@@ -11632,9 +11961,9 @@
       <c r="AO109" s="3"/>
       <c r="AP109" s="3"/>
       <c r="AQ109" s="3"/>
+      <c r="AR109" s="3"/>
     </row>
-    <row r="110" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U110" s="3"/>
+    <row r="110" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V110" s="3"/>
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
@@ -11657,9 +11986,9 @@
       <c r="AO110" s="3"/>
       <c r="AP110" s="3"/>
       <c r="AQ110" s="3"/>
+      <c r="AR110" s="3"/>
     </row>
-    <row r="111" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U111" s="3"/>
+    <row r="111" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V111" s="3"/>
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
@@ -11682,9 +12011,9 @@
       <c r="AO111" s="3"/>
       <c r="AP111" s="3"/>
       <c r="AQ111" s="3"/>
+      <c r="AR111" s="3"/>
     </row>
-    <row r="112" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U112" s="3"/>
+    <row r="112" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V112" s="3"/>
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
@@ -11707,9 +12036,9 @@
       <c r="AO112" s="3"/>
       <c r="AP112" s="3"/>
       <c r="AQ112" s="3"/>
+      <c r="AR112" s="3"/>
     </row>
-    <row r="113" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U113" s="3"/>
+    <row r="113" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V113" s="3"/>
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
@@ -11732,9 +12061,9 @@
       <c r="AO113" s="3"/>
       <c r="AP113" s="3"/>
       <c r="AQ113" s="3"/>
+      <c r="AR113" s="3"/>
     </row>
-    <row r="114" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U114" s="3"/>
+    <row r="114" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V114" s="3"/>
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
@@ -11757,9 +12086,9 @@
       <c r="AO114" s="3"/>
       <c r="AP114" s="3"/>
       <c r="AQ114" s="3"/>
+      <c r="AR114" s="3"/>
     </row>
-    <row r="115" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U115" s="3"/>
+    <row r="115" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V115" s="3"/>
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
@@ -11782,9 +12111,9 @@
       <c r="AO115" s="3"/>
       <c r="AP115" s="3"/>
       <c r="AQ115" s="3"/>
+      <c r="AR115" s="3"/>
     </row>
-    <row r="116" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U116" s="3"/>
+    <row r="116" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V116" s="3"/>
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
@@ -11807,9 +12136,9 @@
       <c r="AO116" s="3"/>
       <c r="AP116" s="3"/>
       <c r="AQ116" s="3"/>
+      <c r="AR116" s="3"/>
     </row>
-    <row r="117" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U117" s="3"/>
+    <row r="117" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V117" s="3"/>
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
@@ -11832,9 +12161,9 @@
       <c r="AO117" s="3"/>
       <c r="AP117" s="3"/>
       <c r="AQ117" s="3"/>
+      <c r="AR117" s="3"/>
     </row>
-    <row r="118" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U118" s="3"/>
+    <row r="118" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V118" s="3"/>
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
@@ -11857,9 +12186,9 @@
       <c r="AO118" s="3"/>
       <c r="AP118" s="3"/>
       <c r="AQ118" s="3"/>
+      <c r="AR118" s="3"/>
     </row>
-    <row r="119" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U119" s="3"/>
+    <row r="119" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V119" s="3"/>
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
@@ -11882,9 +12211,9 @@
       <c r="AO119" s="3"/>
       <c r="AP119" s="3"/>
       <c r="AQ119" s="3"/>
+      <c r="AR119" s="3"/>
     </row>
-    <row r="120" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U120" s="3"/>
+    <row r="120" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V120" s="3"/>
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
@@ -11907,9 +12236,9 @@
       <c r="AO120" s="3"/>
       <c r="AP120" s="3"/>
       <c r="AQ120" s="3"/>
+      <c r="AR120" s="3"/>
     </row>
-    <row r="121" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U121" s="3"/>
+    <row r="121" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V121" s="3"/>
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
@@ -11932,9 +12261,9 @@
       <c r="AO121" s="3"/>
       <c r="AP121" s="3"/>
       <c r="AQ121" s="3"/>
+      <c r="AR121" s="3"/>
     </row>
-    <row r="122" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U122" s="3"/>
+    <row r="122" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V122" s="3"/>
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
@@ -11957,9 +12286,9 @@
       <c r="AO122" s="3"/>
       <c r="AP122" s="3"/>
       <c r="AQ122" s="3"/>
+      <c r="AR122" s="3"/>
     </row>
-    <row r="123" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U123" s="3"/>
+    <row r="123" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V123" s="3"/>
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
@@ -11982,9 +12311,9 @@
       <c r="AO123" s="3"/>
       <c r="AP123" s="3"/>
       <c r="AQ123" s="3"/>
+      <c r="AR123" s="3"/>
     </row>
-    <row r="124" spans="21:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U124" s="3"/>
+    <row r="124" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V124" s="3"/>
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
@@ -12007,17 +12336,18 @@
       <c r="AO124" s="3"/>
       <c r="AP124" s="3"/>
       <c r="AQ124" s="3"/>
+      <c r="AR124" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S45" r:id="rId1" display="http://galaxe.solutions/" xr:uid="{FC3574BC-D6EF-4519-A7F6-F3806DB46557}"/>
-    <hyperlink ref="P38" r:id="rId2" display="http://critically.io/" xr:uid="{58C6B818-5DAB-4298-BE6A-8DFB8F2FA3E6}"/>
-    <hyperlink ref="AN4" r:id="rId3" display="http://pendo.io/" xr:uid="{D0FB6BCD-C593-4A26-8FE6-FE61791CE669}"/>
-    <hyperlink ref="AL2" r:id="rId4" display="http://underdog.io/" xr:uid="{543C7C11-8D77-4769-955F-05FB4DC5FBB2}"/>
-    <hyperlink ref="AJ49" r:id="rId5" display="http://ampcontrol.io/" xr:uid="{D63E3F1B-0340-4575-B7D7-BEF67233F5CD}"/>
-    <hyperlink ref="AG2" r:id="rId6" display="http://soffos.al/" xr:uid="{33336681-5570-4B6F-B154-1FDC1CE41B62}"/>
-    <hyperlink ref="AG19" r:id="rId7" display="http://miningstore.com/" xr:uid="{8AC48435-3FDD-44BD-BC8F-5FF8929E3F09}"/>
-    <hyperlink ref="AE5" r:id="rId8" display="http://ftsi.tech/" xr:uid="{2C18A7FB-BA19-4A58-BB3E-04631CB18EF4}"/>
+    <hyperlink ref="T45" r:id="rId1" display="http://galaxe.solutions/" xr:uid="{FC3574BC-D6EF-4519-A7F6-F3806DB46557}"/>
+    <hyperlink ref="Q38" r:id="rId2" display="http://critically.io/" xr:uid="{58C6B818-5DAB-4298-BE6A-8DFB8F2FA3E6}"/>
+    <hyperlink ref="AO4" r:id="rId3" display="http://pendo.io/" xr:uid="{D0FB6BCD-C593-4A26-8FE6-FE61791CE669}"/>
+    <hyperlink ref="AM2" r:id="rId4" display="http://underdog.io/" xr:uid="{543C7C11-8D77-4769-955F-05FB4DC5FBB2}"/>
+    <hyperlink ref="AK49" r:id="rId5" display="http://ampcontrol.io/" xr:uid="{D63E3F1B-0340-4575-B7D7-BEF67233F5CD}"/>
+    <hyperlink ref="AH2" r:id="rId6" display="http://soffos.al/" xr:uid="{33336681-5570-4B6F-B154-1FDC1CE41B62}"/>
+    <hyperlink ref="AH19" r:id="rId7" display="http://miningstore.com/" xr:uid="{8AC48435-3FDD-44BD-BC8F-5FF8929E3F09}"/>
+    <hyperlink ref="AF5" r:id="rId8" display="http://ftsi.tech/" xr:uid="{2C18A7FB-BA19-4A58-BB3E-04631CB18EF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/applications.xlsx
+++ b/applications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57419\Documents\applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8602B9-6D2F-4EC1-B4E8-D0C65DC6FED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8000747C-1C41-4A5C-B845-15A8228DF7F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45270" yWindow="1005" windowWidth="8655" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49620" yWindow="150" windowWidth="7890" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2878" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="1334">
   <si>
     <t>Total</t>
   </si>
@@ -3928,6 +3928,114 @@
   </si>
   <si>
     <t>50. Talus Partners, LLC</t>
+  </si>
+  <si>
+    <t>1. Hurry</t>
+  </si>
+  <si>
+    <t>5. V-Soft Consulting Group, Inc.</t>
+  </si>
+  <si>
+    <t>6. Confidential</t>
+  </si>
+  <si>
+    <t>8. appreciate</t>
+  </si>
+  <si>
+    <t>9. XSELL Technologies</t>
+  </si>
+  <si>
+    <t>10. OESON</t>
+  </si>
+  <si>
+    <t>11. V B Technologies</t>
+  </si>
+  <si>
+    <t>12. Samson Software Solutions, Inc.</t>
+  </si>
+  <si>
+    <t>13. Vbeyond Corporation</t>
+  </si>
+  <si>
+    <t>14. Brooksource</t>
+  </si>
+  <si>
+    <t>15. CloudSpace LLC</t>
+  </si>
+  <si>
+    <t>26. Parsley Health</t>
+  </si>
+  <si>
+    <t>27. Marqeta, Inc</t>
+  </si>
+  <si>
+    <t>28. Adage Innovations, Inc.</t>
+  </si>
+  <si>
+    <t>29. IMCS Group</t>
+  </si>
+  <si>
+    <t>30. tranZynergy</t>
+  </si>
+  <si>
+    <t>31. Modex, Inc.</t>
+  </si>
+  <si>
+    <t>32. Da Vinci Software</t>
+  </si>
+  <si>
+    <t>33. Nostra</t>
+  </si>
+  <si>
+    <t>34. VH Consulting</t>
+  </si>
+  <si>
+    <t>35. GrassRoots Promotion</t>
+  </si>
+  <si>
+    <t>36. OptimHire</t>
+  </si>
+  <si>
+    <t>37. LeanSummits</t>
+  </si>
+  <si>
+    <t>38. Ssi People</t>
+  </si>
+  <si>
+    <t>39. DatamanUSA, LLC</t>
+  </si>
+  <si>
+    <t>40. Shields Marketing</t>
+  </si>
+  <si>
+    <t>41. VBeyond Corporation</t>
+  </si>
+  <si>
+    <t>42. ClubRare</t>
+  </si>
+  <si>
+    <t>43. Revery Media</t>
+  </si>
+  <si>
+    <t>44. Vdart</t>
+  </si>
+  <si>
+    <t>45. Precision Technologies</t>
+  </si>
+  <si>
+    <t>46. Easy2Employ, LLC</t>
+  </si>
+  <si>
+    <t>47. battleface</t>
+  </si>
+  <si>
+    <t>48. Clarity Security</t>
+  </si>
+  <si>
+    <t>49. Apex Systems</t>
+  </si>
+  <si>
+    <t>50. Insight Global</t>
   </si>
 </sst>
 </file>
@@ -4285,375 +4393,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR124"/>
+  <dimension ref="A1:AS124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="41" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="41" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>44551</v>
+      </c>
+      <c r="C1" s="1">
         <v>44550</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>44547</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>44546</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>44545</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>44544</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>44543</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>44540</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>44539</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>44538</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>44537</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>44536</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>44533</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>44532</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>44531</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>44530</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>44529</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>44524</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>44523</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>44522</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>44518</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>44517</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="1">
         <v>44516</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="1">
         <v>44515</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="1">
         <v>44512</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="1">
         <v>44511</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>44510</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="1">
         <v>44509</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="1">
         <v>44508</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>44505</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AF1" s="1">
         <v>44504</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AG1" s="1">
         <v>44503</v>
       </c>
-      <c r="AG1" s="5">
+      <c r="AH1" s="5">
         <v>44502</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AI1" s="1">
         <v>44501</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AJ1" s="1">
         <v>44498</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AK1" s="1">
         <v>44497</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AL1" s="1">
         <v>44496</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AM1" s="1">
         <v>44495</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AN1" s="1">
         <v>44494</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AO1" s="1">
         <v>44489</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AP1" s="1">
         <v>44487</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AQ1" s="1">
         <v>44486</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AR1" s="1">
         <v>44421</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AS1" s="1">
         <v>44419</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <f xml:space="preserve"> COUNTA(C2:AAH100)</f>
+        <f xml:space="preserve"> COUNTA(D2:AAI100)</f>
         <v>1388</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1253</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>13</v>
@@ -4665,3007 +4780,3090 @@
         <v>13</v>
       </c>
       <c r="T3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="3"/>
+      <c r="W3" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>616</v>
       </c>
       <c r="Z3" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA3" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AH3" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3" t="s">
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>1177</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="3"/>
+      <c r="W4" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="AG4" s="6" t="s">
+      <c r="AH4" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="4" t="s">
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3" t="s">
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="3"/>
+      <c r="W5" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="AF5" s="4" t="s">
+      <c r="AG5" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="AG5" s="6" t="s">
+      <c r="AH5" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AI5" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AK5" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AL5" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AM5" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AN5" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3" t="s">
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3" t="s">
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="AR5" s="3" t="s">
+      <c r="AS5" s="3" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>1179</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3" t="s">
+      <c r="V6" s="3"/>
+      <c r="W6" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="Y6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="Z6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AD6" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AE6" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AF6" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="AG6" s="6" t="s">
+      <c r="AH6" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="AH6" s="3" t="s">
+      <c r="AI6" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="AI6" s="3" t="s">
+      <c r="AJ6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AJ6" s="3" t="s">
+      <c r="AK6" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="AK6" s="3" t="s">
+      <c r="AL6" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="AL6" s="3" t="s">
+      <c r="AM6" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="AM6" s="3" t="s">
+      <c r="AN6" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
       <c r="AP6" s="3"/>
-      <c r="AQ6" s="3" t="s">
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="AR6" s="3" t="s">
+      <c r="AS6" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="L7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3" t="s">
+      <c r="V7" s="3"/>
+      <c r="W7" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AD7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AF7" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AG7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="AG7" s="6" t="s">
+      <c r="AH7" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AI7" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="AI7" s="3" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="AJ7" s="3" t="s">
+      <c r="AK7" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="AK7" s="3" t="s">
+      <c r="AL7" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="AL7" s="3" t="s">
+      <c r="AM7" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="AM7" s="3" t="s">
+      <c r="AN7" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
       <c r="AP7" s="3"/>
-      <c r="AQ7" s="3" t="s">
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="AR7" s="3" t="s">
+      <c r="AS7" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>1257</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3" t="s">
+      <c r="V8" s="3"/>
+      <c r="W8" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="AA8" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AF8" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AG8" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="AG8" s="6" t="s">
+      <c r="AH8" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="AH8" s="3" t="s">
+      <c r="AI8" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="AI8" s="3" t="s">
+      <c r="AJ8" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="AJ8" s="3" t="s">
+      <c r="AK8" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="AK8" s="3" t="s">
+      <c r="AL8" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="AL8" s="3" t="s">
+      <c r="AM8" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="AM8" s="3" t="s">
+      <c r="AN8" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
       <c r="AP8" s="3"/>
-      <c r="AQ8" s="3" t="s">
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
     </row>
-    <row r="9" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="O9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3" t="s">
+      <c r="V9" s="3"/>
+      <c r="W9" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>73</v>
       </c>
       <c r="Y9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z9" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AD9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3" t="s">
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="AG9" s="6" t="s">
+      <c r="AH9" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="AH9" s="3" t="s">
+      <c r="AI9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AI9" s="3" t="s">
+      <c r="AJ9" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="AJ9" s="3" t="s">
+      <c r="AK9" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="AK9" s="3" t="s">
+      <c r="AL9" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="AL9" s="3" t="s">
+      <c r="AM9" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="AM9" s="3" t="s">
+      <c r="AN9" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
       <c r="AP9" s="3"/>
-      <c r="AQ9" s="3" t="s">
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
     </row>
-    <row r="10" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>1007</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>78</v>
       </c>
       <c r="K10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3" t="s">
+      <c r="V10" s="3"/>
+      <c r="W10" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3" t="s">
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AB10" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AC10" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AD10" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AE10" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3" t="s">
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="AG10" s="6" t="s">
+      <c r="AH10" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="AH10" s="3" t="s">
+      <c r="AI10" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="AI10" s="3" t="s">
+      <c r="AJ10" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="AJ10" s="3" t="s">
+      <c r="AK10" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="AK10" s="3" t="s">
+      <c r="AL10" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="AL10" s="3" t="s">
+      <c r="AM10" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="AM10" s="3" t="s">
+      <c r="AN10" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
       <c r="AP10" s="3"/>
-      <c r="AQ10" s="3" t="s">
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
     </row>
-    <row r="11" spans="1:44" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>1260</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>95</v>
       </c>
       <c r="T11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="U11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3" t="s">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3" t="s">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="AA11" s="3" t="s">
+      <c r="AB11" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AC11" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AD11" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-      <c r="AF11" s="3" t="s">
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="AG11" s="6" t="s">
+      <c r="AH11" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="AH11" s="3" t="s">
+      <c r="AI11" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="AI11" s="3" t="s">
+      <c r="AJ11" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="AJ11" s="3" t="s">
+      <c r="AK11" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="AK11" s="3" t="s">
+      <c r="AL11" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="AL11" s="3" t="s">
+      <c r="AM11" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="AM11" s="3" t="s">
+      <c r="AN11" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
       <c r="AP11" s="3"/>
-      <c r="AQ11" s="3" t="s">
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
     </row>
-    <row r="12" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3" t="s">
+      <c r="V12" s="3"/>
+      <c r="W12" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3" t="s">
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="AA12" s="3" t="s">
+      <c r="AB12" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="AC12" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="AC12" s="3" t="s">
+      <c r="AD12" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="3" t="s">
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="AG12" s="6" t="s">
+      <c r="AH12" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="AH12" s="3" t="s">
+      <c r="AI12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AI12" s="3" t="s">
+      <c r="AJ12" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="AJ12" s="3" t="s">
+      <c r="AK12" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="AK12" s="3" t="s">
+      <c r="AL12" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="AL12" s="3" t="s">
+      <c r="AM12" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="AM12" s="3" t="s">
+      <c r="AN12" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
       <c r="AP12" s="3"/>
-      <c r="AQ12" s="3" t="s">
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
     </row>
-    <row r="13" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>1262</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>109</v>
       </c>
       <c r="S13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3" t="s">
+      <c r="V13" s="3"/>
+      <c r="W13" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="Y13" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3" t="s">
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="AA13" s="3" t="s">
+      <c r="AB13" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="AB13" s="3" t="s">
+      <c r="AC13" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="AC13" s="3" t="s">
+      <c r="AD13" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
-      <c r="AF13" s="3" t="s">
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="AG13" s="6" t="s">
+      <c r="AH13" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="AH13" s="3" t="s">
+      <c r="AI13" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="AI13" s="3" t="s">
+      <c r="AJ13" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="AJ13" s="3" t="s">
+      <c r="AK13" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="AK13" s="3" t="s">
+      <c r="AL13" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="AL13" s="3" t="s">
+      <c r="AM13" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="AM13" s="3" t="s">
+      <c r="AN13" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
       <c r="AP13" s="3"/>
-      <c r="AQ13" s="3" t="s">
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
     </row>
-    <row r="14" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3"/>
+      <c r="W14" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3" t="s">
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
-      <c r="AF14" s="3" t="s">
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="AG14" s="6" t="s">
+      <c r="AH14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AH14" s="3" t="s">
+      <c r="AI14" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="AI14" s="3" t="s">
+      <c r="AJ14" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="AJ14" s="3" t="s">
+      <c r="AK14" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="AK14" s="3" t="s">
+      <c r="AL14" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="AL14" s="3" t="s">
+      <c r="AM14" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="AM14" s="3" t="s">
+      <c r="AN14" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
       <c r="AP14" s="3"/>
-      <c r="AQ14" s="3" t="s">
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
     </row>
-    <row r="15" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>1264</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>1011</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>129</v>
       </c>
       <c r="K15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>132</v>
       </c>
       <c r="P15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3" t="s">
+      <c r="V15" s="3"/>
+      <c r="W15" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3" t="s">
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="AA15" s="3" t="s">
+      <c r="AB15" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="AB15" s="3" t="s">
+      <c r="AC15" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="AC15" s="3" t="s">
+      <c r="AD15" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
-      <c r="AF15" s="3" t="s">
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3" t="s">
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="AI15" s="3" t="s">
+      <c r="AJ15" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="AJ15" s="3" t="s">
+      <c r="AK15" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="AK15" s="3" t="s">
+      <c r="AL15" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="AL15" s="3" t="s">
+      <c r="AM15" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="AM15" s="3" t="s">
+      <c r="AN15" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
       <c r="AP15" s="3"/>
-      <c r="AQ15" s="3" t="s">
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
     </row>
-    <row r="16" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>1188</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3" t="s">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="X16" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="X16" s="3" t="s">
+      <c r="Y16" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3" t="s">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="AA16" s="3" t="s">
+      <c r="AB16" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="AB16" s="3" t="s">
+      <c r="AC16" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="AC16" s="3" t="s">
+      <c r="AD16" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
-      <c r="AH16" s="3" t="s">
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AI16" s="3" t="s">
+      <c r="AJ16" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="AJ16" s="3" t="s">
+      <c r="AK16" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="AK16" s="3" t="s">
+      <c r="AL16" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="AL16" s="3" t="s">
+      <c r="AM16" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="AM16" s="3" t="s">
+      <c r="AN16" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="3"/>
-      <c r="AQ16" s="3" t="s">
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
     </row>
-    <row r="17" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3" t="s">
+      <c r="V17" s="3"/>
+      <c r="W17" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="Y17" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3" t="s">
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="AA17" s="3" t="s">
+      <c r="AB17" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="AB17" s="3" t="s">
+      <c r="AC17" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="AC17" s="3" t="s">
+      <c r="AD17" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
-      <c r="AH17" s="3" t="s">
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="AI17" s="3" t="s">
+      <c r="AJ17" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="AJ17" s="3" t="s">
+      <c r="AK17" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="AK17" s="3" t="s">
+      <c r="AL17" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="AL17" s="3" t="s">
+      <c r="AM17" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="AM17" s="3" t="s">
+      <c r="AN17" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
       <c r="AP17" s="3"/>
-      <c r="AQ17" s="3" t="s">
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
     </row>
-    <row r="18" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3" t="s">
+      <c r="V18" s="3"/>
+      <c r="W18" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="X18" s="3" t="s">
+      <c r="Y18" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3" t="s">
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="AA18" s="3" t="s">
+      <c r="AB18" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="AB18" s="3" t="s">
+      <c r="AC18" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="AC18" s="3" t="s">
+      <c r="AD18" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
-      <c r="AH18" s="3" t="s">
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="AI18" s="3" t="s">
+      <c r="AJ18" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="AJ18" s="3" t="s">
+      <c r="AK18" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="AK18" s="3" t="s">
+      <c r="AL18" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="AL18" s="3" t="s">
+      <c r="AM18" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="AM18" s="3" t="s">
+      <c r="AN18" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
       <c r="AP18" s="3"/>
-      <c r="AQ18" s="3" t="s">
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
     </row>
-    <row r="19" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3" t="s">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="Y19" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3" t="s">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="AA19" s="3" t="s">
+      <c r="AB19" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="AB19" s="3" t="s">
+      <c r="AC19" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="AC19" s="3" t="s">
+      <c r="AD19" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
-      <c r="AH19" s="4" t="s">
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3" t="s">
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="AK19" s="3" t="s">
+      <c r="AL19" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="AL19" s="3" t="s">
+      <c r="AM19" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
       <c r="AP19" s="3"/>
-      <c r="AQ19" s="3" t="s">
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
     </row>
-    <row r="20" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>1100</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3" t="s">
+      <c r="V20" s="3"/>
+      <c r="W20" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="Y20" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3" t="s">
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="AA20" s="3" t="s">
+      <c r="AB20" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="AB20" s="3" t="s">
+      <c r="AC20" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="AC20" s="3" t="s">
+      <c r="AD20" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
-      <c r="AH20" s="3" t="s">
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3" t="s">
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="AK20" s="3" t="s">
+      <c r="AL20" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="AL20" s="3" t="s">
+      <c r="AM20" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
       <c r="AP20" s="3"/>
-      <c r="AQ20" s="3" t="s">
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
     </row>
-    <row r="21" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>1146</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3" t="s">
+      <c r="V21" s="3"/>
+      <c r="W21" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="Y21" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3" t="s">
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="AA21" s="3" t="s">
+      <c r="AB21" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="AB21" s="3" t="s">
+      <c r="AC21" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
-      <c r="AH21" s="3" t="s">
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3" t="s">
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="AK21" s="3" t="s">
+      <c r="AL21" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="AL21" s="3" t="s">
+      <c r="AM21" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
       <c r="AP21" s="3"/>
-      <c r="AQ21" s="3" t="s">
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
     </row>
-    <row r="22" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3" t="s">
+      <c r="U22" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3" t="s">
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3" t="s">
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="AA22" s="3" t="s">
+      <c r="AB22" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="AB22" s="3" t="s">
+      <c r="AC22" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
-      <c r="AH22" s="3" t="s">
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3" t="s">
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="AK22" s="3" t="s">
+      <c r="AL22" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="AL22" s="3" t="s">
+      <c r="AM22" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
       <c r="AP22" s="3"/>
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
     </row>
-    <row r="23" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="R23" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="U23" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
-      <c r="Z23" s="3" t="s">
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="AA23" s="3" t="s">
+      <c r="AB23" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="AB23" s="3" t="s">
+      <c r="AC23" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
-      <c r="AH23" s="3" t="s">
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3" t="s">
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="AK23" s="3" t="s">
+      <c r="AL23" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="AL23" s="3" t="s">
+      <c r="AM23" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
     </row>
-    <row r="24" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
-      <c r="Z24" s="3" t="s">
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="AA24" s="3" t="s">
+      <c r="AB24" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="AB24" s="3" t="s">
+      <c r="AC24" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
-      <c r="AH24" s="3" t="s">
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3" t="s">
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="AK24" s="3" t="s">
+      <c r="AL24" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="AL24" s="3" t="s">
+      <c r="AM24" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
       <c r="AQ24" s="3"/>
       <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
     </row>
-    <row r="25" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>1274</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>246</v>
       </c>
       <c r="S25" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="T25" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="U25" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="3" t="s">
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="AA25" s="3" t="s">
+      <c r="AB25" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
-      <c r="AH25" s="3" t="s">
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3" t="s">
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="AK25" s="3" t="s">
+      <c r="AL25" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="AL25" s="3" t="s">
+      <c r="AM25" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
       <c r="AP25" s="3"/>
       <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
     </row>
-    <row r="26" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="M26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="N26" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="S26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="T26" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="U26" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
-      <c r="Z26" s="3" t="s">
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="AA26" s="3" t="s">
+      <c r="AB26" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
-      <c r="AH26" s="3" t="s">
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3" t="s">
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="AK26" s="3" t="s">
+      <c r="AL26" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="AL26" s="3" t="s">
+      <c r="AM26" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
       <c r="AP26" s="3"/>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
     </row>
-    <row r="27" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>1195</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>1152</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>259</v>
       </c>
       <c r="H27" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="R27" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="U27" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
-      <c r="Z27" s="3" t="s">
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="AA27" s="3" t="s">
+      <c r="AB27" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
-      <c r="AH27" s="3" t="s">
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3" t="s">
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="AK27" s="3" t="s">
+      <c r="AL27" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="AL27" s="3" t="s">
+      <c r="AM27" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
     </row>
-    <row r="28" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="R28" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="U28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
-      <c r="Z28" s="3" t="s">
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="AA28" s="3" t="s">
+      <c r="AB28" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
-      <c r="AH28" s="3" t="s">
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3" t="s">
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="AK28" s="3" t="s">
+      <c r="AL28" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="AL28" s="3" t="s">
+      <c r="AM28" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
       <c r="AQ28" s="3"/>
       <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
     </row>
-    <row r="29" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
-      <c r="Z29" s="3" t="s">
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
-      <c r="AH29" s="3" t="s">
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3" t="s">
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="AK29" s="3" t="s">
+      <c r="AL29" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="AL29" s="3"/>
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
       <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
     </row>
-    <row r="30" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="R30" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="S30" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="U30" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
@@ -7678,84 +7876,87 @@
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
-      <c r="AH30" s="3" t="s">
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3" t="s">
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="AK30" s="3" t="s">
+      <c r="AL30" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="AL30" s="3"/>
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
       <c r="AQ30" s="3"/>
       <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
     </row>
-    <row r="31" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>1278</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>1198</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>1198</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="R31" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="T31" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="U31" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
@@ -7768,84 +7969,87 @@
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
-      <c r="AH31" s="3" t="s">
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="AI31" s="3"/>
-      <c r="AJ31" s="3" t="s">
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="AK31" s="3" t="s">
+      <c r="AL31" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="AL31" s="3"/>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
       <c r="AQ31" s="3"/>
       <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
     </row>
-    <row r="32" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="R32" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="S32" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="T32" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="U32" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
@@ -7858,84 +8062,87 @@
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
-      <c r="AH32" s="3" t="s">
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="AI32" s="3"/>
-      <c r="AJ32" s="3" t="s">
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="AK32" s="3" t="s">
+      <c r="AL32" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="AL32" s="3"/>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
       <c r="AQ32" s="3"/>
       <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
     </row>
-    <row r="33" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="U33" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
@@ -7948,84 +8155,87 @@
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
-      <c r="AH33" s="3" t="s">
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3" t="s">
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="AK33" s="3" t="s">
+      <c r="AL33" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
       <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
     </row>
-    <row r="34" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="P34" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="Q34" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="R34" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="S34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="T34" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="U34" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
@@ -8038,84 +8248,87 @@
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
-      <c r="AH34" s="3" t="s">
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3" t="s">
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="AK34" s="3" t="s">
+      <c r="AL34" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
       <c r="AP34" s="3"/>
       <c r="AQ34" s="3"/>
       <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
     </row>
-    <row r="35" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>1282</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>1236</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="R35" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="S35" s="3" t="s">
+      <c r="T35" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="T35" s="3" t="s">
+      <c r="U35" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
@@ -8128,84 +8341,87 @@
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
-      <c r="AH35" s="3" t="s">
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3" t="s">
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="AK35" s="3" t="s">
+      <c r="AL35" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="AL35" s="3"/>
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
       <c r="AP35" s="3"/>
       <c r="AQ35" s="3"/>
       <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
     </row>
-    <row r="36" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>1283</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="R36" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="S36" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="S36" s="3" t="s">
+      <c r="T36" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="T36" s="3" t="s">
+      <c r="U36" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
@@ -8220,80 +8436,83 @@
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="3"/>
-      <c r="AJ36" s="3" t="s">
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="AK36" s="3" t="s">
+      <c r="AL36" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="AL36" s="3"/>
       <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
       <c r="AP36" s="3"/>
       <c r="AQ36" s="3"/>
       <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
     </row>
-    <row r="37" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>1284</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="P37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="R37" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="S37" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="S37" s="3" t="s">
+      <c r="T37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="U37" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
@@ -8308,80 +8527,83 @@
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
-      <c r="AJ37" s="3" t="s">
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="AK37" s="3" t="s">
+      <c r="AL37" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="AL37" s="3"/>
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
       <c r="AP37" s="3"/>
       <c r="AQ37" s="3"/>
       <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
     </row>
-    <row r="38" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>1285</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="O38" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="P38" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="Q38" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="R38" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="S38" s="3" t="s">
         <v>391</v>
       </c>
       <c r="T38" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="U38" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
@@ -8396,80 +8618,83 @@
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
-      <c r="AJ38" s="3" t="s">
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="AK38" s="3" t="s">
+      <c r="AL38" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="AL38" s="3"/>
       <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
       <c r="AQ38" s="3"/>
       <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
     </row>
-    <row r="39" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>1286</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="R39" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="S39" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="S39" s="3" t="s">
+      <c r="T39" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="U39" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
@@ -8484,80 +8709,83 @@
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
-      <c r="AJ39" s="3" t="s">
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="AK39" s="3" t="s">
+      <c r="AL39" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="AL39" s="3"/>
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
       <c r="AP39" s="3"/>
       <c r="AQ39" s="3"/>
       <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
     </row>
-    <row r="40" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>1287</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>1165</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="O40" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="P40" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="R40" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="S40" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="S40" s="3" t="s">
+      <c r="T40" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="T40" s="3" t="s">
+      <c r="U40" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
@@ -8572,80 +8800,83 @@
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
-      <c r="AJ40" s="3" t="s">
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="AK40" s="3" t="s">
+      <c r="AL40" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="AL40" s="3"/>
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
       <c r="AP40" s="3"/>
       <c r="AQ40" s="3"/>
       <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
     </row>
-    <row r="41" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>1288</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="O41" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="P41" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="Q41" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="R41" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="R41" s="3" t="s">
+      <c r="S41" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="S41" s="3" t="s">
+      <c r="T41" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="T41" s="3" t="s">
+      <c r="U41" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
@@ -8660,80 +8891,83 @@
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
-      <c r="AJ41" s="3" t="s">
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="AK41" s="3" t="s">
+      <c r="AL41" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="AL41" s="3"/>
       <c r="AM41" s="3"/>
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
       <c r="AP41" s="3"/>
       <c r="AQ41" s="3"/>
       <c r="AR41" s="3"/>
+      <c r="AS41" s="3"/>
     </row>
-    <row r="42" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="P42" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="Q42" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="R42" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="U42" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
@@ -8748,80 +8982,83 @@
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
       <c r="AI42" s="3"/>
-      <c r="AJ42" s="3" t="s">
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="AK42" s="3" t="s">
+      <c r="AL42" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="AL42" s="3"/>
       <c r="AM42" s="3"/>
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
       <c r="AP42" s="3"/>
       <c r="AQ42" s="3"/>
       <c r="AR42" s="3"/>
+      <c r="AS42" s="3"/>
     </row>
-    <row r="43" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>1289</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>1244</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>1207</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="O43" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="P43" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="Q43" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="R43" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="S43" s="3" t="s">
+      <c r="T43" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="U43" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
@@ -8836,80 +9073,83 @@
       <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
       <c r="AI43" s="3"/>
-      <c r="AJ43" s="3" t="s">
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="AK43" s="3" t="s">
+      <c r="AL43" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="AL43" s="3"/>
       <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
       <c r="AP43" s="3"/>
       <c r="AQ43" s="3"/>
       <c r="AR43" s="3"/>
+      <c r="AS43" s="3"/>
     </row>
-    <row r="44" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>1290</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="L44" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="M44" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="O44" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="P44" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="Q44" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="R44" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="S44" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="T44" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="T44" s="3" t="s">
+      <c r="U44" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
@@ -8924,80 +9164,83 @@
       <c r="AG44" s="3"/>
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
-      <c r="AJ44" s="3" t="s">
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="AK44" s="3" t="s">
+      <c r="AL44" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="AL44" s="3"/>
       <c r="AM44" s="3"/>
       <c r="AN44" s="3"/>
       <c r="AO44" s="3"/>
       <c r="AP44" s="3"/>
       <c r="AQ44" s="3"/>
       <c r="AR44" s="3"/>
+      <c r="AS44" s="3"/>
     </row>
-    <row r="45" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>1291</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="P45" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="R45" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="S45" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="T45" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="T45" s="4" t="s">
+      <c r="U45" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
@@ -9012,78 +9255,81 @@
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
-      <c r="AJ45" s="3" t="s">
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="AK45" s="3" t="s">
+      <c r="AL45" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="AL45" s="3"/>
       <c r="AM45" s="3"/>
       <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
       <c r="AP45" s="3"/>
       <c r="AQ45" s="3"/>
       <c r="AR45" s="3"/>
+      <c r="AS45" s="3"/>
     </row>
-    <row r="46" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>1292</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3" t="s">
+      <c r="L46" s="3"/>
+      <c r="M46" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="O46" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="P46" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="P46" s="3" t="s">
+      <c r="Q46" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="R46" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="S46" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="S46" s="3" t="s">
+      <c r="T46" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="T46" s="3" t="s">
+      <c r="U46" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
@@ -9098,78 +9344,81 @@
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
-      <c r="AJ46" s="3" t="s">
+      <c r="AJ46" s="3"/>
+      <c r="AK46" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="AK46" s="3" t="s">
+      <c r="AL46" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="AL46" s="3"/>
       <c r="AM46" s="3"/>
       <c r="AN46" s="3"/>
       <c r="AO46" s="3"/>
       <c r="AP46" s="3"/>
       <c r="AQ46" s="3"/>
       <c r="AR46" s="3"/>
+      <c r="AS46" s="3"/>
     </row>
-    <row r="47" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>1293</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>1248</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>1171</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="3"/>
+      <c r="M47" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="P47" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="T47" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="U47" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
@@ -9184,78 +9433,81 @@
       <c r="AG47" s="3"/>
       <c r="AH47" s="3"/>
       <c r="AI47" s="3"/>
-      <c r="AJ47" s="3" t="s">
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="AK47" s="3" t="s">
+      <c r="AL47" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="AL47" s="3"/>
       <c r="AM47" s="3"/>
       <c r="AN47" s="3"/>
       <c r="AO47" s="3"/>
       <c r="AP47" s="3"/>
       <c r="AQ47" s="3"/>
       <c r="AR47" s="3"/>
+      <c r="AS47" s="3"/>
     </row>
-    <row r="48" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>1294</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3" t="s">
+      <c r="L48" s="3"/>
+      <c r="M48" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="O48" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="P48" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="Q48" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="R48" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="S48" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="S48" s="3" t="s">
+      <c r="T48" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="T48" s="3" t="s">
+      <c r="U48" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
@@ -9270,78 +9522,81 @@
       <c r="AG48" s="3"/>
       <c r="AH48" s="3"/>
       <c r="AI48" s="3"/>
-      <c r="AJ48" s="3" t="s">
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="AK48" s="3" t="s">
+      <c r="AL48" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="AL48" s="3"/>
       <c r="AM48" s="3"/>
       <c r="AN48" s="3"/>
       <c r="AO48" s="3"/>
       <c r="AP48" s="3"/>
       <c r="AQ48" s="3"/>
       <c r="AR48" s="3"/>
+      <c r="AS48" s="3"/>
     </row>
-    <row r="49" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>1042</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>510</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3" t="s">
+      <c r="K49" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="O49" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="P49" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="Q49" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="R49" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="S49" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="S49" s="3" t="s">
+      <c r="T49" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="T49" s="3" t="s">
+      <c r="U49" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
@@ -9356,78 +9611,81 @@
       <c r="AG49" s="3"/>
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
-      <c r="AJ49" s="3" t="s">
+      <c r="AJ49" s="3"/>
+      <c r="AK49" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="AK49" s="4" t="s">
+      <c r="AL49" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="AL49" s="3"/>
       <c r="AM49" s="3"/>
       <c r="AN49" s="3"/>
       <c r="AO49" s="3"/>
       <c r="AP49" s="3"/>
       <c r="AQ49" s="3"/>
       <c r="AR49" s="3"/>
+      <c r="AS49" s="3"/>
     </row>
-    <row r="50" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3" t="s">
+      <c r="L50" s="3"/>
+      <c r="M50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="N50" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="O50" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="O50" s="3" t="s">
+      <c r="P50" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="P50" s="3" t="s">
+      <c r="Q50" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="R50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="R50" s="3" t="s">
+      <c r="S50" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="S50" s="3" t="s">
+      <c r="T50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="T50" s="3" t="s">
+      <c r="U50" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
@@ -9442,78 +9700,81 @@
       <c r="AG50" s="3"/>
       <c r="AH50" s="3"/>
       <c r="AI50" s="3"/>
-      <c r="AJ50" s="3" t="s">
+      <c r="AJ50" s="3"/>
+      <c r="AK50" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="AK50" s="3" t="s">
+      <c r="AL50" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="AL50" s="3"/>
       <c r="AM50" s="3"/>
       <c r="AN50" s="3"/>
       <c r="AO50" s="3"/>
       <c r="AP50" s="3"/>
       <c r="AQ50" s="3"/>
       <c r="AR50" s="3"/>
+      <c r="AS50" s="3"/>
     </row>
-    <row r="51" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>1297</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3" t="s">
+      <c r="L51" s="3"/>
+      <c r="M51" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="N51" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="N51" s="3" t="s">
+      <c r="O51" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="P51" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="P51" s="3" t="s">
+      <c r="Q51" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="Q51" s="3" t="s">
+      <c r="R51" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="R51" s="3" t="s">
+      <c r="S51" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="S51" s="3" t="s">
+      <c r="T51" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="T51" s="3" t="s">
+      <c r="U51" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
@@ -9528,21 +9789,22 @@
       <c r="AG51" s="3"/>
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
-      <c r="AJ51" s="3" t="s">
+      <c r="AJ51" s="3"/>
+      <c r="AK51" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="AK51" s="3" t="s">
+      <c r="AL51" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="AL51" s="3"/>
       <c r="AM51" s="3"/>
       <c r="AN51" s="3"/>
       <c r="AO51" s="3"/>
       <c r="AP51" s="3"/>
       <c r="AQ51" s="3"/>
       <c r="AR51" s="3"/>
+      <c r="AS51" s="3"/>
     </row>
-    <row r="52" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -9551,33 +9813,33 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="3"/>
+      <c r="J52" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3" t="s">
+      <c r="L52" s="3"/>
+      <c r="M52" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
-      <c r="Q52" s="3" t="s">
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="R52" s="3" t="s">
+      <c r="S52" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="S52" s="3" t="s">
+      <c r="T52" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="T52" s="3" t="s">
+      <c r="U52" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
@@ -9592,21 +9854,22 @@
       <c r="AG52" s="3"/>
       <c r="AH52" s="3"/>
       <c r="AI52" s="3"/>
-      <c r="AJ52" s="3" t="s">
+      <c r="AJ52" s="3"/>
+      <c r="AK52" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="AK52" s="3" t="s">
+      <c r="AL52" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="AL52" s="3"/>
       <c r="AM52" s="3"/>
       <c r="AN52" s="3"/>
       <c r="AO52" s="3"/>
       <c r="AP52" s="3"/>
       <c r="AQ52" s="3"/>
       <c r="AR52" s="3"/>
+      <c r="AS52" s="3"/>
     </row>
-    <row r="53" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -9615,33 +9878,33 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="3"/>
+      <c r="J53" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3" t="s">
+      <c r="L53" s="3"/>
+      <c r="M53" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
-      <c r="Q53" s="3" t="s">
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="R53" s="3" t="s">
+      <c r="S53" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="S53" s="3" t="s">
+      <c r="T53" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="T53" s="3" t="s">
+      <c r="U53" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
@@ -9656,10 +9919,10 @@
       <c r="AG53" s="3"/>
       <c r="AH53" s="3"/>
       <c r="AI53" s="3"/>
-      <c r="AJ53" s="3" t="s">
+      <c r="AJ53" s="3"/>
+      <c r="AK53" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="AK53" s="3"/>
       <c r="AL53" s="3"/>
       <c r="AM53" s="3"/>
       <c r="AN53" s="3"/>
@@ -9667,8 +9930,9 @@
       <c r="AP53" s="3"/>
       <c r="AQ53" s="3"/>
       <c r="AR53" s="3"/>
+      <c r="AS53" s="3"/>
     </row>
-    <row r="54" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -9677,31 +9941,31 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="3"/>
+      <c r="J54" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="3" t="s">
+      <c r="L54" s="3"/>
+      <c r="M54" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
-      <c r="Q54" s="3" t="s">
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="R54" s="3" t="s">
+      <c r="S54" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="S54" s="3" t="s">
+      <c r="T54" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="T54" s="3" t="s">
+      <c r="U54" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
@@ -9725,8 +9989,9 @@
       <c r="AP54" s="3"/>
       <c r="AQ54" s="3"/>
       <c r="AR54" s="3"/>
+      <c r="AS54" s="3"/>
     </row>
-    <row r="55" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -9735,31 +10000,31 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="3"/>
+      <c r="J55" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="L55" s="3" t="s">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-      <c r="Q55" s="3" t="s">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="R55" s="3" t="s">
+      <c r="S55" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="S55" s="3" t="s">
+      <c r="T55" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="T55" s="3" t="s">
+      <c r="U55" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
@@ -9783,8 +10048,9 @@
       <c r="AP55" s="3"/>
       <c r="AQ55" s="3"/>
       <c r="AR55" s="3"/>
+      <c r="AS55" s="3"/>
     </row>
-    <row r="56" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -9793,29 +10059,29 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="3" t="s">
+      <c r="I56" s="3"/>
+      <c r="J56" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="3" t="s">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-      <c r="R56" s="3" t="s">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="S56" s="3" t="s">
+      <c r="T56" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="T56" s="3" t="s">
+      <c r="U56" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
@@ -9839,8 +10105,9 @@
       <c r="AP56" s="3"/>
       <c r="AQ56" s="3"/>
       <c r="AR56" s="3"/>
+      <c r="AS56" s="3"/>
     </row>
-    <row r="57" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -9849,10 +10116,10 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3" t="s">
+      <c r="I57" s="3"/>
+      <c r="J57" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -9860,16 +10127,16 @@
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
-      <c r="R57" s="3" t="s">
+      <c r="R57" s="3"/>
+      <c r="S57" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="S57" s="3" t="s">
+      <c r="T57" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="T57" s="3" t="s">
+      <c r="U57" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
@@ -9893,8 +10160,9 @@
       <c r="AP57" s="3"/>
       <c r="AQ57" s="3"/>
       <c r="AR57" s="3"/>
+      <c r="AS57" s="3"/>
     </row>
-    <row r="58" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -9903,10 +10171,10 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="3"/>
+      <c r="J58" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -9914,14 +10182,14 @@
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
-      <c r="R58" s="3" t="s">
+      <c r="R58" s="3"/>
+      <c r="S58" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3" t="s">
+      <c r="T58" s="3"/>
+      <c r="U58" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
@@ -9945,8 +10213,9 @@
       <c r="AP58" s="3"/>
       <c r="AQ58" s="3"/>
       <c r="AR58" s="3"/>
+      <c r="AS58" s="3"/>
     </row>
-    <row r="59" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -9955,10 +10224,10 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="3"/>
+      <c r="J59" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -9966,14 +10235,14 @@
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
-      <c r="R59" s="3" t="s">
+      <c r="R59" s="3"/>
+      <c r="S59" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3" t="s">
+      <c r="T59" s="3"/>
+      <c r="U59" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
@@ -9997,8 +10266,9 @@
       <c r="AP59" s="3"/>
       <c r="AQ59" s="3"/>
       <c r="AR59" s="3"/>
+      <c r="AS59" s="3"/>
     </row>
-    <row r="60" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -10007,10 +10277,10 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="3" t="s">
+      <c r="I60" s="3"/>
+      <c r="J60" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -10018,14 +10288,14 @@
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
-      <c r="R60" s="3" t="s">
+      <c r="R60" s="3"/>
+      <c r="S60" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3" t="s">
+      <c r="T60" s="3"/>
+      <c r="U60" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
@@ -10049,8 +10319,9 @@
       <c r="AP60" s="3"/>
       <c r="AQ60" s="3"/>
       <c r="AR60" s="3"/>
+      <c r="AS60" s="3"/>
     </row>
-    <row r="61" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -10059,10 +10330,10 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="3" t="s">
+      <c r="I61" s="3"/>
+      <c r="J61" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -10070,14 +10341,14 @@
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
-      <c r="R61" s="3" t="s">
+      <c r="R61" s="3"/>
+      <c r="S61" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3" t="s">
+      <c r="T61" s="3"/>
+      <c r="U61" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
@@ -10101,8 +10372,9 @@
       <c r="AP61" s="3"/>
       <c r="AQ61" s="3"/>
       <c r="AR61" s="3"/>
+      <c r="AS61" s="3"/>
     </row>
-    <row r="62" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -10111,10 +10383,10 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="3" t="s">
+      <c r="I62" s="3"/>
+      <c r="J62" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -10122,10 +10394,10 @@
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
-      <c r="R62" s="3" t="s">
+      <c r="R62" s="3"/>
+      <c r="S62" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
@@ -10151,8 +10423,9 @@
       <c r="AP62" s="3"/>
       <c r="AQ62" s="3"/>
       <c r="AR62" s="3"/>
+      <c r="AS62" s="3"/>
     </row>
-    <row r="63" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -10161,10 +10434,10 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="3" t="s">
+      <c r="I63" s="3"/>
+      <c r="J63" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -10172,10 +10445,10 @@
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
-      <c r="R63" s="3" t="s">
+      <c r="R63" s="3"/>
+      <c r="S63" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="S63" s="3"/>
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
@@ -10201,8 +10474,9 @@
       <c r="AP63" s="3"/>
       <c r="AQ63" s="3"/>
       <c r="AR63" s="3"/>
+      <c r="AS63" s="3"/>
     </row>
-    <row r="64" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -10211,10 +10485,10 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="3" t="s">
+      <c r="I64" s="3"/>
+      <c r="J64" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -10249,8 +10523,9 @@
       <c r="AP64" s="3"/>
       <c r="AQ64" s="3"/>
       <c r="AR64" s="3"/>
+      <c r="AS64" s="3"/>
     </row>
-    <row r="65" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -10295,8 +10570,9 @@
       <c r="AP65" s="3"/>
       <c r="AQ65" s="3"/>
       <c r="AR65" s="3"/>
+      <c r="AS65" s="3"/>
     </row>
-    <row r="66" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -10341,8 +10617,9 @@
       <c r="AP66" s="3"/>
       <c r="AQ66" s="3"/>
       <c r="AR66" s="3"/>
+      <c r="AS66" s="3"/>
     </row>
-    <row r="67" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -10387,8 +10664,9 @@
       <c r="AP67" s="3"/>
       <c r="AQ67" s="3"/>
       <c r="AR67" s="3"/>
+      <c r="AS67" s="3"/>
     </row>
-    <row r="68" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -10433,8 +10711,9 @@
       <c r="AP68" s="3"/>
       <c r="AQ68" s="3"/>
       <c r="AR68" s="3"/>
+      <c r="AS68" s="3"/>
     </row>
-    <row r="69" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -10479,8 +10758,9 @@
       <c r="AP69" s="3"/>
       <c r="AQ69" s="3"/>
       <c r="AR69" s="3"/>
+      <c r="AS69" s="3"/>
     </row>
-    <row r="70" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -10525,8 +10805,9 @@
       <c r="AP70" s="3"/>
       <c r="AQ70" s="3"/>
       <c r="AR70" s="3"/>
+      <c r="AS70" s="3"/>
     </row>
-    <row r="71" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -10571,8 +10852,9 @@
       <c r="AP71" s="3"/>
       <c r="AQ71" s="3"/>
       <c r="AR71" s="3"/>
+      <c r="AS71" s="3"/>
     </row>
-    <row r="72" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -10617,8 +10899,9 @@
       <c r="AP72" s="3"/>
       <c r="AQ72" s="3"/>
       <c r="AR72" s="3"/>
+      <c r="AS72" s="3"/>
     </row>
-    <row r="73" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -10663,8 +10946,9 @@
       <c r="AP73" s="3"/>
       <c r="AQ73" s="3"/>
       <c r="AR73" s="3"/>
+      <c r="AS73" s="3"/>
     </row>
-    <row r="74" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -10709,8 +10993,9 @@
       <c r="AP74" s="3"/>
       <c r="AQ74" s="3"/>
       <c r="AR74" s="3"/>
+      <c r="AS74" s="3"/>
     </row>
-    <row r="75" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -10755,8 +11040,9 @@
       <c r="AP75" s="3"/>
       <c r="AQ75" s="3"/>
       <c r="AR75" s="3"/>
+      <c r="AS75" s="3"/>
     </row>
-    <row r="76" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -10801,8 +11087,9 @@
       <c r="AP76" s="3"/>
       <c r="AQ76" s="3"/>
       <c r="AR76" s="3"/>
+      <c r="AS76" s="3"/>
     </row>
-    <row r="77" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -10847,8 +11134,9 @@
       <c r="AP77" s="3"/>
       <c r="AQ77" s="3"/>
       <c r="AR77" s="3"/>
+      <c r="AS77" s="3"/>
     </row>
-    <row r="78" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -10893,8 +11181,9 @@
       <c r="AP78" s="3"/>
       <c r="AQ78" s="3"/>
       <c r="AR78" s="3"/>
+      <c r="AS78" s="3"/>
     </row>
-    <row r="79" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -10939,8 +11228,9 @@
       <c r="AP79" s="3"/>
       <c r="AQ79" s="3"/>
       <c r="AR79" s="3"/>
+      <c r="AS79" s="3"/>
     </row>
-    <row r="80" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -10985,8 +11275,9 @@
       <c r="AP80" s="3"/>
       <c r="AQ80" s="3"/>
       <c r="AR80" s="3"/>
+      <c r="AS80" s="3"/>
     </row>
-    <row r="81" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -11031,8 +11322,9 @@
       <c r="AP81" s="3"/>
       <c r="AQ81" s="3"/>
       <c r="AR81" s="3"/>
+      <c r="AS81" s="3"/>
     </row>
-    <row r="82" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -11077,8 +11369,9 @@
       <c r="AP82" s="3"/>
       <c r="AQ82" s="3"/>
       <c r="AR82" s="3"/>
+      <c r="AS82" s="3"/>
     </row>
-    <row r="83" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -11123,8 +11416,9 @@
       <c r="AP83" s="3"/>
       <c r="AQ83" s="3"/>
       <c r="AR83" s="3"/>
+      <c r="AS83" s="3"/>
     </row>
-    <row r="84" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -11169,8 +11463,9 @@
       <c r="AP84" s="3"/>
       <c r="AQ84" s="3"/>
       <c r="AR84" s="3"/>
+      <c r="AS84" s="3"/>
     </row>
-    <row r="85" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -11215,8 +11510,9 @@
       <c r="AP85" s="3"/>
       <c r="AQ85" s="3"/>
       <c r="AR85" s="3"/>
+      <c r="AS85" s="3"/>
     </row>
-    <row r="86" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -11261,8 +11557,9 @@
       <c r="AP86" s="3"/>
       <c r="AQ86" s="3"/>
       <c r="AR86" s="3"/>
+      <c r="AS86" s="3"/>
     </row>
-    <row r="87" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -11307,8 +11604,9 @@
       <c r="AP87" s="3"/>
       <c r="AQ87" s="3"/>
       <c r="AR87" s="3"/>
+      <c r="AS87" s="3"/>
     </row>
-    <row r="88" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -11353,8 +11651,9 @@
       <c r="AP88" s="3"/>
       <c r="AQ88" s="3"/>
       <c r="AR88" s="3"/>
+      <c r="AS88" s="3"/>
     </row>
-    <row r="89" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -11399,8 +11698,9 @@
       <c r="AP89" s="3"/>
       <c r="AQ89" s="3"/>
       <c r="AR89" s="3"/>
+      <c r="AS89" s="3"/>
     </row>
-    <row r="90" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -11445,8 +11745,9 @@
       <c r="AP90" s="3"/>
       <c r="AQ90" s="3"/>
       <c r="AR90" s="3"/>
+      <c r="AS90" s="3"/>
     </row>
-    <row r="91" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -11491,8 +11792,9 @@
       <c r="AP91" s="3"/>
       <c r="AQ91" s="3"/>
       <c r="AR91" s="3"/>
+      <c r="AS91" s="3"/>
     </row>
-    <row r="92" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -11537,9 +11839,9 @@
       <c r="AP92" s="3"/>
       <c r="AQ92" s="3"/>
       <c r="AR92" s="3"/>
+      <c r="AS92" s="3"/>
     </row>
-    <row r="93" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V93" s="3"/>
+    <row r="93" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
@@ -11562,9 +11864,9 @@
       <c r="AP93" s="3"/>
       <c r="AQ93" s="3"/>
       <c r="AR93" s="3"/>
+      <c r="AS93" s="3"/>
     </row>
-    <row r="94" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V94" s="3"/>
+    <row r="94" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
@@ -11587,9 +11889,9 @@
       <c r="AP94" s="3"/>
       <c r="AQ94" s="3"/>
       <c r="AR94" s="3"/>
+      <c r="AS94" s="3"/>
     </row>
-    <row r="95" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V95" s="3"/>
+    <row r="95" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
@@ -11612,9 +11914,9 @@
       <c r="AP95" s="3"/>
       <c r="AQ95" s="3"/>
       <c r="AR95" s="3"/>
+      <c r="AS95" s="3"/>
     </row>
-    <row r="96" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V96" s="3"/>
+    <row r="96" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
@@ -11637,9 +11939,9 @@
       <c r="AP96" s="3"/>
       <c r="AQ96" s="3"/>
       <c r="AR96" s="3"/>
+      <c r="AS96" s="3"/>
     </row>
-    <row r="97" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V97" s="3"/>
+    <row r="97" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
@@ -11662,9 +11964,9 @@
       <c r="AP97" s="3"/>
       <c r="AQ97" s="3"/>
       <c r="AR97" s="3"/>
+      <c r="AS97" s="3"/>
     </row>
-    <row r="98" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V98" s="3"/>
+    <row r="98" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
@@ -11687,9 +11989,9 @@
       <c r="AP98" s="3"/>
       <c r="AQ98" s="3"/>
       <c r="AR98" s="3"/>
+      <c r="AS98" s="3"/>
     </row>
-    <row r="99" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V99" s="3"/>
+    <row r="99" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
@@ -11712,9 +12014,9 @@
       <c r="AP99" s="3"/>
       <c r="AQ99" s="3"/>
       <c r="AR99" s="3"/>
+      <c r="AS99" s="3"/>
     </row>
-    <row r="100" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V100" s="3"/>
+    <row r="100" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
@@ -11737,9 +12039,9 @@
       <c r="AP100" s="3"/>
       <c r="AQ100" s="3"/>
       <c r="AR100" s="3"/>
+      <c r="AS100" s="3"/>
     </row>
-    <row r="101" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V101" s="3"/>
+    <row r="101" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
@@ -11762,9 +12064,9 @@
       <c r="AP101" s="3"/>
       <c r="AQ101" s="3"/>
       <c r="AR101" s="3"/>
+      <c r="AS101" s="3"/>
     </row>
-    <row r="102" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V102" s="3"/>
+    <row r="102" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
@@ -11787,9 +12089,9 @@
       <c r="AP102" s="3"/>
       <c r="AQ102" s="3"/>
       <c r="AR102" s="3"/>
+      <c r="AS102" s="3"/>
     </row>
-    <row r="103" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V103" s="3"/>
+    <row r="103" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
@@ -11812,9 +12114,9 @@
       <c r="AP103" s="3"/>
       <c r="AQ103" s="3"/>
       <c r="AR103" s="3"/>
+      <c r="AS103" s="3"/>
     </row>
-    <row r="104" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V104" s="3"/>
+    <row r="104" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
@@ -11837,9 +12139,9 @@
       <c r="AP104" s="3"/>
       <c r="AQ104" s="3"/>
       <c r="AR104" s="3"/>
+      <c r="AS104" s="3"/>
     </row>
-    <row r="105" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V105" s="3"/>
+    <row r="105" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
@@ -11862,9 +12164,9 @@
       <c r="AP105" s="3"/>
       <c r="AQ105" s="3"/>
       <c r="AR105" s="3"/>
+      <c r="AS105" s="3"/>
     </row>
-    <row r="106" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V106" s="3"/>
+    <row r="106" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
@@ -11887,9 +12189,9 @@
       <c r="AP106" s="3"/>
       <c r="AQ106" s="3"/>
       <c r="AR106" s="3"/>
+      <c r="AS106" s="3"/>
     </row>
-    <row r="107" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V107" s="3"/>
+    <row r="107" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
@@ -11912,9 +12214,9 @@
       <c r="AP107" s="3"/>
       <c r="AQ107" s="3"/>
       <c r="AR107" s="3"/>
+      <c r="AS107" s="3"/>
     </row>
-    <row r="108" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V108" s="3"/>
+    <row r="108" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
@@ -11937,9 +12239,9 @@
       <c r="AP108" s="3"/>
       <c r="AQ108" s="3"/>
       <c r="AR108" s="3"/>
+      <c r="AS108" s="3"/>
     </row>
-    <row r="109" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V109" s="3"/>
+    <row r="109" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
@@ -11962,9 +12264,9 @@
       <c r="AP109" s="3"/>
       <c r="AQ109" s="3"/>
       <c r="AR109" s="3"/>
+      <c r="AS109" s="3"/>
     </row>
-    <row r="110" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V110" s="3"/>
+    <row r="110" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
@@ -11987,9 +12289,9 @@
       <c r="AP110" s="3"/>
       <c r="AQ110" s="3"/>
       <c r="AR110" s="3"/>
+      <c r="AS110" s="3"/>
     </row>
-    <row r="111" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V111" s="3"/>
+    <row r="111" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
@@ -12012,9 +12314,9 @@
       <c r="AP111" s="3"/>
       <c r="AQ111" s="3"/>
       <c r="AR111" s="3"/>
+      <c r="AS111" s="3"/>
     </row>
-    <row r="112" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V112" s="3"/>
+    <row r="112" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
@@ -12037,9 +12339,9 @@
       <c r="AP112" s="3"/>
       <c r="AQ112" s="3"/>
       <c r="AR112" s="3"/>
+      <c r="AS112" s="3"/>
     </row>
-    <row r="113" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V113" s="3"/>
+    <row r="113" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
@@ -12062,9 +12364,9 @@
       <c r="AP113" s="3"/>
       <c r="AQ113" s="3"/>
       <c r="AR113" s="3"/>
+      <c r="AS113" s="3"/>
     </row>
-    <row r="114" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V114" s="3"/>
+    <row r="114" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
@@ -12087,9 +12389,9 @@
       <c r="AP114" s="3"/>
       <c r="AQ114" s="3"/>
       <c r="AR114" s="3"/>
+      <c r="AS114" s="3"/>
     </row>
-    <row r="115" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V115" s="3"/>
+    <row r="115" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
@@ -12112,9 +12414,9 @@
       <c r="AP115" s="3"/>
       <c r="AQ115" s="3"/>
       <c r="AR115" s="3"/>
+      <c r="AS115" s="3"/>
     </row>
-    <row r="116" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V116" s="3"/>
+    <row r="116" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
@@ -12137,9 +12439,9 @@
       <c r="AP116" s="3"/>
       <c r="AQ116" s="3"/>
       <c r="AR116" s="3"/>
+      <c r="AS116" s="3"/>
     </row>
-    <row r="117" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V117" s="3"/>
+    <row r="117" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
@@ -12162,9 +12464,9 @@
       <c r="AP117" s="3"/>
       <c r="AQ117" s="3"/>
       <c r="AR117" s="3"/>
+      <c r="AS117" s="3"/>
     </row>
-    <row r="118" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V118" s="3"/>
+    <row r="118" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
@@ -12187,9 +12489,9 @@
       <c r="AP118" s="3"/>
       <c r="AQ118" s="3"/>
       <c r="AR118" s="3"/>
+      <c r="AS118" s="3"/>
     </row>
-    <row r="119" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V119" s="3"/>
+    <row r="119" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
@@ -12212,9 +12514,9 @@
       <c r="AP119" s="3"/>
       <c r="AQ119" s="3"/>
       <c r="AR119" s="3"/>
+      <c r="AS119" s="3"/>
     </row>
-    <row r="120" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V120" s="3"/>
+    <row r="120" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
@@ -12237,9 +12539,9 @@
       <c r="AP120" s="3"/>
       <c r="AQ120" s="3"/>
       <c r="AR120" s="3"/>
+      <c r="AS120" s="3"/>
     </row>
-    <row r="121" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V121" s="3"/>
+    <row r="121" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
@@ -12262,9 +12564,9 @@
       <c r="AP121" s="3"/>
       <c r="AQ121" s="3"/>
       <c r="AR121" s="3"/>
+      <c r="AS121" s="3"/>
     </row>
-    <row r="122" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V122" s="3"/>
+    <row r="122" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
@@ -12287,9 +12589,9 @@
       <c r="AP122" s="3"/>
       <c r="AQ122" s="3"/>
       <c r="AR122" s="3"/>
+      <c r="AS122" s="3"/>
     </row>
-    <row r="123" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V123" s="3"/>
+    <row r="123" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
@@ -12312,9 +12614,9 @@
       <c r="AP123" s="3"/>
       <c r="AQ123" s="3"/>
       <c r="AR123" s="3"/>
+      <c r="AS123" s="3"/>
     </row>
-    <row r="124" spans="22:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V124" s="3"/>
+    <row r="124" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
@@ -12337,17 +12639,18 @@
       <c r="AP124" s="3"/>
       <c r="AQ124" s="3"/>
       <c r="AR124" s="3"/>
+      <c r="AS124" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T45" r:id="rId1" display="http://galaxe.solutions/" xr:uid="{FC3574BC-D6EF-4519-A7F6-F3806DB46557}"/>
-    <hyperlink ref="Q38" r:id="rId2" display="http://critically.io/" xr:uid="{58C6B818-5DAB-4298-BE6A-8DFB8F2FA3E6}"/>
-    <hyperlink ref="AO4" r:id="rId3" display="http://pendo.io/" xr:uid="{D0FB6BCD-C593-4A26-8FE6-FE61791CE669}"/>
-    <hyperlink ref="AM2" r:id="rId4" display="http://underdog.io/" xr:uid="{543C7C11-8D77-4769-955F-05FB4DC5FBB2}"/>
-    <hyperlink ref="AK49" r:id="rId5" display="http://ampcontrol.io/" xr:uid="{D63E3F1B-0340-4575-B7D7-BEF67233F5CD}"/>
-    <hyperlink ref="AH2" r:id="rId6" display="http://soffos.al/" xr:uid="{33336681-5570-4B6F-B154-1FDC1CE41B62}"/>
-    <hyperlink ref="AH19" r:id="rId7" display="http://miningstore.com/" xr:uid="{8AC48435-3FDD-44BD-BC8F-5FF8929E3F09}"/>
-    <hyperlink ref="AF5" r:id="rId8" display="http://ftsi.tech/" xr:uid="{2C18A7FB-BA19-4A58-BB3E-04631CB18EF4}"/>
+    <hyperlink ref="U45" r:id="rId1" display="http://galaxe.solutions/" xr:uid="{FC3574BC-D6EF-4519-A7F6-F3806DB46557}"/>
+    <hyperlink ref="R38" r:id="rId2" display="http://critically.io/" xr:uid="{58C6B818-5DAB-4298-BE6A-8DFB8F2FA3E6}"/>
+    <hyperlink ref="AP4" r:id="rId3" display="http://pendo.io/" xr:uid="{D0FB6BCD-C593-4A26-8FE6-FE61791CE669}"/>
+    <hyperlink ref="AN2" r:id="rId4" display="http://underdog.io/" xr:uid="{543C7C11-8D77-4769-955F-05FB4DC5FBB2}"/>
+    <hyperlink ref="AL49" r:id="rId5" display="http://ampcontrol.io/" xr:uid="{D63E3F1B-0340-4575-B7D7-BEF67233F5CD}"/>
+    <hyperlink ref="AI2" r:id="rId6" display="http://soffos.al/" xr:uid="{33336681-5570-4B6F-B154-1FDC1CE41B62}"/>
+    <hyperlink ref="AI19" r:id="rId7" display="http://miningstore.com/" xr:uid="{8AC48435-3FDD-44BD-BC8F-5FF8929E3F09}"/>
+    <hyperlink ref="AG5" r:id="rId8" display="http://ftsi.tech/" xr:uid="{2C18A7FB-BA19-4A58-BB3E-04631CB18EF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/applications.xlsx
+++ b/applications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57419\Documents\applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8000747C-1C41-4A5C-B845-15A8228DF7F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26072B9-F225-43CC-9226-4374D9A1582C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49620" yWindow="150" windowWidth="7890" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47715" yWindow="705" windowWidth="5685" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="1334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="1371">
   <si>
     <t>Total</t>
   </si>
@@ -4036,6 +4036,117 @@
   </si>
   <si>
     <t>50. Insight Global</t>
+  </si>
+  <si>
+    <t>1. VBeyond Corporation</t>
+  </si>
+  <si>
+    <t>2. Brilliant Earth</t>
+  </si>
+  <si>
+    <t>3. Tanisha Systems, Inc.</t>
+  </si>
+  <si>
+    <t>4. Moen Incorporated</t>
+  </si>
+  <si>
+    <t>5. BOTG LLC</t>
+  </si>
+  <si>
+    <t>7. Intellectt Inc</t>
+  </si>
+  <si>
+    <t>8. Vaco</t>
+  </si>
+  <si>
+    <t>9. VBeyond Corporation</t>
+  </si>
+  <si>
+    <t>10. Zync</t>
+  </si>
+  <si>
+    <t>11. SGS Consulting</t>
+  </si>
+  <si>
+    <t>12. Neumeric Technologies Corp</t>
+  </si>
+  <si>
+    <t>13. WebRTC.ventures</t>
+  </si>
+  <si>
+    <t>19. Huxley</t>
+  </si>
+  <si>
+    <t>21. Softworld</t>
+  </si>
+  <si>
+    <t>22. Revved</t>
+  </si>
+  <si>
+    <t>23. Reulay Inc</t>
+  </si>
+  <si>
+    <t>29. Telivy</t>
+  </si>
+  <si>
+    <t>30. Linq</t>
+  </si>
+  <si>
+    <t>31. TigerGraph</t>
+  </si>
+  <si>
+    <t>32. 10x Genomics</t>
+  </si>
+  <si>
+    <t>33. 10x Genomics</t>
+  </si>
+  <si>
+    <t>34. 10x Genomics</t>
+  </si>
+  <si>
+    <t>35. 10x Genomics</t>
+  </si>
+  <si>
+    <t>36. 10x Genomics</t>
+  </si>
+  <si>
+    <t>37. 10x Genomics</t>
+  </si>
+  <si>
+    <t>38. 10x Genomics</t>
+  </si>
+  <si>
+    <t>39. 10x Genomics</t>
+  </si>
+  <si>
+    <t>40. Infinity Consulting Solutions</t>
+  </si>
+  <si>
+    <t>41. Fulfill Team Inc. (Morrisville)</t>
+  </si>
+  <si>
+    <t>42. Fulfill Team Inc. (Cary)</t>
+  </si>
+  <si>
+    <t>43. Fulfill Team Inc. (Raleigh)</t>
+  </si>
+  <si>
+    <t>44. Insight Global</t>
+  </si>
+  <si>
+    <t>45. Deutsche Bank</t>
+  </si>
+  <si>
+    <t>46. Bandwidth Inc.</t>
+  </si>
+  <si>
+    <t>47. Yoh, A Day &amp; Zimmermann Company</t>
+  </si>
+  <si>
+    <t>48. Vaco</t>
+  </si>
+  <si>
+    <t>50. Infor</t>
   </si>
 </sst>
 </file>
@@ -4393,385 +4504,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS124"/>
+  <dimension ref="A1:AT124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="41" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="41" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>44552</v>
+      </c>
+      <c r="C1" s="1">
         <v>44551</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>44550</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>44547</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>44546</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>44545</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>44544</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>44543</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>44540</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>44539</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>44538</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>44537</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>44536</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>44533</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>44532</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>44531</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>44530</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>44529</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>44524</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>44523</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>44522</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>44518</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="1">
         <v>44517</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="1">
         <v>44516</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="1">
         <v>44515</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="1">
         <v>44512</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>44511</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="1">
         <v>44510</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="1">
         <v>44509</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>44508</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AF1" s="1">
         <v>44505</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AG1" s="1">
         <v>44504</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AH1" s="1">
         <v>44503</v>
       </c>
-      <c r="AH1" s="5">
+      <c r="AI1" s="5">
         <v>44502</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AJ1" s="1">
         <v>44501</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AK1" s="1">
         <v>44498</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AL1" s="1">
         <v>44497</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AM1" s="1">
         <v>44496</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AN1" s="1">
         <v>44495</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AO1" s="1">
         <v>44494</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AP1" s="1">
         <v>44489</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AQ1" s="1">
         <v>44487</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AR1" s="1">
         <v>44486</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AS1" s="1">
         <v>44421</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AT1" s="1">
         <v>44419</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <f xml:space="preserve"> COUNTA(D2:AAI100)</f>
-        <v>1388</v>
+        <f xml:space="preserve"> COUNTA(C2:AAJ100)</f>
+        <v>1488</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1253</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>13</v>
@@ -4783,3088 +4901,3171 @@
         <v>13</v>
       </c>
       <c r="U3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="3"/>
+      <c r="X3" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="Z3" s="3" t="s">
         <v>616</v>
       </c>
       <c r="AA3" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AI3" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3" t="s">
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="AT3" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>1177</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="3"/>
+      <c r="X4" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="AH4" s="6" t="s">
+      <c r="AI4" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="4" t="s">
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3" t="s">
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="3"/>
+      <c r="X5" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AG5" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AH5" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="AH5" s="6" t="s">
+      <c r="AI5" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AK5" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AL5" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AM5" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AN5" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="AN5" s="3" t="s">
+      <c r="AO5" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3" t="s">
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3" t="s">
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="AS5" s="3" t="s">
+      <c r="AT5" s="3" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>1299</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>1179</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3" t="s">
+      <c r="W6" s="3"/>
+      <c r="X6" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AA6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AD6" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AE6" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AF6" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="AG6" s="3" t="s">
+      <c r="AH6" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="AH6" s="6" t="s">
+      <c r="AI6" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="AI6" s="3" t="s">
+      <c r="AJ6" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="AJ6" s="3" t="s">
+      <c r="AK6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AK6" s="3" t="s">
+      <c r="AL6" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="AL6" s="3" t="s">
+      <c r="AM6" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="AM6" s="3" t="s">
+      <c r="AN6" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="AN6" s="3" t="s">
+      <c r="AO6" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="AO6" s="3"/>
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
-      <c r="AR6" s="3" t="s">
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="AS6" s="3" t="s">
+      <c r="AT6" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>1300</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3" t="s">
+      <c r="W7" s="3"/>
+      <c r="X7" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AD7" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AF7" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AG7" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AH7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="AH7" s="6" t="s">
+      <c r="AI7" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="AI7" s="3" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="AJ7" s="3" t="s">
+      <c r="AK7" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="AK7" s="3" t="s">
+      <c r="AL7" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="AL7" s="3" t="s">
+      <c r="AM7" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="AM7" s="3" t="s">
+      <c r="AN7" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="AN7" s="3" t="s">
+      <c r="AO7" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="AO7" s="3"/>
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
-      <c r="AR7" s="3" t="s">
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="AS7" s="3" t="s">
+      <c r="AT7" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>1257</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3" t="s">
+      <c r="W8" s="3"/>
+      <c r="X8" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="AA8" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AF8" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AG8" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="AG8" s="3" t="s">
+      <c r="AH8" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="AH8" s="6" t="s">
+      <c r="AI8" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="AI8" s="3" t="s">
+      <c r="AJ8" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="AJ8" s="3" t="s">
+      <c r="AK8" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="AK8" s="3" t="s">
+      <c r="AL8" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="AL8" s="3" t="s">
+      <c r="AM8" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="AM8" s="3" t="s">
+      <c r="AN8" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="AN8" s="3" t="s">
+      <c r="AO8" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="AO8" s="3"/>
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="3" t="s">
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
     </row>
-    <row r="9" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>1301</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="P9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3" t="s">
+      <c r="W9" s="3"/>
+      <c r="X9" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>73</v>
       </c>
       <c r="Z9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA9" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AD9" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AE9" s="3" t="s">
+      <c r="AF9" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3" t="s">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="AH9" s="6" t="s">
+      <c r="AI9" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="AI9" s="3" t="s">
+      <c r="AJ9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AJ9" s="3" t="s">
+      <c r="AK9" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="AK9" s="3" t="s">
+      <c r="AL9" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="AL9" s="3" t="s">
+      <c r="AM9" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="AM9" s="3" t="s">
+      <c r="AN9" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="AN9" s="3" t="s">
+      <c r="AO9" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="AO9" s="3"/>
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="3" t="s">
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
     </row>
-    <row r="10" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>1302</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>1007</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>78</v>
       </c>
       <c r="L10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3" t="s">
+      <c r="W10" s="3"/>
+      <c r="X10" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="Z10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3" t="s">
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AC10" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AD10" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AE10" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AF10" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3" t="s">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="AH10" s="6" t="s">
+      <c r="AI10" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="AI10" s="3" t="s">
+      <c r="AJ10" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="AJ10" s="3" t="s">
+      <c r="AK10" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="AK10" s="3" t="s">
+      <c r="AL10" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="AL10" s="3" t="s">
+      <c r="AM10" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="AM10" s="3" t="s">
+      <c r="AN10" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="AN10" s="3" t="s">
+      <c r="AO10" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="AO10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
-      <c r="AR10" s="3" t="s">
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
     </row>
-    <row r="11" spans="1:45" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>1303</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>1260</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>95</v>
       </c>
       <c r="U11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="V11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3" t="s">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="Y11" s="3" t="s">
+      <c r="Z11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3" t="s">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AC11" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AD11" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AE11" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
-      <c r="AG11" s="3" t="s">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="AH11" s="6" t="s">
+      <c r="AI11" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="AI11" s="3" t="s">
+      <c r="AJ11" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="AJ11" s="3" t="s">
+      <c r="AK11" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="AK11" s="3" t="s">
+      <c r="AL11" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="AL11" s="3" t="s">
+      <c r="AM11" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="AM11" s="3" t="s">
+      <c r="AN11" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="AN11" s="3" t="s">
+      <c r="AO11" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="AO11" s="3"/>
       <c r="AP11" s="3"/>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="3" t="s">
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
     </row>
-    <row r="12" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>1304</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3" t="s">
+      <c r="W12" s="3"/>
+      <c r="X12" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Y12" s="3" t="s">
+      <c r="Z12" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3" t="s">
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="AC12" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="AC12" s="3" t="s">
+      <c r="AD12" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="AD12" s="3" t="s">
+      <c r="AE12" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
-      <c r="AG12" s="3" t="s">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="AH12" s="6" t="s">
+      <c r="AI12" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="AI12" s="3" t="s">
+      <c r="AJ12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AJ12" s="3" t="s">
+      <c r="AK12" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="AK12" s="3" t="s">
+      <c r="AL12" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="AL12" s="3" t="s">
+      <c r="AM12" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="AM12" s="3" t="s">
+      <c r="AN12" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="AN12" s="3" t="s">
+      <c r="AO12" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="AO12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="3" t="s">
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
     </row>
-    <row r="13" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>1305</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>1262</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>109</v>
       </c>
       <c r="T13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="U13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3" t="s">
+      <c r="W13" s="3"/>
+      <c r="X13" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="Y13" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="Y13" s="3" t="s">
+      <c r="Z13" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3" t="s">
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="AB13" s="3" t="s">
+      <c r="AC13" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="AC13" s="3" t="s">
+      <c r="AD13" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="AD13" s="3" t="s">
+      <c r="AE13" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
-      <c r="AG13" s="3" t="s">
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="AH13" s="6" t="s">
+      <c r="AI13" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="AI13" s="3" t="s">
+      <c r="AJ13" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="AJ13" s="3" t="s">
+      <c r="AK13" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="AK13" s="3" t="s">
+      <c r="AL13" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="AL13" s="3" t="s">
+      <c r="AM13" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="AM13" s="3" t="s">
+      <c r="AN13" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="AN13" s="3" t="s">
+      <c r="AO13" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="AO13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AQ13" s="3"/>
-      <c r="AR13" s="3" t="s">
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
     </row>
-    <row r="14" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>1306</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="3"/>
+      <c r="X14" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3" t="s">
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
-      <c r="AG14" s="3" t="s">
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="AH14" s="6" t="s">
+      <c r="AI14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AI14" s="3" t="s">
+      <c r="AJ14" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="AJ14" s="3" t="s">
+      <c r="AK14" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="AK14" s="3" t="s">
+      <c r="AL14" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="AL14" s="3" t="s">
+      <c r="AM14" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="AM14" s="3" t="s">
+      <c r="AN14" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="AN14" s="3" t="s">
+      <c r="AO14" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="AO14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AQ14" s="3"/>
-      <c r="AR14" s="3" t="s">
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
     </row>
-    <row r="15" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>1307</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>1264</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>1011</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>129</v>
       </c>
       <c r="L15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>132</v>
       </c>
       <c r="Q15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3" t="s">
+      <c r="W15" s="3"/>
+      <c r="X15" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3" t="s">
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="AB15" s="3" t="s">
+      <c r="AC15" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="AC15" s="3" t="s">
+      <c r="AD15" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="AD15" s="3" t="s">
+      <c r="AE15" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
-      <c r="AG15" s="3" t="s">
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3" t="s">
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="AJ15" s="3" t="s">
+      <c r="AK15" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="AK15" s="3" t="s">
+      <c r="AL15" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="AL15" s="3" t="s">
+      <c r="AM15" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="AM15" s="3" t="s">
+      <c r="AN15" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="AN15" s="3" t="s">
+      <c r="AO15" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="AO15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AQ15" s="3"/>
-      <c r="AR15" s="3" t="s">
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
     </row>
-    <row r="16" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>1308</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>1188</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3" t="s">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="X16" s="3" t="s">
+      <c r="Y16" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="Y16" s="3" t="s">
+      <c r="Z16" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3" t="s">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="AB16" s="3" t="s">
+      <c r="AC16" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="AC16" s="3" t="s">
+      <c r="AD16" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="AD16" s="3" t="s">
+      <c r="AE16" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
-      <c r="AI16" s="3" t="s">
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AJ16" s="3" t="s">
+      <c r="AK16" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="AK16" s="3" t="s">
+      <c r="AL16" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="AL16" s="3" t="s">
+      <c r="AM16" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="AM16" s="3" t="s">
+      <c r="AN16" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="AN16" s="3" t="s">
+      <c r="AO16" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="AO16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AQ16" s="3"/>
-      <c r="AR16" s="3" t="s">
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
     </row>
-    <row r="17" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3" t="s">
+      <c r="W17" s="3"/>
+      <c r="X17" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="Y17" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="Y17" s="3" t="s">
+      <c r="Z17" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3" t="s">
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="AB17" s="3" t="s">
+      <c r="AC17" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="AC17" s="3" t="s">
+      <c r="AD17" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="AD17" s="3" t="s">
+      <c r="AE17" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
-      <c r="AI17" s="3" t="s">
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="AJ17" s="3" t="s">
+      <c r="AK17" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="AK17" s="3" t="s">
+      <c r="AL17" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="AL17" s="3" t="s">
+      <c r="AM17" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="AM17" s="3" t="s">
+      <c r="AN17" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="AN17" s="3" t="s">
+      <c r="AO17" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="AO17" s="3"/>
       <c r="AP17" s="3"/>
       <c r="AQ17" s="3"/>
-      <c r="AR17" s="3" t="s">
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
     </row>
-    <row r="18" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3" t="s">
+      <c r="W18" s="3"/>
+      <c r="X18" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="X18" s="3" t="s">
+      <c r="Y18" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="Y18" s="3" t="s">
+      <c r="Z18" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3" t="s">
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="AB18" s="3" t="s">
+      <c r="AC18" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="AC18" s="3" t="s">
+      <c r="AD18" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="AD18" s="3" t="s">
+      <c r="AE18" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
-      <c r="AI18" s="3" t="s">
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="AJ18" s="3" t="s">
+      <c r="AK18" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="AK18" s="3" t="s">
+      <c r="AL18" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="AL18" s="3" t="s">
+      <c r="AM18" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="AM18" s="3" t="s">
+      <c r="AN18" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="AN18" s="3" t="s">
+      <c r="AO18" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="AO18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AQ18" s="3"/>
-      <c r="AR18" s="3" t="s">
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
     </row>
-    <row r="19" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3" t="s">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="Y19" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="Y19" s="3" t="s">
+      <c r="Z19" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3" t="s">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="AB19" s="3" t="s">
+      <c r="AC19" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="AC19" s="3" t="s">
+      <c r="AD19" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="AD19" s="3" t="s">
+      <c r="AE19" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
-      <c r="AI19" s="4" t="s">
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3" t="s">
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="AL19" s="3" t="s">
+      <c r="AM19" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="AM19" s="3" t="s">
+      <c r="AN19" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
       <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
-      <c r="AR19" s="3" t="s">
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
     </row>
-    <row r="20" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>1100</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>183</v>
       </c>
       <c r="J20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3" t="s">
+      <c r="W20" s="3"/>
+      <c r="X20" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="Y20" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="Z20" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3" t="s">
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="AB20" s="3" t="s">
+      <c r="AC20" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="AC20" s="3" t="s">
+      <c r="AD20" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="AD20" s="3" t="s">
+      <c r="AE20" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
-      <c r="AI20" s="3" t="s">
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3" t="s">
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="AL20" s="3" t="s">
+      <c r="AM20" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="AM20" s="3" t="s">
+      <c r="AN20" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
       <c r="AP20" s="3"/>
       <c r="AQ20" s="3"/>
-      <c r="AR20" s="3" t="s">
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
     </row>
-    <row r="21" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>203</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>1146</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3" t="s">
+      <c r="W21" s="3"/>
+      <c r="X21" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="Y21" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="Y21" s="3" t="s">
+      <c r="Z21" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3" t="s">
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="AB21" s="3" t="s">
+      <c r="AC21" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="AC21" s="3" t="s">
+      <c r="AD21" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
-      <c r="AI21" s="3" t="s">
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3" t="s">
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="AL21" s="3" t="s">
+      <c r="AM21" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="AM21" s="3" t="s">
+      <c r="AN21" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
       <c r="AP21" s="3"/>
       <c r="AQ21" s="3"/>
-      <c r="AR21" s="3" t="s">
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
     </row>
-    <row r="22" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3" t="s">
+      <c r="V22" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3" t="s">
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3" t="s">
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="AB22" s="3" t="s">
+      <c r="AC22" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="AC22" s="3" t="s">
+      <c r="AD22" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
-      <c r="AI22" s="3" t="s">
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3" t="s">
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="AL22" s="3" t="s">
+      <c r="AM22" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="AM22" s="3" t="s">
+      <c r="AN22" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
       <c r="AP22" s="3"/>
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
       <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
     </row>
-    <row r="23" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="R23" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="U23" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="V23" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
-      <c r="AA23" s="3" t="s">
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="AB23" s="3" t="s">
+      <c r="AC23" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="AC23" s="3" t="s">
+      <c r="AD23" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
-      <c r="AI23" s="3" t="s">
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3" t="s">
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="AL23" s="3" t="s">
+      <c r="AM23" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="AM23" s="3" t="s">
+      <c r="AN23" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
       <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
     </row>
-    <row r="24" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
-      <c r="AA24" s="3" t="s">
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="AB24" s="3" t="s">
+      <c r="AC24" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="AC24" s="3" t="s">
+      <c r="AD24" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
-      <c r="AI24" s="3" t="s">
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3" t="s">
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="AL24" s="3" t="s">
+      <c r="AM24" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="AM24" s="3" t="s">
+      <c r="AN24" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
       <c r="AQ24" s="3"/>
       <c r="AR24" s="3"/>
       <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
     </row>
-    <row r="25" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>246</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>1274</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="R25" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="S25" s="3" t="s">
         <v>246</v>
       </c>
       <c r="T25" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="U25" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="V25" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
-      <c r="AA25" s="3" t="s">
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="AB25" s="3" t="s">
+      <c r="AC25" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
-      <c r="AI25" s="3" t="s">
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3" t="s">
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="AL25" s="3" t="s">
+      <c r="AM25" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="AM25" s="3" t="s">
+      <c r="AN25" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
       <c r="AP25" s="3"/>
       <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
     </row>
-    <row r="26" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="N26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="R26" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="T26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="U26" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="V26" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
-      <c r="AA26" s="3" t="s">
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="AB26" s="3" t="s">
+      <c r="AC26" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
-      <c r="AI26" s="3" t="s">
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3" t="s">
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="AL26" s="3" t="s">
+      <c r="AM26" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="AM26" s="3" t="s">
+      <c r="AN26" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
       <c r="AP26" s="3"/>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
     </row>
-    <row r="27" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>1195</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>1152</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>259</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="R27" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="U27" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="V27" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
-      <c r="AA27" s="3" t="s">
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="AB27" s="3" t="s">
+      <c r="AC27" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
-      <c r="AI27" s="3" t="s">
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3" t="s">
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="AL27" s="3" t="s">
+      <c r="AM27" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="AM27" s="3" t="s">
+      <c r="AN27" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
       <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
     </row>
-    <row r="28" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="R28" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="U28" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="V28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
-      <c r="AA28" s="3" t="s">
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="AB28" s="3" t="s">
+      <c r="AC28" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
-      <c r="AI28" s="3" t="s">
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3" t="s">
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="AL28" s="3" t="s">
+      <c r="AM28" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="AM28" s="3" t="s">
+      <c r="AN28" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
       <c r="AQ28" s="3"/>
       <c r="AR28" s="3"/>
       <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
     </row>
-    <row r="29" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
-      <c r="AA29" s="3" t="s">
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
-      <c r="AI29" s="3" t="s">
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3" t="s">
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="AL29" s="3" t="s">
+      <c r="AM29" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
       <c r="AR29" s="3"/>
       <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
     </row>
-    <row r="30" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>1312</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="R30" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="S30" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="U30" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="U30" s="3" t="s">
+      <c r="V30" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
@@ -7877,87 +8078,90 @@
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
-      <c r="AI30" s="3" t="s">
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="AJ30" s="3"/>
-      <c r="AK30" s="3" t="s">
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="AL30" s="3" t="s">
+      <c r="AM30" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
       <c r="AQ30" s="3"/>
       <c r="AR30" s="3"/>
       <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
     </row>
-    <row r="31" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>1313</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>1278</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>1198</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>1198</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="R31" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="T31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="U31" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="U31" s="3" t="s">
+      <c r="V31" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
@@ -7970,87 +8174,90 @@
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
-      <c r="AI31" s="3" t="s">
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="AJ31" s="3"/>
-      <c r="AK31" s="3" t="s">
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="AL31" s="3" t="s">
+      <c r="AM31" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
       <c r="AQ31" s="3"/>
       <c r="AR31" s="3"/>
       <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
     </row>
-    <row r="32" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>1314</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="R32" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="S32" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="T32" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="U32" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="U32" s="3" t="s">
+      <c r="V32" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
@@ -8063,87 +8270,90 @@
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
-      <c r="AI32" s="3" t="s">
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="AJ32" s="3"/>
-      <c r="AK32" s="3" t="s">
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="AL32" s="3" t="s">
+      <c r="AM32" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
       <c r="AQ32" s="3"/>
       <c r="AR32" s="3"/>
       <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
     </row>
-    <row r="33" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="U33" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="U33" s="3" t="s">
+      <c r="V33" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
@@ -8156,87 +8366,90 @@
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
-      <c r="AI33" s="3" t="s">
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3" t="s">
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="AL33" s="3" t="s">
+      <c r="AM33" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
       <c r="AR33" s="3"/>
       <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
     </row>
-    <row r="34" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="P34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="Q34" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="R34" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="S34" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="T34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="U34" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="U34" s="3" t="s">
+      <c r="V34" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
@@ -8249,87 +8462,90 @@
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
-      <c r="AI34" s="3" t="s">
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3" t="s">
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="AL34" s="3" t="s">
+      <c r="AM34" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
       <c r="AP34" s="3"/>
       <c r="AQ34" s="3"/>
       <c r="AR34" s="3"/>
       <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
     </row>
-    <row r="35" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>1317</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>1282</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>1236</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="R35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="S35" s="3" t="s">
+      <c r="T35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="T35" s="3" t="s">
+      <c r="U35" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="U35" s="3" t="s">
+      <c r="V35" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
@@ -8342,87 +8558,90 @@
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
-      <c r="AI35" s="3" t="s">
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="3" t="s">
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="AL35" s="3" t="s">
+      <c r="AM35" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
       <c r="AP35" s="3"/>
       <c r="AQ35" s="3"/>
       <c r="AR35" s="3"/>
       <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
     </row>
-    <row r="36" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>1283</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="R36" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="S36" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="S36" s="3" t="s">
+      <c r="T36" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="T36" s="3" t="s">
+      <c r="U36" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="U36" s="3" t="s">
+      <c r="V36" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
@@ -8437,83 +8656,86 @@
       <c r="AH36" s="3"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
-      <c r="AK36" s="3" t="s">
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="AL36" s="3" t="s">
+      <c r="AM36" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
       <c r="AP36" s="3"/>
       <c r="AQ36" s="3"/>
       <c r="AR36" s="3"/>
       <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
     </row>
-    <row r="37" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>1284</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="P37" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="R37" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="S37" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="S37" s="3" t="s">
+      <c r="T37" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="U37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="U37" s="3" t="s">
+      <c r="V37" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
@@ -8528,83 +8750,86 @@
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
-      <c r="AK37" s="3" t="s">
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="AL37" s="3" t="s">
+      <c r="AM37" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
       <c r="AP37" s="3"/>
       <c r="AQ37" s="3"/>
       <c r="AR37" s="3"/>
       <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
     </row>
-    <row r="38" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>1285</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="O38" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="P38" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="Q38" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="Q38" s="3" t="s">
+      <c r="R38" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="R38" s="4" t="s">
+      <c r="S38" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="T38" s="3" t="s">
         <v>391</v>
       </c>
       <c r="U38" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="V38" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
@@ -8619,83 +8844,86 @@
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
-      <c r="AK38" s="3" t="s">
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="AL38" s="3" t="s">
+      <c r="AM38" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
       <c r="AQ38" s="3"/>
       <c r="AR38" s="3"/>
       <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
     </row>
-    <row r="39" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>1321</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>1286</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="R39" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="S39" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="S39" s="3" t="s">
+      <c r="T39" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="U39" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="U39" s="3" t="s">
+      <c r="V39" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
@@ -8710,83 +8938,86 @@
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
-      <c r="AK39" s="3" t="s">
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="AL39" s="3" t="s">
+      <c r="AM39" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
       <c r="AP39" s="3"/>
       <c r="AQ39" s="3"/>
       <c r="AR39" s="3"/>
       <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
     </row>
-    <row r="40" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>1322</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>1287</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>1165</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="O40" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="P40" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="R40" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="S40" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="S40" s="3" t="s">
+      <c r="T40" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="T40" s="3" t="s">
+      <c r="U40" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="U40" s="3" t="s">
+      <c r="V40" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
@@ -8801,83 +9032,86 @@
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
-      <c r="AK40" s="3" t="s">
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="AL40" s="3" t="s">
+      <c r="AM40" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
       <c r="AP40" s="3"/>
       <c r="AQ40" s="3"/>
       <c r="AR40" s="3"/>
       <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
     </row>
-    <row r="41" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>1323</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>1288</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="O41" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="P41" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="Q41" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="R41" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="R41" s="3" t="s">
+      <c r="S41" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="S41" s="3" t="s">
+      <c r="T41" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="T41" s="3" t="s">
+      <c r="U41" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="U41" s="3" t="s">
+      <c r="V41" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
@@ -8892,83 +9126,86 @@
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
-      <c r="AK41" s="3" t="s">
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="AL41" s="3" t="s">
+      <c r="AM41" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="AM41" s="3"/>
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
       <c r="AP41" s="3"/>
       <c r="AQ41" s="3"/>
       <c r="AR41" s="3"/>
       <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
     </row>
-    <row r="42" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="P42" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="Q42" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="R42" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="U42" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="V42" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
@@ -8983,83 +9220,86 @@
       <c r="AH42" s="3"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
-      <c r="AK42" s="3" t="s">
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="AL42" s="3" t="s">
+      <c r="AM42" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="AM42" s="3"/>
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
       <c r="AP42" s="3"/>
       <c r="AQ42" s="3"/>
       <c r="AR42" s="3"/>
       <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
     </row>
-    <row r="43" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>1289</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>1244</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>1207</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="O43" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="P43" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="Q43" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="R43" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="S43" s="3" t="s">
+      <c r="T43" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="U43" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="U43" s="3" t="s">
+      <c r="V43" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
@@ -9074,83 +9314,86 @@
       <c r="AH43" s="3"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
-      <c r="AK43" s="3" t="s">
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="AL43" s="3" t="s">
+      <c r="AM43" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
       <c r="AP43" s="3"/>
       <c r="AQ43" s="3"/>
       <c r="AR43" s="3"/>
       <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
     </row>
-    <row r="44" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>1326</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>1290</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="L44" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="M44" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="O44" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="P44" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="Q44" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="R44" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="S44" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="T44" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="T44" s="3" t="s">
+      <c r="U44" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="U44" s="3" t="s">
+      <c r="V44" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
@@ -9165,83 +9408,86 @@
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
-      <c r="AK44" s="3" t="s">
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="AL44" s="3" t="s">
+      <c r="AM44" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="AM44" s="3"/>
       <c r="AN44" s="3"/>
       <c r="AO44" s="3"/>
       <c r="AP44" s="3"/>
       <c r="AQ44" s="3"/>
       <c r="AR44" s="3"/>
       <c r="AS44" s="3"/>
+      <c r="AT44" s="3"/>
     </row>
-    <row r="45" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>1327</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>1291</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="P45" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="R45" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="S45" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="T45" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="U45" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="U45" s="4" t="s">
+      <c r="V45" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
@@ -9256,81 +9502,84 @@
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
-      <c r="AK45" s="3" t="s">
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="AL45" s="3" t="s">
+      <c r="AM45" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="AM45" s="3"/>
       <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
       <c r="AP45" s="3"/>
       <c r="AQ45" s="3"/>
       <c r="AR45" s="3"/>
       <c r="AS45" s="3"/>
+      <c r="AT45" s="3"/>
     </row>
-    <row r="46" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>1328</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>1292</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="L46" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3" t="s">
+      <c r="M46" s="3"/>
+      <c r="N46" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="O46" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="P46" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="P46" s="3" t="s">
+      <c r="Q46" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="R46" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="S46" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="S46" s="3" t="s">
+      <c r="T46" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="T46" s="3" t="s">
+      <c r="U46" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="U46" s="3" t="s">
+      <c r="V46" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
@@ -9345,81 +9594,84 @@
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
-      <c r="AK46" s="3" t="s">
+      <c r="AK46" s="3"/>
+      <c r="AL46" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="AL46" s="3" t="s">
+      <c r="AM46" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="AM46" s="3"/>
       <c r="AN46" s="3"/>
       <c r="AO46" s="3"/>
       <c r="AP46" s="3"/>
       <c r="AQ46" s="3"/>
       <c r="AR46" s="3"/>
       <c r="AS46" s="3"/>
+      <c r="AT46" s="3"/>
     </row>
-    <row r="47" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>1293</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>1248</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>1171</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3" t="s">
+      <c r="M47" s="3"/>
+      <c r="N47" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="P47" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="T47" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="U47" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="V47" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
@@ -9434,81 +9686,84 @@
       <c r="AH47" s="3"/>
       <c r="AI47" s="3"/>
       <c r="AJ47" s="3"/>
-      <c r="AK47" s="3" t="s">
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="AL47" s="3" t="s">
+      <c r="AM47" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="AM47" s="3"/>
       <c r="AN47" s="3"/>
       <c r="AO47" s="3"/>
       <c r="AP47" s="3"/>
       <c r="AQ47" s="3"/>
       <c r="AR47" s="3"/>
       <c r="AS47" s="3"/>
+      <c r="AT47" s="3"/>
     </row>
-    <row r="48" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>1294</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3" t="s">
+      <c r="M48" s="3"/>
+      <c r="N48" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="O48" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="P48" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="Q48" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="R48" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="S48" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="S48" s="3" t="s">
+      <c r="T48" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="T48" s="3" t="s">
+      <c r="U48" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="U48" s="3" t="s">
+      <c r="V48" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
@@ -9523,81 +9778,84 @@
       <c r="AH48" s="3"/>
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
-      <c r="AK48" s="3" t="s">
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="AL48" s="3" t="s">
+      <c r="AM48" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="AM48" s="3"/>
       <c r="AN48" s="3"/>
       <c r="AO48" s="3"/>
       <c r="AP48" s="3"/>
       <c r="AQ48" s="3"/>
       <c r="AR48" s="3"/>
       <c r="AS48" s="3"/>
+      <c r="AT48" s="3"/>
     </row>
-    <row r="49" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>1331</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>1042</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>510</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3" t="s">
+      <c r="L49" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="O49" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="P49" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="Q49" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="R49" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="S49" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="S49" s="3" t="s">
+      <c r="T49" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="T49" s="3" t="s">
+      <c r="U49" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="U49" s="3" t="s">
+      <c r="V49" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
@@ -9612,81 +9870,84 @@
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
-      <c r="AK49" s="3" t="s">
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="AL49" s="4" t="s">
+      <c r="AM49" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="AM49" s="3"/>
       <c r="AN49" s="3"/>
       <c r="AO49" s="3"/>
       <c r="AP49" s="3"/>
       <c r="AQ49" s="3"/>
       <c r="AR49" s="3"/>
       <c r="AS49" s="3"/>
+      <c r="AT49" s="3"/>
     </row>
-    <row r="50" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>1332</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="L50" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3" t="s">
+      <c r="M50" s="3"/>
+      <c r="N50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="O50" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="O50" s="3" t="s">
+      <c r="P50" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="P50" s="3" t="s">
+      <c r="Q50" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="R50" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="R50" s="3" t="s">
+      <c r="S50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="S50" s="3" t="s">
+      <c r="T50" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="T50" s="3" t="s">
+      <c r="U50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="U50" s="3" t="s">
+      <c r="V50" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
@@ -9701,81 +9962,84 @@
       <c r="AH50" s="3"/>
       <c r="AI50" s="3"/>
       <c r="AJ50" s="3"/>
-      <c r="AK50" s="3" t="s">
+      <c r="AK50" s="3"/>
+      <c r="AL50" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="AL50" s="3" t="s">
+      <c r="AM50" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="AM50" s="3"/>
       <c r="AN50" s="3"/>
       <c r="AO50" s="3"/>
       <c r="AP50" s="3"/>
       <c r="AQ50" s="3"/>
       <c r="AR50" s="3"/>
       <c r="AS50" s="3"/>
+      <c r="AT50" s="3"/>
     </row>
-    <row r="51" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>1333</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>1297</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="L51" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3" t="s">
+      <c r="M51" s="3"/>
+      <c r="N51" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="N51" s="3" t="s">
+      <c r="O51" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="P51" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="P51" s="3" t="s">
+      <c r="Q51" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="Q51" s="3" t="s">
+      <c r="R51" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="R51" s="3" t="s">
+      <c r="S51" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="S51" s="3" t="s">
+      <c r="T51" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="T51" s="3" t="s">
+      <c r="U51" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="U51" s="3" t="s">
+      <c r="V51" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
@@ -9790,21 +10054,22 @@
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
       <c r="AJ51" s="3"/>
-      <c r="AK51" s="3" t="s">
+      <c r="AK51" s="3"/>
+      <c r="AL51" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="AL51" s="3" t="s">
+      <c r="AM51" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="AM51" s="3"/>
       <c r="AN51" s="3"/>
       <c r="AO51" s="3"/>
       <c r="AP51" s="3"/>
       <c r="AQ51" s="3"/>
       <c r="AR51" s="3"/>
       <c r="AS51" s="3"/>
+      <c r="AT51" s="3"/>
     </row>
-    <row r="52" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -9814,33 +10079,33 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="3"/>
+      <c r="K52" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="L52" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3" t="s">
+      <c r="M52" s="3"/>
+      <c r="N52" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
-      <c r="R52" s="3" t="s">
+      <c r="R52" s="3"/>
+      <c r="S52" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="S52" s="3" t="s">
+      <c r="T52" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="T52" s="3" t="s">
+      <c r="U52" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="U52" s="3" t="s">
+      <c r="V52" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
@@ -9855,21 +10120,22 @@
       <c r="AH52" s="3"/>
       <c r="AI52" s="3"/>
       <c r="AJ52" s="3"/>
-      <c r="AK52" s="3" t="s">
+      <c r="AK52" s="3"/>
+      <c r="AL52" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="AL52" s="3" t="s">
+      <c r="AM52" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="AM52" s="3"/>
       <c r="AN52" s="3"/>
       <c r="AO52" s="3"/>
       <c r="AP52" s="3"/>
       <c r="AQ52" s="3"/>
       <c r="AR52" s="3"/>
       <c r="AS52" s="3"/>
+      <c r="AT52" s="3"/>
     </row>
-    <row r="53" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -9879,33 +10145,33 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="3"/>
+      <c r="K53" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="L53" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3" t="s">
+      <c r="M53" s="3"/>
+      <c r="N53" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="3" t="s">
+      <c r="R53" s="3"/>
+      <c r="S53" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="S53" s="3" t="s">
+      <c r="T53" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="T53" s="3" t="s">
+      <c r="U53" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="U53" s="3" t="s">
+      <c r="V53" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="V53" s="3"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
@@ -9920,10 +10186,10 @@
       <c r="AH53" s="3"/>
       <c r="AI53" s="3"/>
       <c r="AJ53" s="3"/>
-      <c r="AK53" s="3" t="s">
+      <c r="AK53" s="3"/>
+      <c r="AL53" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="AL53" s="3"/>
       <c r="AM53" s="3"/>
       <c r="AN53" s="3"/>
       <c r="AO53" s="3"/>
@@ -9931,8 +10197,9 @@
       <c r="AQ53" s="3"/>
       <c r="AR53" s="3"/>
       <c r="AS53" s="3"/>
+      <c r="AT53" s="3"/>
     </row>
-    <row r="54" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -9942,31 +10209,31 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="3"/>
+      <c r="K54" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-      <c r="M54" s="3" t="s">
+      <c r="M54" s="3"/>
+      <c r="N54" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
-      <c r="R54" s="3" t="s">
+      <c r="R54" s="3"/>
+      <c r="S54" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="S54" s="3" t="s">
+      <c r="T54" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="T54" s="3" t="s">
+      <c r="U54" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="U54" s="3" t="s">
+      <c r="V54" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
@@ -9990,8 +10257,9 @@
       <c r="AQ54" s="3"/>
       <c r="AR54" s="3"/>
       <c r="AS54" s="3"/>
+      <c r="AT54" s="3"/>
     </row>
-    <row r="55" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -10001,31 +10269,31 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="3" t="s">
+      <c r="J55" s="3"/>
+      <c r="K55" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-      <c r="M55" s="3" t="s">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-      <c r="R55" s="3" t="s">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="S55" s="3" t="s">
+      <c r="T55" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="T55" s="3" t="s">
+      <c r="U55" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="U55" s="3" t="s">
+      <c r="V55" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
@@ -10049,8 +10317,9 @@
       <c r="AQ55" s="3"/>
       <c r="AR55" s="3"/>
       <c r="AS55" s="3"/>
+      <c r="AT55" s="3"/>
     </row>
-    <row r="56" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -10060,29 +10329,29 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="3"/>
+      <c r="K56" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-      <c r="M56" s="3" t="s">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-      <c r="S56" s="3" t="s">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="T56" s="3" t="s">
+      <c r="U56" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="U56" s="3" t="s">
+      <c r="V56" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
@@ -10106,8 +10375,9 @@
       <c r="AQ56" s="3"/>
       <c r="AR56" s="3"/>
       <c r="AS56" s="3"/>
+      <c r="AT56" s="3"/>
     </row>
-    <row r="57" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -10117,10 +10387,10 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="3" t="s">
+      <c r="J57" s="3"/>
+      <c r="K57" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
@@ -10128,16 +10398,16 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
-      <c r="S57" s="3" t="s">
+      <c r="S57" s="3"/>
+      <c r="T57" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="T57" s="3" t="s">
+      <c r="U57" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="U57" s="3" t="s">
+      <c r="V57" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="V57" s="3"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
@@ -10161,8 +10431,9 @@
       <c r="AQ57" s="3"/>
       <c r="AR57" s="3"/>
       <c r="AS57" s="3"/>
+      <c r="AT57" s="3"/>
     </row>
-    <row r="58" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -10172,10 +10443,10 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="3"/>
+      <c r="K58" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
@@ -10183,14 +10454,14 @@
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
-      <c r="S58" s="3" t="s">
+      <c r="S58" s="3"/>
+      <c r="T58" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3" t="s">
+      <c r="U58" s="3"/>
+      <c r="V58" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="V58" s="3"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
@@ -10214,8 +10485,9 @@
       <c r="AQ58" s="3"/>
       <c r="AR58" s="3"/>
       <c r="AS58" s="3"/>
+      <c r="AT58" s="3"/>
     </row>
-    <row r="59" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -10225,10 +10497,10 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="3"/>
+      <c r="K59" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
@@ -10236,14 +10508,14 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
-      <c r="S59" s="3" t="s">
+      <c r="S59" s="3"/>
+      <c r="T59" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3" t="s">
+      <c r="U59" s="3"/>
+      <c r="V59" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="V59" s="3"/>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
@@ -10267,8 +10539,9 @@
       <c r="AQ59" s="3"/>
       <c r="AR59" s="3"/>
       <c r="AS59" s="3"/>
+      <c r="AT59" s="3"/>
     </row>
-    <row r="60" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -10278,10 +10551,10 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="3" t="s">
+      <c r="J60" s="3"/>
+      <c r="K60" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
@@ -10289,14 +10562,14 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
-      <c r="S60" s="3" t="s">
+      <c r="S60" s="3"/>
+      <c r="T60" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3" t="s">
+      <c r="U60" s="3"/>
+      <c r="V60" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="V60" s="3"/>
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
@@ -10320,8 +10593,9 @@
       <c r="AQ60" s="3"/>
       <c r="AR60" s="3"/>
       <c r="AS60" s="3"/>
+      <c r="AT60" s="3"/>
     </row>
-    <row r="61" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -10331,10 +10605,10 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="3" t="s">
+      <c r="J61" s="3"/>
+      <c r="K61" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
@@ -10342,14 +10616,14 @@
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
-      <c r="S61" s="3" t="s">
+      <c r="S61" s="3"/>
+      <c r="T61" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3" t="s">
+      <c r="U61" s="3"/>
+      <c r="V61" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="V61" s="3"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
@@ -10373,8 +10647,9 @@
       <c r="AQ61" s="3"/>
       <c r="AR61" s="3"/>
       <c r="AS61" s="3"/>
+      <c r="AT61" s="3"/>
     </row>
-    <row r="62" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -10384,10 +10659,10 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="3" t="s">
+      <c r="J62" s="3"/>
+      <c r="K62" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
@@ -10395,10 +10670,10 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
-      <c r="S62" s="3" t="s">
+      <c r="S62" s="3"/>
+      <c r="T62" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
@@ -10424,8 +10699,9 @@
       <c r="AQ62" s="3"/>
       <c r="AR62" s="3"/>
       <c r="AS62" s="3"/>
+      <c r="AT62" s="3"/>
     </row>
-    <row r="63" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -10435,10 +10711,10 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="3" t="s">
+      <c r="J63" s="3"/>
+      <c r="K63" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
@@ -10446,10 +10722,10 @@
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
-      <c r="S63" s="3" t="s">
+      <c r="S63" s="3"/>
+      <c r="T63" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="T63" s="3"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
@@ -10475,8 +10751,9 @@
       <c r="AQ63" s="3"/>
       <c r="AR63" s="3"/>
       <c r="AS63" s="3"/>
+      <c r="AT63" s="3"/>
     </row>
-    <row r="64" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -10486,10 +10763,10 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="3" t="s">
+      <c r="J64" s="3"/>
+      <c r="K64" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
@@ -10524,8 +10801,9 @@
       <c r="AQ64" s="3"/>
       <c r="AR64" s="3"/>
       <c r="AS64" s="3"/>
+      <c r="AT64" s="3"/>
     </row>
-    <row r="65" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -10571,8 +10849,9 @@
       <c r="AQ65" s="3"/>
       <c r="AR65" s="3"/>
       <c r="AS65" s="3"/>
+      <c r="AT65" s="3"/>
     </row>
-    <row r="66" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -10618,8 +10897,9 @@
       <c r="AQ66" s="3"/>
       <c r="AR66" s="3"/>
       <c r="AS66" s="3"/>
+      <c r="AT66" s="3"/>
     </row>
-    <row r="67" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -10665,8 +10945,9 @@
       <c r="AQ67" s="3"/>
       <c r="AR67" s="3"/>
       <c r="AS67" s="3"/>
+      <c r="AT67" s="3"/>
     </row>
-    <row r="68" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -10712,8 +10993,9 @@
       <c r="AQ68" s="3"/>
       <c r="AR68" s="3"/>
       <c r="AS68" s="3"/>
+      <c r="AT68" s="3"/>
     </row>
-    <row r="69" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -10759,8 +11041,9 @@
       <c r="AQ69" s="3"/>
       <c r="AR69" s="3"/>
       <c r="AS69" s="3"/>
+      <c r="AT69" s="3"/>
     </row>
-    <row r="70" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -10806,8 +11089,9 @@
       <c r="AQ70" s="3"/>
       <c r="AR70" s="3"/>
       <c r="AS70" s="3"/>
+      <c r="AT70" s="3"/>
     </row>
-    <row r="71" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -10853,8 +11137,9 @@
       <c r="AQ71" s="3"/>
       <c r="AR71" s="3"/>
       <c r="AS71" s="3"/>
+      <c r="AT71" s="3"/>
     </row>
-    <row r="72" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -10900,8 +11185,9 @@
       <c r="AQ72" s="3"/>
       <c r="AR72" s="3"/>
       <c r="AS72" s="3"/>
+      <c r="AT72" s="3"/>
     </row>
-    <row r="73" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -10947,8 +11233,9 @@
       <c r="AQ73" s="3"/>
       <c r="AR73" s="3"/>
       <c r="AS73" s="3"/>
+      <c r="AT73" s="3"/>
     </row>
-    <row r="74" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -10994,8 +11281,9 @@
       <c r="AQ74" s="3"/>
       <c r="AR74" s="3"/>
       <c r="AS74" s="3"/>
+      <c r="AT74" s="3"/>
     </row>
-    <row r="75" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -11041,8 +11329,9 @@
       <c r="AQ75" s="3"/>
       <c r="AR75" s="3"/>
       <c r="AS75" s="3"/>
+      <c r="AT75" s="3"/>
     </row>
-    <row r="76" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -11088,8 +11377,9 @@
       <c r="AQ76" s="3"/>
       <c r="AR76" s="3"/>
       <c r="AS76" s="3"/>
+      <c r="AT76" s="3"/>
     </row>
-    <row r="77" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -11135,8 +11425,9 @@
       <c r="AQ77" s="3"/>
       <c r="AR77" s="3"/>
       <c r="AS77" s="3"/>
+      <c r="AT77" s="3"/>
     </row>
-    <row r="78" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -11182,8 +11473,9 @@
       <c r="AQ78" s="3"/>
       <c r="AR78" s="3"/>
       <c r="AS78" s="3"/>
+      <c r="AT78" s="3"/>
     </row>
-    <row r="79" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -11229,8 +11521,9 @@
       <c r="AQ79" s="3"/>
       <c r="AR79" s="3"/>
       <c r="AS79" s="3"/>
+      <c r="AT79" s="3"/>
     </row>
-    <row r="80" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -11276,8 +11569,9 @@
       <c r="AQ80" s="3"/>
       <c r="AR80" s="3"/>
       <c r="AS80" s="3"/>
+      <c r="AT80" s="3"/>
     </row>
-    <row r="81" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -11323,8 +11617,9 @@
       <c r="AQ81" s="3"/>
       <c r="AR81" s="3"/>
       <c r="AS81" s="3"/>
+      <c r="AT81" s="3"/>
     </row>
-    <row r="82" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -11370,8 +11665,9 @@
       <c r="AQ82" s="3"/>
       <c r="AR82" s="3"/>
       <c r="AS82" s="3"/>
+      <c r="AT82" s="3"/>
     </row>
-    <row r="83" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -11417,8 +11713,9 @@
       <c r="AQ83" s="3"/>
       <c r="AR83" s="3"/>
       <c r="AS83" s="3"/>
+      <c r="AT83" s="3"/>
     </row>
-    <row r="84" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -11464,8 +11761,9 @@
       <c r="AQ84" s="3"/>
       <c r="AR84" s="3"/>
       <c r="AS84" s="3"/>
+      <c r="AT84" s="3"/>
     </row>
-    <row r="85" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -11511,8 +11809,9 @@
       <c r="AQ85" s="3"/>
       <c r="AR85" s="3"/>
       <c r="AS85" s="3"/>
+      <c r="AT85" s="3"/>
     </row>
-    <row r="86" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -11558,8 +11857,9 @@
       <c r="AQ86" s="3"/>
       <c r="AR86" s="3"/>
       <c r="AS86" s="3"/>
+      <c r="AT86" s="3"/>
     </row>
-    <row r="87" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -11605,8 +11905,9 @@
       <c r="AQ87" s="3"/>
       <c r="AR87" s="3"/>
       <c r="AS87" s="3"/>
+      <c r="AT87" s="3"/>
     </row>
-    <row r="88" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -11652,8 +11953,9 @@
       <c r="AQ88" s="3"/>
       <c r="AR88" s="3"/>
       <c r="AS88" s="3"/>
+      <c r="AT88" s="3"/>
     </row>
-    <row r="89" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -11699,8 +12001,9 @@
       <c r="AQ89" s="3"/>
       <c r="AR89" s="3"/>
       <c r="AS89" s="3"/>
+      <c r="AT89" s="3"/>
     </row>
-    <row r="90" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -11746,8 +12049,9 @@
       <c r="AQ90" s="3"/>
       <c r="AR90" s="3"/>
       <c r="AS90" s="3"/>
+      <c r="AT90" s="3"/>
     </row>
-    <row r="91" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -11793,8 +12097,9 @@
       <c r="AQ91" s="3"/>
       <c r="AR91" s="3"/>
       <c r="AS91" s="3"/>
+      <c r="AT91" s="3"/>
     </row>
-    <row r="92" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -11840,9 +12145,9 @@
       <c r="AQ92" s="3"/>
       <c r="AR92" s="3"/>
       <c r="AS92" s="3"/>
+      <c r="AT92" s="3"/>
     </row>
-    <row r="93" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W93" s="3"/>
+    <row r="93" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
@@ -11865,9 +12170,9 @@
       <c r="AQ93" s="3"/>
       <c r="AR93" s="3"/>
       <c r="AS93" s="3"/>
+      <c r="AT93" s="3"/>
     </row>
-    <row r="94" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W94" s="3"/>
+    <row r="94" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
@@ -11890,9 +12195,9 @@
       <c r="AQ94" s="3"/>
       <c r="AR94" s="3"/>
       <c r="AS94" s="3"/>
+      <c r="AT94" s="3"/>
     </row>
-    <row r="95" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W95" s="3"/>
+    <row r="95" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
@@ -11915,9 +12220,9 @@
       <c r="AQ95" s="3"/>
       <c r="AR95" s="3"/>
       <c r="AS95" s="3"/>
+      <c r="AT95" s="3"/>
     </row>
-    <row r="96" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W96" s="3"/>
+    <row r="96" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
@@ -11940,9 +12245,9 @@
       <c r="AQ96" s="3"/>
       <c r="AR96" s="3"/>
       <c r="AS96" s="3"/>
+      <c r="AT96" s="3"/>
     </row>
-    <row r="97" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W97" s="3"/>
+    <row r="97" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
@@ -11965,9 +12270,9 @@
       <c r="AQ97" s="3"/>
       <c r="AR97" s="3"/>
       <c r="AS97" s="3"/>
+      <c r="AT97" s="3"/>
     </row>
-    <row r="98" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W98" s="3"/>
+    <row r="98" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
@@ -11990,9 +12295,9 @@
       <c r="AQ98" s="3"/>
       <c r="AR98" s="3"/>
       <c r="AS98" s="3"/>
+      <c r="AT98" s="3"/>
     </row>
-    <row r="99" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W99" s="3"/>
+    <row r="99" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
@@ -12015,9 +12320,9 @@
       <c r="AQ99" s="3"/>
       <c r="AR99" s="3"/>
       <c r="AS99" s="3"/>
+      <c r="AT99" s="3"/>
     </row>
-    <row r="100" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W100" s="3"/>
+    <row r="100" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
@@ -12040,9 +12345,9 @@
       <c r="AQ100" s="3"/>
       <c r="AR100" s="3"/>
       <c r="AS100" s="3"/>
+      <c r="AT100" s="3"/>
     </row>
-    <row r="101" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W101" s="3"/>
+    <row r="101" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
@@ -12065,9 +12370,9 @@
       <c r="AQ101" s="3"/>
       <c r="AR101" s="3"/>
       <c r="AS101" s="3"/>
+      <c r="AT101" s="3"/>
     </row>
-    <row r="102" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W102" s="3"/>
+    <row r="102" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
@@ -12090,9 +12395,9 @@
       <c r="AQ102" s="3"/>
       <c r="AR102" s="3"/>
       <c r="AS102" s="3"/>
+      <c r="AT102" s="3"/>
     </row>
-    <row r="103" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W103" s="3"/>
+    <row r="103" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
@@ -12115,9 +12420,9 @@
       <c r="AQ103" s="3"/>
       <c r="AR103" s="3"/>
       <c r="AS103" s="3"/>
+      <c r="AT103" s="3"/>
     </row>
-    <row r="104" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W104" s="3"/>
+    <row r="104" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
@@ -12140,9 +12445,9 @@
       <c r="AQ104" s="3"/>
       <c r="AR104" s="3"/>
       <c r="AS104" s="3"/>
+      <c r="AT104" s="3"/>
     </row>
-    <row r="105" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W105" s="3"/>
+    <row r="105" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
@@ -12165,9 +12470,9 @@
       <c r="AQ105" s="3"/>
       <c r="AR105" s="3"/>
       <c r="AS105" s="3"/>
+      <c r="AT105" s="3"/>
     </row>
-    <row r="106" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W106" s="3"/>
+    <row r="106" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
@@ -12190,9 +12495,9 @@
       <c r="AQ106" s="3"/>
       <c r="AR106" s="3"/>
       <c r="AS106" s="3"/>
+      <c r="AT106" s="3"/>
     </row>
-    <row r="107" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W107" s="3"/>
+    <row r="107" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
@@ -12215,9 +12520,9 @@
       <c r="AQ107" s="3"/>
       <c r="AR107" s="3"/>
       <c r="AS107" s="3"/>
+      <c r="AT107" s="3"/>
     </row>
-    <row r="108" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W108" s="3"/>
+    <row r="108" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
@@ -12240,9 +12545,9 @@
       <c r="AQ108" s="3"/>
       <c r="AR108" s="3"/>
       <c r="AS108" s="3"/>
+      <c r="AT108" s="3"/>
     </row>
-    <row r="109" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W109" s="3"/>
+    <row r="109" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
@@ -12265,9 +12570,9 @@
       <c r="AQ109" s="3"/>
       <c r="AR109" s="3"/>
       <c r="AS109" s="3"/>
+      <c r="AT109" s="3"/>
     </row>
-    <row r="110" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W110" s="3"/>
+    <row r="110" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
@@ -12290,9 +12595,9 @@
       <c r="AQ110" s="3"/>
       <c r="AR110" s="3"/>
       <c r="AS110" s="3"/>
+      <c r="AT110" s="3"/>
     </row>
-    <row r="111" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W111" s="3"/>
+    <row r="111" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
@@ -12315,9 +12620,9 @@
       <c r="AQ111" s="3"/>
       <c r="AR111" s="3"/>
       <c r="AS111" s="3"/>
+      <c r="AT111" s="3"/>
     </row>
-    <row r="112" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W112" s="3"/>
+    <row r="112" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
@@ -12340,9 +12645,9 @@
       <c r="AQ112" s="3"/>
       <c r="AR112" s="3"/>
       <c r="AS112" s="3"/>
+      <c r="AT112" s="3"/>
     </row>
-    <row r="113" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W113" s="3"/>
+    <row r="113" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
@@ -12365,9 +12670,9 @@
       <c r="AQ113" s="3"/>
       <c r="AR113" s="3"/>
       <c r="AS113" s="3"/>
+      <c r="AT113" s="3"/>
     </row>
-    <row r="114" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W114" s="3"/>
+    <row r="114" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
@@ -12390,9 +12695,9 @@
       <c r="AQ114" s="3"/>
       <c r="AR114" s="3"/>
       <c r="AS114" s="3"/>
+      <c r="AT114" s="3"/>
     </row>
-    <row r="115" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W115" s="3"/>
+    <row r="115" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
@@ -12415,9 +12720,9 @@
       <c r="AQ115" s="3"/>
       <c r="AR115" s="3"/>
       <c r="AS115" s="3"/>
+      <c r="AT115" s="3"/>
     </row>
-    <row r="116" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W116" s="3"/>
+    <row r="116" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
@@ -12440,9 +12745,9 @@
       <c r="AQ116" s="3"/>
       <c r="AR116" s="3"/>
       <c r="AS116" s="3"/>
+      <c r="AT116" s="3"/>
     </row>
-    <row r="117" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W117" s="3"/>
+    <row r="117" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
@@ -12465,9 +12770,9 @@
       <c r="AQ117" s="3"/>
       <c r="AR117" s="3"/>
       <c r="AS117" s="3"/>
+      <c r="AT117" s="3"/>
     </row>
-    <row r="118" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W118" s="3"/>
+    <row r="118" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
@@ -12490,9 +12795,9 @@
       <c r="AQ118" s="3"/>
       <c r="AR118" s="3"/>
       <c r="AS118" s="3"/>
+      <c r="AT118" s="3"/>
     </row>
-    <row r="119" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W119" s="3"/>
+    <row r="119" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
@@ -12515,9 +12820,9 @@
       <c r="AQ119" s="3"/>
       <c r="AR119" s="3"/>
       <c r="AS119" s="3"/>
+      <c r="AT119" s="3"/>
     </row>
-    <row r="120" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W120" s="3"/>
+    <row r="120" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
@@ -12540,9 +12845,9 @@
       <c r="AQ120" s="3"/>
       <c r="AR120" s="3"/>
       <c r="AS120" s="3"/>
+      <c r="AT120" s="3"/>
     </row>
-    <row r="121" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W121" s="3"/>
+    <row r="121" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
@@ -12565,9 +12870,9 @@
       <c r="AQ121" s="3"/>
       <c r="AR121" s="3"/>
       <c r="AS121" s="3"/>
+      <c r="AT121" s="3"/>
     </row>
-    <row r="122" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W122" s="3"/>
+    <row r="122" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
@@ -12590,9 +12895,9 @@
       <c r="AQ122" s="3"/>
       <c r="AR122" s="3"/>
       <c r="AS122" s="3"/>
+      <c r="AT122" s="3"/>
     </row>
-    <row r="123" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W123" s="3"/>
+    <row r="123" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
@@ -12615,9 +12920,9 @@
       <c r="AQ123" s="3"/>
       <c r="AR123" s="3"/>
       <c r="AS123" s="3"/>
+      <c r="AT123" s="3"/>
     </row>
-    <row r="124" spans="23:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="W124" s="3"/>
+    <row r="124" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
@@ -12640,17 +12945,18 @@
       <c r="AQ124" s="3"/>
       <c r="AR124" s="3"/>
       <c r="AS124" s="3"/>
+      <c r="AT124" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U45" r:id="rId1" display="http://galaxe.solutions/" xr:uid="{FC3574BC-D6EF-4519-A7F6-F3806DB46557}"/>
-    <hyperlink ref="R38" r:id="rId2" display="http://critically.io/" xr:uid="{58C6B818-5DAB-4298-BE6A-8DFB8F2FA3E6}"/>
-    <hyperlink ref="AP4" r:id="rId3" display="http://pendo.io/" xr:uid="{D0FB6BCD-C593-4A26-8FE6-FE61791CE669}"/>
-    <hyperlink ref="AN2" r:id="rId4" display="http://underdog.io/" xr:uid="{543C7C11-8D77-4769-955F-05FB4DC5FBB2}"/>
-    <hyperlink ref="AL49" r:id="rId5" display="http://ampcontrol.io/" xr:uid="{D63E3F1B-0340-4575-B7D7-BEF67233F5CD}"/>
-    <hyperlink ref="AI2" r:id="rId6" display="http://soffos.al/" xr:uid="{33336681-5570-4B6F-B154-1FDC1CE41B62}"/>
-    <hyperlink ref="AI19" r:id="rId7" display="http://miningstore.com/" xr:uid="{8AC48435-3FDD-44BD-BC8F-5FF8929E3F09}"/>
-    <hyperlink ref="AG5" r:id="rId8" display="http://ftsi.tech/" xr:uid="{2C18A7FB-BA19-4A58-BB3E-04631CB18EF4}"/>
+    <hyperlink ref="V45" r:id="rId1" display="http://galaxe.solutions/" xr:uid="{FC3574BC-D6EF-4519-A7F6-F3806DB46557}"/>
+    <hyperlink ref="S38" r:id="rId2" display="http://critically.io/" xr:uid="{58C6B818-5DAB-4298-BE6A-8DFB8F2FA3E6}"/>
+    <hyperlink ref="AQ4" r:id="rId3" display="http://pendo.io/" xr:uid="{D0FB6BCD-C593-4A26-8FE6-FE61791CE669}"/>
+    <hyperlink ref="AO2" r:id="rId4" display="http://underdog.io/" xr:uid="{543C7C11-8D77-4769-955F-05FB4DC5FBB2}"/>
+    <hyperlink ref="AM49" r:id="rId5" display="http://ampcontrol.io/" xr:uid="{D63E3F1B-0340-4575-B7D7-BEF67233F5CD}"/>
+    <hyperlink ref="AJ2" r:id="rId6" display="http://soffos.al/" xr:uid="{33336681-5570-4B6F-B154-1FDC1CE41B62}"/>
+    <hyperlink ref="AJ19" r:id="rId7" display="http://miningstore.com/" xr:uid="{8AC48435-3FDD-44BD-BC8F-5FF8929E3F09}"/>
+    <hyperlink ref="AH5" r:id="rId8" display="http://ftsi.tech/" xr:uid="{2C18A7FB-BA19-4A58-BB3E-04631CB18EF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/applications.xlsx
+++ b/applications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57419\Documents\applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26072B9-F225-43CC-9226-4374D9A1582C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEC8AB9-AABD-4CB1-8966-7026DE525E80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47715" yWindow="705" windowWidth="5685" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47235" yWindow="435" windowWidth="10425" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="1371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="1402">
   <si>
     <t>Total</t>
   </si>
@@ -4147,6 +4147,99 @@
   </si>
   <si>
     <t>50. Infor</t>
+  </si>
+  <si>
+    <t>4. ExpertHiring</t>
+  </si>
+  <si>
+    <t>5. Infinity Consulting Solutions</t>
+  </si>
+  <si>
+    <t>8. Pinnacle Group, Inc.</t>
+  </si>
+  <si>
+    <t>10. Twik</t>
+  </si>
+  <si>
+    <t>11. MSW Consultants</t>
+  </si>
+  <si>
+    <t>14. Allscripts</t>
+  </si>
+  <si>
+    <t>16. Reveille Technologies, Inc</t>
+  </si>
+  <si>
+    <t>17. TinyBit</t>
+  </si>
+  <si>
+    <t>18. Apex Systems</t>
+  </si>
+  <si>
+    <t>19. Social Cup</t>
+  </si>
+  <si>
+    <t>20. Rytfit</t>
+  </si>
+  <si>
+    <t>21. DotTrend, Inc.</t>
+  </si>
+  <si>
+    <t>22. TEKsystems</t>
+  </si>
+  <si>
+    <t>23. Speak_</t>
+  </si>
+  <si>
+    <t>24. Foldscope Instruments, Inc.</t>
+  </si>
+  <si>
+    <t>25. Common Paper</t>
+  </si>
+  <si>
+    <t>29. Lula</t>
+  </si>
+  <si>
+    <t>30. Forward Progress Staffing</t>
+  </si>
+  <si>
+    <t>32. CyberCoders</t>
+  </si>
+  <si>
+    <t>34. Kilby Solutions</t>
+  </si>
+  <si>
+    <t>35. CyberCoders</t>
+  </si>
+  <si>
+    <t>36. Data Capital Inc</t>
+  </si>
+  <si>
+    <t>38. CyberCoders</t>
+  </si>
+  <si>
+    <t>41. Stiorg Inc</t>
+  </si>
+  <si>
+    <t>42. Artech L.L.C.</t>
+  </si>
+  <si>
+    <t>44. CyberCoders</t>
+  </si>
+  <si>
+    <t>45. Vaco</t>
+  </si>
+  <si>
+    <t>46. Info Way Solutions</t>
+  </si>
+  <si>
+    <t>47. KohliSys</t>
+  </si>
+  <si>
+    <t>49. Amiga Informatics</t>
+  </si>
+  <si>
+    <t>50. TWEN.org</t>
   </si>
 </sst>
 </file>
@@ -4504,395 +4597,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT124"/>
+  <dimension ref="A1:AU124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="41" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="41" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>44557</v>
+      </c>
+      <c r="C1" s="1">
         <v>44552</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>44551</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>44550</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>44547</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>44546</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>44545</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>44544</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>44543</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>44540</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>44539</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>44538</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>44537</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>44536</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>44533</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>44532</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>44531</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>44530</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>44529</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>44524</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>44523</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>44522</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="1">
         <v>44518</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="1">
         <v>44517</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="1">
         <v>44516</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="1">
         <v>44515</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>44512</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="1">
         <v>44511</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="1">
         <v>44510</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>44509</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AF1" s="1">
         <v>44508</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AG1" s="1">
         <v>44505</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AH1" s="1">
         <v>44504</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AI1" s="1">
         <v>44503</v>
       </c>
-      <c r="AI1" s="5">
+      <c r="AJ1" s="5">
         <v>44502</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AK1" s="1">
         <v>44501</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AL1" s="1">
         <v>44498</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AM1" s="1">
         <v>44497</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AN1" s="1">
         <v>44496</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AO1" s="1">
         <v>44495</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AP1" s="1">
         <v>44494</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AQ1" s="1">
         <v>44489</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AR1" s="1">
         <v>44487</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AS1" s="1">
         <v>44486</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AT1" s="1">
         <v>44421</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AU1" s="1">
         <v>44419</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <f xml:space="preserve"> COUNTA(C2:AAJ100)</f>
-        <v>1488</v>
+        <f xml:space="preserve"> COUNTA(B2:AAK100)</f>
+        <v>1588</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1334</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>1253</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>13</v>
@@ -4904,3169 +5004,3252 @@
         <v>13</v>
       </c>
       <c r="V3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>616</v>
       </c>
       <c r="AB3" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3" t="s">
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="AT3" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="AU3" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>1336</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>1177</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="AI4" s="6" t="s">
+      <c r="AJ4" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="4" t="s">
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3" t="s">
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AG5" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AH5" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AI5" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="AI5" s="6" t="s">
+      <c r="AJ5" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AK5" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AL5" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AM5" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AN5" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="AN5" s="3" t="s">
+      <c r="AO5" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="AO5" s="3" t="s">
+      <c r="AP5" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3" t="s">
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3" t="s">
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AU5" s="3" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>1338</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>1299</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>1179</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3" t="s">
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Z6" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="AA6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AB6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC6" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AD6" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AE6" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AF6" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="AG6" s="3" t="s">
+      <c r="AH6" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="AH6" s="3" t="s">
+      <c r="AI6" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="AI6" s="6" t="s">
+      <c r="AJ6" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="AJ6" s="3" t="s">
+      <c r="AK6" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="AK6" s="3" t="s">
+      <c r="AL6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AL6" s="3" t="s">
+      <c r="AM6" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="AM6" s="3" t="s">
+      <c r="AN6" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="AN6" s="3" t="s">
+      <c r="AO6" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="AO6" s="3" t="s">
+      <c r="AP6" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
-      <c r="AS6" s="3" t="s">
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="AT6" s="3" t="s">
+      <c r="AU6" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>1300</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AD7" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AF7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AG7" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AH7" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AI7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="AI7" s="6" t="s">
+      <c r="AJ7" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="AJ7" s="3" t="s">
+      <c r="AK7" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="AK7" s="3" t="s">
+      <c r="AL7" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="AL7" s="3" t="s">
+      <c r="AM7" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="AM7" s="3" t="s">
+      <c r="AN7" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="AN7" s="3" t="s">
+      <c r="AO7" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="AO7" s="3" t="s">
+      <c r="AP7" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
-      <c r="AS7" s="3" t="s">
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="AT7" s="3" t="s">
+      <c r="AU7" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>1257</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3" t="s">
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="AA8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AF8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AG8" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="AG8" s="3" t="s">
+      <c r="AH8" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="AH8" s="3" t="s">
+      <c r="AI8" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="AI8" s="6" t="s">
+      <c r="AJ8" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="AJ8" s="3" t="s">
+      <c r="AK8" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="AK8" s="3" t="s">
+      <c r="AL8" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="AL8" s="3" t="s">
+      <c r="AM8" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="AM8" s="3" t="s">
+      <c r="AN8" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="AN8" s="3" t="s">
+      <c r="AO8" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="AO8" s="3" t="s">
+      <c r="AP8" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
-      <c r="AS8" s="3" t="s">
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
     </row>
-    <row r="9" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>1340</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>1301</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3" t="s">
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="Z9" s="3" t="s">
         <v>73</v>
       </c>
       <c r="AA9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB9" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AD9" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="AE9" s="3" t="s">
+      <c r="AF9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AF9" s="3" t="s">
+      <c r="AG9" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3" t="s">
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="AI9" s="6" t="s">
+      <c r="AJ9" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="AJ9" s="3" t="s">
+      <c r="AK9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AK9" s="3" t="s">
+      <c r="AL9" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="AL9" s="3" t="s">
+      <c r="AM9" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="AM9" s="3" t="s">
+      <c r="AN9" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="AN9" s="3" t="s">
+      <c r="AO9" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="AO9" s="3" t="s">
+      <c r="AP9" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
-      <c r="AS9" s="3" t="s">
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
     </row>
-    <row r="10" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>1341</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>1302</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>1007</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>78</v>
       </c>
       <c r="M10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3" t="s">
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="Z10" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="AA10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3" t="s">
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AD10" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AE10" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AF10" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="AF10" s="3" t="s">
+      <c r="AG10" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3" t="s">
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="AI10" s="6" t="s">
+      <c r="AJ10" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="AJ10" s="3" t="s">
+      <c r="AK10" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="AK10" s="3" t="s">
+      <c r="AL10" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="AL10" s="3" t="s">
+      <c r="AM10" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="AM10" s="3" t="s">
+      <c r="AN10" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="AN10" s="3" t="s">
+      <c r="AO10" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="AO10" s="3" t="s">
+      <c r="AP10" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
-      <c r="AS10" s="3" t="s">
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
     </row>
-    <row r="11" spans="1:46" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>1342</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>1303</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>1260</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="U11" s="3" t="s">
         <v>95</v>
       </c>
       <c r="V11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="W11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3" t="s">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="Y11" s="3" t="s">
+      <c r="Z11" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="Z11" s="3" t="s">
+      <c r="AA11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3" t="s">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AD11" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AE11" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="AE11" s="3" t="s">
+      <c r="AF11" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
-      <c r="AH11" s="3" t="s">
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="AI11" s="6" t="s">
+      <c r="AJ11" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="AJ11" s="3" t="s">
+      <c r="AK11" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="AK11" s="3" t="s">
+      <c r="AL11" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="AL11" s="3" t="s">
+      <c r="AM11" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="AM11" s="3" t="s">
+      <c r="AN11" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="AN11" s="3" t="s">
+      <c r="AO11" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="AO11" s="3" t="s">
+      <c r="AP11" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="AP11" s="3"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
-      <c r="AS11" s="3" t="s">
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
     </row>
-    <row r="12" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>1343</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>1304</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3" t="s">
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="Y12" s="3" t="s">
+      <c r="Z12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Z12" s="3" t="s">
+      <c r="AA12" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3" t="s">
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="AC12" s="3" t="s">
+      <c r="AD12" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="AD12" s="3" t="s">
+      <c r="AE12" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="AE12" s="3" t="s">
+      <c r="AF12" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
-      <c r="AH12" s="3" t="s">
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="AI12" s="6" t="s">
+      <c r="AJ12" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="AJ12" s="3" t="s">
+      <c r="AK12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AK12" s="3" t="s">
+      <c r="AL12" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="AL12" s="3" t="s">
+      <c r="AM12" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="AM12" s="3" t="s">
+      <c r="AN12" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="AN12" s="3" t="s">
+      <c r="AO12" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="AO12" s="3" t="s">
+      <c r="AP12" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="AP12" s="3"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
-      <c r="AS12" s="3" t="s">
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
     </row>
-    <row r="13" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>1344</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>1305</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>1262</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>109</v>
       </c>
       <c r="U13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3" t="s">
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="Y13" s="3" t="s">
+      <c r="Z13" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="Z13" s="3" t="s">
+      <c r="AA13" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3" t="s">
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="AC13" s="3" t="s">
+      <c r="AD13" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="AD13" s="3" t="s">
+      <c r="AE13" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="AE13" s="3" t="s">
+      <c r="AF13" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
-      <c r="AH13" s="3" t="s">
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="AI13" s="6" t="s">
+      <c r="AJ13" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="AJ13" s="3" t="s">
+      <c r="AK13" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="AK13" s="3" t="s">
+      <c r="AL13" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="AL13" s="3" t="s">
+      <c r="AM13" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="AM13" s="3" t="s">
+      <c r="AN13" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="AN13" s="3" t="s">
+      <c r="AO13" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="AO13" s="3" t="s">
+      <c r="AP13" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="AP13" s="3"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
-      <c r="AS13" s="3" t="s">
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
     </row>
-    <row r="14" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>1345</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>1306</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3" t="s">
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AF14" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
-      <c r="AH14" s="3" t="s">
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="AI14" s="6" t="s">
+      <c r="AJ14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AJ14" s="3" t="s">
+      <c r="AK14" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="AK14" s="3" t="s">
+      <c r="AL14" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="AL14" s="3" t="s">
+      <c r="AM14" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="AM14" s="3" t="s">
+      <c r="AN14" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="AN14" s="3" t="s">
+      <c r="AO14" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="AO14" s="3" t="s">
+      <c r="AP14" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="AP14" s="3"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
-      <c r="AS14" s="3" t="s">
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
     </row>
-    <row r="15" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>1307</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>1264</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>1011</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>129</v>
       </c>
       <c r="M15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>132</v>
       </c>
       <c r="R15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="S15" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3" t="s">
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="AA15" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3" t="s">
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="AC15" s="3" t="s">
+      <c r="AD15" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="AD15" s="3" t="s">
+      <c r="AE15" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="AE15" s="3" t="s">
+      <c r="AF15" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
-      <c r="AH15" s="3" t="s">
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3" t="s">
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="AK15" s="3" t="s">
+      <c r="AL15" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="AL15" s="3" t="s">
+      <c r="AM15" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="AM15" s="3" t="s">
+      <c r="AN15" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="AN15" s="3" t="s">
+      <c r="AO15" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="AO15" s="3" t="s">
+      <c r="AP15" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="AP15" s="3"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
-      <c r="AS15" s="3" t="s">
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
     </row>
-    <row r="16" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>1308</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>1188</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3" t="s">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="Y16" s="3" t="s">
+      <c r="Z16" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="Z16" s="3" t="s">
+      <c r="AA16" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3" t="s">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="AC16" s="3" t="s">
+      <c r="AD16" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="AD16" s="3" t="s">
+      <c r="AE16" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="AE16" s="3" t="s">
+      <c r="AF16" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
-      <c r="AJ16" s="3" t="s">
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AK16" s="3" t="s">
+      <c r="AL16" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="AL16" s="3" t="s">
+      <c r="AM16" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="AM16" s="3" t="s">
+      <c r="AN16" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="AN16" s="3" t="s">
+      <c r="AO16" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="AO16" s="3" t="s">
+      <c r="AP16" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="AP16" s="3"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
-      <c r="AS16" s="3" t="s">
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
     </row>
-    <row r="17" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>149</v>
+        <v>1377</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3" t="s">
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="Y17" s="3" t="s">
+      <c r="Z17" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="Z17" s="3" t="s">
+      <c r="AA17" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3" t="s">
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="AC17" s="3" t="s">
+      <c r="AD17" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="AD17" s="3" t="s">
+      <c r="AE17" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="AE17" s="3" t="s">
+      <c r="AF17" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
-      <c r="AJ17" s="3" t="s">
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="AK17" s="3" t="s">
+      <c r="AL17" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="AL17" s="3" t="s">
+      <c r="AM17" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="AM17" s="3" t="s">
+      <c r="AN17" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="AN17" s="3" t="s">
+      <c r="AO17" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="AO17" s="3" t="s">
+      <c r="AP17" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="AP17" s="3"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
-      <c r="AS17" s="3" t="s">
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
     </row>
-    <row r="18" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>170</v>
+        <v>1378</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>170</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="W18" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3" t="s">
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="Y18" s="3" t="s">
+      <c r="Z18" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="Z18" s="3" t="s">
+      <c r="AA18" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3" t="s">
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="AC18" s="3" t="s">
+      <c r="AD18" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="AD18" s="3" t="s">
+      <c r="AE18" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="AE18" s="3" t="s">
+      <c r="AF18" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
-      <c r="AJ18" s="3" t="s">
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="AK18" s="3" t="s">
+      <c r="AL18" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="AL18" s="3" t="s">
+      <c r="AM18" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="AM18" s="3" t="s">
+      <c r="AN18" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="AN18" s="3" t="s">
+      <c r="AO18" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="AO18" s="3" t="s">
+      <c r="AP18" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="AP18" s="3"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
-      <c r="AS18" s="3" t="s">
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
     </row>
-    <row r="19" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>1379</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3" t="s">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="Y19" s="3" t="s">
+      <c r="Z19" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="Z19" s="3" t="s">
+      <c r="AA19" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3" t="s">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="AC19" s="3" t="s">
+      <c r="AD19" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="AD19" s="3" t="s">
+      <c r="AE19" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="AE19" s="3" t="s">
+      <c r="AF19" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
-      <c r="AJ19" s="4" t="s">
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3" t="s">
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="AM19" s="3" t="s">
+      <c r="AN19" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="AN19" s="3" t="s">
+      <c r="AO19" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="AO19" s="3"/>
       <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
-      <c r="AS19" s="3" t="s">
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
     </row>
-    <row r="20" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>1346</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>1100</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>183</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="W20" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3" t="s">
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="Z20" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="Z20" s="3" t="s">
+      <c r="AA20" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3" t="s">
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="AC20" s="3" t="s">
+      <c r="AD20" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="AD20" s="3" t="s">
+      <c r="AE20" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="AE20" s="3" t="s">
+      <c r="AF20" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
-      <c r="AJ20" s="3" t="s">
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3" t="s">
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="AM20" s="3" t="s">
+      <c r="AN20" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="AN20" s="3" t="s">
+      <c r="AO20" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="AO20" s="3"/>
       <c r="AP20" s="3"/>
       <c r="AQ20" s="3"/>
       <c r="AR20" s="3"/>
-      <c r="AS20" s="3" t="s">
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
     </row>
-    <row r="21" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>203</v>
+        <v>1381</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>203</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>1146</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3" t="s">
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="Y21" s="3" t="s">
+      <c r="Z21" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="AA21" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3" t="s">
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="AC21" s="3" t="s">
+      <c r="AD21" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="AD21" s="3" t="s">
+      <c r="AE21" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
-      <c r="AJ21" s="3" t="s">
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3" t="s">
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="AM21" s="3" t="s">
+      <c r="AN21" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="AN21" s="3" t="s">
+      <c r="AO21" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="AO21" s="3"/>
       <c r="AP21" s="3"/>
       <c r="AQ21" s="3"/>
       <c r="AR21" s="3"/>
-      <c r="AS21" s="3" t="s">
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
     </row>
-    <row r="22" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>1347</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3" t="s">
+      <c r="W22" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3" t="s">
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3" t="s">
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="AC22" s="3" t="s">
+      <c r="AD22" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="AD22" s="3" t="s">
+      <c r="AE22" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
-      <c r="AJ22" s="3" t="s">
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3" t="s">
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="AM22" s="3" t="s">
+      <c r="AN22" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="AN22" s="3" t="s">
+      <c r="AO22" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="AO22" s="3"/>
       <c r="AP22" s="3"/>
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
       <c r="AS22" s="3"/>
       <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
     </row>
-    <row r="23" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>1348</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="R23" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="U23" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="V23" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="W23" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
-      <c r="AB23" s="3" t="s">
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="AC23" s="3" t="s">
+      <c r="AD23" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="AD23" s="3" t="s">
+      <c r="AE23" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
-      <c r="AJ23" s="3" t="s">
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3" t="s">
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="AM23" s="3" t="s">
+      <c r="AN23" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="AN23" s="3" t="s">
+      <c r="AO23" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
     </row>
-    <row r="24" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>1349</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="W24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
-      <c r="AB24" s="3" t="s">
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="AC24" s="3" t="s">
+      <c r="AD24" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="AD24" s="3" t="s">
+      <c r="AE24" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
-      <c r="AJ24" s="3" t="s">
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3" t="s">
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="AM24" s="3" t="s">
+      <c r="AN24" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="AN24" s="3" t="s">
+      <c r="AO24" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
       <c r="AQ24" s="3"/>
       <c r="AR24" s="3"/>
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
     </row>
-    <row r="25" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>246</v>
+        <v>1385</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>246</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>1274</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="R25" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="T25" s="3" t="s">
         <v>246</v>
       </c>
       <c r="U25" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="V25" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="V25" s="3" t="s">
+      <c r="W25" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
-      <c r="AB25" s="3" t="s">
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="AC25" s="3" t="s">
+      <c r="AD25" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
-      <c r="AJ25" s="3" t="s">
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3" t="s">
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="AM25" s="3" t="s">
+      <c r="AN25" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="AN25" s="3" t="s">
+      <c r="AO25" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="AO25" s="3"/>
       <c r="AP25" s="3"/>
       <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
     </row>
-    <row r="26" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>251</v>
+        <v>1386</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="O26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="R26" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="U26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="V26" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="W26" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
-      <c r="AB26" s="3" t="s">
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="AC26" s="3" t="s">
+      <c r="AD26" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
-      <c r="AJ26" s="3" t="s">
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3" t="s">
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="AM26" s="3" t="s">
+      <c r="AN26" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="AN26" s="3" t="s">
+      <c r="AO26" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="AO26" s="3"/>
       <c r="AP26" s="3"/>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
     </row>
-    <row r="27" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>1195</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>1152</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>259</v>
       </c>
       <c r="J27" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="R27" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="U27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="V27" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="V27" s="3" t="s">
+      <c r="W27" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
-      <c r="AB27" s="3" t="s">
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="AC27" s="3" t="s">
+      <c r="AD27" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
-      <c r="AJ27" s="3" t="s">
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3" t="s">
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="AM27" s="3" t="s">
+      <c r="AN27" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="AN27" s="3" t="s">
+      <c r="AO27" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="AO27" s="3"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
     </row>
-    <row r="28" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>278</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="R28" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="U28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="V28" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="W28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
-      <c r="AB28" s="3" t="s">
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="AC28" s="3" t="s">
+      <c r="AD28" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
-      <c r="AJ28" s="3" t="s">
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3" t="s">
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="AM28" s="3" t="s">
+      <c r="AN28" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="AN28" s="3" t="s">
+      <c r="AO28" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
       <c r="AQ28" s="3"/>
       <c r="AR28" s="3"/>
       <c r="AS28" s="3"/>
       <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
     </row>
-    <row r="29" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>1022</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
-      <c r="AB29" s="3" t="s">
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
-      <c r="AJ29" s="3" t="s">
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3" t="s">
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="AM29" s="3" t="s">
+      <c r="AN29" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
       <c r="AR29" s="3"/>
       <c r="AS29" s="3"/>
       <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
     </row>
-    <row r="30" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>1350</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>1312</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="R30" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="S30" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="U30" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="U30" s="3" t="s">
+      <c r="V30" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="V30" s="3" t="s">
+      <c r="W30" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
@@ -8079,90 +8262,93 @@
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
-      <c r="AJ30" s="3" t="s">
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="AK30" s="3"/>
-      <c r="AL30" s="3" t="s">
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="AM30" s="3" t="s">
+      <c r="AN30" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
       <c r="AQ30" s="3"/>
       <c r="AR30" s="3"/>
       <c r="AS30" s="3"/>
       <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
     </row>
-    <row r="31" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>1351</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>1313</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>1278</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>1198</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>1198</v>
       </c>
       <c r="G31" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="R31" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="T31" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="U31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="U31" s="3" t="s">
+      <c r="V31" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="V31" s="3" t="s">
+      <c r="W31" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
@@ -8175,90 +8361,93 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
-      <c r="AJ31" s="3" t="s">
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="AK31" s="3"/>
-      <c r="AL31" s="3" t="s">
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="AM31" s="3" t="s">
+      <c r="AN31" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
       <c r="AQ31" s="3"/>
       <c r="AR31" s="3"/>
       <c r="AS31" s="3"/>
       <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
     </row>
-    <row r="32" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>1352</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>1314</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="R32" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="S32" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="T32" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="U32" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="U32" s="3" t="s">
+      <c r="V32" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="V32" s="3" t="s">
+      <c r="W32" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
@@ -8271,90 +8460,93 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
-      <c r="AJ32" s="3" t="s">
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="AK32" s="3"/>
-      <c r="AL32" s="3" t="s">
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="AM32" s="3" t="s">
+      <c r="AN32" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
       <c r="AQ32" s="3"/>
       <c r="AR32" s="3"/>
       <c r="AS32" s="3"/>
       <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
     </row>
-    <row r="33" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>1353</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="U33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="U33" s="3" t="s">
+      <c r="V33" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="V33" s="3" t="s">
+      <c r="W33" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
@@ -8367,90 +8559,93 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
-      <c r="AJ33" s="3" t="s">
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3" t="s">
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="AM33" s="3" t="s">
+      <c r="AN33" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
       <c r="AR33" s="3"/>
       <c r="AS33" s="3"/>
       <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
     </row>
-    <row r="34" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>1354</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="P34" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="Q34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="R34" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="S34" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="T34" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="U34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="U34" s="3" t="s">
+      <c r="V34" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="V34" s="3" t="s">
+      <c r="W34" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
@@ -8463,90 +8658,93 @@
       <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
-      <c r="AJ34" s="3" t="s">
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3" t="s">
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="AM34" s="3" t="s">
+      <c r="AN34" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
       <c r="AP34" s="3"/>
       <c r="AQ34" s="3"/>
       <c r="AR34" s="3"/>
       <c r="AS34" s="3"/>
       <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
     </row>
-    <row r="35" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>1355</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>1317</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>1282</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>1236</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="R35" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="S35" s="3" t="s">
+      <c r="T35" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="T35" s="3" t="s">
+      <c r="U35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="U35" s="3" t="s">
+      <c r="V35" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="V35" s="3" t="s">
+      <c r="W35" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
@@ -8559,90 +8757,93 @@
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
-      <c r="AJ35" s="3" t="s">
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="3" t="s">
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="AM35" s="3" t="s">
+      <c r="AN35" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
       <c r="AP35" s="3"/>
       <c r="AQ35" s="3"/>
       <c r="AR35" s="3"/>
       <c r="AS35" s="3"/>
       <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
     </row>
-    <row r="36" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>1356</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>1283</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="R36" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="S36" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="S36" s="3" t="s">
+      <c r="T36" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="T36" s="3" t="s">
+      <c r="U36" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="U36" s="3" t="s">
+      <c r="V36" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="V36" s="3" t="s">
+      <c r="W36" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
@@ -8657,86 +8858,89 @@
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
-      <c r="AL36" s="3" t="s">
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="AM36" s="3" t="s">
+      <c r="AN36" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
       <c r="AP36" s="3"/>
       <c r="AQ36" s="3"/>
       <c r="AR36" s="3"/>
       <c r="AS36" s="3"/>
       <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
     </row>
-    <row r="37" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>1357</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>1284</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="P37" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="R37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="S37" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="S37" s="3" t="s">
+      <c r="T37" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="U37" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="U37" s="3" t="s">
+      <c r="V37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="V37" s="3" t="s">
+      <c r="W37" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
@@ -8751,86 +8955,89 @@
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
-      <c r="AL37" s="3" t="s">
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="AM37" s="3" t="s">
+      <c r="AN37" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
       <c r="AP37" s="3"/>
       <c r="AQ37" s="3"/>
       <c r="AR37" s="3"/>
       <c r="AS37" s="3"/>
       <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
     </row>
-    <row r="38" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>1358</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>1285</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="O38" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="P38" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="Q38" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="Q38" s="3" t="s">
+      <c r="R38" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="R38" s="3" t="s">
+      <c r="S38" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="S38" s="4" t="s">
+      <c r="T38" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="T38" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="U38" s="3" t="s">
         <v>391</v>
       </c>
       <c r="V38" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="W38" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
@@ -8845,86 +9052,89 @@
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
-      <c r="AL38" s="3" t="s">
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="AM38" s="3" t="s">
+      <c r="AN38" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
       <c r="AQ38" s="3"/>
       <c r="AR38" s="3"/>
       <c r="AS38" s="3"/>
       <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
     </row>
-    <row r="39" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>1359</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>1321</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>1286</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="R39" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="S39" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="S39" s="3" t="s">
+      <c r="T39" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="U39" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="U39" s="3" t="s">
+      <c r="V39" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="V39" s="3" t="s">
+      <c r="W39" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
@@ -8939,86 +9149,89 @@
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
-      <c r="AL39" s="3" t="s">
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="AM39" s="3" t="s">
+      <c r="AN39" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
       <c r="AP39" s="3"/>
       <c r="AQ39" s="3"/>
       <c r="AR39" s="3"/>
       <c r="AS39" s="3"/>
       <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
     </row>
-    <row r="40" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>1360</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>1322</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>1287</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>1165</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="O40" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="P40" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="R40" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="S40" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="S40" s="3" t="s">
+      <c r="T40" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="T40" s="3" t="s">
+      <c r="U40" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="U40" s="3" t="s">
+      <c r="V40" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="V40" s="3" t="s">
+      <c r="W40" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
@@ -9033,86 +9246,89 @@
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
-      <c r="AL40" s="3" t="s">
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="AM40" s="3" t="s">
+      <c r="AN40" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
       <c r="AP40" s="3"/>
       <c r="AQ40" s="3"/>
       <c r="AR40" s="3"/>
       <c r="AS40" s="3"/>
       <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
     </row>
-    <row r="41" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>1361</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>1323</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>1288</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="O41" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="P41" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="Q41" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="R41" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="R41" s="3" t="s">
+      <c r="S41" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="S41" s="3" t="s">
+      <c r="T41" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="T41" s="3" t="s">
+      <c r="U41" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="U41" s="3" t="s">
+      <c r="V41" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="V41" s="3" t="s">
+      <c r="W41" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
@@ -9127,86 +9343,89 @@
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
-      <c r="AL41" s="3" t="s">
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="AM41" s="3" t="s">
+      <c r="AN41" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
       <c r="AP41" s="3"/>
       <c r="AQ41" s="3"/>
       <c r="AR41" s="3"/>
       <c r="AS41" s="3"/>
       <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
     </row>
-    <row r="42" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>1362</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="P42" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="Q42" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="R42" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="U42" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="V42" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="W42" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
@@ -9221,86 +9440,89 @@
       <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
-      <c r="AL42" s="3" t="s">
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="AM42" s="3" t="s">
+      <c r="AN42" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
       <c r="AP42" s="3"/>
       <c r="AQ42" s="3"/>
       <c r="AR42" s="3"/>
       <c r="AS42" s="3"/>
       <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
     </row>
-    <row r="43" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>1363</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>1289</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>1244</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>1207</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="O43" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="P43" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="Q43" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="R43" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="S43" s="3" t="s">
+      <c r="T43" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="U43" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="U43" s="3" t="s">
+      <c r="V43" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="V43" s="3" t="s">
+      <c r="W43" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="W43" s="3"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
@@ -9315,86 +9537,89 @@
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
-      <c r="AL43" s="3" t="s">
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="AM43" s="3" t="s">
+      <c r="AN43" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
       <c r="AP43" s="3"/>
       <c r="AQ43" s="3"/>
       <c r="AR43" s="3"/>
       <c r="AS43" s="3"/>
       <c r="AT43" s="3"/>
+      <c r="AU43" s="3"/>
     </row>
-    <row r="44" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>1364</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>1326</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>1290</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="L44" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="M44" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="O44" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="P44" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="Q44" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="R44" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="S44" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="T44" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="T44" s="3" t="s">
+      <c r="U44" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="U44" s="3" t="s">
+      <c r="V44" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="V44" s="3" t="s">
+      <c r="W44" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
@@ -9409,86 +9634,89 @@
       <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
-      <c r="AL44" s="3" t="s">
+      <c r="AL44" s="3"/>
+      <c r="AM44" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="AM44" s="3" t="s">
+      <c r="AN44" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="AN44" s="3"/>
       <c r="AO44" s="3"/>
       <c r="AP44" s="3"/>
       <c r="AQ44" s="3"/>
       <c r="AR44" s="3"/>
       <c r="AS44" s="3"/>
       <c r="AT44" s="3"/>
+      <c r="AU44" s="3"/>
     </row>
-    <row r="45" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>1327</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>1291</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="P45" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="R45" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="S45" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="T45" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="U45" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="U45" s="3" t="s">
+      <c r="V45" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="V45" s="4" t="s">
+      <c r="W45" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="W45" s="3"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
@@ -9503,84 +9731,87 @@
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
-      <c r="AL45" s="3" t="s">
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="AM45" s="3" t="s">
+      <c r="AN45" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
       <c r="AP45" s="3"/>
       <c r="AQ45" s="3"/>
       <c r="AR45" s="3"/>
       <c r="AS45" s="3"/>
       <c r="AT45" s="3"/>
+      <c r="AU45" s="3"/>
     </row>
-    <row r="46" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>1328</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>1292</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="L46" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="M46" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3" t="s">
+      <c r="N46" s="3"/>
+      <c r="O46" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="P46" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="P46" s="3" t="s">
+      <c r="Q46" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="R46" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="S46" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="S46" s="3" t="s">
+      <c r="T46" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="T46" s="3" t="s">
+      <c r="U46" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="U46" s="3" t="s">
+      <c r="V46" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="V46" s="3" t="s">
+      <c r="W46" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
@@ -9595,84 +9826,87 @@
       <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3"/>
-      <c r="AL46" s="3" t="s">
+      <c r="AL46" s="3"/>
+      <c r="AM46" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="AM46" s="3" t="s">
+      <c r="AN46" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="AN46" s="3"/>
       <c r="AO46" s="3"/>
       <c r="AP46" s="3"/>
       <c r="AQ46" s="3"/>
       <c r="AR46" s="3"/>
       <c r="AS46" s="3"/>
       <c r="AT46" s="3"/>
+      <c r="AU46" s="3"/>
     </row>
-    <row r="47" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>1367</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>1293</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>1248</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>1171</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3" t="s">
+      <c r="N47" s="3"/>
+      <c r="O47" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="P47" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="T47" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="U47" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="V47" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="V47" s="3" t="s">
+      <c r="W47" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
@@ -9687,84 +9921,87 @@
       <c r="AI47" s="3"/>
       <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
-      <c r="AL47" s="3" t="s">
+      <c r="AL47" s="3"/>
+      <c r="AM47" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="AM47" s="3" t="s">
+      <c r="AN47" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="AN47" s="3"/>
       <c r="AO47" s="3"/>
       <c r="AP47" s="3"/>
       <c r="AQ47" s="3"/>
       <c r="AR47" s="3"/>
       <c r="AS47" s="3"/>
       <c r="AT47" s="3"/>
+      <c r="AU47" s="3"/>
     </row>
-    <row r="48" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>1368</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>1294</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3" t="s">
+      <c r="N48" s="3"/>
+      <c r="O48" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="P48" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="Q48" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="R48" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="S48" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="S48" s="3" t="s">
+      <c r="T48" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="T48" s="3" t="s">
+      <c r="U48" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="U48" s="3" t="s">
+      <c r="V48" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="V48" s="3" t="s">
+      <c r="W48" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
@@ -9779,84 +10016,87 @@
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
-      <c r="AL48" s="3" t="s">
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="AM48" s="3" t="s">
+      <c r="AN48" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="AN48" s="3"/>
       <c r="AO48" s="3"/>
       <c r="AP48" s="3"/>
       <c r="AQ48" s="3"/>
       <c r="AR48" s="3"/>
       <c r="AS48" s="3"/>
       <c r="AT48" s="3"/>
+      <c r="AU48" s="3"/>
     </row>
-    <row r="49" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>1369</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>1331</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>1042</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>510</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3" t="s">
+      <c r="M49" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="P49" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="Q49" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="R49" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="S49" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="S49" s="3" t="s">
+      <c r="T49" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="T49" s="3" t="s">
+      <c r="U49" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="U49" s="3" t="s">
+      <c r="V49" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="V49" s="3" t="s">
+      <c r="W49" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
@@ -9871,84 +10111,87 @@
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
-      <c r="AL49" s="3" t="s">
+      <c r="AL49" s="3"/>
+      <c r="AM49" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="AM49" s="4" t="s">
+      <c r="AN49" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="AN49" s="3"/>
       <c r="AO49" s="3"/>
       <c r="AP49" s="3"/>
       <c r="AQ49" s="3"/>
       <c r="AR49" s="3"/>
       <c r="AS49" s="3"/>
       <c r="AT49" s="3"/>
+      <c r="AU49" s="3"/>
     </row>
-    <row r="50" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>1332</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="L50" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="M50" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3" t="s">
+      <c r="N50" s="3"/>
+      <c r="O50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="O50" s="3" t="s">
+      <c r="P50" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="P50" s="3" t="s">
+      <c r="Q50" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="R50" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="R50" s="3" t="s">
+      <c r="S50" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="S50" s="3" t="s">
+      <c r="T50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="T50" s="3" t="s">
+      <c r="U50" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="U50" s="3" t="s">
+      <c r="V50" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="V50" s="3" t="s">
+      <c r="W50" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="W50" s="3"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
@@ -9963,84 +10206,87 @@
       <c r="AI50" s="3"/>
       <c r="AJ50" s="3"/>
       <c r="AK50" s="3"/>
-      <c r="AL50" s="3" t="s">
+      <c r="AL50" s="3"/>
+      <c r="AM50" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="AM50" s="3" t="s">
+      <c r="AN50" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="AN50" s="3"/>
       <c r="AO50" s="3"/>
       <c r="AP50" s="3"/>
       <c r="AQ50" s="3"/>
       <c r="AR50" s="3"/>
       <c r="AS50" s="3"/>
       <c r="AT50" s="3"/>
+      <c r="AU50" s="3"/>
     </row>
-    <row r="51" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>1370</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>1333</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>1297</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="L51" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="M51" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3" t="s">
+      <c r="N51" s="3"/>
+      <c r="O51" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="P51" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="P51" s="3" t="s">
+      <c r="Q51" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="Q51" s="3" t="s">
+      <c r="R51" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="R51" s="3" t="s">
+      <c r="S51" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="S51" s="3" t="s">
+      <c r="T51" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="T51" s="3" t="s">
+      <c r="U51" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="U51" s="3" t="s">
+      <c r="V51" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="V51" s="3" t="s">
+      <c r="W51" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="W51" s="3"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
@@ -10055,21 +10301,22 @@
       <c r="AI51" s="3"/>
       <c r="AJ51" s="3"/>
       <c r="AK51" s="3"/>
-      <c r="AL51" s="3" t="s">
+      <c r="AL51" s="3"/>
+      <c r="AM51" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="AM51" s="3" t="s">
+      <c r="AN51" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="AN51" s="3"/>
       <c r="AO51" s="3"/>
       <c r="AP51" s="3"/>
       <c r="AQ51" s="3"/>
       <c r="AR51" s="3"/>
       <c r="AS51" s="3"/>
       <c r="AT51" s="3"/>
+      <c r="AU51" s="3"/>
     </row>
-    <row r="52" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -10080,33 +10327,33 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="3"/>
+      <c r="L52" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="M52" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3" t="s">
+      <c r="N52" s="3"/>
+      <c r="O52" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
-      <c r="S52" s="3" t="s">
+      <c r="S52" s="3"/>
+      <c r="T52" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="T52" s="3" t="s">
+      <c r="U52" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="U52" s="3" t="s">
+      <c r="V52" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="V52" s="3" t="s">
+      <c r="W52" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
@@ -10121,21 +10368,22 @@
       <c r="AI52" s="3"/>
       <c r="AJ52" s="3"/>
       <c r="AK52" s="3"/>
-      <c r="AL52" s="3" t="s">
+      <c r="AL52" s="3"/>
+      <c r="AM52" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="AM52" s="3" t="s">
+      <c r="AN52" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="AN52" s="3"/>
       <c r="AO52" s="3"/>
       <c r="AP52" s="3"/>
       <c r="AQ52" s="3"/>
       <c r="AR52" s="3"/>
       <c r="AS52" s="3"/>
       <c r="AT52" s="3"/>
+      <c r="AU52" s="3"/>
     </row>
-    <row r="53" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -10146,33 +10394,33 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="3"/>
+      <c r="L53" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="M53" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3" t="s">
+      <c r="N53" s="3"/>
+      <c r="O53" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
-      <c r="S53" s="3" t="s">
+      <c r="S53" s="3"/>
+      <c r="T53" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="T53" s="3" t="s">
+      <c r="U53" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="U53" s="3" t="s">
+      <c r="V53" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="V53" s="3" t="s">
+      <c r="W53" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="W53" s="3"/>
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
@@ -10187,10 +10435,10 @@
       <c r="AI53" s="3"/>
       <c r="AJ53" s="3"/>
       <c r="AK53" s="3"/>
-      <c r="AL53" s="3" t="s">
+      <c r="AL53" s="3"/>
+      <c r="AM53" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="AM53" s="3"/>
       <c r="AN53" s="3"/>
       <c r="AO53" s="3"/>
       <c r="AP53" s="3"/>
@@ -10198,8 +10446,9 @@
       <c r="AR53" s="3"/>
       <c r="AS53" s="3"/>
       <c r="AT53" s="3"/>
+      <c r="AU53" s="3"/>
     </row>
-    <row r="54" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -10210,31 +10459,31 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="3" t="s">
+      <c r="K54" s="3"/>
+      <c r="L54" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="L54" s="3"/>
       <c r="M54" s="3"/>
-      <c r="N54" s="3" t="s">
+      <c r="N54" s="3"/>
+      <c r="O54" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
-      <c r="S54" s="3" t="s">
+      <c r="S54" s="3"/>
+      <c r="T54" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="T54" s="3" t="s">
+      <c r="U54" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="U54" s="3" t="s">
+      <c r="V54" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="V54" s="3" t="s">
+      <c r="W54" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
@@ -10258,8 +10507,9 @@
       <c r="AR54" s="3"/>
       <c r="AS54" s="3"/>
       <c r="AT54" s="3"/>
+      <c r="AU54" s="3"/>
     </row>
-    <row r="55" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -10270,31 +10520,31 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="3" t="s">
+      <c r="K55" s="3"/>
+      <c r="L55" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-      <c r="N55" s="3" t="s">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-      <c r="S55" s="3" t="s">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="T55" s="3" t="s">
+      <c r="U55" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="U55" s="3" t="s">
+      <c r="V55" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="V55" s="3" t="s">
+      <c r="W55" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
@@ -10318,8 +10568,9 @@
       <c r="AR55" s="3"/>
       <c r="AS55" s="3"/>
       <c r="AT55" s="3"/>
+      <c r="AU55" s="3"/>
     </row>
-    <row r="56" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -10330,29 +10581,29 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="3" t="s">
+      <c r="K56" s="3"/>
+      <c r="L56" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-      <c r="N56" s="3" t="s">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-      <c r="T56" s="3" t="s">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="U56" s="3" t="s">
+      <c r="V56" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="V56" s="3" t="s">
+      <c r="W56" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
@@ -10376,8 +10627,9 @@
       <c r="AR56" s="3"/>
       <c r="AS56" s="3"/>
       <c r="AT56" s="3"/>
+      <c r="AU56" s="3"/>
     </row>
-    <row r="57" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -10388,10 +10640,10 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="3" t="s">
+      <c r="K57" s="3"/>
+      <c r="L57" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -10399,16 +10651,16 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
-      <c r="T57" s="3" t="s">
+      <c r="T57" s="3"/>
+      <c r="U57" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="U57" s="3" t="s">
+      <c r="V57" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="V57" s="3" t="s">
+      <c r="W57" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="W57" s="3"/>
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
@@ -10432,8 +10684,9 @@
       <c r="AR57" s="3"/>
       <c r="AS57" s="3"/>
       <c r="AT57" s="3"/>
+      <c r="AU57" s="3"/>
     </row>
-    <row r="58" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -10444,10 +10697,10 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="3"/>
+      <c r="L58" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -10455,14 +10708,14 @@
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
-      <c r="T58" s="3" t="s">
+      <c r="T58" s="3"/>
+      <c r="U58" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3" t="s">
+      <c r="V58" s="3"/>
+      <c r="W58" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="W58" s="3"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
@@ -10486,8 +10739,9 @@
       <c r="AR58" s="3"/>
       <c r="AS58" s="3"/>
       <c r="AT58" s="3"/>
+      <c r="AU58" s="3"/>
     </row>
-    <row r="59" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -10498,10 +10752,10 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="3" t="s">
+      <c r="K59" s="3"/>
+      <c r="L59" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -10509,14 +10763,14 @@
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
-      <c r="T59" s="3" t="s">
+      <c r="T59" s="3"/>
+      <c r="U59" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3" t="s">
+      <c r="V59" s="3"/>
+      <c r="W59" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="W59" s="3"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
@@ -10540,8 +10794,9 @@
       <c r="AR59" s="3"/>
       <c r="AS59" s="3"/>
       <c r="AT59" s="3"/>
+      <c r="AU59" s="3"/>
     </row>
-    <row r="60" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -10552,10 +10807,10 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="3" t="s">
+      <c r="K60" s="3"/>
+      <c r="L60" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
@@ -10563,14 +10818,14 @@
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
-      <c r="T60" s="3" t="s">
+      <c r="T60" s="3"/>
+      <c r="U60" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3" t="s">
+      <c r="V60" s="3"/>
+      <c r="W60" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="W60" s="3"/>
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
@@ -10594,8 +10849,9 @@
       <c r="AR60" s="3"/>
       <c r="AS60" s="3"/>
       <c r="AT60" s="3"/>
+      <c r="AU60" s="3"/>
     </row>
-    <row r="61" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -10606,10 +10862,10 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="3" t="s">
+      <c r="K61" s="3"/>
+      <c r="L61" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
@@ -10617,14 +10873,14 @@
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
-      <c r="T61" s="3" t="s">
+      <c r="T61" s="3"/>
+      <c r="U61" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3" t="s">
+      <c r="V61" s="3"/>
+      <c r="W61" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="W61" s="3"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
@@ -10648,8 +10904,9 @@
       <c r="AR61" s="3"/>
       <c r="AS61" s="3"/>
       <c r="AT61" s="3"/>
+      <c r="AU61" s="3"/>
     </row>
-    <row r="62" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -10660,10 +10917,10 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="3" t="s">
+      <c r="K62" s="3"/>
+      <c r="L62" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
@@ -10671,10 +10928,10 @@
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
-      <c r="T62" s="3" t="s">
+      <c r="T62" s="3"/>
+      <c r="U62" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
@@ -10700,8 +10957,9 @@
       <c r="AR62" s="3"/>
       <c r="AS62" s="3"/>
       <c r="AT62" s="3"/>
+      <c r="AU62" s="3"/>
     </row>
-    <row r="63" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -10712,10 +10970,10 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="3" t="s">
+      <c r="K63" s="3"/>
+      <c r="L63" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -10723,10 +10981,10 @@
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
-      <c r="T63" s="3" t="s">
+      <c r="T63" s="3"/>
+      <c r="U63" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
@@ -10752,8 +11010,9 @@
       <c r="AR63" s="3"/>
       <c r="AS63" s="3"/>
       <c r="AT63" s="3"/>
+      <c r="AU63" s="3"/>
     </row>
-    <row r="64" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -10764,10 +11023,10 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="3" t="s">
+      <c r="K64" s="3"/>
+      <c r="L64" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -10802,8 +11061,9 @@
       <c r="AR64" s="3"/>
       <c r="AS64" s="3"/>
       <c r="AT64" s="3"/>
+      <c r="AU64" s="3"/>
     </row>
-    <row r="65" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -10850,8 +11110,9 @@
       <c r="AR65" s="3"/>
       <c r="AS65" s="3"/>
       <c r="AT65" s="3"/>
+      <c r="AU65" s="3"/>
     </row>
-    <row r="66" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -10898,8 +11159,9 @@
       <c r="AR66" s="3"/>
       <c r="AS66" s="3"/>
       <c r="AT66" s="3"/>
+      <c r="AU66" s="3"/>
     </row>
-    <row r="67" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -10946,8 +11208,9 @@
       <c r="AR67" s="3"/>
       <c r="AS67" s="3"/>
       <c r="AT67" s="3"/>
+      <c r="AU67" s="3"/>
     </row>
-    <row r="68" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -10994,8 +11257,9 @@
       <c r="AR68" s="3"/>
       <c r="AS68" s="3"/>
       <c r="AT68" s="3"/>
+      <c r="AU68" s="3"/>
     </row>
-    <row r="69" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -11042,8 +11306,9 @@
       <c r="AR69" s="3"/>
       <c r="AS69" s="3"/>
       <c r="AT69" s="3"/>
+      <c r="AU69" s="3"/>
     </row>
-    <row r="70" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -11090,8 +11355,9 @@
       <c r="AR70" s="3"/>
       <c r="AS70" s="3"/>
       <c r="AT70" s="3"/>
+      <c r="AU70" s="3"/>
     </row>
-    <row r="71" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -11138,8 +11404,9 @@
       <c r="AR71" s="3"/>
       <c r="AS71" s="3"/>
       <c r="AT71" s="3"/>
+      <c r="AU71" s="3"/>
     </row>
-    <row r="72" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -11186,8 +11453,9 @@
       <c r="AR72" s="3"/>
       <c r="AS72" s="3"/>
       <c r="AT72" s="3"/>
+      <c r="AU72" s="3"/>
     </row>
-    <row r="73" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -11234,8 +11502,9 @@
       <c r="AR73" s="3"/>
       <c r="AS73" s="3"/>
       <c r="AT73" s="3"/>
+      <c r="AU73" s="3"/>
     </row>
-    <row r="74" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -11282,8 +11551,9 @@
       <c r="AR74" s="3"/>
       <c r="AS74" s="3"/>
       <c r="AT74" s="3"/>
+      <c r="AU74" s="3"/>
     </row>
-    <row r="75" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -11330,8 +11600,9 @@
       <c r="AR75" s="3"/>
       <c r="AS75" s="3"/>
       <c r="AT75" s="3"/>
+      <c r="AU75" s="3"/>
     </row>
-    <row r="76" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -11378,8 +11649,9 @@
       <c r="AR76" s="3"/>
       <c r="AS76" s="3"/>
       <c r="AT76" s="3"/>
+      <c r="AU76" s="3"/>
     </row>
-    <row r="77" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -11426,8 +11698,9 @@
       <c r="AR77" s="3"/>
       <c r="AS77" s="3"/>
       <c r="AT77" s="3"/>
+      <c r="AU77" s="3"/>
     </row>
-    <row r="78" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -11474,8 +11747,9 @@
       <c r="AR78" s="3"/>
       <c r="AS78" s="3"/>
       <c r="AT78" s="3"/>
+      <c r="AU78" s="3"/>
     </row>
-    <row r="79" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -11522,8 +11796,9 @@
       <c r="AR79" s="3"/>
       <c r="AS79" s="3"/>
       <c r="AT79" s="3"/>
+      <c r="AU79" s="3"/>
     </row>
-    <row r="80" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -11570,8 +11845,9 @@
       <c r="AR80" s="3"/>
       <c r="AS80" s="3"/>
       <c r="AT80" s="3"/>
+      <c r="AU80" s="3"/>
     </row>
-    <row r="81" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -11618,8 +11894,9 @@
       <c r="AR81" s="3"/>
       <c r="AS81" s="3"/>
       <c r="AT81" s="3"/>
+      <c r="AU81" s="3"/>
     </row>
-    <row r="82" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -11666,8 +11943,9 @@
       <c r="AR82" s="3"/>
       <c r="AS82" s="3"/>
       <c r="AT82" s="3"/>
+      <c r="AU82" s="3"/>
     </row>
-    <row r="83" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -11714,8 +11992,9 @@
       <c r="AR83" s="3"/>
       <c r="AS83" s="3"/>
       <c r="AT83" s="3"/>
+      <c r="AU83" s="3"/>
     </row>
-    <row r="84" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -11762,8 +12041,9 @@
       <c r="AR84" s="3"/>
       <c r="AS84" s="3"/>
       <c r="AT84" s="3"/>
+      <c r="AU84" s="3"/>
     </row>
-    <row r="85" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -11810,8 +12090,9 @@
       <c r="AR85" s="3"/>
       <c r="AS85" s="3"/>
       <c r="AT85" s="3"/>
+      <c r="AU85" s="3"/>
     </row>
-    <row r="86" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -11858,8 +12139,9 @@
       <c r="AR86" s="3"/>
       <c r="AS86" s="3"/>
       <c r="AT86" s="3"/>
+      <c r="AU86" s="3"/>
     </row>
-    <row r="87" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -11906,8 +12188,9 @@
       <c r="AR87" s="3"/>
       <c r="AS87" s="3"/>
       <c r="AT87" s="3"/>
+      <c r="AU87" s="3"/>
     </row>
-    <row r="88" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -11954,8 +12237,9 @@
       <c r="AR88" s="3"/>
       <c r="AS88" s="3"/>
       <c r="AT88" s="3"/>
+      <c r="AU88" s="3"/>
     </row>
-    <row r="89" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -12002,8 +12286,9 @@
       <c r="AR89" s="3"/>
       <c r="AS89" s="3"/>
       <c r="AT89" s="3"/>
+      <c r="AU89" s="3"/>
     </row>
-    <row r="90" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -12050,8 +12335,9 @@
       <c r="AR90" s="3"/>
       <c r="AS90" s="3"/>
       <c r="AT90" s="3"/>
+      <c r="AU90" s="3"/>
     </row>
-    <row r="91" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -12098,8 +12384,9 @@
       <c r="AR91" s="3"/>
       <c r="AS91" s="3"/>
       <c r="AT91" s="3"/>
+      <c r="AU91" s="3"/>
     </row>
-    <row r="92" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -12146,9 +12433,9 @@
       <c r="AR92" s="3"/>
       <c r="AS92" s="3"/>
       <c r="AT92" s="3"/>
+      <c r="AU92" s="3"/>
     </row>
-    <row r="93" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X93" s="3"/>
+    <row r="93" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
       <c r="AA93" s="3"/>
@@ -12171,9 +12458,9 @@
       <c r="AR93" s="3"/>
       <c r="AS93" s="3"/>
       <c r="AT93" s="3"/>
+      <c r="AU93" s="3"/>
     </row>
-    <row r="94" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X94" s="3"/>
+    <row r="94" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
       <c r="AA94" s="3"/>
@@ -12196,9 +12483,9 @@
       <c r="AR94" s="3"/>
       <c r="AS94" s="3"/>
       <c r="AT94" s="3"/>
+      <c r="AU94" s="3"/>
     </row>
-    <row r="95" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X95" s="3"/>
+    <row r="95" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
@@ -12221,9 +12508,9 @@
       <c r="AR95" s="3"/>
       <c r="AS95" s="3"/>
       <c r="AT95" s="3"/>
+      <c r="AU95" s="3"/>
     </row>
-    <row r="96" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X96" s="3"/>
+    <row r="96" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
       <c r="AA96" s="3"/>
@@ -12246,9 +12533,9 @@
       <c r="AR96" s="3"/>
       <c r="AS96" s="3"/>
       <c r="AT96" s="3"/>
+      <c r="AU96" s="3"/>
     </row>
-    <row r="97" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X97" s="3"/>
+    <row r="97" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
       <c r="AA97" s="3"/>
@@ -12271,9 +12558,9 @@
       <c r="AR97" s="3"/>
       <c r="AS97" s="3"/>
       <c r="AT97" s="3"/>
+      <c r="AU97" s="3"/>
     </row>
-    <row r="98" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X98" s="3"/>
+    <row r="98" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
       <c r="AA98" s="3"/>
@@ -12296,9 +12583,9 @@
       <c r="AR98" s="3"/>
       <c r="AS98" s="3"/>
       <c r="AT98" s="3"/>
+      <c r="AU98" s="3"/>
     </row>
-    <row r="99" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X99" s="3"/>
+    <row r="99" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
       <c r="AA99" s="3"/>
@@ -12321,9 +12608,9 @@
       <c r="AR99" s="3"/>
       <c r="AS99" s="3"/>
       <c r="AT99" s="3"/>
+      <c r="AU99" s="3"/>
     </row>
-    <row r="100" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X100" s="3"/>
+    <row r="100" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
       <c r="AA100" s="3"/>
@@ -12346,9 +12633,9 @@
       <c r="AR100" s="3"/>
       <c r="AS100" s="3"/>
       <c r="AT100" s="3"/>
+      <c r="AU100" s="3"/>
     </row>
-    <row r="101" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X101" s="3"/>
+    <row r="101" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
       <c r="AA101" s="3"/>
@@ -12371,9 +12658,9 @@
       <c r="AR101" s="3"/>
       <c r="AS101" s="3"/>
       <c r="AT101" s="3"/>
+      <c r="AU101" s="3"/>
     </row>
-    <row r="102" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X102" s="3"/>
+    <row r="102" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
       <c r="AA102" s="3"/>
@@ -12396,9 +12683,9 @@
       <c r="AR102" s="3"/>
       <c r="AS102" s="3"/>
       <c r="AT102" s="3"/>
+      <c r="AU102" s="3"/>
     </row>
-    <row r="103" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X103" s="3"/>
+    <row r="103" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
       <c r="AA103" s="3"/>
@@ -12421,9 +12708,9 @@
       <c r="AR103" s="3"/>
       <c r="AS103" s="3"/>
       <c r="AT103" s="3"/>
+      <c r="AU103" s="3"/>
     </row>
-    <row r="104" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X104" s="3"/>
+    <row r="104" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
       <c r="AA104" s="3"/>
@@ -12446,9 +12733,9 @@
       <c r="AR104" s="3"/>
       <c r="AS104" s="3"/>
       <c r="AT104" s="3"/>
+      <c r="AU104" s="3"/>
     </row>
-    <row r="105" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X105" s="3"/>
+    <row r="105" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
       <c r="AA105" s="3"/>
@@ -12471,9 +12758,9 @@
       <c r="AR105" s="3"/>
       <c r="AS105" s="3"/>
       <c r="AT105" s="3"/>
+      <c r="AU105" s="3"/>
     </row>
-    <row r="106" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X106" s="3"/>
+    <row r="106" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
       <c r="AA106" s="3"/>
@@ -12496,9 +12783,9 @@
       <c r="AR106" s="3"/>
       <c r="AS106" s="3"/>
       <c r="AT106" s="3"/>
+      <c r="AU106" s="3"/>
     </row>
-    <row r="107" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X107" s="3"/>
+    <row r="107" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
       <c r="AA107" s="3"/>
@@ -12521,9 +12808,9 @@
       <c r="AR107" s="3"/>
       <c r="AS107" s="3"/>
       <c r="AT107" s="3"/>
+      <c r="AU107" s="3"/>
     </row>
-    <row r="108" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X108" s="3"/>
+    <row r="108" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
       <c r="AA108" s="3"/>
@@ -12546,9 +12833,9 @@
       <c r="AR108" s="3"/>
       <c r="AS108" s="3"/>
       <c r="AT108" s="3"/>
+      <c r="AU108" s="3"/>
     </row>
-    <row r="109" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X109" s="3"/>
+    <row r="109" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
       <c r="AA109" s="3"/>
@@ -12571,9 +12858,9 @@
       <c r="AR109" s="3"/>
       <c r="AS109" s="3"/>
       <c r="AT109" s="3"/>
+      <c r="AU109" s="3"/>
     </row>
-    <row r="110" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X110" s="3"/>
+    <row r="110" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
       <c r="AA110" s="3"/>
@@ -12596,9 +12883,9 @@
       <c r="AR110" s="3"/>
       <c r="AS110" s="3"/>
       <c r="AT110" s="3"/>
+      <c r="AU110" s="3"/>
     </row>
-    <row r="111" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X111" s="3"/>
+    <row r="111" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
       <c r="AA111" s="3"/>
@@ -12621,9 +12908,9 @@
       <c r="AR111" s="3"/>
       <c r="AS111" s="3"/>
       <c r="AT111" s="3"/>
+      <c r="AU111" s="3"/>
     </row>
-    <row r="112" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X112" s="3"/>
+    <row r="112" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
       <c r="AA112" s="3"/>
@@ -12646,9 +12933,9 @@
       <c r="AR112" s="3"/>
       <c r="AS112" s="3"/>
       <c r="AT112" s="3"/>
+      <c r="AU112" s="3"/>
     </row>
-    <row r="113" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X113" s="3"/>
+    <row r="113" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
       <c r="AA113" s="3"/>
@@ -12671,9 +12958,9 @@
       <c r="AR113" s="3"/>
       <c r="AS113" s="3"/>
       <c r="AT113" s="3"/>
+      <c r="AU113" s="3"/>
     </row>
-    <row r="114" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X114" s="3"/>
+    <row r="114" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
       <c r="AA114" s="3"/>
@@ -12696,9 +12983,9 @@
       <c r="AR114" s="3"/>
       <c r="AS114" s="3"/>
       <c r="AT114" s="3"/>
+      <c r="AU114" s="3"/>
     </row>
-    <row r="115" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X115" s="3"/>
+    <row r="115" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
       <c r="AA115" s="3"/>
@@ -12721,9 +13008,9 @@
       <c r="AR115" s="3"/>
       <c r="AS115" s="3"/>
       <c r="AT115" s="3"/>
+      <c r="AU115" s="3"/>
     </row>
-    <row r="116" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X116" s="3"/>
+    <row r="116" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
       <c r="AA116" s="3"/>
@@ -12746,9 +13033,9 @@
       <c r="AR116" s="3"/>
       <c r="AS116" s="3"/>
       <c r="AT116" s="3"/>
+      <c r="AU116" s="3"/>
     </row>
-    <row r="117" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X117" s="3"/>
+    <row r="117" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
       <c r="AA117" s="3"/>
@@ -12771,9 +13058,9 @@
       <c r="AR117" s="3"/>
       <c r="AS117" s="3"/>
       <c r="AT117" s="3"/>
+      <c r="AU117" s="3"/>
     </row>
-    <row r="118" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X118" s="3"/>
+    <row r="118" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
       <c r="AA118" s="3"/>
@@ -12796,9 +13083,9 @@
       <c r="AR118" s="3"/>
       <c r="AS118" s="3"/>
       <c r="AT118" s="3"/>
+      <c r="AU118" s="3"/>
     </row>
-    <row r="119" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X119" s="3"/>
+    <row r="119" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
       <c r="AA119" s="3"/>
@@ -12821,9 +13108,9 @@
       <c r="AR119" s="3"/>
       <c r="AS119" s="3"/>
       <c r="AT119" s="3"/>
+      <c r="AU119" s="3"/>
     </row>
-    <row r="120" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X120" s="3"/>
+    <row r="120" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
       <c r="AA120" s="3"/>
@@ -12846,9 +13133,9 @@
       <c r="AR120" s="3"/>
       <c r="AS120" s="3"/>
       <c r="AT120" s="3"/>
+      <c r="AU120" s="3"/>
     </row>
-    <row r="121" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X121" s="3"/>
+    <row r="121" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
       <c r="AA121" s="3"/>
@@ -12871,9 +13158,9 @@
       <c r="AR121" s="3"/>
       <c r="AS121" s="3"/>
       <c r="AT121" s="3"/>
+      <c r="AU121" s="3"/>
     </row>
-    <row r="122" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X122" s="3"/>
+    <row r="122" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
       <c r="AA122" s="3"/>
@@ -12896,9 +13183,9 @@
       <c r="AR122" s="3"/>
       <c r="AS122" s="3"/>
       <c r="AT122" s="3"/>
+      <c r="AU122" s="3"/>
     </row>
-    <row r="123" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X123" s="3"/>
+    <row r="123" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
       <c r="AA123" s="3"/>
@@ -12921,9 +13208,9 @@
       <c r="AR123" s="3"/>
       <c r="AS123" s="3"/>
       <c r="AT123" s="3"/>
+      <c r="AU123" s="3"/>
     </row>
-    <row r="124" spans="24:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X124" s="3"/>
+    <row r="124" spans="25:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
       <c r="AA124" s="3"/>
@@ -12946,17 +13233,18 @@
       <c r="AR124" s="3"/>
       <c r="AS124" s="3"/>
       <c r="AT124" s="3"/>
+      <c r="AU124" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="V45" r:id="rId1" display="http://galaxe.solutions/" xr:uid="{FC3574BC-D6EF-4519-A7F6-F3806DB46557}"/>
-    <hyperlink ref="S38" r:id="rId2" display="http://critically.io/" xr:uid="{58C6B818-5DAB-4298-BE6A-8DFB8F2FA3E6}"/>
-    <hyperlink ref="AQ4" r:id="rId3" display="http://pendo.io/" xr:uid="{D0FB6BCD-C593-4A26-8FE6-FE61791CE669}"/>
-    <hyperlink ref="AO2" r:id="rId4" display="http://underdog.io/" xr:uid="{543C7C11-8D77-4769-955F-05FB4DC5FBB2}"/>
-    <hyperlink ref="AM49" r:id="rId5" display="http://ampcontrol.io/" xr:uid="{D63E3F1B-0340-4575-B7D7-BEF67233F5CD}"/>
-    <hyperlink ref="AJ2" r:id="rId6" display="http://soffos.al/" xr:uid="{33336681-5570-4B6F-B154-1FDC1CE41B62}"/>
-    <hyperlink ref="AJ19" r:id="rId7" display="http://miningstore.com/" xr:uid="{8AC48435-3FDD-44BD-BC8F-5FF8929E3F09}"/>
-    <hyperlink ref="AH5" r:id="rId8" display="http://ftsi.tech/" xr:uid="{2C18A7FB-BA19-4A58-BB3E-04631CB18EF4}"/>
+    <hyperlink ref="W45" r:id="rId1" display="http://galaxe.solutions/" xr:uid="{FC3574BC-D6EF-4519-A7F6-F3806DB46557}"/>
+    <hyperlink ref="T38" r:id="rId2" display="http://critically.io/" xr:uid="{58C6B818-5DAB-4298-BE6A-8DFB8F2FA3E6}"/>
+    <hyperlink ref="AR4" r:id="rId3" display="http://pendo.io/" xr:uid="{D0FB6BCD-C593-4A26-8FE6-FE61791CE669}"/>
+    <hyperlink ref="AP2" r:id="rId4" display="http://underdog.io/" xr:uid="{543C7C11-8D77-4769-955F-05FB4DC5FBB2}"/>
+    <hyperlink ref="AN49" r:id="rId5" display="http://ampcontrol.io/" xr:uid="{D63E3F1B-0340-4575-B7D7-BEF67233F5CD}"/>
+    <hyperlink ref="AK2" r:id="rId6" display="http://soffos.al/" xr:uid="{33336681-5570-4B6F-B154-1FDC1CE41B62}"/>
+    <hyperlink ref="AK19" r:id="rId7" display="http://miningstore.com/" xr:uid="{8AC48435-3FDD-44BD-BC8F-5FF8929E3F09}"/>
+    <hyperlink ref="AI5" r:id="rId8" display="http://ftsi.tech/" xr:uid="{2C18A7FB-BA19-4A58-BB3E-04631CB18EF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/applications.xlsx
+++ b/applications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57419\Documents\applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEC8AB9-AABD-4CB1-8966-7026DE525E80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317C595F-ACC4-49F9-98E7-3143CCCAF97A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47235" yWindow="435" windowWidth="10425" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44790" yWindow="75" windowWidth="12765" windowHeight="15765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="1402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="1411">
   <si>
     <t>Total</t>
   </si>
@@ -4240,6 +4240,33 @@
   </si>
   <si>
     <t>50. TWEN.org</t>
+  </si>
+  <si>
+    <t>2. Nostra</t>
+  </si>
+  <si>
+    <t>3. Twik</t>
+  </si>
+  <si>
+    <t>4. stealth company</t>
+  </si>
+  <si>
+    <t>5. WaveAI</t>
+  </si>
+  <si>
+    <t>6. Wave HDC</t>
+  </si>
+  <si>
+    <t>7. Sizzle</t>
+  </si>
+  <si>
+    <t>8. EthSign</t>
+  </si>
+  <si>
+    <t>9. Sathya Sai Corporation</t>
+  </si>
+  <si>
+    <t>10. Morphic</t>
   </si>
 </sst>
 </file>
@@ -4597,405 +4624,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU124"/>
+  <dimension ref="A1:AV124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="41" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="41" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>44560</v>
+      </c>
+      <c r="C1" s="1">
         <v>44557</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>44552</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>44551</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>44550</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>44547</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>44546</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>44545</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>44544</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>44543</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>44540</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>44539</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>44538</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>44537</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>44536</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>44533</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>44532</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>44531</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>44530</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>44529</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>44524</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>44523</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="1">
         <v>44522</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="1">
         <v>44518</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="1">
         <v>44517</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="1">
         <v>44516</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>44515</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="1">
         <v>44512</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="1">
         <v>44511</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>44510</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AF1" s="1">
         <v>44509</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AG1" s="1">
         <v>44508</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AH1" s="1">
         <v>44505</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AI1" s="1">
         <v>44504</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AJ1" s="1">
         <v>44503</v>
       </c>
-      <c r="AJ1" s="5">
+      <c r="AK1" s="5">
         <v>44502</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AL1" s="1">
         <v>44501</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AM1" s="1">
         <v>44498</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AN1" s="1">
         <v>44497</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AO1" s="1">
         <v>44496</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AP1" s="1">
         <v>44495</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AQ1" s="1">
         <v>44494</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AR1" s="1">
         <v>44489</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AS1" s="1">
         <v>44487</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AT1" s="1">
         <v>44486</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AU1" s="1">
         <v>44421</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AV1" s="1">
         <v>44419</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <f xml:space="preserve"> COUNTA(B2:AAK100)</f>
-        <v>1588</v>
+        <f xml:space="preserve"> COUNTA(B2:AAL100)</f>
+        <v>1598</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1253</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1334</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>1253</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="R3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>13</v>
@@ -5007,3250 +5041,3295 @@
         <v>13</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>616</v>
       </c>
       <c r="AC3" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="AD3" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AK3" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3" t="s">
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="AT3" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="AU3" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="AV3" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>1336</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>1177</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="AJ4" s="6" t="s">
+      <c r="AK4" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="4" t="s">
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3" t="s">
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AV4" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>1371</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AG5" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AH5" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AI5" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AJ5" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="AJ5" s="6" t="s">
+      <c r="AK5" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AL5" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AM5" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AN5" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="AN5" s="3" t="s">
+      <c r="AO5" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="AO5" s="3" t="s">
+      <c r="AP5" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="AP5" s="3" t="s">
+      <c r="AQ5" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3" t="s">
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3" t="s">
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="AU5" s="3" t="s">
+      <c r="AV5" s="3" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>1372</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>1338</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>1299</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>1179</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3" t="s">
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="AB6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AC6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AE6" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AF6" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="AG6" s="3" t="s">
+      <c r="AH6" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="AH6" s="3" t="s">
+      <c r="AI6" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="AI6" s="3" t="s">
+      <c r="AJ6" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="AJ6" s="6" t="s">
+      <c r="AK6" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="AK6" s="3" t="s">
+      <c r="AL6" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="AL6" s="3" t="s">
+      <c r="AM6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AM6" s="3" t="s">
+      <c r="AN6" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="AN6" s="3" t="s">
+      <c r="AO6" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="AO6" s="3" t="s">
+      <c r="AP6" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="AP6" s="3" t="s">
+      <c r="AQ6" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
       <c r="AS6" s="3"/>
-      <c r="AT6" s="3" t="s">
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="AU6" s="3" t="s">
+      <c r="AV6" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>1300</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3" t="s">
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AD7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AF7" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AG7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AH7" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AI7" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="AI7" s="3" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="AJ7" s="6" t="s">
+      <c r="AK7" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="AK7" s="3" t="s">
+      <c r="AL7" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="AL7" s="3" t="s">
+      <c r="AM7" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="AM7" s="3" t="s">
+      <c r="AN7" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="AN7" s="3" t="s">
+      <c r="AO7" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="AO7" s="3" t="s">
+      <c r="AP7" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="AP7" s="3" t="s">
+      <c r="AQ7" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
-      <c r="AT7" s="3" t="s">
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="AU7" s="3" t="s">
+      <c r="AV7" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>1257</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3" t="s">
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="AA8" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AF8" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AG8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AG8" s="3" t="s">
+      <c r="AH8" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="AH8" s="3" t="s">
+      <c r="AI8" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="AI8" s="3" t="s">
+      <c r="AJ8" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="AJ8" s="6" t="s">
+      <c r="AK8" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="AK8" s="3" t="s">
+      <c r="AL8" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="AL8" s="3" t="s">
+      <c r="AM8" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="AM8" s="3" t="s">
+      <c r="AN8" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="AN8" s="3" t="s">
+      <c r="AO8" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="AO8" s="3" t="s">
+      <c r="AP8" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="AP8" s="3" t="s">
+      <c r="AQ8" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
-      <c r="AT8" s="3" t="s">
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
     </row>
-    <row r="9" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>1373</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>1340</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>1301</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="R9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3" t="s">
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>73</v>
       </c>
       <c r="AB9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC9" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AD9" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="AE9" s="3" t="s">
+      <c r="AF9" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="AF9" s="3" t="s">
+      <c r="AG9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AG9" s="3" t="s">
+      <c r="AH9" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3" t="s">
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="AJ9" s="6" t="s">
+      <c r="AK9" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="AK9" s="3" t="s">
+      <c r="AL9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AL9" s="3" t="s">
+      <c r="AM9" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="AM9" s="3" t="s">
+      <c r="AN9" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="AN9" s="3" t="s">
+      <c r="AO9" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="AO9" s="3" t="s">
+      <c r="AP9" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="AP9" s="3" t="s">
+      <c r="AQ9" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
-      <c r="AT9" s="3" t="s">
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
     </row>
-    <row r="10" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>1341</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>1302</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>1007</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3" t="s">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="AA10" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AB10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3" t="s">
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AE10" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AF10" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="AF10" s="3" t="s">
+      <c r="AG10" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="AG10" s="3" t="s">
+      <c r="AH10" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3" t="s">
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="AJ10" s="6" t="s">
+      <c r="AK10" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="AK10" s="3" t="s">
+      <c r="AL10" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="AL10" s="3" t="s">
+      <c r="AM10" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="AM10" s="3" t="s">
+      <c r="AN10" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="AN10" s="3" t="s">
+      <c r="AO10" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="AO10" s="3" t="s">
+      <c r="AP10" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="AP10" s="3" t="s">
+      <c r="AQ10" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
       <c r="AS10" s="3"/>
-      <c r="AT10" s="3" t="s">
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
     </row>
-    <row r="11" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>1374</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>1342</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>1303</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>1260</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="V11" s="3" t="s">
         <v>95</v>
       </c>
       <c r="W11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="X11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3" t="s">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="Z11" s="3" t="s">
+      <c r="AA11" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="AA11" s="3" t="s">
+      <c r="AB11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3" t="s">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AE11" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="AE11" s="3" t="s">
+      <c r="AF11" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="AF11" s="3" t="s">
+      <c r="AG11" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
-      <c r="AI11" s="3" t="s">
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="AJ11" s="6" t="s">
+      <c r="AK11" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="AK11" s="3" t="s">
+      <c r="AL11" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="AL11" s="3" t="s">
+      <c r="AM11" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="AM11" s="3" t="s">
+      <c r="AN11" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="AN11" s="3" t="s">
+      <c r="AO11" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="AO11" s="3" t="s">
+      <c r="AP11" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="AP11" s="3" t="s">
+      <c r="AQ11" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
       <c r="AS11" s="3"/>
-      <c r="AT11" s="3" t="s">
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
     </row>
-    <row r="12" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>1375</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>1343</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>1304</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3" t="s">
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="Z12" s="3" t="s">
+      <c r="AA12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AA12" s="3" t="s">
+      <c r="AB12" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3" t="s">
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="AD12" s="3" t="s">
+      <c r="AE12" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="AE12" s="3" t="s">
+      <c r="AF12" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="AF12" s="3" t="s">
+      <c r="AG12" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
-      <c r="AI12" s="3" t="s">
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="AJ12" s="6" t="s">
+      <c r="AK12" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="AK12" s="3" t="s">
+      <c r="AL12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AL12" s="3" t="s">
+      <c r="AM12" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="AM12" s="3" t="s">
+      <c r="AN12" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="AN12" s="3" t="s">
+      <c r="AO12" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="AO12" s="3" t="s">
+      <c r="AP12" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="AP12" s="3" t="s">
+      <c r="AQ12" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
       <c r="AS12" s="3"/>
-      <c r="AT12" s="3" t="s">
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
     </row>
-    <row r="13" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>1344</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>1305</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>1262</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>109</v>
       </c>
       <c r="V13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3" t="s">
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="Z13" s="3" t="s">
+      <c r="AA13" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="AA13" s="3" t="s">
+      <c r="AB13" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3" t="s">
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="AD13" s="3" t="s">
+      <c r="AE13" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="AE13" s="3" t="s">
+      <c r="AF13" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="AF13" s="3" t="s">
+      <c r="AG13" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
-      <c r="AI13" s="3" t="s">
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="AJ13" s="6" t="s">
+      <c r="AK13" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="AK13" s="3" t="s">
+      <c r="AL13" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="AL13" s="3" t="s">
+      <c r="AM13" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="AM13" s="3" t="s">
+      <c r="AN13" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="AN13" s="3" t="s">
+      <c r="AO13" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="AO13" s="3" t="s">
+      <c r="AP13" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="AP13" s="3" t="s">
+      <c r="AQ13" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
       <c r="AS13" s="3"/>
-      <c r="AT13" s="3" t="s">
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
     </row>
-    <row r="14" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>1345</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>1306</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3" t="s">
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AF14" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="AF14" s="3" t="s">
+      <c r="AG14" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
-      <c r="AI14" s="3" t="s">
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="AJ14" s="6" t="s">
+      <c r="AK14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AK14" s="3" t="s">
+      <c r="AL14" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="AL14" s="3" t="s">
+      <c r="AM14" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="AM14" s="3" t="s">
+      <c r="AN14" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="AN14" s="3" t="s">
+      <c r="AO14" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="AO14" s="3" t="s">
+      <c r="AP14" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="AP14" s="3" t="s">
+      <c r="AQ14" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
       <c r="AS14" s="3"/>
-      <c r="AT14" s="3" t="s">
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
     </row>
-    <row r="15" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>1376</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>1307</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>1264</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>1011</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>132</v>
       </c>
       <c r="S15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="T15" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3" t="s">
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="AA15" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="AA15" s="3" t="s">
+      <c r="AB15" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3" t="s">
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="AD15" s="3" t="s">
+      <c r="AE15" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="AE15" s="3" t="s">
+      <c r="AF15" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="AF15" s="3" t="s">
+      <c r="AG15" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
-      <c r="AI15" s="3" t="s">
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3" t="s">
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="AL15" s="3" t="s">
+      <c r="AM15" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="AM15" s="3" t="s">
+      <c r="AN15" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="AN15" s="3" t="s">
+      <c r="AO15" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="AO15" s="3" t="s">
+      <c r="AP15" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="AP15" s="3" t="s">
+      <c r="AQ15" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
       <c r="AS15" s="3"/>
-      <c r="AT15" s="3" t="s">
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
     </row>
-    <row r="16" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
         <v>137</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>1308</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>1188</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="X16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3" t="s">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="Z16" s="3" t="s">
+      <c r="AA16" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="AA16" s="3" t="s">
+      <c r="AB16" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3" t="s">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="AD16" s="3" t="s">
+      <c r="AE16" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="AE16" s="3" t="s">
+      <c r="AF16" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="AF16" s="3" t="s">
+      <c r="AG16" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
-      <c r="AK16" s="3" t="s">
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AL16" s="3" t="s">
+      <c r="AM16" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="AM16" s="3" t="s">
+      <c r="AN16" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="AN16" s="3" t="s">
+      <c r="AO16" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="AO16" s="3" t="s">
+      <c r="AP16" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="AP16" s="3" t="s">
+      <c r="AQ16" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
       <c r="AS16" s="3"/>
-      <c r="AT16" s="3" t="s">
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
     </row>
-    <row r="17" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>1377</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>149</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3" t="s">
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="Z17" s="3" t="s">
+      <c r="AA17" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="AA17" s="3" t="s">
+      <c r="AB17" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3" t="s">
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="AD17" s="3" t="s">
+      <c r="AE17" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="AE17" s="3" t="s">
+      <c r="AF17" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="AF17" s="3" t="s">
+      <c r="AG17" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
-      <c r="AK17" s="3" t="s">
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="AL17" s="3" t="s">
+      <c r="AM17" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="AM17" s="3" t="s">
+      <c r="AN17" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="AN17" s="3" t="s">
+      <c r="AO17" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="AO17" s="3" t="s">
+      <c r="AP17" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="AP17" s="3" t="s">
+      <c r="AQ17" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
       <c r="AS17" s="3"/>
-      <c r="AT17" s="3" t="s">
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
     </row>
-    <row r="18" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>1378</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>170</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="W18" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3" t="s">
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="Z18" s="3" t="s">
+      <c r="AA18" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="AA18" s="3" t="s">
+      <c r="AB18" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3" t="s">
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="AD18" s="3" t="s">
+      <c r="AE18" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="AE18" s="3" t="s">
+      <c r="AF18" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="AF18" s="3" t="s">
+      <c r="AG18" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
-      <c r="AK18" s="3" t="s">
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="AL18" s="3" t="s">
+      <c r="AM18" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="AM18" s="3" t="s">
+      <c r="AN18" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="AN18" s="3" t="s">
+      <c r="AO18" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="AO18" s="3" t="s">
+      <c r="AP18" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="AP18" s="3" t="s">
+      <c r="AQ18" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
       <c r="AS18" s="3"/>
-      <c r="AT18" s="3" t="s">
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
     </row>
-    <row r="19" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>1379</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>172</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3" t="s">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="Z19" s="3" t="s">
+      <c r="AA19" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="AA19" s="3" t="s">
+      <c r="AB19" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3" t="s">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="AD19" s="3" t="s">
+      <c r="AE19" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="AE19" s="3" t="s">
+      <c r="AF19" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="AF19" s="3" t="s">
+      <c r="AG19" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
-      <c r="AK19" s="4" t="s">
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3" t="s">
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="AN19" s="3" t="s">
+      <c r="AO19" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="AO19" s="3" t="s">
+      <c r="AP19" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
       <c r="AS19" s="3"/>
-      <c r="AT19" s="3" t="s">
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
     </row>
-    <row r="20" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>1380</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>1346</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>1100</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>183</v>
       </c>
       <c r="L20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="W20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3" t="s">
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="Z20" s="3" t="s">
+      <c r="AA20" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="AA20" s="3" t="s">
+      <c r="AB20" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3" t="s">
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="AD20" s="3" t="s">
+      <c r="AE20" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="AE20" s="3" t="s">
+      <c r="AF20" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="AF20" s="3" t="s">
+      <c r="AG20" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
-      <c r="AK20" s="3" t="s">
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3" t="s">
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="AN20" s="3" t="s">
+      <c r="AO20" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="AO20" s="3" t="s">
+      <c r="AP20" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="AP20" s="3"/>
       <c r="AQ20" s="3"/>
       <c r="AR20" s="3"/>
       <c r="AS20" s="3"/>
-      <c r="AT20" s="3" t="s">
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
     </row>
-    <row r="21" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>1381</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>1146</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3" t="s">
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="AA21" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="AA21" s="3" t="s">
+      <c r="AB21" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3" t="s">
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="AD21" s="3" t="s">
+      <c r="AE21" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="AE21" s="3" t="s">
+      <c r="AF21" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
-      <c r="AK21" s="3" t="s">
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3" t="s">
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="AN21" s="3" t="s">
+      <c r="AO21" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="AO21" s="3" t="s">
+      <c r="AP21" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="AP21" s="3"/>
       <c r="AQ21" s="3"/>
       <c r="AR21" s="3"/>
       <c r="AS21" s="3"/>
-      <c r="AT21" s="3" t="s">
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
     </row>
-    <row r="22" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>1382</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>1347</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3" t="s">
+      <c r="X22" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3" t="s">
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3" t="s">
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="AD22" s="3" t="s">
+      <c r="AE22" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="AE22" s="3" t="s">
+      <c r="AF22" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
-      <c r="AK22" s="3" t="s">
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3" t="s">
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="AN22" s="3" t="s">
+      <c r="AO22" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="AO22" s="3" t="s">
+      <c r="AP22" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="AP22" s="3"/>
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
       <c r="AS22" s="3"/>
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
     </row>
-    <row r="23" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
         <v>1383</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>1348</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="R23" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="U23" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="V23" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="W23" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="X23" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
-      <c r="AC23" s="3" t="s">
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="AD23" s="3" t="s">
+      <c r="AE23" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="AE23" s="3" t="s">
+      <c r="AF23" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
-      <c r="AK23" s="3" t="s">
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3" t="s">
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="AN23" s="3" t="s">
+      <c r="AO23" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="AO23" s="3" t="s">
+      <c r="AP23" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
     </row>
-    <row r="24" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>1384</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>1349</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="W24" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="X24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
-      <c r="AC24" s="3" t="s">
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="AD24" s="3" t="s">
+      <c r="AE24" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="AE24" s="3" t="s">
+      <c r="AF24" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
-      <c r="AK24" s="3" t="s">
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3" t="s">
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="AN24" s="3" t="s">
+      <c r="AO24" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="AO24" s="3" t="s">
+      <c r="AP24" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="AP24" s="3"/>
       <c r="AQ24" s="3"/>
       <c r="AR24" s="3"/>
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
     </row>
-    <row r="25" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
         <v>1385</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>246</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>1274</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="R25" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="S25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>246</v>
       </c>
       <c r="V25" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="W25" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="W25" s="3" t="s">
+      <c r="X25" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
-      <c r="AC25" s="3" t="s">
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="AD25" s="3" t="s">
+      <c r="AE25" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
-      <c r="AK25" s="3" t="s">
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3" t="s">
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="AN25" s="3" t="s">
+      <c r="AO25" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="AO25" s="3" t="s">
+      <c r="AP25" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="AP25" s="3"/>
       <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
     </row>
-    <row r="26" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
         <v>1386</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="P26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q26" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="R26" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="S26" s="3" t="s">
+      <c r="T26" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>251</v>
       </c>
       <c r="V26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="W26" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="W26" s="3" t="s">
+      <c r="X26" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
-      <c r="AC26" s="3" t="s">
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="AD26" s="3" t="s">
+      <c r="AE26" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
-      <c r="AK26" s="3" t="s">
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="3" t="s">
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="AN26" s="3" t="s">
+      <c r="AO26" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="AO26" s="3" t="s">
+      <c r="AP26" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="AP26" s="3"/>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
     </row>
-    <row r="27" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>261</v>
-      </c>
+      <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>1195</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>1152</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>259</v>
       </c>
       <c r="K27" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="R27" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="U27" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="V27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="V27" s="3" t="s">
+      <c r="W27" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="W27" s="3" t="s">
+      <c r="X27" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
-      <c r="AC27" s="3" t="s">
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="AD27" s="3" t="s">
+      <c r="AE27" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
-      <c r="AK27" s="3" t="s">
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3" t="s">
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="AN27" s="3" t="s">
+      <c r="AO27" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="AO27" s="3" t="s">
+      <c r="AP27" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
     </row>
-    <row r="28" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>278</v>
-      </c>
+      <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
         <v>278</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="R28" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="U28" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="V28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="W28" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="W28" s="3" t="s">
+      <c r="X28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
-      <c r="AC28" s="3" t="s">
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="AD28" s="3" t="s">
+      <c r="AE28" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
-      <c r="AK28" s="3" t="s">
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3" t="s">
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="AN28" s="3" t="s">
+      <c r="AO28" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="AO28" s="3" t="s">
+      <c r="AP28" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="AP28" s="3"/>
       <c r="AQ28" s="3"/>
       <c r="AR28" s="3"/>
       <c r="AS28" s="3"/>
       <c r="AT28" s="3"/>
       <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
     </row>
-    <row r="29" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
-        <v>1022</v>
-      </c>
+      <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
         <v>1022</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
-      <c r="AC29" s="3" t="s">
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
-      <c r="AK29" s="3" t="s">
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3" t="s">
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="AN29" s="3" t="s">
+      <c r="AO29" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
       <c r="AR29" s="3"/>
       <c r="AS29" s="3"/>
       <c r="AT29" s="3"/>
       <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
     </row>
-    <row r="30" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
         <v>1387</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>1350</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>1312</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="R30" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="S30" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="U30" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="U30" s="3" t="s">
+      <c r="V30" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="V30" s="3" t="s">
+      <c r="W30" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="W30" s="3" t="s">
+      <c r="X30" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
@@ -8263,93 +8342,94 @@
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
-      <c r="AK30" s="3" t="s">
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="AL30" s="3"/>
-      <c r="AM30" s="3" t="s">
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="AN30" s="3" t="s">
+      <c r="AO30" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
       <c r="AQ30" s="3"/>
       <c r="AR30" s="3"/>
       <c r="AS30" s="3"/>
       <c r="AT30" s="3"/>
       <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
     </row>
-    <row r="31" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
         <v>1388</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>1351</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>1313</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>1278</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>1198</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>1198</v>
       </c>
       <c r="H31" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="R31" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="T31" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="U31" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="U31" s="3" t="s">
+      <c r="V31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="V31" s="3" t="s">
+      <c r="W31" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="W31" s="3" t="s">
+      <c r="X31" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
@@ -8362,93 +8442,94 @@
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
-      <c r="AK31" s="3" t="s">
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="AL31" s="3"/>
-      <c r="AM31" s="3" t="s">
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="AN31" s="3" t="s">
+      <c r="AO31" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
       <c r="AQ31" s="3"/>
       <c r="AR31" s="3"/>
       <c r="AS31" s="3"/>
       <c r="AT31" s="3"/>
       <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
     </row>
-    <row r="32" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>1352</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>1314</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="R32" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="S32" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="T32" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="U32" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="U32" s="3" t="s">
+      <c r="V32" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="V32" s="3" t="s">
+      <c r="W32" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="W32" s="3" t="s">
+      <c r="X32" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
@@ -8461,93 +8542,94 @@
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
-      <c r="AK32" s="3" t="s">
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="AL32" s="3"/>
-      <c r="AM32" s="3" t="s">
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="AN32" s="3" t="s">
+      <c r="AO32" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
       <c r="AQ32" s="3"/>
       <c r="AR32" s="3"/>
       <c r="AS32" s="3"/>
       <c r="AT32" s="3"/>
       <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
     </row>
-    <row r="33" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
         <v>1389</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>1353</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="U33" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="U33" s="3" t="s">
+      <c r="V33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="V33" s="3" t="s">
+      <c r="W33" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="W33" s="3" t="s">
+      <c r="X33" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
@@ -8560,93 +8642,94 @@
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
-      <c r="AK33" s="3" t="s">
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="AL33" s="3"/>
-      <c r="AM33" s="3" t="s">
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="AN33" s="3" t="s">
+      <c r="AO33" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
       <c r="AR33" s="3"/>
       <c r="AS33" s="3"/>
       <c r="AT33" s="3"/>
       <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
     </row>
-    <row r="34" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>1354</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="P34" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="Q34" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="R34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="S34" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="T34" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="U34" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="U34" s="3" t="s">
+      <c r="V34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="V34" s="3" t="s">
+      <c r="W34" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="W34" s="3" t="s">
+      <c r="X34" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
@@ -8659,93 +8742,94 @@
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
-      <c r="AK34" s="3" t="s">
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="AL34" s="3"/>
-      <c r="AM34" s="3" t="s">
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="AN34" s="3" t="s">
+      <c r="AO34" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="AO34" s="3"/>
       <c r="AP34" s="3"/>
       <c r="AQ34" s="3"/>
       <c r="AR34" s="3"/>
       <c r="AS34" s="3"/>
       <c r="AT34" s="3"/>
       <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
     </row>
-    <row r="35" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
         <v>1390</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>1355</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>1317</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>1282</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>1236</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="R35" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="S35" s="3" t="s">
+      <c r="T35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="T35" s="3" t="s">
+      <c r="U35" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="U35" s="3" t="s">
+      <c r="V35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="V35" s="3" t="s">
+      <c r="W35" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="W35" s="3" t="s">
+      <c r="X35" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
@@ -8758,93 +8842,94 @@
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
-      <c r="AK35" s="3" t="s">
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="AL35" s="3"/>
-      <c r="AM35" s="3" t="s">
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="AN35" s="3" t="s">
+      <c r="AO35" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="AO35" s="3"/>
       <c r="AP35" s="3"/>
       <c r="AQ35" s="3"/>
       <c r="AR35" s="3"/>
       <c r="AS35" s="3"/>
       <c r="AT35" s="3"/>
       <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
     </row>
-    <row r="36" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>1356</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>1283</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="R36" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="S36" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="S36" s="3" t="s">
+      <c r="T36" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="T36" s="3" t="s">
+      <c r="U36" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="U36" s="3" t="s">
+      <c r="V36" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="V36" s="3" t="s">
+      <c r="W36" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="W36" s="3" t="s">
+      <c r="X36" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
@@ -8859,89 +8944,90 @@
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
-      <c r="AM36" s="3" t="s">
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="AN36" s="3" t="s">
+      <c r="AO36" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="AO36" s="3"/>
       <c r="AP36" s="3"/>
       <c r="AQ36" s="3"/>
       <c r="AR36" s="3"/>
       <c r="AS36" s="3"/>
       <c r="AT36" s="3"/>
       <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
     </row>
-    <row r="37" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
         <v>1392</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>1357</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>1284</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="P37" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="R37" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="S37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="S37" s="3" t="s">
+      <c r="T37" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="U37" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="U37" s="3" t="s">
+      <c r="V37" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="V37" s="3" t="s">
+      <c r="W37" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="W37" s="3" t="s">
+      <c r="X37" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
@@ -8956,89 +9042,90 @@
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
-      <c r="AM37" s="3" t="s">
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="AN37" s="3" t="s">
+      <c r="AO37" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="AO37" s="3"/>
       <c r="AP37" s="3"/>
       <c r="AQ37" s="3"/>
       <c r="AR37" s="3"/>
       <c r="AS37" s="3"/>
       <c r="AT37" s="3"/>
       <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
     </row>
-    <row r="38" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>1358</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>1285</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>103